--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_const" sheetId="6" r:id="rId1"/>
@@ -1500,12 +1500,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5935871F-3265-4362-B265-DB73636218C9}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A40B3781-6328-44CE-9B0C-EA5BFA9ED96C}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{7AECA809-5274-46E2-ADC9-0259F02E0299}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{002C6B69-9D41-4E18-AB5E-A2123ACF3652}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1812,8 +1812,8 @@
   <sheetPr/>
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4239,7 +4239,7 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="attribute_const" sheetId="6" r:id="rId1"/>
     <sheet name="attribute_sub" sheetId="7" r:id="rId2"/>
-    <sheet name="__localization_1" sheetId="3" r:id="rId3"/>
+    <sheet name="__attribute_extra_const" sheetId="3" r:id="rId3"/>
     <sheet name="__localization_2" sheetId="4" r:id="rId4"/>
     <sheet name="__localization_3" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="192">
   <si>
     <t>index  下标</t>
   </si>
@@ -264,7 +264,7 @@
     <t>技能急速</t>
   </si>
   <si>
-    <t>主要针对4个技能的加速</t>
+    <t>主要针对6个技能的加速</t>
   </si>
   <si>
     <t>FinalDamageMul</t>
@@ -285,16 +285,16 @@
     <t>%火元素伤害</t>
   </si>
   <si>
-    <t>DamageMulWater</t>
+    <t>DamageMulIce</t>
   </si>
   <si>
     <t>%水元素伤害</t>
   </si>
   <si>
-    <t>DamageMulEarth</t>
-  </si>
-  <si>
-    <t>%土元素伤害</t>
+    <t>DamageMulThunder</t>
+  </si>
+  <si>
+    <t>%雷元素伤害</t>
   </si>
   <si>
     <t>DamageMulWind</t>
@@ -351,28 +351,28 @@
     <t>火元素爆伤</t>
   </si>
   <si>
-    <t>CritProbWater</t>
-  </si>
-  <si>
-    <t>水元素爆击</t>
-  </si>
-  <si>
-    <t>CritDmgWater</t>
-  </si>
-  <si>
-    <t>水元素爆伤</t>
-  </si>
-  <si>
-    <t>CritProbEarth</t>
-  </si>
-  <si>
-    <t>土元素爆击</t>
-  </si>
-  <si>
-    <t>CritDmgEarth</t>
-  </si>
-  <si>
-    <t>土元素爆伤</t>
+    <t>CritProbIce</t>
+  </si>
+  <si>
+    <t>冰元素爆击</t>
+  </si>
+  <si>
+    <t>CritDmgIce</t>
+  </si>
+  <si>
+    <t>冰元素爆伤</t>
+  </si>
+  <si>
+    <t>CritProbThunder</t>
+  </si>
+  <si>
+    <t>雷元素爆击</t>
+  </si>
+  <si>
+    <t>CritDmgThunder</t>
+  </si>
+  <si>
+    <t>雷元素爆伤</t>
   </si>
   <si>
     <t>CritProbWind</t>
@@ -415,6 +415,96 @@
   </si>
   <si>
     <t>拾取范围</t>
+  </si>
+  <si>
+    <t>ResistPenet_Fire</t>
+  </si>
+  <si>
+    <t>火抗穿透%</t>
+  </si>
+  <si>
+    <t>ResistPenet_Ice</t>
+  </si>
+  <si>
+    <t>冰抗穿透</t>
+  </si>
+  <si>
+    <t>ResistPenet_Thunder</t>
+  </si>
+  <si>
+    <t>雷抗穿透</t>
+  </si>
+  <si>
+    <t>ResistPenet_Wind</t>
+  </si>
+  <si>
+    <t>风抗穿透</t>
+  </si>
+  <si>
+    <t>ResistPenet_Light</t>
+  </si>
+  <si>
+    <t>光抗穿透</t>
+  </si>
+  <si>
+    <t>ResistPenet_Dark</t>
+  </si>
+  <si>
+    <t>暗抗穿透</t>
+  </si>
+  <si>
+    <t>Special_BurnDuration</t>
+  </si>
+  <si>
+    <t>灼烧时间</t>
+  </si>
+  <si>
+    <t>Special_PalsyDuration</t>
+  </si>
+  <si>
+    <t>麻痹时间</t>
+  </si>
+  <si>
+    <t>Special_IceMoveslow</t>
+  </si>
+  <si>
+    <t>减速效果</t>
+  </si>
+  <si>
+    <t>FSkillEffect_Fire</t>
+  </si>
+  <si>
+    <t>火元素技能效果</t>
+  </si>
+  <si>
+    <t>FSkillEffect_Ice</t>
+  </si>
+  <si>
+    <t>冰元素技能效果</t>
+  </si>
+  <si>
+    <t>FSkillEffect_Thunder</t>
+  </si>
+  <si>
+    <t>累元素技能效果</t>
+  </si>
+  <si>
+    <t>FSkillEffect_Wind</t>
+  </si>
+  <si>
+    <t>风元素技能效果</t>
+  </si>
+  <si>
+    <t>FSkillEffect_Light</t>
+  </si>
+  <si>
+    <t>光元素技能效果</t>
+  </si>
+  <si>
+    <t>FSkillEffect_Dark</t>
+  </si>
+  <si>
+    <t>暗元素技能效果</t>
   </si>
   <si>
     <t>#Loccustom_attribute_sub_{}</t>
@@ -544,15 +634,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1269,7 +1359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1279,37 +1369,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1500,12 +1596,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A40B3781-6328-44CE-9B0C-EA5BFA9ED96C}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8DC7FAF1-309A-4A99-8B52-4A58C569EC47}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{002C6B69-9D41-4E18-AB5E-A2123ACF3652}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C8266243-3F4E-4A9E-ACA5-DCA286515D4B}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1810,2423 +1906,3197 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X47"/>
+  <dimension ref="A1:X63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.3416666666667" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.34166666666667" style="11" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="36.75" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.0083333333333" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.175" style="11" customWidth="1"/>
-    <col min="8" max="8" width="10.3416666666667" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.3416666666667" style="11" customWidth="1"/>
-    <col min="10" max="10" width="24.8416666666667" style="11" customWidth="1"/>
-    <col min="11" max="12" width="28.8416666666667" style="11" customWidth="1"/>
-    <col min="13" max="13" width="24.675" style="11" customWidth="1"/>
-    <col min="14" max="14" width="16.0083333333333" style="11" customWidth="1"/>
-    <col min="15" max="16" width="17.8416666666667" style="11" customWidth="1"/>
-    <col min="17" max="17" width="9" style="11"/>
-    <col min="18" max="18" width="23.625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="26.675" style="11" customWidth="1"/>
-    <col min="20" max="20" width="27.5083333333333" style="11" customWidth="1"/>
-    <col min="21" max="23" width="6.24166666666667" style="11" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="22.3416666666667" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.34166666666667" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="36.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.0083333333333" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.175" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.3416666666667" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.3416666666667" style="7" customWidth="1"/>
+    <col min="10" max="10" width="24.8416666666667" style="7" customWidth="1"/>
+    <col min="11" max="12" width="28.8416666666667" style="7" customWidth="1"/>
+    <col min="13" max="13" width="24.675" style="7" customWidth="1"/>
+    <col min="14" max="14" width="16.0083333333333" style="7" customWidth="1"/>
+    <col min="15" max="16" width="17.8416666666667" style="7" customWidth="1"/>
+    <col min="17" max="17" width="9" style="7"/>
+    <col min="18" max="18" width="23.625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="26.675" style="7" customWidth="1"/>
+    <col min="20" max="20" width="27.5083333333333" style="7" customWidth="1"/>
+    <col min="21" max="23" width="6.24166666666667" style="7" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:23">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="5">
         <v>1</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="5">
         <v>2</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="5">
         <v>3</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="5">
         <v>4</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="5">
         <v>5</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="5">
         <v>6</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="5">
         <v>7</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="5">
         <v>8</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="5">
         <v>9</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="13">
+      <c r="S2" s="5">
         <v>1</v>
       </c>
-      <c r="T2" s="13">
+      <c r="T2" s="5">
         <v>2</v>
       </c>
-      <c r="U2" s="13">
+      <c r="U2" s="5">
         <v>3</v>
       </c>
-      <c r="V2" s="13">
+      <c r="V2" s="5">
         <v>4</v>
       </c>
-      <c r="W2" s="13">
+      <c r="W2" s="5">
         <v>5</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
         <v>0</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="P7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="5">
         <v>0</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
         <v>0</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
         <v>0</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
         <v>0</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="K14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="M14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="N14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="P14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="5">
         <v>13</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="5">
         <v>0</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="N15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="13" t="s">
+      <c r="O15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P15" s="13" t="s">
+      <c r="P15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="5">
         <v>14</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="5">
         <v>0</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="13" t="s">
+      <c r="K16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="N16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="O16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="13" t="s">
+      <c r="P16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="5">
         <v>15</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
         <v>0</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="13" t="s">
+      <c r="M17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="N17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="O17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="13" t="s">
+      <c r="P17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="5">
         <v>16</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
         <v>0</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13" t="s">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="13" t="s">
+      <c r="M18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="N18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="13" t="s">
+      <c r="O18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="13" t="s">
+      <c r="P18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="5">
         <v>17</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
         <v>0</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="M19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N19" s="13" t="s">
+      <c r="N19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="13" t="s">
+      <c r="O19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P19" s="13" t="s">
+      <c r="P19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="5">
         <v>18</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5">
         <v>0</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="13" t="s">
+      <c r="N20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O20" s="13" t="s">
+      <c r="O20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P20" s="13" t="s">
+      <c r="P20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="5">
         <v>19</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5">
         <v>0</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="13" t="s">
+      <c r="M21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N21" s="13" t="s">
+      <c r="N21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O21" s="13" t="s">
+      <c r="O21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="13" t="s">
+      <c r="P21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="5">
         <v>20</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="5">
         <v>0</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13" t="s">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="M22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N22" s="13" t="s">
+      <c r="N22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O22" s="13" t="s">
+      <c r="O22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P22" s="13" t="s">
+      <c r="P22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="5">
         <v>21</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5">
         <v>0</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="13" t="s">
+      <c r="M23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N23" s="13" t="s">
+      <c r="N23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="13" t="s">
+      <c r="O23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P23" s="13" t="s">
+      <c r="P23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="5">
         <v>22</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5">
         <v>0</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M24" s="13" t="s">
+      <c r="M24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N24" s="13" t="s">
+      <c r="N24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O24" s="13" t="s">
+      <c r="O24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P24" s="13" t="s">
+      <c r="P24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="5">
         <v>23</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
         <v>0</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13" t="s">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N25" s="13" t="s">
+      <c r="N25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O25" s="13" t="s">
+      <c r="O25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P25" s="13" t="s">
+      <c r="P25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="5">
         <v>24</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
         <v>0</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="13" t="s">
+      <c r="M26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N26" s="13" t="s">
+      <c r="N26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O26" s="13" t="s">
+      <c r="O26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P26" s="13" t="s">
+      <c r="P26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="5">
         <v>25</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5">
         <v>0</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13" t="s">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="M27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="13" t="s">
+      <c r="N27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O27" s="13" t="s">
+      <c r="O27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P27" s="13" t="s">
+      <c r="P27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="5">
         <v>26</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5">
         <v>0</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13" t="s">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="13" t="s">
+      <c r="L28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M28" s="13" t="s">
+      <c r="M28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="13" t="s">
+      <c r="N28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O28" s="13" t="s">
+      <c r="O28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P28" s="13" t="s">
+      <c r="P28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="5">
         <v>27</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5">
         <v>0</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="K29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L29" s="13" t="s">
+      <c r="L29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="13" t="s">
+      <c r="M29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N29" s="13" t="s">
+      <c r="N29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O29" s="13" t="s">
+      <c r="O29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P29" s="13" t="s">
+      <c r="P29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="5">
         <v>28</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5">
         <v>0</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="13" t="s">
+      <c r="J30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K30" s="13" t="s">
+      <c r="K30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="13" t="s">
+      <c r="M30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N30" s="13" t="s">
+      <c r="N30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="13" t="s">
+      <c r="O30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P30" s="13" t="s">
+      <c r="P30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="5">
         <v>29</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5">
         <v>0</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13" t="s">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J31" s="13" t="s">
+      <c r="J31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="13" t="s">
+      <c r="L31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M31" s="13" t="s">
+      <c r="M31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N31" s="13" t="s">
+      <c r="N31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O31" s="13" t="s">
+      <c r="O31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P31" s="13" t="s">
+      <c r="P31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
     </row>
     <row r="32" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="5">
         <v>30</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5">
         <v>0</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13" t="s">
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="L32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="13" t="s">
+      <c r="M32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N32" s="13" t="s">
+      <c r="N32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O32" s="13" t="s">
+      <c r="O32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P32" s="13" t="s">
+      <c r="P32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
     </row>
     <row r="33" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="5">
         <v>31</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5">
         <v>0</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13" t="s">
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L33" s="13" t="s">
+      <c r="L33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="13" t="s">
+      <c r="M33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N33" s="13" t="s">
+      <c r="N33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="13" t="s">
+      <c r="O33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P33" s="13" t="s">
+      <c r="P33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
     </row>
     <row r="34" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="5">
         <v>32</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5">
         <v>0</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13" t="s">
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J34" s="13" t="s">
+      <c r="J34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K34" s="13" t="s">
+      <c r="K34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="13" t="s">
+      <c r="L34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M34" s="13" t="s">
+      <c r="M34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N34" s="13" t="s">
+      <c r="N34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="13" t="s">
+      <c r="O34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P34" s="13" t="s">
+      <c r="P34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
     </row>
     <row r="35" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="5">
         <v>33</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5">
         <v>0</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13" t="s">
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J35" s="13" t="s">
+      <c r="J35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K35" s="13" t="s">
+      <c r="K35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L35" s="13" t="s">
+      <c r="L35" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M35" s="13" t="s">
+      <c r="M35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N35" s="13" t="s">
+      <c r="N35" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O35" s="13" t="s">
+      <c r="O35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P35" s="13" t="s">
+      <c r="P35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
     </row>
     <row r="36" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="5">
         <v>34</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5">
         <v>0</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13" t="s">
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J36" s="13" t="s">
+      <c r="J36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="13" t="s">
+      <c r="K36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L36" s="13" t="s">
+      <c r="L36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M36" s="13" t="s">
+      <c r="M36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N36" s="13" t="s">
+      <c r="N36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O36" s="13" t="s">
+      <c r="O36" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P36" s="13" t="s">
+      <c r="P36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
     </row>
     <row r="37" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="5">
         <v>35</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5">
         <v>0</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13" t="s">
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="I37" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J37" s="13" t="s">
+      <c r="J37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K37" s="13" t="s">
+      <c r="K37" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L37" s="13" t="s">
+      <c r="L37" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M37" s="13" t="s">
+      <c r="M37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="13" t="s">
+      <c r="N37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O37" s="13" t="s">
+      <c r="O37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P37" s="13" t="s">
+      <c r="P37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
     </row>
     <row r="38" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="5">
         <v>36</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13">
+      <c r="D38" s="5"/>
+      <c r="E38" s="5">
         <v>0</v>
       </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13" t="s">
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="I38" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J38" s="13" t="s">
+      <c r="J38" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="13" t="s">
+      <c r="K38" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L38" s="13" t="s">
+      <c r="L38" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M38" s="13" t="s">
+      <c r="M38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N38" s="13" t="s">
+      <c r="N38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O38" s="13" t="s">
+      <c r="O38" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P38" s="13" t="s">
+      <c r="P38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
     </row>
     <row r="39" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="5">
         <v>37</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5">
         <v>0</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13" t="s">
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I39" s="13" t="s">
+      <c r="I39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="13" t="s">
+      <c r="J39" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K39" s="13" t="s">
+      <c r="K39" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L39" s="13" t="s">
+      <c r="L39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M39" s="13" t="s">
+      <c r="M39" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N39" s="13" t="s">
+      <c r="N39" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O39" s="13" t="s">
+      <c r="O39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P39" s="13" t="s">
+      <c r="P39" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="5">
         <v>38</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5">
         <v>0</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13" t="s">
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I40" s="13" t="s">
+      <c r="I40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J40" s="13" t="s">
+      <c r="J40" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K40" s="13" t="s">
+      <c r="K40" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L40" s="13" t="s">
+      <c r="L40" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M40" s="13" t="s">
+      <c r="M40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N40" s="13" t="s">
+      <c r="N40" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O40" s="13" t="s">
+      <c r="O40" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P40" s="13" t="s">
+      <c r="P40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
     </row>
     <row r="41" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="5">
         <v>39</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5">
         <v>0</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13" t="s">
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J41" s="13" t="s">
+      <c r="J41" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K41" s="13" t="s">
+      <c r="K41" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L41" s="13" t="s">
+      <c r="L41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M41" s="13" t="s">
+      <c r="M41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N41" s="13" t="s">
+      <c r="N41" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O41" s="13" t="s">
+      <c r="O41" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P41" s="13" t="s">
+      <c r="P41" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
     </row>
     <row r="42" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="5">
         <v>40</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5">
         <v>0</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13" t="s">
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="I42" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J42" s="13" t="s">
+      <c r="J42" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K42" s="13" t="s">
+      <c r="K42" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L42" s="13" t="s">
+      <c r="L42" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M42" s="13" t="s">
+      <c r="M42" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N42" s="13" t="s">
+      <c r="N42" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O42" s="13" t="s">
+      <c r="O42" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P42" s="13" t="s">
+      <c r="P42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
     </row>
     <row r="43" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="5">
         <v>41</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5">
         <v>0</v>
       </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13" t="s">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I43" s="13" t="s">
+      <c r="I43" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J43" s="13" t="s">
+      <c r="J43" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K43" s="13" t="s">
+      <c r="K43" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L43" s="13" t="s">
+      <c r="L43" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M43" s="13" t="s">
+      <c r="M43" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N43" s="13" t="s">
+      <c r="N43" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O43" s="13" t="s">
+      <c r="O43" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P43" s="13" t="s">
+      <c r="P43" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
     </row>
     <row r="44" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="5">
         <v>42</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5">
         <v>0</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13" t="s">
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I44" s="13" t="s">
+      <c r="I44" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J44" s="13" t="s">
+      <c r="J44" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K44" s="13" t="s">
+      <c r="K44" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L44" s="13" t="s">
+      <c r="L44" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M44" s="13" t="s">
+      <c r="M44" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N44" s="13" t="s">
+      <c r="N44" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O44" s="13" t="s">
+      <c r="O44" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P44" s="13" t="s">
+      <c r="P44" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
     </row>
     <row r="45" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="5">
         <v>43</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13">
+      <c r="D45" s="5"/>
+      <c r="E45" s="5">
         <v>0</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13" t="s">
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="I45" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J45" s="13" t="s">
+      <c r="J45" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K45" s="13" t="s">
+      <c r="K45" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L45" s="13" t="s">
+      <c r="L45" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M45" s="13" t="s">
+      <c r="M45" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N45" s="13" t="s">
+      <c r="N45" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O45" s="13" t="s">
+      <c r="O45" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P45" s="13" t="s">
+      <c r="P45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
     </row>
     <row r="46" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="5">
         <v>44</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5">
         <v>0</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13" t="s">
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="13" t="s">
+      <c r="I46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J46" s="13" t="s">
+      <c r="J46" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K46" s="13" t="s">
+      <c r="K46" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L46" s="13" t="s">
+      <c r="L46" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M46" s="13" t="s">
+      <c r="M46" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N46" s="13" t="s">
+      <c r="N46" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O46" s="13" t="s">
+      <c r="O46" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P46" s="13" t="s">
+      <c r="P46" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
     </row>
     <row r="47" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="5">
         <v>45</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5">
         <v>0</v>
       </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13" t="s">
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I47" s="13" t="s">
+      <c r="I47" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J47" s="13" t="s">
+      <c r="J47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K47" s="13" t="s">
+      <c r="K47" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L47" s="13" t="s">
+      <c r="L47" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M47" s="13" t="s">
+      <c r="M47" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N47" s="13" t="s">
+      <c r="N47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="13" t="s">
+      <c r="O47" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P47" s="13" t="s">
+      <c r="P47" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+    </row>
+    <row r="48" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A48" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="5">
+        <v>46</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+    </row>
+    <row r="49" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A49" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="5">
+        <v>47</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+    </row>
+    <row r="50" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A50" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="5">
+        <v>48</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+    </row>
+    <row r="51" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A51" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="5">
+        <v>49</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+    </row>
+    <row r="52" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A52" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="5">
+        <v>50</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+    </row>
+    <row r="53" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A53" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="5">
+        <v>51</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+    </row>
+    <row r="54" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A54" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="5">
+        <v>52</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+    </row>
+    <row r="55" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A55" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="5">
+        <v>53</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+    </row>
+    <row r="56" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A56" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" s="5">
+        <v>54</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+    </row>
+    <row r="57" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A57" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="5">
+        <v>55</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+    </row>
+    <row r="58" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A58" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="5">
+        <v>56</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+    </row>
+    <row r="59" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A59" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" s="5">
+        <v>57</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+    </row>
+    <row r="60" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A60" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="5">
+        <v>58</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+    </row>
+    <row r="61" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A61" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" s="5">
+        <v>59</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+    </row>
+    <row r="62" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A62" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="5">
+        <v>60</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+    </row>
+    <row r="63" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+      <c r="W63" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4250,120 +5120,120 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>128</v>
+      <c r="C2" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A3" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="A4" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>131</v>
+      <c r="C4" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A5" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="12">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>133</v>
+      <c r="C5" s="13" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A6" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="A6" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="12">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>135</v>
+      <c r="C6" s="13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A7" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="A7" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="12">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>137</v>
+      <c r="C7" s="13" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A8" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="A8" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="12">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>139</v>
+      <c r="C8" s="13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A9" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="A9" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="12">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>141</v>
+      <c r="C9" s="13" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A10" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="A10" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="12">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>143</v>
+      <c r="C10" s="13" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A11" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="12">
         <v>9</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>145</v>
+      <c r="C11" s="15" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4375,2307 +5245,894 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B229"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A3" sqref="$A3:$XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="18.0666666666667" customWidth="1"/>
+    <col min="2" max="2" width="6.53333333333333" customWidth="1"/>
+    <col min="3" max="3" width="21.675" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="13.4166666666667" customWidth="1"/>
+    <col min="6" max="6" width="13.0166666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="7.56666666666667" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="20.475" customWidth="1"/>
+    <col min="11" max="12" width="13.0166666666667" customWidth="1"/>
+    <col min="13" max="13" width="20.3" customWidth="1"/>
+    <col min="14" max="14" width="13.4166666666667" customWidth="1"/>
+    <col min="15" max="16" width="15.3083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B1" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B2" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B3" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B4" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B5" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B6" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B7" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B8" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B9" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B10" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B11" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B12" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B13" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B14" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B15" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B16" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B17" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B18" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B19" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B20" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B21" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B22" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B23" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B24" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B25" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B26" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B27" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B28" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B29" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B30" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B31" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B32" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B33" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B34" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B35" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B36" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B37" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B38" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B39" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B40" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B41" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B42" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B43" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B44" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B45" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B46" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B47" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B48" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B49" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B50" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B51" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B52" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B53" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B54" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B55" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B56" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B57" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B58" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B59" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B60" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B61" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B62" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B63" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B64" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B65" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B66" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B67" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B68" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B69" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B70" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B71" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B72" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B73" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B74" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B75" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B76" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B77" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B78" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B79" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B80" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B81" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B82" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B83" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B84" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B85" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B86" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B87" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B88" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B89" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B90" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B91" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B92" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B93" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B94" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B95" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B96" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B97" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B98" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B99" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B100" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B101" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B102" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B103" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B104" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B105" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B106" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B107" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B108" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B109" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B110" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B111" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B112" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B113" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B114" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B115" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B116" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B117" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B118" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B119" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B120" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B121" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B122" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B123" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B124" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B125" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B126" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B127" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B128" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B129" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B130" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B131" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B132" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B133" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B134" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B135" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B136" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B137" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B138" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B139" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B140" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B141" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B142" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B143" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B144" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B145" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B146" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B147" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B148" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B149" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B150" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B151" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B152" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B153" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B154" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B155" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B156" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B157" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B158" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B159" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B160" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B161" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B162" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B163" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B164" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B165" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B166" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B167" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B168" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B169" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B170" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B171" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B172" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B173" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B174" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B175" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B176" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B177" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B178" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B179" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B180" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B181" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B182" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B183" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B184" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B185" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B186" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B187" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B188" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B189" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B190" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B191" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B192" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B193" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B194" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B195" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B196" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B197" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B198" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B199" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B200" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B201" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B202" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B203" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B204" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B205" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B206" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B207" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B208" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B209" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B210" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B211" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B212" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B213" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B214" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B215" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B216" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B217" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B218" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B219" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B220" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B221" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B222" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B223" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B224" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B225" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B226" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B227" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B228" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="e">
-        <f>"""dota_custom_attribute_"&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B229" t="e">
-        <f>""""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
-      </c>
+    <row r="1" ht="143.25" customHeight="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" ht="71.6" customHeight="1" spans="1:17">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5">
+        <v>4</v>
+      </c>
+      <c r="L2" s="5">
+        <v>5</v>
+      </c>
+      <c r="M2" s="5">
+        <v>6</v>
+      </c>
+      <c r="N2" s="5">
+        <v>7</v>
+      </c>
+      <c r="O2" s="5">
+        <v>8</v>
+      </c>
+      <c r="P2" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A7" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A8" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A9" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A11" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A12" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="6">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A13" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="6">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A14" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="6">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A15" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="6">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A16" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A17" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="6">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13676,7 +13133,7 @@
         <v>#REF!</v>
       </c>
       <c r="P176" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -13689,7 +13146,7 @@
         <v>#REF!</v>
       </c>
       <c r="P177" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
     </row>
     <row r="178" spans="1:20">
@@ -13705,16 +13162,16 @@
         <v>10</v>
       </c>
       <c r="O178" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="Q178" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="S178" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="T178" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -13727,10 +13184,10 @@
         <v>#REF!</v>
       </c>
       <c r="E179" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="P179" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -13743,10 +13200,10 @@
         <v>#REF!</v>
       </c>
       <c r="D180" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="F180" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -13759,16 +13216,16 @@
         <v>#REF!</v>
       </c>
       <c r="F181" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="H181" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="I181">
         <v>20</v>
       </c>
       <c r="K181" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="L181">
         <v>10</v>
@@ -13804,7 +13261,7 @@
         <v>#REF!</v>
       </c>
       <c r="E184" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -13820,7 +13277,7 @@
         <v>#REF!</v>
       </c>
       <c r="E185" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="F185">
         <v>100</v>
@@ -13916,13 +13373,13 @@
         <v>#REF!</v>
       </c>
       <c r="F194" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="G194" s="1">
         <v>0.3</v>
       </c>
       <c r="H194" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="I194" s="1">
         <v>0.3</v>

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="195">
   <si>
     <t>index  下标</t>
   </si>
@@ -48,375 +48,456 @@
     <t>是否写入网表</t>
   </si>
   <si>
+    <t>扩展属性</t>
+  </si>
+  <si>
+    <t>基础</t>
+  </si>
+  <si>
+    <t>额外绿字</t>
+  </si>
+  <si>
+    <t>固定值[不吃任何加成]</t>
+  </si>
+  <si>
+    <t>基础百分比[吃白字,转为绿字]</t>
+  </si>
+  <si>
+    <t>额外百分比[吃绿字,转为fixed</t>
+  </si>
+  <si>
+    <t>白值+绿字 转为 fixed</t>
+  </si>
+  <si>
+    <t>毎级增加基础</t>
+  </si>
+  <si>
+    <t>毎等级增加额外</t>
+  </si>
+  <si>
+    <t>毎等级增加固定</t>
+  </si>
+  <si>
+    <t>基础的一个转换.每点属性可以获得的一个值</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>#Loccustom_attribute_{}</t>
+  </si>
+  <si>
+    <t>in_nt</t>
+  </si>
+  <si>
+    <t>AbilityValues[{]</t>
+  </si>
+  <si>
+    <t>[}]</t>
+  </si>
+  <si>
+    <t>ConversionValue[{]</t>
+  </si>
+  <si>
+    <t>AttackDamage</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>Base 1</t>
+  </si>
+  <si>
+    <t>Bonus 2</t>
+  </si>
+  <si>
+    <t>Fixed 3</t>
+  </si>
+  <si>
+    <t>BasePercent 4</t>
+  </si>
+  <si>
+    <t>BonusPercent 5</t>
+  </si>
+  <si>
+    <t>TotalPercent 6</t>
+  </si>
+  <si>
+    <t>PreLvBase 7</t>
+  </si>
+  <si>
+    <t>PreLvBonus 8</t>
+  </si>
+  <si>
+    <t>PreLvFixed 9</t>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>攻击范围</t>
+  </si>
+  <si>
+    <t>AttackRate</t>
+  </si>
+  <si>
+    <t>攻击间隔</t>
+  </si>
+  <si>
+    <t>PhyicalArmor</t>
+  </si>
+  <si>
+    <t>护甲值</t>
+  </si>
+  <si>
+    <t>减免任何伤害,之后计算其他元素伤害减免</t>
+  </si>
+  <si>
+    <t>HealthIncome</t>
+  </si>
+  <si>
+    <t>治疗收益</t>
+  </si>
+  <si>
+    <t>提高（回血、吸血等）的效率</t>
+  </si>
+  <si>
+    <t>StateResistance</t>
+  </si>
+  <si>
+    <t>状态抗性</t>
+  </si>
+  <si>
+    <t>受到控制,禁足等负面效果的衰减</t>
+  </si>
+  <si>
+    <t>FixedDamageBonus</t>
+  </si>
+  <si>
+    <t>固定增伤</t>
+  </si>
+  <si>
+    <t>每次造成的伤害都会额外附加该次伤害</t>
+  </si>
+  <si>
+    <t>FixedDamageReduction</t>
+  </si>
+  <si>
+    <t>固定减伤</t>
+  </si>
+  <si>
+    <t>每次收到伤害都会减少该值的伤害,之后再计算减免</t>
+  </si>
+  <si>
+    <t>HealthPoints</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>HealthRegen</t>
+  </si>
+  <si>
+    <t>生命恢复</t>
+  </si>
+  <si>
+    <t>ManaPoints</t>
+  </si>
+  <si>
+    <t>魔法值</t>
+  </si>
+  <si>
+    <t>ManaRegen</t>
+  </si>
+  <si>
+    <t>魔法恢复</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>AbilityHaste</t>
+  </si>
+  <si>
+    <t>技能急速</t>
+  </si>
+  <si>
+    <t>主要针对6个技能的加速</t>
+  </si>
+  <si>
+    <t>FinalDamageMul</t>
+  </si>
+  <si>
+    <t>%最终伤害</t>
+  </si>
+  <si>
+    <t>CritProbAll</t>
+  </si>
+  <si>
+    <t>%全爆击</t>
+  </si>
+  <si>
+    <t>CritDmgAll</t>
+  </si>
+  <si>
+    <t>%全爆伤</t>
+  </si>
+  <si>
+    <t>CritProbPhyical</t>
+  </si>
+  <si>
+    <t>物理爆击</t>
+  </si>
+  <si>
+    <t>CritDmgPhyical</t>
+  </si>
+  <si>
+    <t>物理爆伤</t>
+  </si>
+  <si>
+    <t>DamageMulPhyical</t>
+  </si>
+  <si>
+    <t>%物理伤害</t>
+  </si>
+  <si>
+    <t>Special_BurnDuration</t>
+  </si>
+  <si>
+    <t>灼烧时间</t>
+  </si>
+  <si>
+    <t>Special_PalsyDuration</t>
+  </si>
+  <si>
+    <t>麻痹时间</t>
+  </si>
+  <si>
+    <t>Special_IceMoveslow</t>
+  </si>
+  <si>
+    <t>减速效果</t>
+  </si>
+  <si>
+    <t>PickItemRadius</t>
+  </si>
+  <si>
+    <t>拾取范围</t>
+  </si>
+  <si>
+    <t>Fire_DamageMul</t>
+  </si>
+  <si>
+    <t>火元素伤害</t>
+  </si>
+  <si>
+    <t>Fire_CritProb</t>
+  </si>
+  <si>
+    <t>火暴击</t>
+  </si>
+  <si>
+    <t>Fire_CritDmg</t>
+  </si>
+  <si>
+    <t>火爆伤</t>
+  </si>
+  <si>
+    <t>Fire_ResistPenet</t>
+  </si>
+  <si>
+    <t>火穿透</t>
+  </si>
+  <si>
+    <t>Fire_Haste</t>
+  </si>
+  <si>
+    <t>火急速</t>
+  </si>
+  <si>
+    <t>Fire_Armor</t>
+  </si>
+  <si>
+    <t>火护甲</t>
+  </si>
+  <si>
+    <t>Ice_DamageMul</t>
+  </si>
+  <si>
+    <t>元素伤害</t>
+  </si>
+  <si>
+    <t>Ice_CritProb</t>
+  </si>
+  <si>
+    <t>暴击</t>
+  </si>
+  <si>
+    <t>Ice_CritDmg</t>
+  </si>
+  <si>
+    <t>爆伤</t>
+  </si>
+  <si>
+    <t>Ice_ResistPenet</t>
+  </si>
+  <si>
+    <t>穿透</t>
+  </si>
+  <si>
+    <t>Ice_Haste</t>
+  </si>
+  <si>
+    <t>急速</t>
+  </si>
+  <si>
+    <t>Ice_Armor</t>
+  </si>
+  <si>
+    <t>护甲</t>
+  </si>
+  <si>
+    <t>Thunder_DamageMul</t>
+  </si>
+  <si>
+    <t>Thunder_CritProb</t>
+  </si>
+  <si>
+    <t>Thunder_CritDmg</t>
+  </si>
+  <si>
+    <t>Thunder_ResistPenet</t>
+  </si>
+  <si>
+    <t>Thunder_Haste</t>
+  </si>
+  <si>
+    <t>Thunder_Armor</t>
+  </si>
+  <si>
+    <t>Wind_DamageMul</t>
+  </si>
+  <si>
+    <t>Wind_CritProb</t>
+  </si>
+  <si>
+    <t>Wind_CritDmg</t>
+  </si>
+  <si>
+    <t>Wind_ResistPenet</t>
+  </si>
+  <si>
+    <t>Wind_Haste</t>
+  </si>
+  <si>
+    <t>Wind_Armor</t>
+  </si>
+  <si>
+    <t>Light_DamageMul</t>
+  </si>
+  <si>
+    <t>Light_CritProb</t>
+  </si>
+  <si>
+    <t>Light_CritDmg</t>
+  </si>
+  <si>
+    <t>Light_ResistPenet</t>
+  </si>
+  <si>
+    <t>Light_Haste</t>
+  </si>
+  <si>
+    <t>Light_Armor</t>
+  </si>
+  <si>
+    <t>Dark_DamageMul</t>
+  </si>
+  <si>
+    <t>Dark_CritProb</t>
+  </si>
+  <si>
+    <t>Dark_CritDmg</t>
+  </si>
+  <si>
+    <t>Dark_ResistPenet</t>
+  </si>
+  <si>
+    <t>Dark_Haste</t>
+  </si>
+  <si>
+    <t>Dark_Armor</t>
+  </si>
+  <si>
+    <t>#Loccustom_attribute_sub_{}</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>额外</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>固定</t>
+  </si>
+  <si>
+    <t>BasePercent</t>
+  </si>
+  <si>
+    <t>基础加成</t>
+  </si>
+  <si>
+    <t>BonusPercent</t>
+  </si>
+  <si>
+    <t>额外加成</t>
+  </si>
+  <si>
+    <t>TotalPercent</t>
+  </si>
+  <si>
+    <t>总加成</t>
+  </si>
+  <si>
+    <t>PreLvBase</t>
+  </si>
+  <si>
+    <t>升级基础</t>
+  </si>
+  <si>
+    <t>PreLvBonus</t>
+  </si>
+  <si>
+    <t>升级额外</t>
+  </si>
+  <si>
+    <t>PreLvFixed</t>
+  </si>
+  <si>
+    <t>升级固定</t>
+  </si>
+  <si>
     <t>属性值最终=基础+额外+固定</t>
   </si>
   <si>
-    <t>扩展属性</t>
-  </si>
-  <si>
-    <t>基础</t>
-  </si>
-  <si>
-    <t>额外绿字</t>
-  </si>
-  <si>
-    <t>固定值[不吃任何加成]</t>
-  </si>
-  <si>
-    <t>基础百分比[吃白字,转为绿字]</t>
-  </si>
-  <si>
-    <t>额外百分比[吃绿字,转为fixed</t>
-  </si>
-  <si>
-    <t>白值+绿字 转为 fixed</t>
-  </si>
-  <si>
-    <t>毎级增加基础</t>
-  </si>
-  <si>
-    <t>毎等级增加额外</t>
-  </si>
-  <si>
-    <t>毎等级增加固定</t>
-  </si>
-  <si>
-    <t>基础的一个转换.每点属性可以获得的一个值</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>#Loccustom_attribute_{}</t>
-  </si>
-  <si>
-    <t>in_nt</t>
-  </si>
-  <si>
-    <t>AbilityValues[{]</t>
-  </si>
-  <si>
-    <t>[}]</t>
-  </si>
-  <si>
-    <t>ConversionValue[{]</t>
-  </si>
-  <si>
-    <t>AttackDamage</t>
-  </si>
-  <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>Base 1</t>
-  </si>
-  <si>
-    <t>Bonus 2</t>
-  </si>
-  <si>
-    <t>Fixed 3</t>
-  </si>
-  <si>
-    <t>BasePercent 4</t>
-  </si>
-  <si>
-    <t>BonusPercent 5</t>
-  </si>
-  <si>
-    <t>TotalPercent 6</t>
-  </si>
-  <si>
-    <t>PreLvBase 7</t>
-  </si>
-  <si>
-    <t>PreLvBonus 8</t>
-  </si>
-  <si>
-    <t>PreLvFixed 9</t>
-  </si>
-  <si>
-    <t>AttackSpeed</t>
-  </si>
-  <si>
-    <t>攻击速度</t>
-  </si>
-  <si>
-    <t>AttackRange</t>
-  </si>
-  <si>
-    <t>攻击范围</t>
-  </si>
-  <si>
-    <t>AttackRate</t>
-  </si>
-  <si>
-    <t>攻击间隔</t>
-  </si>
-  <si>
-    <t>ArmorCommon</t>
-  </si>
-  <si>
-    <t>护甲值</t>
-  </si>
-  <si>
-    <t>减免任何伤害,之后计算其他元素伤害减免</t>
-  </si>
-  <si>
-    <t>ArmorElementFire</t>
-  </si>
-  <si>
-    <t>火元素护甲</t>
-  </si>
-  <si>
-    <t>减少火元素伤害</t>
-  </si>
-  <si>
-    <t>ArmorElementWater</t>
-  </si>
-  <si>
-    <t>水元素护甲</t>
-  </si>
-  <si>
-    <t>ArmorElementEarth</t>
-  </si>
-  <si>
-    <t>土元素护甲</t>
-  </si>
-  <si>
-    <t>ArmorElementWind</t>
-  </si>
-  <si>
-    <t>风元素护甲</t>
-  </si>
-  <si>
-    <t>ArmorElementLight</t>
-  </si>
-  <si>
-    <t>光元素护甲</t>
-  </si>
-  <si>
-    <t>ArmorElementDark</t>
-  </si>
-  <si>
-    <t>暗元素护甲</t>
-  </si>
-  <si>
-    <t>StateResistance</t>
-  </si>
-  <si>
-    <t>状态抗性</t>
-  </si>
-  <si>
-    <t>FixedDamageBonus</t>
-  </si>
-  <si>
-    <t>固定增伤</t>
-  </si>
-  <si>
-    <t>每次造成的伤害都会额外附加该次伤害</t>
-  </si>
-  <si>
-    <t>FixedDamageReduction</t>
-  </si>
-  <si>
-    <t>固定减伤</t>
-  </si>
-  <si>
-    <t>每次收到伤害都会减少该值的伤害,之后再计算减免</t>
-  </si>
-  <si>
-    <t>HealthPoints</t>
-  </si>
-  <si>
-    <t>生命值</t>
-  </si>
-  <si>
-    <t>HealthRegen</t>
-  </si>
-  <si>
-    <t>生命恢复</t>
-  </si>
-  <si>
-    <t>ManaPoints</t>
-  </si>
-  <si>
-    <t>魔法值</t>
-  </si>
-  <si>
-    <t>ManaRegen</t>
-  </si>
-  <si>
-    <t>魔法恢复</t>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
-    <t>AbilityHaste</t>
-  </si>
-  <si>
-    <t>技能急速</t>
-  </si>
-  <si>
-    <t>主要针对6个技能的加速</t>
-  </si>
-  <si>
-    <t>FinalDamageMul</t>
-  </si>
-  <si>
-    <t>%最终伤害</t>
-  </si>
-  <si>
-    <t>DamageMulPhyical</t>
-  </si>
-  <si>
-    <t>%物理伤害</t>
-  </si>
-  <si>
-    <t>DamageMulFire</t>
-  </si>
-  <si>
-    <t>%火元素伤害</t>
-  </si>
-  <si>
-    <t>DamageMulIce</t>
-  </si>
-  <si>
-    <t>%水元素伤害</t>
-  </si>
-  <si>
-    <t>DamageMulThunder</t>
-  </si>
-  <si>
-    <t>%雷元素伤害</t>
-  </si>
-  <si>
-    <t>DamageMulWind</t>
-  </si>
-  <si>
-    <t>%风元素伤害</t>
-  </si>
-  <si>
-    <t>DamageMulLight</t>
-  </si>
-  <si>
-    <t>%光元素伤害</t>
-  </si>
-  <si>
-    <t>DamageMulDark</t>
-  </si>
-  <si>
-    <t>%暗元素伤害</t>
-  </si>
-  <si>
-    <t>CritProbAll</t>
-  </si>
-  <si>
-    <t>%全爆击</t>
-  </si>
-  <si>
-    <t>CritDmgAll</t>
-  </si>
-  <si>
-    <t>%全爆伤</t>
-  </si>
-  <si>
-    <t>CritProbPhyical</t>
-  </si>
-  <si>
-    <t>物理爆击</t>
-  </si>
-  <si>
-    <t>CritDmgPhyical</t>
-  </si>
-  <si>
-    <t>物理爆伤</t>
-  </si>
-  <si>
-    <t>CritProbFire</t>
-  </si>
-  <si>
-    <t>火元素爆击</t>
-  </si>
-  <si>
-    <t>CritDmgFire</t>
-  </si>
-  <si>
-    <t>火元素爆伤</t>
-  </si>
-  <si>
-    <t>CritProbIce</t>
-  </si>
-  <si>
-    <t>冰元素爆击</t>
-  </si>
-  <si>
-    <t>CritDmgIce</t>
-  </si>
-  <si>
-    <t>冰元素爆伤</t>
-  </si>
-  <si>
-    <t>CritProbThunder</t>
-  </si>
-  <si>
-    <t>雷元素爆击</t>
-  </si>
-  <si>
-    <t>CritDmgThunder</t>
-  </si>
-  <si>
-    <t>雷元素爆伤</t>
-  </si>
-  <si>
-    <t>CritProbWind</t>
-  </si>
-  <si>
-    <t>风元素爆击</t>
-  </si>
-  <si>
-    <t>CritDmgWind</t>
-  </si>
-  <si>
-    <t>风元素爆伤</t>
-  </si>
-  <si>
-    <t>CritProbLight</t>
-  </si>
-  <si>
-    <t>光元素爆击</t>
-  </si>
-  <si>
-    <t>CritDmgLight</t>
-  </si>
-  <si>
-    <t>光元素爆伤</t>
-  </si>
-  <si>
-    <t>CritProbDark</t>
-  </si>
-  <si>
-    <t>暗元素爆击</t>
-  </si>
-  <si>
-    <t>CritDmgDark</t>
-  </si>
-  <si>
-    <t>暗元素爆伤</t>
-  </si>
-  <si>
-    <t>PickItemRadius</t>
-  </si>
-  <si>
-    <t>拾取范围</t>
-  </si>
-  <si>
     <t>ResistPenet_Fire</t>
   </si>
   <si>
@@ -453,24 +534,6 @@
     <t>暗抗穿透</t>
   </si>
   <si>
-    <t>Special_BurnDuration</t>
-  </si>
-  <si>
-    <t>灼烧时间</t>
-  </si>
-  <si>
-    <t>Special_PalsyDuration</t>
-  </si>
-  <si>
-    <t>麻痹时间</t>
-  </si>
-  <si>
-    <t>Special_IceMoveslow</t>
-  </si>
-  <si>
-    <t>减速效果</t>
-  </si>
-  <si>
     <t>FSkillEffect_Fire</t>
   </si>
   <si>
@@ -505,60 +568,6 @@
   </si>
   <si>
     <t>暗元素技能效果</t>
-  </si>
-  <si>
-    <t>#Loccustom_attribute_sub_{}</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>Bonus</t>
-  </si>
-  <si>
-    <t>额外</t>
-  </si>
-  <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>固定</t>
-  </si>
-  <si>
-    <t>BasePercent</t>
-  </si>
-  <si>
-    <t>基础加成</t>
-  </si>
-  <si>
-    <t>BonusPercent</t>
-  </si>
-  <si>
-    <t>额外加成</t>
-  </si>
-  <si>
-    <t>TotalPercent</t>
-  </si>
-  <si>
-    <t>总加成</t>
-  </si>
-  <si>
-    <t>PreLvBase</t>
-  </si>
-  <si>
-    <t>升级基础</t>
-  </si>
-  <si>
-    <t>PreLvBonus</t>
-  </si>
-  <si>
-    <t>升级额外</t>
-  </si>
-  <si>
-    <t>PreLvFixed</t>
-  </si>
-  <si>
-    <t>升级固定</t>
   </si>
   <si>
     <t>四大元素</t>
@@ -619,7 +628,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -643,6 +652,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -791,7 +807,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -801,6 +817,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5A5A5A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,7 +1019,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1108,6 +1136,162 @@
       </top>
       <bottom style="medium">
         <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1229,16 +1413,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1247,58 +1428,55 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1307,10 +1485,10 @@
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1319,10 +1497,10 @@
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1331,10 +1509,10 @@
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1343,10 +1521,10 @@
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1355,11 +1533,17 @@
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1373,9 +1557,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1406,6 +1587,60 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1596,12 +1831,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8DC7FAF1-309A-4A99-8B52-4A58C569EC47}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{7DC3CFAC-E4D8-405A-904C-674A29A4AAF1}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C8266243-3F4E-4A9E-ACA5-DCA286515D4B}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{037C9C7A-E023-47F1-BC07-CDC80DD51BDD}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1906,3197 +2141,3295 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X63"/>
+  <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="22.3416666666667" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.34166666666667" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="36.75" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.0083333333333" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="17.175" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10.3416666666667" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12.3416666666667" style="7" customWidth="1"/>
-    <col min="10" max="10" width="24.8416666666667" style="7" customWidth="1"/>
-    <col min="11" max="12" width="28.8416666666667" style="7" customWidth="1"/>
-    <col min="13" max="13" width="24.675" style="7" customWidth="1"/>
-    <col min="14" max="14" width="16.0083333333333" style="7" customWidth="1"/>
-    <col min="15" max="16" width="17.8416666666667" style="7" customWidth="1"/>
-    <col min="17" max="17" width="9" style="7"/>
-    <col min="18" max="18" width="23.625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="26.675" style="7" customWidth="1"/>
-    <col min="20" max="20" width="27.5083333333333" style="7" customWidth="1"/>
-    <col min="21" max="23" width="6.24166666666667" style="7" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="26.175" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.34166666666667" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.0083333333333" style="6" customWidth="1"/>
+    <col min="4" max="4" width="44.0083333333333" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.0083333333333" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.175" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.3416666666667" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.3416666666667" style="6" customWidth="1"/>
+    <col min="9" max="9" width="24.8416666666667" style="6" customWidth="1"/>
+    <col min="10" max="11" width="28.8416666666667" style="6" customWidth="1"/>
+    <col min="12" max="12" width="24.675" style="6" customWidth="1"/>
+    <col min="13" max="13" width="16.0083333333333" style="6" customWidth="1"/>
+    <col min="14" max="15" width="17.8416666666667" style="6" customWidth="1"/>
+    <col min="16" max="16" width="9" style="6"/>
+    <col min="17" max="17" width="23.625" style="6" customWidth="1"/>
+    <col min="18" max="22" width="6.24166666666667" style="6" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:23">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="39" customHeight="1" spans="1:22">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="25"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="18">
+        <v>1</v>
+      </c>
+      <c r="H2" s="18">
+        <v>2</v>
+      </c>
+      <c r="I2" s="18">
+        <v>3</v>
+      </c>
+      <c r="J2" s="18">
+        <v>4</v>
+      </c>
+      <c r="K2" s="18">
+        <v>5</v>
+      </c>
+      <c r="L2" s="18">
+        <v>6</v>
+      </c>
+      <c r="M2" s="18">
+        <v>7</v>
+      </c>
+      <c r="N2" s="18">
+        <v>8</v>
+      </c>
+      <c r="O2" s="26">
+        <v>9</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="5">
+      <c r="Q2" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="18">
         <v>1</v>
       </c>
-      <c r="I2" s="5">
+      <c r="S2" s="18">
         <v>2</v>
       </c>
-      <c r="J2" s="5">
+      <c r="T2" s="18">
         <v>3</v>
       </c>
-      <c r="K2" s="5">
+      <c r="U2" s="18">
         <v>4</v>
       </c>
-      <c r="L2" s="5">
+      <c r="V2" s="26">
         <v>5</v>
       </c>
-      <c r="M2" s="5">
+      <c r="W2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="20">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="27"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="26"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="20">
+        <v>3</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="27"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="18">
+        <v>4</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="26"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="20">
+        <v>5</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="27"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="18">
         <v>6</v>
       </c>
-      <c r="N2" s="5">
+      <c r="C8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="26"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="18">
         <v>7</v>
       </c>
-      <c r="O2" s="5">
+      <c r="C9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="26"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="18">
         <v>8</v>
       </c>
-      <c r="P2" s="5">
+      <c r="C10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="27"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="18">
         <v>9</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="C11" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="26"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A12" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="18">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="27"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="18">
+        <v>11</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="26"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="18">
+        <v>12</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="27"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A15" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="18">
+        <v>13</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="26"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="18">
+        <v>14</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20">
+        <v>0</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="27"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="18">
+        <v>15</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="26"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="18">
+        <v>16</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="27"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A19" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="18">
+        <v>17</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="26"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A20" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="18">
+        <v>18</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="27"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A21" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="18">
+        <v>19</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="26"/>
+    </row>
+    <row r="22" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A22" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="18">
+        <v>20</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20">
+        <v>0</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="27"/>
+    </row>
+    <row r="23" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A23" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="18">
+        <v>21</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="26"/>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A24" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="18">
         <v>22</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="C24" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20">
+        <v>0</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="27"/>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A25" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="18">
         <v>23</v>
       </c>
-      <c r="S2" s="5">
-        <v>1</v>
-      </c>
-      <c r="T2" s="5">
-        <v>2</v>
-      </c>
-      <c r="U2" s="5">
-        <v>3</v>
-      </c>
-      <c r="V2" s="5">
-        <v>4</v>
-      </c>
-      <c r="W2" s="5">
-        <v>5</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A3" s="5" t="s">
+      <c r="C25" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="26"/>
+    </row>
+    <row r="26" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A26" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="18">
         <v>24</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="C26" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20">
+        <v>0</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5">
+      <c r="H26" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="27"/>
+    </row>
+    <row r="27" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A27" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="18">
+        <v>25</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18">
         <v>0</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="F27" s="18"/>
+      <c r="G27" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I27" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J27" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L27" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M27" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N27" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O27" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q27" s="17"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="26"/>
+    </row>
+    <row r="28" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A28" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="18">
+        <v>26</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20">
+        <v>0</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="27"/>
+    </row>
+    <row r="29" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A29" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="18">
+        <v>27</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="26"/>
+    </row>
+    <row r="30" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A30" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="18">
+        <v>28</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20">
+        <v>0</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M30" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="27"/>
+    </row>
+    <row r="31" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A31" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="18">
+        <v>29</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="26"/>
+    </row>
+    <row r="32" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A32" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="18">
+        <v>30</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20">
+        <v>0</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="27"/>
+    </row>
+    <row r="33" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A33" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="18">
+        <v>31</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="26"/>
+    </row>
+    <row r="34" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A34" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="18">
+        <v>32</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20">
+        <v>0</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="27"/>
+    </row>
+    <row r="35" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A35" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="18">
+        <v>33</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18">
+        <v>0</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M35" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="26"/>
+    </row>
+    <row r="36" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A36" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="18">
         <v>34</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A4" s="5" t="s">
+      <c r="C36" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20">
+        <v>0</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="27"/>
+    </row>
+    <row r="37" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A37" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="18">
         <v>35</v>
       </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C37" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18">
+        <v>0</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="26"/>
+    </row>
+    <row r="38" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A38" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="18">
         <v>36</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5">
+      <c r="C38" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20">
         <v>0</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="F38" s="20"/>
+      <c r="G38" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I38" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J38" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K38" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L38" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M38" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N38" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O38" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A5" s="5" t="s">
+      <c r="Q38" s="19"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="27"/>
+    </row>
+    <row r="39" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A39" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="18">
         <v>37</v>
       </c>
-      <c r="B5" s="5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="C39" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18">
+        <v>0</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="26"/>
+    </row>
+    <row r="40" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A40" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="18">
         <v>38</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5">
+      <c r="C40" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20">
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="F40" s="20"/>
+      <c r="G40" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I40" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J40" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K40" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L40" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M40" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N40" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O40" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A6" s="5" t="s">
+      <c r="Q40" s="19"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="27"/>
+    </row>
+    <row r="41" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A41" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="18">
         <v>39</v>
       </c>
-      <c r="B6" s="5">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="C41" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18">
+        <v>0</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="26"/>
+    </row>
+    <row r="42" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A42" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="18">
         <v>40</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5">
+      <c r="C42" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20">
         <v>0</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="F42" s="20"/>
+      <c r="G42" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I42" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J42" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K42" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L42" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M42" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N42" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O42" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A7" s="5" t="s">
+      <c r="Q42" s="19"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="27"/>
+    </row>
+    <row r="43" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A43" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="18">
         <v>41</v>
       </c>
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="C43" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18">
+        <v>0</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L43" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M43" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="26"/>
+    </row>
+    <row r="44" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A44" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="18">
         <v>42</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C44" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20">
+        <v>0</v>
+      </c>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="27"/>
+    </row>
+    <row r="45" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A45" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="18">
         <v>43</v>
       </c>
-      <c r="E7" s="5">
+      <c r="C45" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18">
         <v>0</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+      <c r="F45" s="18"/>
+      <c r="G45" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I45" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J45" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K45" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L45" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M45" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N45" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O45" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A8" s="5" t="s">
+      <c r="Q45" s="17"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="26"/>
+    </row>
+    <row r="46" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A46" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="18">
         <v>44</v>
       </c>
-      <c r="B8" s="5">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="C46" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20">
+        <v>0</v>
+      </c>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L46" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N46" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O46" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="27"/>
+    </row>
+    <row r="47" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A47" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="18">
         <v>45</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="C47" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18">
+        <v>0</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L47" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="26"/>
+    </row>
+    <row r="48" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A48" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="18">
         <v>46</v>
       </c>
-      <c r="E8" s="5">
+      <c r="C48" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20">
         <v>0</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="F48" s="20"/>
+      <c r="G48" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I48" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J48" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K48" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L48" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M48" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N48" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O48" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A9" s="5" t="s">
+      <c r="Q48" s="19"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="27"/>
+    </row>
+    <row r="49" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A49" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="18">
         <v>47</v>
       </c>
-      <c r="B9" s="5">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="C49" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18">
+        <v>0</v>
+      </c>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L49" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M49" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="26"/>
+    </row>
+    <row r="50" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A50" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="18">
         <v>48</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5">
+      <c r="C50" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20">
         <v>0</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="F50" s="20"/>
+      <c r="G50" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I50" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J50" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K50" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L50" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M50" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N50" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O50" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A10" s="5" t="s">
+      <c r="Q50" s="19"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="27"/>
+    </row>
+    <row r="51" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A51" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="18">
         <v>49</v>
       </c>
-      <c r="B10" s="5">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="C51" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18">
+        <v>0</v>
+      </c>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L51" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M51" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="26"/>
+    </row>
+    <row r="52" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A52" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="18">
         <v>50</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5">
+      <c r="C52" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20">
         <v>0</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
+      <c r="F52" s="20"/>
+      <c r="G52" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I52" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J52" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K52" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L52" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M52" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N52" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O52" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A11" s="5" t="s">
+      <c r="Q52" s="19"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="27"/>
+    </row>
+    <row r="53" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A53" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="18">
         <v>51</v>
       </c>
-      <c r="B11" s="5">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="C53" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18">
+        <v>0</v>
+      </c>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M53" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N53" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="26"/>
+    </row>
+    <row r="54" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A54" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="18">
         <v>52</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5">
+      <c r="C54" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20">
         <v>0</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
+      <c r="F54" s="20"/>
+      <c r="G54" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I54" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J54" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K54" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L54" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M54" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N54" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O54" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A12" s="5" t="s">
+      <c r="Q54" s="19"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="27"/>
+    </row>
+    <row r="55" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A55" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="18">
         <v>53</v>
       </c>
-      <c r="B12" s="5">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="C55" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18">
+        <v>0</v>
+      </c>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K55" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L55" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M55" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="26"/>
+    </row>
+    <row r="56" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A56" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="18">
         <v>54</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5">
+      <c r="C56" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="20">
         <v>0</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
+      <c r="F56" s="20"/>
+      <c r="G56" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I56" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J56" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K56" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L56" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M56" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N56" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O56" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A13" s="5" t="s">
+      <c r="Q56" s="29"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="30"/>
+    </row>
+    <row r="57" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A57" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="18">
         <v>55</v>
       </c>
-      <c r="B13" s="5">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="C57" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="18">
+        <v>0</v>
+      </c>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L57" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M57" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="32"/>
+    </row>
+    <row r="58" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A58" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="18">
         <v>56</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5">
+      <c r="C58" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20">
         <v>0</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
+      <c r="F58" s="20"/>
+      <c r="G58" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I58" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J58" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K58" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L58" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M58" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N58" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O58" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A14" s="5" t="s">
+      <c r="Q58" s="19"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="27"/>
+    </row>
+    <row r="59" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A59" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="18">
         <v>57</v>
       </c>
-      <c r="B14" s="5">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="C59" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18">
+        <v>0</v>
+      </c>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L59" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M59" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N59" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O59" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="26"/>
+    </row>
+    <row r="60" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A60" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" s="18">
         <v>58</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5">
+      <c r="C60" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20">
         <v>0</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
+      <c r="F60" s="20"/>
+      <c r="G60" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I60" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J60" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K60" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L60" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M60" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N60" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O60" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="P14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A15" s="5" t="s">
+      <c r="Q60" s="19"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="27"/>
+    </row>
+    <row r="61" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A61" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="18">
         <v>59</v>
       </c>
-      <c r="B15" s="5">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="C61" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18">
+        <v>0</v>
+      </c>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K61" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L61" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M61" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N61" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O61" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
+      <c r="T61" s="18"/>
+      <c r="U61" s="18"/>
+      <c r="V61" s="26"/>
+    </row>
+    <row r="62" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A62" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="18">
         <v>60</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="C62" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20">
+        <v>0</v>
+      </c>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="K62" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M62" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N62" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O62" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="27"/>
+    </row>
+    <row r="63" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A63" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" s="18">
         <v>61</v>
       </c>
-      <c r="E15" s="5">
+      <c r="C63" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24">
         <v>0</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
+      <c r="F63" s="24"/>
+      <c r="G63" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I63" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J63" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K63" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L63" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M63" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N63" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O63" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="5">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="5">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="5">
-        <v>16</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="5">
-        <v>17</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="5">
-        <v>18</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-    </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="5">
-        <v>19</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-    </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A22" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="5">
-        <v>20</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-    </row>
-    <row r="23" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="5">
-        <v>21</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-    </row>
-    <row r="24" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="5">
-        <v>22</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-    </row>
-    <row r="25" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A25" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="5">
-        <v>23</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-    </row>
-    <row r="26" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="5">
-        <v>24</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-    </row>
-    <row r="27" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A27" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="5">
-        <v>25</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-    </row>
-    <row r="28" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A28" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="5">
-        <v>26</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-    </row>
-    <row r="29" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="5">
-        <v>27</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-    </row>
-    <row r="30" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A30" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="5">
-        <v>28</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-    </row>
-    <row r="31" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A31" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="5">
-        <v>29</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-    </row>
-    <row r="32" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A32" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="5">
-        <v>30</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-    </row>
-    <row r="33" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A33" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="5">
-        <v>31</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-    </row>
-    <row r="34" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A34" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="5">
-        <v>32</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-    </row>
-    <row r="35" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A35" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="5">
-        <v>33</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-    </row>
-    <row r="36" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A36" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="5">
-        <v>34</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5">
-        <v>0</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-    </row>
-    <row r="37" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A37" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="5">
-        <v>35</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5">
-        <v>0</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-    </row>
-    <row r="38" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A38" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="5">
-        <v>36</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5">
-        <v>0</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-    </row>
-    <row r="39" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A39" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="5">
-        <v>37</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5">
-        <v>0</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-    </row>
-    <row r="40" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A40" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="5">
-        <v>38</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5">
-        <v>0</v>
-      </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-    </row>
-    <row r="41" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A41" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="5">
-        <v>39</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5">
-        <v>0</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-    </row>
-    <row r="42" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A42" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="5">
-        <v>40</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5">
-        <v>0</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P42" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-    </row>
-    <row r="43" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A43" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="5">
-        <v>41</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5">
-        <v>0</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M43" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P43" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-    </row>
-    <row r="44" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A44" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="5">
-        <v>42</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5">
-        <v>0</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M44" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P44" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-    </row>
-    <row r="45" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A45" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="5">
-        <v>43</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5">
-        <v>0</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N45" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-    </row>
-    <row r="46" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A46" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" s="5">
-        <v>44</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5">
-        <v>0</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M46" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O46" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P46" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-    </row>
-    <row r="47" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A47" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" s="5">
-        <v>45</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5">
-        <v>0</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M47" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N47" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P47" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-    </row>
-    <row r="48" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A48" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B48" s="5">
-        <v>46</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6">
-        <v>0</v>
-      </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-    </row>
-    <row r="49" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A49" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="5">
-        <v>47</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6">
-        <v>0</v>
-      </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L49" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N49" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P49" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-    </row>
-    <row r="50" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A50" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="5">
-        <v>48</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6">
-        <v>0</v>
-      </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N50" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P50" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-    </row>
-    <row r="51" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A51" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" s="5">
-        <v>49</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6">
-        <v>0</v>
-      </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O51" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P51" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-    </row>
-    <row r="52" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A52" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="5">
-        <v>50</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6">
-        <v>0</v>
-      </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N52" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O52" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P52" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-    </row>
-    <row r="53" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A53" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" s="5">
-        <v>51</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6">
-        <v>0</v>
-      </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L53" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P53" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-    </row>
-    <row r="54" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A54" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B54" s="5">
-        <v>52</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6">
-        <v>0</v>
-      </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O54" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P54" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-    </row>
-    <row r="55" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A55" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B55" s="5">
-        <v>53</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6">
-        <v>0</v>
-      </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O55" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P55" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-    </row>
-    <row r="56" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A56" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" s="5">
-        <v>54</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6">
-        <v>0</v>
-      </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N56" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O56" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P56" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-    </row>
-    <row r="57" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A57" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57" s="5">
-        <v>55</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6">
-        <v>0</v>
-      </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N57" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O57" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P57" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-    </row>
-    <row r="58" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A58" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B58" s="5">
-        <v>56</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6">
-        <v>0</v>
-      </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M58" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N58" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O58" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P58" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-    </row>
-    <row r="59" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A59" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B59" s="5">
-        <v>57</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6">
-        <v>0</v>
-      </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L59" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O59" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P59" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-    </row>
-    <row r="60" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A60" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B60" s="5">
-        <v>58</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6">
-        <v>0</v>
-      </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M60" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N60" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O60" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P60" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-    </row>
-    <row r="61" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A61" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B61" s="5">
-        <v>59</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6">
-        <v>0</v>
-      </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L61" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M61" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N61" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O61" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P61" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-    </row>
-    <row r="62" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A62" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B62" s="5">
-        <v>60</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6">
-        <v>0</v>
-      </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L62" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M62" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O62" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P62" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
-    </row>
-    <row r="63" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
-      <c r="W63" s="5"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="24"/>
+      <c r="V63" s="28"/>
+    </row>
+    <row r="64" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+    </row>
+    <row r="65" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+    </row>
+    <row r="66" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+    </row>
+    <row r="67" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+    </row>
+    <row r="68" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+    </row>
+    <row r="69" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5120,120 +5453,120 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>158</v>
+      <c r="C2" s="12" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A3" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="A3" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A4" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A5" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A6" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A7" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="11">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A8" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A9" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="11">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A4" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="12">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A5" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="12">
-        <v>3</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A6" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="12">
-        <v>4</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A7" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="12">
-        <v>5</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A8" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="12">
-        <v>6</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A9" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="12">
-        <v>7</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>171</v>
+      <c r="C9" s="12" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A10" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="12">
+      <c r="A10" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>173</v>
+      <c r="C10" s="12" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A11" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="12">
+      <c r="A11" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="11">
         <v>9</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>175</v>
+      <c r="C11" s="14" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5248,7 +5581,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5286,57 +5619,57 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="7"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" ht="71.6" customHeight="1" spans="1:17">
       <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5">
         <v>1</v>
@@ -5365,774 +5698,759 @@
       <c r="P2" s="5">
         <v>9</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>22</v>
+      <c r="Q2" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A3" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
+      <c r="C3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
     </row>
     <row r="4" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
+      <c r="C4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
         <v>0</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A5" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
+      <c r="C5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A6" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
+      <c r="C6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="P6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A7" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="A7" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="C7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="M7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="N7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="P7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A8" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="A8" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6">
+      <c r="C8" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="N8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="O8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="P8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A9" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="A9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
+      <c r="C9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="O9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="P9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A10" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="A10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6">
+      <c r="C10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="N10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="O10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="P10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A11" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="A11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
+      <c r="C11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="K11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="N11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="O11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="P11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A12" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="A12" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
+      <c r="C12" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
         <v>0</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="L12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="M12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="N12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="O12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="P12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
     </row>
     <row r="13" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A13" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="A13" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
+      <c r="C13" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
         <v>0</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="K13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="M13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="N13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="O13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="P13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A14" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="A14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6">
+      <c r="C14" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
         <v>0</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="K14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="L14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="M14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="N14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="O14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="P14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
     </row>
     <row r="15" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A15" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="A15" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="5">
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
+      <c r="C15" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
         <v>0</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="L15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="M15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="N15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="O15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="P15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
     </row>
     <row r="16" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A16" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="A16" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="5">
         <v>14</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
+      <c r="C16" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
         <v>0</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="K16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="L16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="M16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="N16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="O16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="P16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A17" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="A17" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="5">
         <v>15</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6">
+      <c r="C17" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
         <v>0</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="K17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="L17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="M17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="N17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="O17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="P17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13133,7 +13451,7 @@
         <v>#REF!</v>
       </c>
       <c r="P176" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -13146,7 +13464,7 @@
         <v>#REF!</v>
       </c>
       <c r="P177" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="178" spans="1:20">
@@ -13162,16 +13480,16 @@
         <v>10</v>
       </c>
       <c r="O178" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q178" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="S178" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="T178" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -13184,10 +13502,10 @@
         <v>#REF!</v>
       </c>
       <c r="E179" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P179" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -13200,10 +13518,10 @@
         <v>#REF!</v>
       </c>
       <c r="D180" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F180" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -13216,16 +13534,16 @@
         <v>#REF!</v>
       </c>
       <c r="F181" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H181" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I181">
         <v>20</v>
       </c>
       <c r="K181" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L181">
         <v>10</v>
@@ -13261,7 +13579,7 @@
         <v>#REF!</v>
       </c>
       <c r="E184" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -13277,7 +13595,7 @@
         <v>#REF!</v>
       </c>
       <c r="E185" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F185">
         <v>100</v>
@@ -13373,13 +13691,13 @@
         <v>#REF!</v>
       </c>
       <c r="F194" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G194" s="1">
         <v>0.3</v>
       </c>
       <c r="H194" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I194" s="1">
         <v>0.3</v>

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="183">
   <si>
     <t>index  下标</t>
   </si>
@@ -496,42 +496,6 @@
   </si>
   <si>
     <t>属性值最终=基础+额外+固定</t>
-  </si>
-  <si>
-    <t>ResistPenet_Fire</t>
-  </si>
-  <si>
-    <t>火抗穿透%</t>
-  </si>
-  <si>
-    <t>ResistPenet_Ice</t>
-  </si>
-  <si>
-    <t>冰抗穿透</t>
-  </si>
-  <si>
-    <t>ResistPenet_Thunder</t>
-  </si>
-  <si>
-    <t>雷抗穿透</t>
-  </si>
-  <si>
-    <t>ResistPenet_Wind</t>
-  </si>
-  <si>
-    <t>风抗穿透</t>
-  </si>
-  <si>
-    <t>ResistPenet_Light</t>
-  </si>
-  <si>
-    <t>光抗穿透</t>
-  </si>
-  <si>
-    <t>ResistPenet_Dark</t>
-  </si>
-  <si>
-    <t>暗抗穿透</t>
   </si>
   <si>
     <t>FSkillEffect_Fire</t>
@@ -1543,7 +1507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1607,12 +1571,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1629,18 +1587,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1831,12 +1777,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{7DC3CFAC-E4D8-405A-904C-674A29A4AAF1}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2391BF2E-9151-49DA-B671-9BB6805EC2B6}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{037C9C7A-E023-47F1-BC07-CDC80DD51BDD}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C727FF69-AC9E-4BF1-AECF-C33E45446EC0}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -2143,8 +2089,8 @@
   <sheetPr/>
   <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2211,7 +2157,7 @@
       <c r="N1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="23" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="15" t="s">
@@ -2221,7 +2167,7 @@
       <c r="S1" s="16"/>
       <c r="T1" s="16"/>
       <c r="U1" s="16"/>
-      <c r="V1" s="25"/>
+      <c r="V1" s="23"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:23">
       <c r="A2" s="17" t="s">
@@ -2264,7 +2210,7 @@
       <c r="N2" s="18">
         <v>8</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="24">
         <v>9</v>
       </c>
       <c r="P2" s="6" t="s">
@@ -2285,7 +2231,7 @@
       <c r="U2" s="18">
         <v>4</v>
       </c>
-      <c r="V2" s="26">
+      <c r="V2" s="24">
         <v>5</v>
       </c>
       <c r="W2" s="6" t="s">
@@ -2331,7 +2277,7 @@
       <c r="N3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q3" s="19"/>
@@ -2339,7 +2285,7 @@
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
-      <c r="V3" s="27"/>
+      <c r="V3" s="25"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:22">
       <c r="A4" s="17" t="s">
@@ -2380,7 +2326,7 @@
       <c r="N4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q4" s="17"/>
@@ -2388,7 +2334,7 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="26"/>
+      <c r="V4" s="24"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:22">
       <c r="A5" s="19" t="s">
@@ -2429,7 +2375,7 @@
       <c r="N5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q5" s="19"/>
@@ -2437,7 +2383,7 @@
       <c r="S5" s="20"/>
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
-      <c r="V5" s="27"/>
+      <c r="V5" s="25"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:22">
       <c r="A6" s="17" t="s">
@@ -2478,7 +2424,7 @@
       <c r="N6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="O6" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q6" s="17"/>
@@ -2486,7 +2432,7 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
-      <c r="V6" s="26"/>
+      <c r="V6" s="24"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:22">
       <c r="A7" s="19" t="s">
@@ -2529,7 +2475,7 @@
       <c r="N7" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q7" s="19"/>
@@ -2537,7 +2483,7 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="27"/>
+      <c r="V7" s="25"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:22">
       <c r="A8" s="17" t="s">
@@ -2580,7 +2526,7 @@
       <c r="N8" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q8" s="17"/>
@@ -2588,7 +2534,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
-      <c r="V8" s="26"/>
+      <c r="V8" s="24"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:22">
       <c r="A9" s="17" t="s">
@@ -2631,7 +2577,7 @@
       <c r="N9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="O9" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q9" s="17"/>
@@ -2639,7 +2585,7 @@
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
-      <c r="V9" s="26"/>
+      <c r="V9" s="24"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:22">
       <c r="A10" s="19" t="s">
@@ -2682,7 +2628,7 @@
       <c r="N10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="27" t="s">
+      <c r="O10" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q10" s="19"/>
@@ -2690,7 +2636,7 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
-      <c r="V10" s="27"/>
+      <c r="V10" s="25"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:22">
       <c r="A11" s="17" t="s">
@@ -2733,7 +2679,7 @@
       <c r="N11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="26" t="s">
+      <c r="O11" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q11" s="17"/>
@@ -2741,7 +2687,7 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
-      <c r="V11" s="26"/>
+      <c r="V11" s="24"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:22">
       <c r="A12" s="19" t="s">
@@ -2782,7 +2728,7 @@
       <c r="N12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="27" t="s">
+      <c r="O12" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q12" s="19"/>
@@ -2790,7 +2736,7 @@
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="27"/>
+      <c r="V12" s="25"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:22">
       <c r="A13" s="17" t="s">
@@ -2831,7 +2777,7 @@
       <c r="N13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="26" t="s">
+      <c r="O13" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q13" s="17"/>
@@ -2839,7 +2785,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
-      <c r="V13" s="26"/>
+      <c r="V13" s="24"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:22">
       <c r="A14" s="19" t="s">
@@ -2880,7 +2826,7 @@
       <c r="N14" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O14" s="27" t="s">
+      <c r="O14" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q14" s="19"/>
@@ -2888,7 +2834,7 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="27"/>
+      <c r="V14" s="25"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:22">
       <c r="A15" s="17" t="s">
@@ -2929,7 +2875,7 @@
       <c r="N15" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="26" t="s">
+      <c r="O15" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q15" s="17"/>
@@ -2937,7 +2883,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
-      <c r="V15" s="26"/>
+      <c r="V15" s="24"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:22">
       <c r="A16" s="19" t="s">
@@ -2978,7 +2924,7 @@
       <c r="N16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="27" t="s">
+      <c r="O16" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q16" s="19"/>
@@ -2986,7 +2932,7 @@
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
-      <c r="V16" s="27"/>
+      <c r="V16" s="25"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:22">
       <c r="A17" s="17" t="s">
@@ -3029,7 +2975,7 @@
       <c r="N17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O17" s="26" t="s">
+      <c r="O17" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q17" s="17"/>
@@ -3037,7 +2983,7 @@
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
       <c r="U17" s="18"/>
-      <c r="V17" s="26"/>
+      <c r="V17" s="24"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:22">
       <c r="A18" s="19" t="s">
@@ -3078,7 +3024,7 @@
       <c r="N18" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="27" t="s">
+      <c r="O18" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q18" s="19"/>
@@ -3086,7 +3032,7 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="27"/>
+      <c r="V18" s="25"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:22">
       <c r="A19" s="17" t="s">
@@ -3127,7 +3073,7 @@
       <c r="N19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="26" t="s">
+      <c r="O19" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q19" s="17"/>
@@ -3135,7 +3081,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
       <c r="U19" s="18"/>
-      <c r="V19" s="26"/>
+      <c r="V19" s="24"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:22">
       <c r="A20" s="19" t="s">
@@ -3176,7 +3122,7 @@
       <c r="N20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O20" s="27" t="s">
+      <c r="O20" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q20" s="19"/>
@@ -3184,7 +3130,7 @@
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
-      <c r="V20" s="27"/>
+      <c r="V20" s="25"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:22">
       <c r="A21" s="17" t="s">
@@ -3225,7 +3171,7 @@
       <c r="N21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="O21" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q21" s="17"/>
@@ -3233,7 +3179,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
       <c r="U21" s="18"/>
-      <c r="V21" s="26"/>
+      <c r="V21" s="24"/>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:22">
       <c r="A22" s="19" t="s">
@@ -3274,7 +3220,7 @@
       <c r="N22" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O22" s="27" t="s">
+      <c r="O22" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q22" s="19"/>
@@ -3282,7 +3228,7 @@
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
-      <c r="V22" s="27"/>
+      <c r="V22" s="25"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:22">
       <c r="A23" s="17" t="s">
@@ -3323,7 +3269,7 @@
       <c r="N23" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="26" t="s">
+      <c r="O23" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q23" s="17"/>
@@ -3331,7 +3277,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
       <c r="U23" s="18"/>
-      <c r="V23" s="26"/>
+      <c r="V23" s="24"/>
     </row>
     <row r="24" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A24" s="19" t="s">
@@ -3372,7 +3318,7 @@
       <c r="N24" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O24" s="27" t="s">
+      <c r="O24" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q24" s="19"/>
@@ -3380,7 +3326,7 @@
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
-      <c r="V24" s="27"/>
+      <c r="V24" s="25"/>
     </row>
     <row r="25" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A25" s="17" t="s">
@@ -3421,7 +3367,7 @@
       <c r="N25" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O25" s="26" t="s">
+      <c r="O25" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q25" s="17"/>
@@ -3429,7 +3375,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
       <c r="U25" s="18"/>
-      <c r="V25" s="26"/>
+      <c r="V25" s="24"/>
     </row>
     <row r="26" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A26" s="19" t="s">
@@ -3470,7 +3416,7 @@
       <c r="N26" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O26" s="27" t="s">
+      <c r="O26" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q26" s="19"/>
@@ -3478,7 +3424,7 @@
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
-      <c r="V26" s="27"/>
+      <c r="V26" s="25"/>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:22">
       <c r="A27" s="17" t="s">
@@ -3519,7 +3465,7 @@
       <c r="N27" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O27" s="26" t="s">
+      <c r="O27" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q27" s="17"/>
@@ -3527,7 +3473,7 @@
       <c r="S27" s="18"/>
       <c r="T27" s="18"/>
       <c r="U27" s="18"/>
-      <c r="V27" s="26"/>
+      <c r="V27" s="24"/>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:22">
       <c r="A28" s="19" t="s">
@@ -3568,7 +3514,7 @@
       <c r="N28" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O28" s="27" t="s">
+      <c r="O28" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q28" s="19"/>
@@ -3576,7 +3522,7 @@
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
-      <c r="V28" s="27"/>
+      <c r="V28" s="25"/>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:22">
       <c r="A29" s="17" t="s">
@@ -3617,7 +3563,7 @@
       <c r="N29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O29" s="26" t="s">
+      <c r="O29" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q29" s="17"/>
@@ -3625,7 +3571,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
       <c r="U29" s="18"/>
-      <c r="V29" s="26"/>
+      <c r="V29" s="24"/>
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:22">
       <c r="A30" s="19" t="s">
@@ -3666,7 +3612,7 @@
       <c r="N30" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="27" t="s">
+      <c r="O30" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q30" s="19"/>
@@ -3674,7 +3620,7 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
-      <c r="V30" s="27"/>
+      <c r="V30" s="25"/>
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:22">
       <c r="A31" s="17" t="s">
@@ -3715,7 +3661,7 @@
       <c r="N31" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O31" s="26" t="s">
+      <c r="O31" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q31" s="17"/>
@@ -3723,7 +3669,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
       <c r="U31" s="18"/>
-      <c r="V31" s="26"/>
+      <c r="V31" s="24"/>
     </row>
     <row r="32" ht="22.5" customHeight="1" spans="1:22">
       <c r="A32" s="19" t="s">
@@ -3764,7 +3710,7 @@
       <c r="N32" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O32" s="27" t="s">
+      <c r="O32" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q32" s="19"/>
@@ -3772,7 +3718,7 @@
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
-      <c r="V32" s="27"/>
+      <c r="V32" s="25"/>
     </row>
     <row r="33" ht="22.5" customHeight="1" spans="1:22">
       <c r="A33" s="17" t="s">
@@ -3813,7 +3759,7 @@
       <c r="N33" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O33" s="26" t="s">
+      <c r="O33" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q33" s="17"/>
@@ -3821,7 +3767,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
       <c r="U33" s="18"/>
-      <c r="V33" s="26"/>
+      <c r="V33" s="24"/>
     </row>
     <row r="34" ht="22.5" customHeight="1" spans="1:22">
       <c r="A34" s="19" t="s">
@@ -3862,7 +3808,7 @@
       <c r="N34" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O34" s="27" t="s">
+      <c r="O34" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q34" s="19"/>
@@ -3870,7 +3816,7 @@
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
-      <c r="V34" s="27"/>
+      <c r="V34" s="25"/>
     </row>
     <row r="35" ht="22.5" customHeight="1" spans="1:22">
       <c r="A35" s="17" t="s">
@@ -3911,7 +3857,7 @@
       <c r="N35" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O35" s="26" t="s">
+      <c r="O35" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q35" s="17"/>
@@ -3919,7 +3865,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
       <c r="U35" s="18"/>
-      <c r="V35" s="26"/>
+      <c r="V35" s="24"/>
     </row>
     <row r="36" ht="22.5" customHeight="1" spans="1:22">
       <c r="A36" s="19" t="s">
@@ -3960,7 +3906,7 @@
       <c r="N36" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O36" s="27" t="s">
+      <c r="O36" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q36" s="19"/>
@@ -3968,7 +3914,7 @@
       <c r="S36" s="20"/>
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
-      <c r="V36" s="27"/>
+      <c r="V36" s="25"/>
     </row>
     <row r="37" ht="22.5" customHeight="1" spans="1:22">
       <c r="A37" s="17" t="s">
@@ -4009,7 +3955,7 @@
       <c r="N37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O37" s="26" t="s">
+      <c r="O37" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q37" s="17"/>
@@ -4017,7 +3963,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
       <c r="U37" s="18"/>
-      <c r="V37" s="26"/>
+      <c r="V37" s="24"/>
     </row>
     <row r="38" ht="22.5" customHeight="1" spans="1:22">
       <c r="A38" s="19" t="s">
@@ -4058,7 +4004,7 @@
       <c r="N38" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O38" s="27" t="s">
+      <c r="O38" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q38" s="19"/>
@@ -4066,7 +4012,7 @@
       <c r="S38" s="20"/>
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
-      <c r="V38" s="27"/>
+      <c r="V38" s="25"/>
     </row>
     <row r="39" ht="22.5" customHeight="1" spans="1:22">
       <c r="A39" s="17" t="s">
@@ -4107,7 +4053,7 @@
       <c r="N39" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O39" s="26" t="s">
+      <c r="O39" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q39" s="17"/>
@@ -4115,7 +4061,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
-      <c r="V39" s="26"/>
+      <c r="V39" s="24"/>
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:22">
       <c r="A40" s="19" t="s">
@@ -4156,7 +4102,7 @@
       <c r="N40" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O40" s="27" t="s">
+      <c r="O40" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q40" s="19"/>
@@ -4164,7 +4110,7 @@
       <c r="S40" s="20"/>
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
-      <c r="V40" s="27"/>
+      <c r="V40" s="25"/>
     </row>
     <row r="41" ht="22.5" customHeight="1" spans="1:22">
       <c r="A41" s="17" t="s">
@@ -4205,7 +4151,7 @@
       <c r="N41" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O41" s="26" t="s">
+      <c r="O41" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q41" s="17"/>
@@ -4213,7 +4159,7 @@
       <c r="S41" s="18"/>
       <c r="T41" s="18"/>
       <c r="U41" s="18"/>
-      <c r="V41" s="26"/>
+      <c r="V41" s="24"/>
     </row>
     <row r="42" ht="22.5" customHeight="1" spans="1:22">
       <c r="A42" s="19" t="s">
@@ -4254,7 +4200,7 @@
       <c r="N42" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O42" s="27" t="s">
+      <c r="O42" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q42" s="19"/>
@@ -4262,7 +4208,7 @@
       <c r="S42" s="20"/>
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
-      <c r="V42" s="27"/>
+      <c r="V42" s="25"/>
     </row>
     <row r="43" ht="22.5" customHeight="1" spans="1:22">
       <c r="A43" s="17" t="s">
@@ -4303,7 +4249,7 @@
       <c r="N43" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O43" s="26" t="s">
+      <c r="O43" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q43" s="17"/>
@@ -4311,7 +4257,7 @@
       <c r="S43" s="18"/>
       <c r="T43" s="18"/>
       <c r="U43" s="18"/>
-      <c r="V43" s="26"/>
+      <c r="V43" s="24"/>
     </row>
     <row r="44" ht="22.5" customHeight="1" spans="1:22">
       <c r="A44" s="19" t="s">
@@ -4352,7 +4298,7 @@
       <c r="N44" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O44" s="27" t="s">
+      <c r="O44" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q44" s="19"/>
@@ -4360,7 +4306,7 @@
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
-      <c r="V44" s="27"/>
+      <c r="V44" s="25"/>
     </row>
     <row r="45" ht="22.5" customHeight="1" spans="1:22">
       <c r="A45" s="17" t="s">
@@ -4401,7 +4347,7 @@
       <c r="N45" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O45" s="26" t="s">
+      <c r="O45" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q45" s="17"/>
@@ -4409,7 +4355,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="18"/>
       <c r="U45" s="18"/>
-      <c r="V45" s="26"/>
+      <c r="V45" s="24"/>
     </row>
     <row r="46" ht="22.5" customHeight="1" spans="1:22">
       <c r="A46" s="19" t="s">
@@ -4450,7 +4396,7 @@
       <c r="N46" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O46" s="27" t="s">
+      <c r="O46" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q46" s="19"/>
@@ -4458,7 +4404,7 @@
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="27"/>
+      <c r="V46" s="25"/>
     </row>
     <row r="47" ht="22.5" customHeight="1" spans="1:22">
       <c r="A47" s="17" t="s">
@@ -4499,7 +4445,7 @@
       <c r="N47" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="26" t="s">
+      <c r="O47" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q47" s="17"/>
@@ -4507,7 +4453,7 @@
       <c r="S47" s="18"/>
       <c r="T47" s="18"/>
       <c r="U47" s="18"/>
-      <c r="V47" s="26"/>
+      <c r="V47" s="24"/>
     </row>
     <row r="48" ht="22.5" customHeight="1" spans="1:22">
       <c r="A48" s="19" t="s">
@@ -4548,7 +4494,7 @@
       <c r="N48" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O48" s="27" t="s">
+      <c r="O48" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q48" s="19"/>
@@ -4556,7 +4502,7 @@
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="27"/>
+      <c r="V48" s="25"/>
     </row>
     <row r="49" ht="22.5" customHeight="1" spans="1:22">
       <c r="A49" s="17" t="s">
@@ -4597,7 +4543,7 @@
       <c r="N49" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O49" s="26" t="s">
+      <c r="O49" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q49" s="17"/>
@@ -4605,7 +4551,7 @@
       <c r="S49" s="18"/>
       <c r="T49" s="18"/>
       <c r="U49" s="18"/>
-      <c r="V49" s="26"/>
+      <c r="V49" s="24"/>
     </row>
     <row r="50" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A50" s="19" t="s">
@@ -4646,7 +4592,7 @@
       <c r="N50" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O50" s="27" t="s">
+      <c r="O50" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q50" s="19"/>
@@ -4654,7 +4600,7 @@
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
-      <c r="V50" s="27"/>
+      <c r="V50" s="25"/>
     </row>
     <row r="51" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A51" s="17" t="s">
@@ -4695,7 +4641,7 @@
       <c r="N51" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O51" s="26" t="s">
+      <c r="O51" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q51" s="17"/>
@@ -4703,7 +4649,7 @@
       <c r="S51" s="18"/>
       <c r="T51" s="18"/>
       <c r="U51" s="18"/>
-      <c r="V51" s="26"/>
+      <c r="V51" s="24"/>
     </row>
     <row r="52" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A52" s="19" t="s">
@@ -4744,7 +4690,7 @@
       <c r="N52" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O52" s="27" t="s">
+      <c r="O52" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q52" s="19"/>
@@ -4752,7 +4698,7 @@
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
-      <c r="V52" s="27"/>
+      <c r="V52" s="25"/>
     </row>
     <row r="53" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A53" s="17" t="s">
@@ -4793,7 +4739,7 @@
       <c r="N53" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O53" s="26" t="s">
+      <c r="O53" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q53" s="17"/>
@@ -4801,7 +4747,7 @@
       <c r="S53" s="18"/>
       <c r="T53" s="18"/>
       <c r="U53" s="18"/>
-      <c r="V53" s="26"/>
+      <c r="V53" s="24"/>
     </row>
     <row r="54" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A54" s="19" t="s">
@@ -4842,7 +4788,7 @@
       <c r="N54" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O54" s="27" t="s">
+      <c r="O54" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q54" s="19"/>
@@ -4850,7 +4796,7 @@
       <c r="S54" s="20"/>
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
-      <c r="V54" s="27"/>
+      <c r="V54" s="25"/>
     </row>
     <row r="55" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A55" s="17" t="s">
@@ -4891,7 +4837,7 @@
       <c r="N55" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O55" s="26" t="s">
+      <c r="O55" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q55" s="17"/>
@@ -4899,7 +4845,7 @@
       <c r="S55" s="18"/>
       <c r="T55" s="18"/>
       <c r="U55" s="18"/>
-      <c r="V55" s="26"/>
+      <c r="V55" s="24"/>
     </row>
     <row r="56" ht="22.5" customHeight="1" spans="1:22">
       <c r="A56" s="19" t="s">
@@ -4911,7 +4857,7 @@
       <c r="C56" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D56" s="21"/>
+      <c r="D56" s="20"/>
       <c r="E56" s="20">
         <v>0</v>
       </c>
@@ -4940,15 +4886,15 @@
       <c r="N56" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O56" s="27" t="s">
+      <c r="O56" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="30"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="25"/>
     </row>
     <row r="57" ht="22.5" customHeight="1" spans="1:22">
       <c r="A57" s="17" t="s">
@@ -4960,7 +4906,7 @@
       <c r="C57" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="22"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="18">
         <v>0</v>
       </c>
@@ -4989,15 +4935,15 @@
       <c r="N57" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O57" s="26" t="s">
+      <c r="O57" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="22"/>
-      <c r="T57" s="22"/>
-      <c r="U57" s="22"/>
-      <c r="V57" s="32"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="24"/>
     </row>
     <row r="58" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A58" s="19" t="s">
@@ -5038,7 +4984,7 @@
       <c r="N58" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O58" s="27" t="s">
+      <c r="O58" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q58" s="19"/>
@@ -5046,7 +4992,7 @@
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
-      <c r="V58" s="27"/>
+      <c r="V58" s="25"/>
     </row>
     <row r="59" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A59" s="17" t="s">
@@ -5087,7 +5033,7 @@
       <c r="N59" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O59" s="26" t="s">
+      <c r="O59" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q59" s="17"/>
@@ -5095,7 +5041,7 @@
       <c r="S59" s="18"/>
       <c r="T59" s="18"/>
       <c r="U59" s="18"/>
-      <c r="V59" s="26"/>
+      <c r="V59" s="24"/>
     </row>
     <row r="60" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A60" s="19" t="s">
@@ -5136,7 +5082,7 @@
       <c r="N60" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O60" s="27" t="s">
+      <c r="O60" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q60" s="19"/>
@@ -5144,7 +5090,7 @@
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
-      <c r="V60" s="27"/>
+      <c r="V60" s="25"/>
     </row>
     <row r="61" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A61" s="17" t="s">
@@ -5185,7 +5131,7 @@
       <c r="N61" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O61" s="26" t="s">
+      <c r="O61" s="24" t="s">
         <v>33</v>
       </c>
       <c r="Q61" s="17"/>
@@ -5193,7 +5139,7 @@
       <c r="S61" s="18"/>
       <c r="T61" s="18"/>
       <c r="U61" s="18"/>
-      <c r="V61" s="26"/>
+      <c r="V61" s="24"/>
     </row>
     <row r="62" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A62" s="19" t="s">
@@ -5234,7 +5180,7 @@
       <c r="N62" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O62" s="27" t="s">
+      <c r="O62" s="25" t="s">
         <v>33</v>
       </c>
       <c r="Q62" s="19"/>
@@ -5242,56 +5188,56 @@
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
-      <c r="V62" s="27"/>
+      <c r="V62" s="25"/>
     </row>
     <row r="63" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="21" t="s">
         <v>135</v>
       </c>
       <c r="B63" s="18">
         <v>61</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24">
+      <c r="D63" s="22"/>
+      <c r="E63" s="22">
         <v>0</v>
       </c>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24" t="s">
+      <c r="F63" s="22"/>
+      <c r="G63" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H63" s="24" t="s">
+      <c r="H63" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I63" s="24" t="s">
+      <c r="I63" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J63" s="24" t="s">
+      <c r="J63" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="K63" s="24" t="s">
+      <c r="K63" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="L63" s="24" t="s">
+      <c r="L63" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="M63" s="24" t="s">
+      <c r="M63" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="N63" s="24" t="s">
+      <c r="N63" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O63" s="28" t="s">
+      <c r="O63" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="24"/>
-      <c r="T63" s="24"/>
-      <c r="U63" s="24"/>
-      <c r="V63" s="28"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="22"/>
+      <c r="S63" s="22"/>
+      <c r="T63" s="22"/>
+      <c r="U63" s="22"/>
+      <c r="V63" s="26"/>
     </row>
     <row r="64" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A64" s="5"/>
@@ -5443,7 +5389,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -5578,13 +5524,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="18.0666666666667" customWidth="1"/>
     <col min="2" max="2" width="6.53333333333333" customWidth="1"/>
@@ -5707,7 +5653,7 @@
         <v>155</v>
       </c>
       <c r="B3" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>156</v>
@@ -5757,7 +5703,7 @@
         <v>157</v>
       </c>
       <c r="B4" s="5">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>158</v>
@@ -5807,7 +5753,7 @@
         <v>159</v>
       </c>
       <c r="B5" s="5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>160</v>
@@ -5857,7 +5803,7 @@
         <v>161</v>
       </c>
       <c r="B6" s="5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>162</v>
@@ -5907,7 +5853,7 @@
         <v>163</v>
       </c>
       <c r="B7" s="5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>164</v>
@@ -5957,7 +5903,7 @@
         <v>165</v>
       </c>
       <c r="B8" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>166</v>
@@ -6001,456 +5947,6 @@
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="5">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="5">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="5">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A12" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="5">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A13" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="5">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A14" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="5">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A15" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="5">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A16" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" s="5">
-        <v>14</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A17" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B17" s="5">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13451,7 +12947,7 @@
         <v>#REF!</v>
       </c>
       <c r="P176" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -13464,7 +12960,7 @@
         <v>#REF!</v>
       </c>
       <c r="P177" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="178" spans="1:20">
@@ -13480,16 +12976,16 @@
         <v>10</v>
       </c>
       <c r="O178" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="Q178" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="S178" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="T178" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -13502,10 +12998,10 @@
         <v>#REF!</v>
       </c>
       <c r="E179" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="P179" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -13518,10 +13014,10 @@
         <v>#REF!</v>
       </c>
       <c r="D180" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F180" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -13534,16 +13030,16 @@
         <v>#REF!</v>
       </c>
       <c r="F181" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="H181" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I181">
         <v>20</v>
       </c>
       <c r="K181" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="L181">
         <v>10</v>
@@ -13579,7 +13075,7 @@
         <v>#REF!</v>
       </c>
       <c r="E184" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -13595,7 +13091,7 @@
         <v>#REF!</v>
       </c>
       <c r="E185" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F185">
         <v>100</v>
@@ -13691,13 +13187,13 @@
         <v>#REF!</v>
       </c>
       <c r="F194" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G194" s="1">
         <v>0.3</v>
       </c>
       <c r="H194" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I194" s="1">
         <v>0.3</v>

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="138">
   <si>
     <t>index  下标</t>
   </si>
@@ -48,12 +48,267 @@
     <t>是否写入网表</t>
   </si>
   <si>
+    <t>基础的一个转换.每点属性可以获得的一个值</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>#Loccustom_attribute_{}</t>
+  </si>
+  <si>
+    <t>in_nt</t>
+  </si>
+  <si>
+    <t>ConversionValue[{]</t>
+  </si>
+  <si>
+    <t>[}]</t>
+  </si>
+  <si>
+    <t>AttackDamage</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>攻击范围</t>
+  </si>
+  <si>
+    <t>AttackRate</t>
+  </si>
+  <si>
+    <t>攻击间隔</t>
+  </si>
+  <si>
+    <t>PhyicalArmor</t>
+  </si>
+  <si>
+    <t>护甲值</t>
+  </si>
+  <si>
+    <t>减免任何伤害,之后计算其他元素伤害减免</t>
+  </si>
+  <si>
+    <t>HealingIncome</t>
+  </si>
+  <si>
+    <t>治疗收益</t>
+  </si>
+  <si>
+    <t>提高（回血、吸血等）的效率</t>
+  </si>
+  <si>
+    <t>StateResistance</t>
+  </si>
+  <si>
+    <t>状态抗性</t>
+  </si>
+  <si>
+    <t>受到控制,禁足等负面效果的衰减</t>
+  </si>
+  <si>
+    <t>FixedDamageBonus</t>
+  </si>
+  <si>
+    <t>固定增伤</t>
+  </si>
+  <si>
+    <t>每次造成的伤害都会额外附加该次伤害</t>
+  </si>
+  <si>
+    <t>FixedDamageReduction</t>
+  </si>
+  <si>
+    <t>固定减伤</t>
+  </si>
+  <si>
+    <t>每次收到伤害都会减少该值的伤害,之后再计算减免</t>
+  </si>
+  <si>
+    <t>HealthPoints</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>HealthRegen</t>
+  </si>
+  <si>
+    <t>生命恢复</t>
+  </si>
+  <si>
+    <t>ManaPoints</t>
+  </si>
+  <si>
+    <t>能量值</t>
+  </si>
+  <si>
+    <t>ManaRegen</t>
+  </si>
+  <si>
+    <t>能量恢复</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>AbilityHaste</t>
+  </si>
+  <si>
+    <t>技能急速</t>
+  </si>
+  <si>
+    <t>CritProbAll</t>
+  </si>
+  <si>
+    <t>%全爆击</t>
+  </si>
+  <si>
+    <t>CritDmgAll</t>
+  </si>
+  <si>
+    <t>%全爆伤</t>
+  </si>
+  <si>
+    <t>CritProbPhyical</t>
+  </si>
+  <si>
+    <t>物理爆击</t>
+  </si>
+  <si>
+    <t>CritDmgPhyical</t>
+  </si>
+  <si>
+    <t>物理爆伤</t>
+  </si>
+  <si>
+    <t>DamageMulPhyical</t>
+  </si>
+  <si>
+    <t>%物理伤害加成</t>
+  </si>
+  <si>
+    <t>PickItemRadius</t>
+  </si>
+  <si>
+    <t>拾取范围</t>
+  </si>
+  <si>
+    <t>Burn_DmgPercent</t>
+  </si>
+  <si>
+    <t>灼烧伤害%</t>
+  </si>
+  <si>
+    <t>Burn_Duration</t>
+  </si>
+  <si>
+    <t>灼烧时间</t>
+  </si>
+  <si>
+    <t>FinalDamageMul</t>
+  </si>
+  <si>
+    <t>%最终伤害</t>
+  </si>
+  <si>
+    <t>AbilityDamageMul</t>
+  </si>
+  <si>
+    <t>伤害加成</t>
+  </si>
+  <si>
+    <t>MeleeDmgPercent</t>
+  </si>
+  <si>
+    <t>%近战伤害加成</t>
+  </si>
+  <si>
+    <t>RangedDmgPercent</t>
+  </si>
+  <si>
+    <t>%远程伤害加成</t>
+  </si>
+  <si>
+    <t>#Loccustom_attribute_sub_{}</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>基础</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>额外</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>固定</t>
+  </si>
+  <si>
+    <t>BasePercent</t>
+  </si>
+  <si>
+    <t>基础加成</t>
+  </si>
+  <si>
+    <t>BonusPercent</t>
+  </si>
+  <si>
+    <t>额外加成</t>
+  </si>
+  <si>
+    <t>TotalPercent</t>
+  </si>
+  <si>
+    <t>总加成</t>
+  </si>
+  <si>
+    <t>PreLvBase</t>
+  </si>
+  <si>
+    <t>升级基础</t>
+  </si>
+  <si>
+    <t>PreLvBonus</t>
+  </si>
+  <si>
+    <t>升级额外</t>
+  </si>
+  <si>
+    <t>PreLvFixed</t>
+  </si>
+  <si>
+    <t>升级固定</t>
+  </si>
+  <si>
+    <t>属性值最终=基础+额外+固定</t>
+  </si>
+  <si>
     <t>扩展属性</t>
   </si>
   <si>
-    <t>基础</t>
-  </si>
-  <si>
     <t>额外绿字</t>
   </si>
   <si>
@@ -78,34 +333,13 @@
     <t>毎等级增加固定</t>
   </si>
   <si>
-    <t>基础的一个转换.每点属性可以获得的一个值</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>#Loccustom_attribute_{}</t>
-  </si>
-  <si>
-    <t>in_nt</t>
-  </si>
-  <si>
     <t>AbilityValues[{]</t>
   </si>
   <si>
-    <t>[}]</t>
-  </si>
-  <si>
-    <t>ConversionValue[{]</t>
-  </si>
-  <si>
-    <t>AttackDamage</t>
-  </si>
-  <si>
-    <t>攻击力</t>
+    <t>FSkillEffect_Fire</t>
+  </si>
+  <si>
+    <t>火元素技能效果</t>
   </si>
   <si>
     <t>Base 1</t>
@@ -133,375 +367,6 @@
   </si>
   <si>
     <t>PreLvFixed 9</t>
-  </si>
-  <si>
-    <t>AttackSpeed</t>
-  </si>
-  <si>
-    <t>攻击速度</t>
-  </si>
-  <si>
-    <t>AttackRange</t>
-  </si>
-  <si>
-    <t>攻击范围</t>
-  </si>
-  <si>
-    <t>AttackRate</t>
-  </si>
-  <si>
-    <t>攻击间隔</t>
-  </si>
-  <si>
-    <t>PhyicalArmor</t>
-  </si>
-  <si>
-    <t>护甲值</t>
-  </si>
-  <si>
-    <t>减免任何伤害,之后计算其他元素伤害减免</t>
-  </si>
-  <si>
-    <t>HealthIncome</t>
-  </si>
-  <si>
-    <t>治疗收益</t>
-  </si>
-  <si>
-    <t>提高（回血、吸血等）的效率</t>
-  </si>
-  <si>
-    <t>StateResistance</t>
-  </si>
-  <si>
-    <t>状态抗性</t>
-  </si>
-  <si>
-    <t>受到控制,禁足等负面效果的衰减</t>
-  </si>
-  <si>
-    <t>FixedDamageBonus</t>
-  </si>
-  <si>
-    <t>固定增伤</t>
-  </si>
-  <si>
-    <t>每次造成的伤害都会额外附加该次伤害</t>
-  </si>
-  <si>
-    <t>FixedDamageReduction</t>
-  </si>
-  <si>
-    <t>固定减伤</t>
-  </si>
-  <si>
-    <t>每次收到伤害都会减少该值的伤害,之后再计算减免</t>
-  </si>
-  <si>
-    <t>HealthPoints</t>
-  </si>
-  <si>
-    <t>生命值</t>
-  </si>
-  <si>
-    <t>HealthRegen</t>
-  </si>
-  <si>
-    <t>生命恢复</t>
-  </si>
-  <si>
-    <t>ManaPoints</t>
-  </si>
-  <si>
-    <t>魔法值</t>
-  </si>
-  <si>
-    <t>ManaRegen</t>
-  </si>
-  <si>
-    <t>魔法恢复</t>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
-    <t>AbilityHaste</t>
-  </si>
-  <si>
-    <t>技能急速</t>
-  </si>
-  <si>
-    <t>主要针对6个技能的加速</t>
-  </si>
-  <si>
-    <t>FinalDamageMul</t>
-  </si>
-  <si>
-    <t>%最终伤害</t>
-  </si>
-  <si>
-    <t>CritProbAll</t>
-  </si>
-  <si>
-    <t>%全爆击</t>
-  </si>
-  <si>
-    <t>CritDmgAll</t>
-  </si>
-  <si>
-    <t>%全爆伤</t>
-  </si>
-  <si>
-    <t>CritProbPhyical</t>
-  </si>
-  <si>
-    <t>物理爆击</t>
-  </si>
-  <si>
-    <t>CritDmgPhyical</t>
-  </si>
-  <si>
-    <t>物理爆伤</t>
-  </si>
-  <si>
-    <t>DamageMulPhyical</t>
-  </si>
-  <si>
-    <t>%物理伤害</t>
-  </si>
-  <si>
-    <t>Special_BurnDuration</t>
-  </si>
-  <si>
-    <t>灼烧时间</t>
-  </si>
-  <si>
-    <t>Special_PalsyDuration</t>
-  </si>
-  <si>
-    <t>麻痹时间</t>
-  </si>
-  <si>
-    <t>Special_IceMoveslow</t>
-  </si>
-  <si>
-    <t>减速效果</t>
-  </si>
-  <si>
-    <t>PickItemRadius</t>
-  </si>
-  <si>
-    <t>拾取范围</t>
-  </si>
-  <si>
-    <t>Fire_DamageMul</t>
-  </si>
-  <si>
-    <t>火元素伤害</t>
-  </si>
-  <si>
-    <t>Fire_CritProb</t>
-  </si>
-  <si>
-    <t>火暴击</t>
-  </si>
-  <si>
-    <t>Fire_CritDmg</t>
-  </si>
-  <si>
-    <t>火爆伤</t>
-  </si>
-  <si>
-    <t>Fire_ResistPenet</t>
-  </si>
-  <si>
-    <t>火穿透</t>
-  </si>
-  <si>
-    <t>Fire_Haste</t>
-  </si>
-  <si>
-    <t>火急速</t>
-  </si>
-  <si>
-    <t>Fire_Armor</t>
-  </si>
-  <si>
-    <t>火护甲</t>
-  </si>
-  <si>
-    <t>Ice_DamageMul</t>
-  </si>
-  <si>
-    <t>元素伤害</t>
-  </si>
-  <si>
-    <t>Ice_CritProb</t>
-  </si>
-  <si>
-    <t>暴击</t>
-  </si>
-  <si>
-    <t>Ice_CritDmg</t>
-  </si>
-  <si>
-    <t>爆伤</t>
-  </si>
-  <si>
-    <t>Ice_ResistPenet</t>
-  </si>
-  <si>
-    <t>穿透</t>
-  </si>
-  <si>
-    <t>Ice_Haste</t>
-  </si>
-  <si>
-    <t>急速</t>
-  </si>
-  <si>
-    <t>Ice_Armor</t>
-  </si>
-  <si>
-    <t>护甲</t>
-  </si>
-  <si>
-    <t>Thunder_DamageMul</t>
-  </si>
-  <si>
-    <t>Thunder_CritProb</t>
-  </si>
-  <si>
-    <t>Thunder_CritDmg</t>
-  </si>
-  <si>
-    <t>Thunder_ResistPenet</t>
-  </si>
-  <si>
-    <t>Thunder_Haste</t>
-  </si>
-  <si>
-    <t>Thunder_Armor</t>
-  </si>
-  <si>
-    <t>Wind_DamageMul</t>
-  </si>
-  <si>
-    <t>Wind_CritProb</t>
-  </si>
-  <si>
-    <t>Wind_CritDmg</t>
-  </si>
-  <si>
-    <t>Wind_ResistPenet</t>
-  </si>
-  <si>
-    <t>Wind_Haste</t>
-  </si>
-  <si>
-    <t>Wind_Armor</t>
-  </si>
-  <si>
-    <t>Light_DamageMul</t>
-  </si>
-  <si>
-    <t>Light_CritProb</t>
-  </si>
-  <si>
-    <t>Light_CritDmg</t>
-  </si>
-  <si>
-    <t>Light_ResistPenet</t>
-  </si>
-  <si>
-    <t>Light_Haste</t>
-  </si>
-  <si>
-    <t>Light_Armor</t>
-  </si>
-  <si>
-    <t>Dark_DamageMul</t>
-  </si>
-  <si>
-    <t>Dark_CritProb</t>
-  </si>
-  <si>
-    <t>Dark_CritDmg</t>
-  </si>
-  <si>
-    <t>Dark_ResistPenet</t>
-  </si>
-  <si>
-    <t>Dark_Haste</t>
-  </si>
-  <si>
-    <t>Dark_Armor</t>
-  </si>
-  <si>
-    <t>#Loccustom_attribute_sub_{}</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>Bonus</t>
-  </si>
-  <si>
-    <t>额外</t>
-  </si>
-  <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>固定</t>
-  </si>
-  <si>
-    <t>BasePercent</t>
-  </si>
-  <si>
-    <t>基础加成</t>
-  </si>
-  <si>
-    <t>BonusPercent</t>
-  </si>
-  <si>
-    <t>额外加成</t>
-  </si>
-  <si>
-    <t>TotalPercent</t>
-  </si>
-  <si>
-    <t>总加成</t>
-  </si>
-  <si>
-    <t>PreLvBase</t>
-  </si>
-  <si>
-    <t>升级基础</t>
-  </si>
-  <si>
-    <t>PreLvBonus</t>
-  </si>
-  <si>
-    <t>升级额外</t>
-  </si>
-  <si>
-    <t>PreLvFixed</t>
-  </si>
-  <si>
-    <t>升级固定</t>
-  </si>
-  <si>
-    <t>属性值最终=基础+额外+固定</t>
-  </si>
-  <si>
-    <t>FSkillEffect_Fire</t>
-  </si>
-  <si>
-    <t>火元素技能效果</t>
   </si>
   <si>
     <t>FSkillEffect_Ice</t>
@@ -1130,6 +995,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="FF595959"/>
       </left>
@@ -1146,6 +1024,17 @@
       </left>
       <right style="medium">
         <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
       </right>
       <top/>
       <bottom/>
@@ -1182,56 +1071,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF595959"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -1247,13 +1086,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thick">
         <color rgb="FF595959"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
       <bottom style="thick">
         <color rgb="FF595959"/>
       </bottom>
@@ -1559,34 +1430,34 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1777,12 +1648,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2391BF2E-9151-49DA-B671-9BB6805EC2B6}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{FF115235-EFB0-4427-BDD2-8270B7DB38EE}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C727FF69-AC9E-4BF1-AECF-C33E45446EC0}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{032F2028-539F-45D9-8AE6-D44971A5EFCB}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -2087,34 +1958,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W69"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="26.175" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.34166666666667" style="6" customWidth="1"/>
     <col min="3" max="3" width="26.0083333333333" style="6" customWidth="1"/>
     <col min="4" max="4" width="44.0083333333333" style="6" customWidth="1"/>
     <col min="5" max="5" width="16.0083333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.175" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.3416666666667" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.3416666666667" style="6" customWidth="1"/>
-    <col min="9" max="9" width="24.8416666666667" style="6" customWidth="1"/>
-    <col min="10" max="11" width="28.8416666666667" style="6" customWidth="1"/>
-    <col min="12" max="12" width="24.675" style="6" customWidth="1"/>
-    <col min="13" max="13" width="16.0083333333333" style="6" customWidth="1"/>
-    <col min="14" max="15" width="17.8416666666667" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9" style="6"/>
-    <col min="17" max="17" width="23.625" style="6" customWidth="1"/>
-    <col min="18" max="22" width="6.24166666666667" style="6" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="6"/>
+    <col min="6" max="6" width="23.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.24166666666667" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:22">
+    <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2133,3249 +1995,554 @@
       <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="C2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="F2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="G2" s="20">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="B3" s="22">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="23"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A2" s="17" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B5" s="22">
+        <v>3</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22">
+        <v>0</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18" t="s">
+      <c r="B6" s="19">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="18">
-        <v>1</v>
-      </c>
-      <c r="H2" s="18">
-        <v>2</v>
-      </c>
-      <c r="I2" s="18">
-        <v>3</v>
-      </c>
-      <c r="J2" s="18">
-        <v>4</v>
-      </c>
-      <c r="K2" s="18">
+      <c r="B7" s="22">
         <v>5</v>
       </c>
-      <c r="L2" s="18">
+      <c r="C7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="19">
         <v>6</v>
       </c>
-      <c r="M2" s="18">
+      <c r="C8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="22">
         <v>7</v>
       </c>
-      <c r="N2" s="18">
+      <c r="C9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="19">
         <v>8</v>
       </c>
-      <c r="O2" s="24">
+      <c r="C10" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="22">
         <v>9</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="C11" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="19">
+        <v>10</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A13" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="22">
+        <v>11</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="19">
+        <v>12</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="22">
+        <v>13</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22">
+        <v>0</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="19">
+        <v>14</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19">
+        <v>0</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="22">
+        <v>15</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22">
+        <v>0</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="19">
+        <v>16</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19">
+        <v>0</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A19" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="22">
+        <v>17</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22">
+        <v>0</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A20" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="19">
+        <v>18</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A21" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="22">
+        <v>19</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22">
+        <v>0</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A22" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="19">
+        <v>20</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19">
+        <v>0</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A23" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="22">
         <v>21</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="C23" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22">
+        <v>0</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A24" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="19">
         <v>22</v>
       </c>
-      <c r="R2" s="18">
-        <v>1</v>
-      </c>
-      <c r="S2" s="18">
-        <v>2</v>
-      </c>
-      <c r="T2" s="18">
-        <v>3</v>
-      </c>
-      <c r="U2" s="18">
-        <v>4</v>
-      </c>
-      <c r="V2" s="24">
-        <v>5</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A3" s="19" t="s">
+      <c r="C24" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19">
+        <v>0</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="22">
         <v>23</v>
       </c>
-      <c r="B3" s="20">
-        <v>1</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="C25" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22">
+        <v>0</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A26" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="19">
         <v>24</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20">
+      <c r="C26" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19">
         <v>0</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20" t="s">
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A27" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="22">
         <v>25</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="C27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22">
+        <v>0</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A28" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="19">
         <v>26</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="C28" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19">
+        <v>0</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A29" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="25">
         <v>27</v>
       </c>
-      <c r="J3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="25"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A4" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="18">
-        <v>2</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18">
+      <c r="C29" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25">
         <v>0</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="24"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="20">
-        <v>3</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20">
-        <v>0</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="25"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="18">
-        <v>4</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="24"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A7" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="20">
-        <v>5</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="20">
-        <v>0</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="25"/>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="18">
-        <v>6</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="18">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="24"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A9" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="18">
-        <v>7</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="24"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A10" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="18">
-        <v>8</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="20">
-        <v>0</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="25"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="18">
-        <v>9</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="24"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A12" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="18">
-        <v>10</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20">
-        <v>0</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="25"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A13" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="18">
-        <v>11</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="24"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A14" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="18">
-        <v>12</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20">
-        <v>0</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="25"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A15" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="18">
-        <v>13</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18">
-        <v>0</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="24"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A16" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="18">
-        <v>14</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20">
-        <v>0</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="25"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A17" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="18">
-        <v>15</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="18">
-        <v>0</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="24"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A18" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="18">
-        <v>16</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20">
-        <v>0</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="25"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="18">
-        <v>17</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="24"/>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A20" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="18">
-        <v>18</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N20" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="25"/>
-    </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A21" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="18">
-        <v>19</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="24"/>
-    </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A22" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="18">
-        <v>20</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20">
-        <v>0</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M22" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N22" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="25"/>
-    </row>
-    <row r="23" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A23" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="18">
-        <v>21</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="24"/>
-    </row>
-    <row r="24" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A24" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="18">
-        <v>22</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20">
-        <v>0</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="25"/>
-    </row>
-    <row r="25" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A25" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="18">
-        <v>23</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18">
-        <v>0</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="24"/>
-    </row>
-    <row r="26" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A26" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="18">
-        <v>24</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20">
-        <v>0</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M26" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="25"/>
-    </row>
-    <row r="27" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A27" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="18">
-        <v>25</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18">
-        <v>0</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="24"/>
-    </row>
-    <row r="28" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A28" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="18">
-        <v>26</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20">
-        <v>0</v>
-      </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M28" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N28" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="25"/>
-    </row>
-    <row r="29" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A29" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="18">
-        <v>27</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18">
-        <v>0</v>
-      </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I29" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L29" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M29" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="24"/>
-    </row>
-    <row r="30" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A30" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="18">
-        <v>28</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20">
-        <v>0</v>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M30" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N30" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="25"/>
-    </row>
-    <row r="31" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A31" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="18">
-        <v>29</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18">
-        <v>0</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L31" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M31" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N31" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="24"/>
-    </row>
-    <row r="32" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A32" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="18">
-        <v>30</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20">
-        <v>0</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M32" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="25"/>
-    </row>
-    <row r="33" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A33" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="18">
-        <v>31</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18">
-        <v>0</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L33" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M33" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N33" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="24"/>
-    </row>
-    <row r="34" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A34" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="18">
-        <v>32</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20">
-        <v>0</v>
-      </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M34" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N34" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="25"/>
-    </row>
-    <row r="35" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A35" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="18">
-        <v>33</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18">
-        <v>0</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L35" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M35" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N35" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O35" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="24"/>
-    </row>
-    <row r="36" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A36" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="18">
-        <v>34</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20">
-        <v>0</v>
-      </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L36" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M36" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N36" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="25"/>
-    </row>
-    <row r="37" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A37" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" s="18">
-        <v>35</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18">
-        <v>0</v>
-      </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K37" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L37" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M37" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="24"/>
-    </row>
-    <row r="38" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A38" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="18">
-        <v>36</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20">
-        <v>0</v>
-      </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L38" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M38" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N38" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O38" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="25"/>
-    </row>
-    <row r="39" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A39" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="18">
-        <v>37</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18">
-        <v>0</v>
-      </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K39" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L39" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M39" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N39" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="24"/>
-    </row>
-    <row r="40" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A40" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="18">
-        <v>38</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20">
-        <v>0</v>
-      </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K40" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L40" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M40" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N40" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O40" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="25"/>
-    </row>
-    <row r="41" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A41" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="18">
-        <v>39</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18">
-        <v>0</v>
-      </c>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J41" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K41" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L41" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M41" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N41" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="24"/>
-    </row>
-    <row r="42" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A42" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42" s="18">
-        <v>40</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20">
-        <v>0</v>
-      </c>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I42" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K42" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L42" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M42" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N42" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O42" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="25"/>
-    </row>
-    <row r="43" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A43" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B43" s="18">
-        <v>41</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18">
-        <v>0</v>
-      </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K43" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L43" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M43" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N43" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O43" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="24"/>
-    </row>
-    <row r="44" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A44" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" s="18">
-        <v>42</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20">
-        <v>0</v>
-      </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K44" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L44" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M44" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N44" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O44" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="25"/>
-    </row>
-    <row r="45" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A45" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" s="18">
-        <v>43</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18">
-        <v>0</v>
-      </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J45" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L45" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M45" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N45" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O45" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="24"/>
-    </row>
-    <row r="46" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A46" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="18">
-        <v>44</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20">
-        <v>0</v>
-      </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J46" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L46" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M46" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N46" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O46" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="25"/>
-    </row>
-    <row r="47" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A47" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="18">
-        <v>45</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18">
-        <v>0</v>
-      </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K47" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M47" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N47" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O47" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="24"/>
-    </row>
-    <row r="48" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A48" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B48" s="18">
-        <v>46</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20">
-        <v>0</v>
-      </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J48" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K48" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L48" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M48" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N48" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O48" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="25"/>
-    </row>
-    <row r="49" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A49" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B49" s="18">
-        <v>47</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18">
-        <v>0</v>
-      </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J49" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K49" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L49" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M49" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N49" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="24"/>
-    </row>
-    <row r="50" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A50" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B50" s="18">
-        <v>48</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20">
-        <v>0</v>
-      </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I50" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J50" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K50" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L50" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M50" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N50" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="25"/>
-    </row>
-    <row r="51" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A51" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" s="18">
-        <v>49</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18">
-        <v>0</v>
-      </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I51" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J51" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K51" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L51" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M51" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N51" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O51" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="24"/>
-    </row>
-    <row r="52" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A52" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B52" s="18">
-        <v>50</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20">
-        <v>0</v>
-      </c>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I52" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K52" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L52" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M52" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N52" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O52" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="25"/>
-    </row>
-    <row r="53" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A53" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B53" s="18">
-        <v>51</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18">
-        <v>0</v>
-      </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J53" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K53" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L53" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M53" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N53" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O53" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q53" s="17"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="24"/>
-    </row>
-    <row r="54" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A54" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54" s="18">
-        <v>52</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20">
-        <v>0</v>
-      </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I54" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J54" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K54" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L54" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M54" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N54" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O54" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="25"/>
-    </row>
-    <row r="55" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A55" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B55" s="18">
-        <v>53</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18">
-        <v>0</v>
-      </c>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I55" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J55" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K55" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L55" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M55" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O55" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="24"/>
-    </row>
-    <row r="56" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A56" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56" s="18">
-        <v>54</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20">
-        <v>0</v>
-      </c>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I56" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J56" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K56" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L56" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M56" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N56" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O56" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
-      <c r="V56" s="25"/>
-    </row>
-    <row r="57" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A57" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B57" s="18">
-        <v>55</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18">
-        <v>0</v>
-      </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H57" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J57" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K57" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L57" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M57" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N57" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O57" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="24"/>
-    </row>
-    <row r="58" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A58" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B58" s="18">
-        <v>56</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20">
-        <v>0</v>
-      </c>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J58" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K58" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L58" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M58" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N58" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O58" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="20"/>
-      <c r="V58" s="25"/>
-    </row>
-    <row r="59" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A59" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="18">
-        <v>57</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18">
-        <v>0</v>
-      </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H59" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I59" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J59" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K59" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L59" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M59" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N59" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O59" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="24"/>
-    </row>
-    <row r="60" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A60" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B60" s="18">
-        <v>58</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20">
-        <v>0</v>
-      </c>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J60" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K60" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L60" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M60" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N60" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O60" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="20"/>
-      <c r="V60" s="25"/>
-    </row>
-    <row r="61" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A61" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B61" s="18">
-        <v>59</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18">
-        <v>0</v>
-      </c>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H61" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I61" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J61" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K61" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="L61" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="M61" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="N61" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O61" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q61" s="17"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
-      <c r="V61" s="24"/>
-    </row>
-    <row r="62" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A62" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B62" s="18">
-        <v>60</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20">
-        <v>0</v>
-      </c>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J62" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K62" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="L62" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="M62" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="N62" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O62" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="20"/>
-      <c r="V62" s="25"/>
-    </row>
-    <row r="63" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A63" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B63" s="18">
-        <v>61</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22">
-        <v>0</v>
-      </c>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H63" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I63" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J63" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K63" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="L63" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="M63" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="N63" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="22"/>
-      <c r="S63" s="22"/>
-      <c r="T63" s="22"/>
-      <c r="U63" s="22"/>
-      <c r="V63" s="26"/>
-    </row>
-    <row r="64" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-    </row>
-    <row r="65" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-    </row>
-    <row r="66" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-    </row>
-    <row r="67" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-    </row>
-    <row r="68" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-    </row>
-    <row r="69" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5407,112 +2574,112 @@
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
       <c r="A4" s="10" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="B4" s="11">
         <v>2</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
       <c r="A5" s="10" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="B5" s="11">
         <v>3</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:3">
       <c r="A6" s="10" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="B6" s="11">
         <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:3">
       <c r="A7" s="10" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="B7" s="11">
         <v>5</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
       <c r="A8" s="10" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="B8" s="11">
         <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
       <c r="A9" s="10" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="B9" s="11">
         <v>7</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
       <c r="A10" s="10" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="B10" s="11">
         <v>8</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:3">
       <c r="A11" s="13" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="B11" s="11">
         <v>9</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5565,57 +2732,57 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" ht="71.6" customHeight="1" spans="1:17">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H2" s="5">
         <v>1</v>
@@ -5645,18 +2812,18 @@
         <v>9</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A3" s="5" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="B3" s="5">
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
@@ -5665,31 +2832,31 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
@@ -5700,13 +2867,13 @@
     </row>
     <row r="4" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A4" s="5" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="B4" s="5">
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5">
@@ -5715,31 +2882,31 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
@@ -5750,13 +2917,13 @@
     </row>
     <row r="5" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A5" s="5" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5">
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -5765,31 +2932,31 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
@@ -5800,13 +2967,13 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A6" s="5" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="B6" s="5">
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -5815,31 +2982,31 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
@@ -5850,13 +3017,13 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A7" s="5" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="B7" s="5">
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -5865,31 +3032,31 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
@@ -5900,13 +3067,13 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A8" s="5" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="B8" s="5">
         <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5">
@@ -5915,31 +3082,31 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
@@ -12947,7 +10114,7 @@
         <v>#REF!</v>
       </c>
       <c r="P176" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -12960,7 +10127,7 @@
         <v>#REF!</v>
       </c>
       <c r="P177" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
     </row>
     <row r="178" spans="1:20">
@@ -12976,16 +10143,16 @@
         <v>10</v>
       </c>
       <c r="O178" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="Q178" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="S178" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="T178" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -12998,10 +10165,10 @@
         <v>#REF!</v>
       </c>
       <c r="E179" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="P179" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -13014,10 +10181,10 @@
         <v>#REF!</v>
       </c>
       <c r="D180" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="F180" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -13030,16 +10197,16 @@
         <v>#REF!</v>
       </c>
       <c r="F181" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="H181" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="I181">
         <v>20</v>
       </c>
       <c r="K181" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="L181">
         <v>10</v>
@@ -13075,7 +10242,7 @@
         <v>#REF!</v>
       </c>
       <c r="E184" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -13091,7 +10258,7 @@
         <v>#REF!</v>
       </c>
       <c r="E185" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="F185">
         <v>100</v>
@@ -13187,13 +10354,13 @@
         <v>#REF!</v>
       </c>
       <c r="F194" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="G194" s="1">
         <v>0.3</v>
       </c>
       <c r="H194" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="I194" s="1">
         <v>0.3</v>

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -9,9 +9,8 @@
   <sheets>
     <sheet name="attribute_const" sheetId="6" r:id="rId1"/>
     <sheet name="attribute_sub" sheetId="7" r:id="rId2"/>
-    <sheet name="__attribute_extra_const" sheetId="3" r:id="rId3"/>
-    <sheet name="__localization_2" sheetId="4" r:id="rId4"/>
-    <sheet name="__localization_3" sheetId="5" r:id="rId5"/>
+    <sheet name="__localization_2" sheetId="4" r:id="rId3"/>
+    <sheet name="__localization_3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
   <si>
     <t>index  下标</t>
   </si>
@@ -210,42 +209,42 @@
     <t>拾取范围</t>
   </si>
   <si>
-    <t>Burn_DmgPercent</t>
+    <t>AbilityDamageMul</t>
+  </si>
+  <si>
+    <t>伤害加成</t>
+  </si>
+  <si>
+    <t>FinalDamageMul</t>
+  </si>
+  <si>
+    <t>%最终伤害</t>
+  </si>
+  <si>
+    <t>MeleeDmgPercent</t>
+  </si>
+  <si>
+    <t>%近战伤害加成</t>
+  </si>
+  <si>
+    <t>RangedDmgPercent</t>
+  </si>
+  <si>
+    <t>%远程伤害加成</t>
+  </si>
+  <si>
+    <t>BurningDmg</t>
   </si>
   <si>
     <t>灼烧伤害%</t>
   </si>
   <si>
-    <t>Burn_Duration</t>
+    <t>BurningDuration</t>
   </si>
   <si>
     <t>灼烧时间</t>
   </si>
   <si>
-    <t>FinalDamageMul</t>
-  </si>
-  <si>
-    <t>%最终伤害</t>
-  </si>
-  <si>
-    <t>AbilityDamageMul</t>
-  </si>
-  <si>
-    <t>伤害加成</t>
-  </si>
-  <si>
-    <t>MeleeDmgPercent</t>
-  </si>
-  <si>
-    <t>%近战伤害加成</t>
-  </si>
-  <si>
-    <t>RangedDmgPercent</t>
-  </si>
-  <si>
-    <t>%远程伤害加成</t>
-  </si>
-  <si>
     <t>#Loccustom_attribute_sub_{}</t>
   </si>
   <si>
@@ -301,102 +300,6 @@
   </si>
   <si>
     <t>升级固定</t>
-  </si>
-  <si>
-    <t>属性值最终=基础+额外+固定</t>
-  </si>
-  <si>
-    <t>扩展属性</t>
-  </si>
-  <si>
-    <t>额外绿字</t>
-  </si>
-  <si>
-    <t>固定值[不吃任何加成]</t>
-  </si>
-  <si>
-    <t>基础百分比[吃白字,转为绿字]</t>
-  </si>
-  <si>
-    <t>额外百分比[吃绿字,转为fixed</t>
-  </si>
-  <si>
-    <t>白值+绿字 转为 fixed</t>
-  </si>
-  <si>
-    <t>毎级增加基础</t>
-  </si>
-  <si>
-    <t>毎等级增加额外</t>
-  </si>
-  <si>
-    <t>毎等级增加固定</t>
-  </si>
-  <si>
-    <t>AbilityValues[{]</t>
-  </si>
-  <si>
-    <t>FSkillEffect_Fire</t>
-  </si>
-  <si>
-    <t>火元素技能效果</t>
-  </si>
-  <si>
-    <t>Base 1</t>
-  </si>
-  <si>
-    <t>Bonus 2</t>
-  </si>
-  <si>
-    <t>Fixed 3</t>
-  </si>
-  <si>
-    <t>BasePercent 4</t>
-  </si>
-  <si>
-    <t>BonusPercent 5</t>
-  </si>
-  <si>
-    <t>TotalPercent 6</t>
-  </si>
-  <si>
-    <t>PreLvBase 7</t>
-  </si>
-  <si>
-    <t>PreLvBonus 8</t>
-  </si>
-  <si>
-    <t>PreLvFixed 9</t>
-  </si>
-  <si>
-    <t>FSkillEffect_Ice</t>
-  </si>
-  <si>
-    <t>冰元素技能效果</t>
-  </si>
-  <si>
-    <t>FSkillEffect_Thunder</t>
-  </si>
-  <si>
-    <t>累元素技能效果</t>
-  </si>
-  <si>
-    <t>FSkillEffect_Wind</t>
-  </si>
-  <si>
-    <t>风元素技能效果</t>
-  </si>
-  <si>
-    <t>FSkillEffect_Light</t>
-  </si>
-  <si>
-    <t>光元素技能效果</t>
-  </si>
-  <si>
-    <t>FSkillEffect_Dark</t>
-  </si>
-  <si>
-    <t>暗元素技能效果</t>
   </si>
   <si>
     <t>四大元素</t>
@@ -457,7 +360,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,13 +375,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
@@ -487,7 +383,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -636,7 +532,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,18 +542,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5A5A5A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,7 +732,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -969,13 +853,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color rgb="FF595959"/>
       </left>
       <right style="medium">
         <color theme="0"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color rgb="FF595959"/>
       </top>
       <bottom/>
@@ -988,7 +872,7 @@
       <right style="medium">
         <color theme="0"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color rgb="FF595959"/>
       </top>
       <bottom/>
@@ -998,135 +882,81 @@
       <left style="medium">
         <color theme="0"/>
       </left>
-      <right style="thick">
+      <right style="medium">
         <color rgb="FF595959"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color rgb="FF595959"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
+      <left style="medium">
+        <color rgb="FF5A5A5A"/>
       </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
+      <right style="thin">
+        <color rgb="FFEBEBEB"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color rgb="FFEBEBEB"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFEBEBEB"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFEBEBEB"/>
       </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color rgb="FFEBEBEB"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFEBEBEB"/>
       </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
+      <right style="medium">
+        <color rgb="FF5A5A5A"/>
       </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
+        <color rgb="FFEBEBEB"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFEBEBEB"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFEBEBEB"/>
       </right>
       <top style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color rgb="FFEBEBEB"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
+      <bottom style="thin">
+        <color rgb="FFEBEBEB"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFEBEBEB"/>
       </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
+      <right style="thin">
+        <color rgb="FFEBEBEB"/>
       </right>
       <top style="thin">
+        <color rgb="FFEBEBEB"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,13 +1078,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1263,55 +1096,58 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1320,10 +1156,10 @@
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1332,10 +1168,10 @@
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1344,10 +1180,10 @@
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1356,10 +1192,10 @@
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1368,17 +1204,11 @@
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1388,76 +1218,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1648,12 +1475,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{FF115235-EFB0-4427-BDD2-8270B7DB38EE}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1A56DCBD-56FE-44A0-A321-C311B638F07C}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{032F2028-539F-45D9-8AE6-D44971A5EFCB}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0489C1CF-8171-4DBB-8BB7-E7D5888BBD02}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1958,591 +1785,573 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="26.175" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.34166666666667" style="6" customWidth="1"/>
-    <col min="3" max="3" width="26.0083333333333" style="6" customWidth="1"/>
-    <col min="4" max="4" width="44.0083333333333" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.0083333333333" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.24166666666667" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="26.175" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.34166666666667" style="12" customWidth="1"/>
+    <col min="3" max="3" width="26.0083333333333" style="12" customWidth="1"/>
+    <col min="4" max="4" width="44.0083333333333" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.0083333333333" style="12" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="6.24166666666667" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="18">
         <v>1</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="20">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20">
         <v>0</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="20">
         <v>2</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20">
         <v>0</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="20">
         <v>3</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20">
         <v>0</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="20">
         <v>4</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20">
         <v>0</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="20">
         <v>5</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>0</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="20">
         <v>6</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="20">
         <v>0</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="20">
         <v>7</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="20">
         <v>0</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="20">
         <v>8</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="20">
         <v>0</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="20">
         <v>9</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="20">
         <v>0</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="20">
         <v>10</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20">
         <v>0</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="20">
         <v>11</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20">
         <v>0</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="20">
         <v>12</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20">
         <v>0</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="20">
         <v>13</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22">
+      <c r="D15" s="20"/>
+      <c r="E15" s="20">
         <v>0</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="20">
         <v>14</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20">
         <v>0</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="20">
         <v>15</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20">
         <v>0</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="20">
         <v>16</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20">
         <v>0</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="20">
         <v>17</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20">
         <v>0</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="20">
         <v>18</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20">
         <v>0</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="20">
         <v>19</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20">
         <v>0</v>
       </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="20">
         <v>20</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20">
         <v>0</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="20">
         <v>21</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20">
         <v>0</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A24" s="18" t="s">
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A24" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="20">
         <v>22</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20">
         <v>0</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A25" s="21" t="s">
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A25" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="20">
         <v>23</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20">
         <v>0</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="20">
         <v>24</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20">
         <v>0</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="20">
         <v>25</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20">
         <v>0</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A28" s="18" t="s">
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A28" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="20">
         <v>26</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20">
         <v>0</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A29" s="24" t="s">
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+    </row>
+    <row r="29" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A29" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="23">
         <v>27</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23">
         <v>0</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-    </row>
-    <row r="30" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2566,119 +2375,119 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <v>9</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="10" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2691,443 +2500,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
-  <cols>
-    <col min="1" max="1" width="18.0666666666667" customWidth="1"/>
-    <col min="2" max="2" width="6.53333333333333" customWidth="1"/>
-    <col min="3" max="3" width="21.675" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="13.4166666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.0166666666667" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="7.56666666666667" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="20.475" customWidth="1"/>
-    <col min="11" max="12" width="13.0166666666667" customWidth="1"/>
-    <col min="13" max="13" width="20.3" customWidth="1"/>
-    <col min="14" max="14" width="13.4166666666667" customWidth="1"/>
-    <col min="15" max="16" width="15.3083333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="143.25" customHeight="1" spans="1:17">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="6"/>
-    </row>
-    <row r="2" ht="71.6" customHeight="1" spans="1:17">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5">
-        <v>2</v>
-      </c>
-      <c r="J2" s="5">
-        <v>3</v>
-      </c>
-      <c r="K2" s="5">
-        <v>4</v>
-      </c>
-      <c r="L2" s="5">
-        <v>5</v>
-      </c>
-      <c r="M2" s="5">
-        <v>6</v>
-      </c>
-      <c r="N2" s="5">
-        <v>7</v>
-      </c>
-      <c r="O2" s="5">
-        <v>8</v>
-      </c>
-      <c r="P2" s="5">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A3" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="5">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A4" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="5">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A5" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="5">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="5">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A7" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="5">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A8" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="5">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:E237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D21"/>
+      <selection activeCell="A27" sqref="A1:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3140,9 +2516,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A1" s="2" t="str">
+        <f>""""&amp;attribute_const!A3&amp;""""</f>
+        <v>"AttackDamage"</v>
       </c>
       <c r="B1" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3162,9 +2538,9 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A2" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A4&amp;""""</f>
+        <v>|"AttackSpeed"</v>
       </c>
       <c r="B2" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3184,9 +2560,9 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A3" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A5&amp;""""</f>
+        <v>|"AttackRange"</v>
       </c>
       <c r="B3" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3206,9 +2582,9 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A4" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A6&amp;""""</f>
+        <v>|"AttackRate"</v>
       </c>
       <c r="B4" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3228,9 +2604,9 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A5" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A7&amp;""""</f>
+        <v>|"PhyicalArmor"</v>
       </c>
       <c r="B5" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3250,9 +2626,9 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A6" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A8&amp;""""</f>
+        <v>|"HealingIncome"</v>
       </c>
       <c r="B6" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3272,9 +2648,9 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A7" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A9&amp;""""</f>
+        <v>|"StateResistance"</v>
       </c>
       <c r="B7" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3294,9 +2670,9 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A8" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A10&amp;""""</f>
+        <v>|"FixedDamageBonus"</v>
       </c>
       <c r="B8" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3316,9 +2692,9 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A9" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A11&amp;""""</f>
+        <v>|"FixedDamageReduction"</v>
       </c>
       <c r="B9" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3338,9 +2714,9 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A10" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A12&amp;""""</f>
+        <v>|"HealthPoints"</v>
       </c>
       <c r="B10" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3360,9 +2736,9 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A11" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A13&amp;""""</f>
+        <v>|"HealthRegen"</v>
       </c>
       <c r="B11" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3382,9 +2758,9 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A12" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A14&amp;""""</f>
+        <v>|"ManaPoints"</v>
       </c>
       <c r="B12" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3404,9 +2780,9 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A13" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A15&amp;""""</f>
+        <v>|"ManaRegen"</v>
       </c>
       <c r="B13" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3426,9 +2802,9 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A14" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A16&amp;""""</f>
+        <v>|"MoveSpeed"</v>
       </c>
       <c r="B14" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3448,9 +2824,9 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A15" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A17&amp;""""</f>
+        <v>|"AbilityHaste"</v>
       </c>
       <c r="B15" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3470,9 +2846,9 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A16" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A18&amp;""""</f>
+        <v>|"CritProbAll"</v>
       </c>
       <c r="B16" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3492,9 +2868,9 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A17" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A19&amp;""""</f>
+        <v>|"CritDmgAll"</v>
       </c>
       <c r="B17" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3514,9 +2890,9 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A18" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A20&amp;""""</f>
+        <v>|"CritProbPhyical"</v>
       </c>
       <c r="B18" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3536,9 +2912,9 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A19" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A21&amp;""""</f>
+        <v>|"CritDmgPhyical"</v>
       </c>
       <c r="B19" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3558,9 +2934,9 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A20" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A22&amp;""""</f>
+        <v>|"DamageMulPhyical"</v>
       </c>
       <c r="B20" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3580,9 +2956,9 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A21" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A23&amp;""""</f>
+        <v>|"PickItemRadius"</v>
       </c>
       <c r="B21" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3602,9 +2978,9 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A22" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A24&amp;""""</f>
+        <v>|"AbilityDamageMul"</v>
       </c>
       <c r="B22" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3624,9 +3000,9 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A23" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A25&amp;""""</f>
+        <v>|"FinalDamageMul"</v>
       </c>
       <c r="B23" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3646,9 +3022,9 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A24" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A26&amp;""""</f>
+        <v>|"MeleeDmgPercent"</v>
       </c>
       <c r="B24" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3668,9 +3044,9 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A25" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A27&amp;""""</f>
+        <v>|"RangedDmgPercent"</v>
       </c>
       <c r="B25" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3690,9 +3066,9 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A26" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A28&amp;""""</f>
+        <v>|"BurningDmg"</v>
       </c>
       <c r="B26" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3712,9 +3088,9 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A27" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A29&amp;""""</f>
+        <v>|"BurningDuration"</v>
       </c>
       <c r="B27" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3734,9 +3110,9 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A28" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A30&amp;""""</f>
+        <v>|""</v>
       </c>
       <c r="B28" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3756,9 +3132,9 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A29" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A31&amp;""""</f>
+        <v>|""</v>
       </c>
       <c r="B29" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3778,9 +3154,9 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A30" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A32&amp;""""</f>
+        <v>|""</v>
       </c>
       <c r="B30" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3800,9 +3176,9 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A31" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A33&amp;""""</f>
+        <v>|""</v>
       </c>
       <c r="B31" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3822,9 +3198,9 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A32" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A34&amp;""""</f>
+        <v>|""</v>
       </c>
       <c r="B32" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3844,9 +3220,9 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A33" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A35&amp;""""</f>
+        <v>|""</v>
       </c>
       <c r="B33" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3866,9 +3242,9 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A34" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A34&amp;""""</f>
+        <v>|""</v>
       </c>
       <c r="B34" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -8359,12 +7735,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A3:T230"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O178" sqref="O178"/>
     </sheetView>
   </sheetViews>
@@ -10114,7 +9490,7 @@
         <v>#REF!</v>
       </c>
       <c r="P176" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10127,7 +9503,7 @@
         <v>#REF!</v>
       </c>
       <c r="P177" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
     </row>
     <row r="178" spans="1:20">
@@ -10143,16 +9519,16 @@
         <v>10</v>
       </c>
       <c r="O178" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="Q178" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="S178" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="T178" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10165,10 +9541,10 @@
         <v>#REF!</v>
       </c>
       <c r="E179" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="P179" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -10181,10 +9557,10 @@
         <v>#REF!</v>
       </c>
       <c r="D180" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="F180" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -10197,16 +9573,16 @@
         <v>#REF!</v>
       </c>
       <c r="F181" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="H181" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="I181">
         <v>20</v>
       </c>
       <c r="K181" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="L181">
         <v>10</v>
@@ -10242,7 +9618,7 @@
         <v>#REF!</v>
       </c>
       <c r="E184" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -10258,7 +9634,7 @@
         <v>#REF!</v>
       </c>
       <c r="E185" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="F185">
         <v>100</v>
@@ -10354,13 +9730,13 @@
         <v>#REF!</v>
       </c>
       <c r="F194" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G194" s="1">
         <v>0.3</v>
       </c>
       <c r="H194" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="I194" s="1">
         <v>0.3</v>

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_const" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="100">
   <si>
     <t>index  下标</t>
   </si>
@@ -101,42 +101,6 @@
     <t>减免任何伤害,之后计算其他元素伤害减免</t>
   </si>
   <si>
-    <t>HealingIncome</t>
-  </si>
-  <si>
-    <t>治疗收益</t>
-  </si>
-  <si>
-    <t>提高（回血、吸血等）的效率</t>
-  </si>
-  <si>
-    <t>StateResistance</t>
-  </si>
-  <si>
-    <t>状态抗性</t>
-  </si>
-  <si>
-    <t>受到控制,禁足等负面效果的衰减</t>
-  </si>
-  <si>
-    <t>FixedDamageBonus</t>
-  </si>
-  <si>
-    <t>固定增伤</t>
-  </si>
-  <si>
-    <t>每次造成的伤害都会额外附加该次伤害</t>
-  </si>
-  <si>
-    <t>FixedDamageReduction</t>
-  </si>
-  <si>
-    <t>固定减伤</t>
-  </si>
-  <si>
-    <t>每次收到伤害都会减少该值的伤害,之后再计算减免</t>
-  </si>
-  <si>
     <t>HealthPoints</t>
   </si>
   <si>
@@ -185,34 +149,16 @@
     <t>%全爆伤</t>
   </si>
   <si>
-    <t>CritProbPhyical</t>
-  </si>
-  <si>
-    <t>物理爆击</t>
-  </si>
-  <si>
-    <t>CritDmgPhyical</t>
-  </si>
-  <si>
-    <t>物理爆伤</t>
-  </si>
-  <si>
-    <t>DamageMulPhyical</t>
-  </si>
-  <si>
-    <t>%物理伤害加成</t>
-  </si>
-  <si>
     <t>PickItemRadius</t>
   </si>
   <si>
     <t>拾取范围</t>
   </si>
   <si>
-    <t>AbilityDamageMul</t>
+    <t>DamageBonusMul</t>
   </si>
   <si>
-    <t>伤害加成</t>
+    <t>%伤害加成</t>
   </si>
   <si>
     <t>FinalDamageMul</t>
@@ -243,6 +189,42 @@
   </si>
   <si>
     <t>灼烧时间</t>
+  </si>
+  <si>
+    <t>FireDamageBonus</t>
+  </si>
+  <si>
+    <t>火元素伤害</t>
+  </si>
+  <si>
+    <t>IceDamageBonus</t>
+  </si>
+  <si>
+    <t>冰元素伤害</t>
+  </si>
+  <si>
+    <t>ThunderDamageBonus</t>
+  </si>
+  <si>
+    <t>雷元素伤害</t>
+  </si>
+  <si>
+    <t>WindDamageBonus</t>
+  </si>
+  <si>
+    <t>风元素伤害</t>
+  </si>
+  <si>
+    <t>LightDamageBonus</t>
+  </si>
+  <si>
+    <t>光元素伤害</t>
+  </si>
+  <si>
+    <t>DarkDamageBonus</t>
+  </si>
+  <si>
+    <t>暗元素伤害</t>
   </si>
   <si>
     <t>#Loccustom_attribute_sub_{}</t>
@@ -1208,7 +1190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1282,9 +1264,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1475,12 +1454,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1A56DCBD-56FE-44A0-A321-C311B638F07C}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5F9DC22D-04FC-4A1A-90DB-96BBB4D1DC04}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0489C1CF-8171-4DBB-8BB7-E7D5888BBD02}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{BA53D68F-52FC-404A-96DB-6BDEA6D2F7D3}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1785,18 +1764,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="26.175" style="12" customWidth="1"/>
+    <col min="1" max="1" width="25.3416666666667" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.34166666666667" style="12" customWidth="1"/>
     <col min="3" max="3" width="26.0083333333333" style="12" customWidth="1"/>
-    <col min="4" max="4" width="44.0083333333333" style="12" customWidth="1"/>
+    <col min="4" max="4" width="35.3416666666667" style="12" customWidth="1"/>
     <col min="5" max="5" width="16.0083333333333" style="12" customWidth="1"/>
     <col min="6" max="6" width="23.625" style="12" customWidth="1"/>
     <col min="7" max="7" width="6.24166666666667" style="12" customWidth="1"/>
@@ -1945,9 +1924,7 @@
       <c r="C8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="D8" s="20"/>
       <c r="E8" s="20">
         <v>0</v>
       </c>
@@ -1956,17 +1933,15 @@
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:7">
       <c r="A9" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="20">
         <v>7</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>28</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D9" s="20"/>
       <c r="E9" s="20">
         <v>0</v>
       </c>
@@ -1975,17 +1950,15 @@
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:7">
       <c r="A10" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="20">
         <v>8</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D10" s="20"/>
       <c r="E10" s="20">
         <v>0</v>
       </c>
@@ -1994,17 +1967,15 @@
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:7">
       <c r="A11" s="19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="20">
         <v>9</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D11" s="20"/>
       <c r="E11" s="20">
         <v>0</v>
       </c>
@@ -2013,13 +1984,13 @@
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:7">
       <c r="A12" s="19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B12" s="20">
         <v>10</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20">
@@ -2030,13 +2001,13 @@
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:7">
       <c r="A13" s="19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B13" s="20">
         <v>11</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20">
@@ -2047,13 +2018,13 @@
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:7">
       <c r="A14" s="19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B14" s="20">
         <v>12</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20">
@@ -2064,13 +2035,13 @@
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:7">
       <c r="A15" s="19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15" s="20">
         <v>13</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20">
@@ -2081,13 +2052,13 @@
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:7">
       <c r="A16" s="19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B16" s="20">
         <v>14</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20">
@@ -2098,13 +2069,13 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:7">
       <c r="A17" s="19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B17" s="20">
         <v>15</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20">
@@ -2115,13 +2086,13 @@
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:7">
       <c r="A18" s="19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B18" s="20">
         <v>16</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20">
@@ -2132,13 +2103,13 @@
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:7">
       <c r="A19" s="19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B19" s="20">
         <v>17</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20">
@@ -2149,13 +2120,13 @@
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:7">
       <c r="A20" s="19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B20" s="20">
         <v>18</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20">
@@ -2164,15 +2135,15 @@
       <c r="F20" s="20"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:7">
+    <row r="21" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A21" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B21" s="20">
         <v>19</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20">
@@ -2181,15 +2152,15 @@
       <c r="F21" s="20"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:7">
+    <row r="22" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A22" s="19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B22" s="20">
         <v>20</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20">
@@ -2198,15 +2169,15 @@
       <c r="F22" s="20"/>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" ht="22.5" customHeight="1" spans="1:7">
+    <row r="23" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A23" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B23" s="20">
         <v>21</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20">
@@ -2215,15 +2186,15 @@
       <c r="F23" s="20"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" ht="22.5" customHeight="1" spans="1:7">
+    <row r="24" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A24" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B24" s="20">
         <v>22</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20">
@@ -2232,15 +2203,15 @@
       <c r="F24" s="20"/>
       <c r="G24" s="21"/>
     </row>
-    <row r="25" ht="22.5" customHeight="1" spans="1:7">
+    <row r="25" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A25" s="19" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B25" s="20">
         <v>23</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20">
@@ -2249,15 +2220,15 @@
       <c r="F25" s="20"/>
       <c r="G25" s="21"/>
     </row>
-    <row r="26" ht="22.5" customHeight="1" spans="1:7">
+    <row r="26" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A26" s="19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B26" s="20">
         <v>24</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20">
@@ -2266,15 +2237,15 @@
       <c r="F26" s="20"/>
       <c r="G26" s="21"/>
     </row>
-    <row r="27" ht="22.5" customHeight="1" spans="1:7">
+    <row r="27" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A27" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B27" s="20">
         <v>25</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="20">
@@ -2284,74 +2255,21 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A28" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="20">
+      <c r="A28" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="23">
         <v>26</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20">
+      <c r="C28" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23">
         <v>0</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A29" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="23">
-        <v>27</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23">
-        <v>0</v>
-      </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-    </row>
-    <row r="31" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2389,106 +2307,106 @@
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B4" s="7">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B6" s="7">
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B7" s="7">
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B8" s="7">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B9" s="7">
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B10" s="7">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:3">
       <c r="A11" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B11" s="7">
         <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2502,8 +2420,8 @@
   <sheetPr/>
   <dimension ref="A1:E237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A1:A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2628,7 +2546,7 @@
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="str">
         <f>"|"""&amp;attribute_const!A8&amp;""""</f>
-        <v>|"HealingIncome"</v>
+        <v>|"HealthPoints"</v>
       </c>
       <c r="B6" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -2650,7 +2568,7 @@
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="str">
         <f>"|"""&amp;attribute_const!A9&amp;""""</f>
-        <v>|"StateResistance"</v>
+        <v>|"HealthRegen"</v>
       </c>
       <c r="B7" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -2672,7 +2590,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="str">
         <f>"|"""&amp;attribute_const!A10&amp;""""</f>
-        <v>|"FixedDamageBonus"</v>
+        <v>|"ManaPoints"</v>
       </c>
       <c r="B8" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -2694,7 +2612,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="str">
         <f>"|"""&amp;attribute_const!A11&amp;""""</f>
-        <v>|"FixedDamageReduction"</v>
+        <v>|"ManaRegen"</v>
       </c>
       <c r="B9" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -2716,7 +2634,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="str">
         <f>"|"""&amp;attribute_const!A12&amp;""""</f>
-        <v>|"HealthPoints"</v>
+        <v>|"MoveSpeed"</v>
       </c>
       <c r="B10" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -2738,7 +2656,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="str">
         <f>"|"""&amp;attribute_const!A13&amp;""""</f>
-        <v>|"HealthRegen"</v>
+        <v>|"AbilityHaste"</v>
       </c>
       <c r="B11" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -2760,7 +2678,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="str">
         <f>"|"""&amp;attribute_const!A14&amp;""""</f>
-        <v>|"ManaPoints"</v>
+        <v>|"CritProbAll"</v>
       </c>
       <c r="B12" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -2782,7 +2700,7 @@
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="str">
         <f>"|"""&amp;attribute_const!A15&amp;""""</f>
-        <v>|"ManaRegen"</v>
+        <v>|"CritDmgAll"</v>
       </c>
       <c r="B13" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -2804,7 +2722,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="str">
         <f>"|"""&amp;attribute_const!A16&amp;""""</f>
-        <v>|"MoveSpeed"</v>
+        <v>|"PickItemRadius"</v>
       </c>
       <c r="B14" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -2826,7 +2744,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="str">
         <f>"|"""&amp;attribute_const!A17&amp;""""</f>
-        <v>|"AbilityHaste"</v>
+        <v>|"DamageBonusMul"</v>
       </c>
       <c r="B15" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -2848,7 +2766,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="str">
         <f>"|"""&amp;attribute_const!A18&amp;""""</f>
-        <v>|"CritProbAll"</v>
+        <v>|"FinalDamageMul"</v>
       </c>
       <c r="B16" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -2870,7 +2788,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="str">
         <f>"|"""&amp;attribute_const!A19&amp;""""</f>
-        <v>|"CritDmgAll"</v>
+        <v>|"MeleeDmgPercent"</v>
       </c>
       <c r="B17" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -2892,7 +2810,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="str">
         <f>"|"""&amp;attribute_const!A20&amp;""""</f>
-        <v>|"CritProbPhyical"</v>
+        <v>|"RangedDmgPercent"</v>
       </c>
       <c r="B18" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -2914,7 +2832,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="str">
         <f>"|"""&amp;attribute_const!A21&amp;""""</f>
-        <v>|"CritDmgPhyical"</v>
+        <v>|"BurningDmg"</v>
       </c>
       <c r="B19" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -2936,7 +2854,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="str">
         <f>"|"""&amp;attribute_const!A22&amp;""""</f>
-        <v>|"DamageMulPhyical"</v>
+        <v>|"BurningDuration"</v>
       </c>
       <c r="B20" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -2958,7 +2876,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="str">
         <f>"|"""&amp;attribute_const!A23&amp;""""</f>
-        <v>|"PickItemRadius"</v>
+        <v>|"FireDamageBonus"</v>
       </c>
       <c r="B21" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -2980,7 +2898,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="str">
         <f>"|"""&amp;attribute_const!A24&amp;""""</f>
-        <v>|"AbilityDamageMul"</v>
+        <v>|"IceDamageBonus"</v>
       </c>
       <c r="B22" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3002,7 +2920,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="str">
         <f>"|"""&amp;attribute_const!A25&amp;""""</f>
-        <v>|"FinalDamageMul"</v>
+        <v>|"ThunderDamageBonus"</v>
       </c>
       <c r="B23" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3024,7 +2942,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="str">
         <f>"|"""&amp;attribute_const!A26&amp;""""</f>
-        <v>|"MeleeDmgPercent"</v>
+        <v>|"WindDamageBonus"</v>
       </c>
       <c r="B24" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3046,7 +2964,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="str">
         <f>"|"""&amp;attribute_const!A27&amp;""""</f>
-        <v>|"RangedDmgPercent"</v>
+        <v>|"LightDamageBonus"</v>
       </c>
       <c r="B25" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3068,7 +2986,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="str">
         <f>"|"""&amp;attribute_const!A28&amp;""""</f>
-        <v>|"BurningDmg"</v>
+        <v>|"DarkDamageBonus"</v>
       </c>
       <c r="B26" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3090,7 +3008,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="str">
         <f>"|"""&amp;attribute_const!A29&amp;""""</f>
-        <v>|"BurningDuration"</v>
+        <v>|""</v>
       </c>
       <c r="B27" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3243,7 +3161,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="str">
-        <f>"|"""&amp;attribute_const!A34&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A36&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B34" s="2" t="e">
@@ -3264,9 +3182,9 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A35" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A37&amp;""""</f>
+        <v>|""</v>
       </c>
       <c r="B35" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3286,9 +3204,9 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A36" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A38&amp;""""</f>
+        <v>|""</v>
       </c>
       <c r="B36" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3308,9 +3226,9 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A37" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A39&amp;""""</f>
+        <v>|""</v>
       </c>
       <c r="B37" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3330,9 +3248,9 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A38" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A40&amp;""""</f>
+        <v>|""</v>
       </c>
       <c r="B38" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3352,9 +3270,9 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A39" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A41&amp;""""</f>
+        <v>|""</v>
       </c>
       <c r="B39" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3374,9 +3292,9 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A40" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A42&amp;""""</f>
+        <v>|""</v>
       </c>
       <c r="B40" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3396,9 +3314,9 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A41" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A43&amp;""""</f>
+        <v>|""</v>
       </c>
       <c r="B41" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3418,9 +3336,9 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="2" t="e">
-        <f>"|"""&amp;#REF!&amp;""""</f>
-        <v>#REF!</v>
+      <c r="A42" s="2" t="str">
+        <f>"|"""&amp;attribute_const!A44&amp;""""</f>
+        <v>|""</v>
       </c>
       <c r="B42" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -9490,7 +9408,7 @@
         <v>#REF!</v>
       </c>
       <c r="P176" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -9503,7 +9421,7 @@
         <v>#REF!</v>
       </c>
       <c r="P177" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="178" spans="1:20">
@@ -9519,16 +9437,16 @@
         <v>10</v>
       </c>
       <c r="O178" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Q178" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="S178" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="T178" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -9541,10 +9459,10 @@
         <v>#REF!</v>
       </c>
       <c r="E179" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P179" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -9557,10 +9475,10 @@
         <v>#REF!</v>
       </c>
       <c r="D180" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F180" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -9573,16 +9491,16 @@
         <v>#REF!</v>
       </c>
       <c r="F181" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H181" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I181">
         <v>20</v>
       </c>
       <c r="K181" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="L181">
         <v>10</v>
@@ -9618,7 +9536,7 @@
         <v>#REF!</v>
       </c>
       <c r="E184" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -9634,7 +9552,7 @@
         <v>#REF!</v>
       </c>
       <c r="E185" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F185">
         <v>100</v>
@@ -9730,13 +9648,13 @@
         <v>#REF!</v>
       </c>
       <c r="F194" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G194" s="1">
         <v>0.3</v>
       </c>
       <c r="H194" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I194" s="1">
         <v>0.3</v>

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_const" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="107">
   <si>
     <t>index  下标</t>
   </si>
@@ -225,6 +225,27 @@
   </si>
   <si>
     <t>暗元素伤害</t>
+  </si>
+  <si>
+    <t>KillRestoreHp</t>
+  </si>
+  <si>
+    <t>击杀回血</t>
+  </si>
+  <si>
+    <t>KillRestoreMp</t>
+  </si>
+  <si>
+    <t>击杀回蓝</t>
+  </si>
+  <si>
+    <t>RestoreIncrease</t>
+  </si>
+  <si>
+    <t>回复增强</t>
+  </si>
+  <si>
+    <t>提高额外的回复效果</t>
   </si>
   <si>
     <t>#Loccustom_attribute_sub_{}</t>
@@ -365,7 +386,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -514,7 +535,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,7 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FF5A5A5A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +741,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -835,13 +862,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
         <color rgb="FF595959"/>
       </left>
       <right style="medium">
         <color theme="0"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color rgb="FF595959"/>
       </top>
       <bottom/>
@@ -854,7 +881,7 @@
       <right style="medium">
         <color theme="0"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color rgb="FF595959"/>
       </top>
       <bottom/>
@@ -864,81 +891,135 @@
       <left style="medium">
         <color theme="0"/>
       </left>
-      <right style="medium">
+      <right style="thick">
         <color rgb="FF595959"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color rgb="FF595959"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color rgb="FF5A5A5A"/>
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
       </left>
       <right style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FFFFFFFF"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FF5A5A5A"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FFFFFFFF"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FF5A5A5A"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FFFFFFFF"/>
       </left>
-      <right style="medium">
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thin">
         <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FF5A5A5A"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FFFFFFFF"/>
       </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
+      <right style="thick">
+        <color rgb="FF595959"/>
       </right>
       <top style="thin">
-        <color rgb="FFEBEBEB"/>
+        <color rgb="FF5A5A5A"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF5A5A5A"/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,7 +1147,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1078,119 +1159,119 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1239,6 +1320,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1248,22 +1332,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1454,12 +1541,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5F9DC22D-04FC-4A1A-90DB-96BBB4D1DC04}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{FE06C321-0F9E-4AA8-BB2C-61917E73DF47}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{BA53D68F-52FC-404A-96DB-6BDEA6D2F7D3}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{059428B7-1A05-4F37-ABA8-D7D5FD4FC572}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1764,10 +1851,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1782,7 +1869,7 @@
     <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:7">
+    <row r="1" ht="39" customHeight="1" spans="1:8">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1802,475 +1889,559 @@
         <v>5</v>
       </c>
       <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="19">
         <v>1</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A3" s="19" t="s">
+    <row r="3" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="21">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21">
         <v>0</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A4" s="19" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="18">
         <v>2</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20">
+      <c r="D4" s="18"/>
+      <c r="E4" s="18">
         <v>0</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A5" s="19" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="21">
         <v>3</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20">
+      <c r="D5" s="21"/>
+      <c r="E5" s="21">
         <v>0</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A6" s="19" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <v>4</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20">
+      <c r="D6" s="18"/>
+      <c r="E6" s="18">
         <v>0</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A7" s="19" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="21">
         <v>5</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="21">
         <v>0</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A8" s="19" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <v>6</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18">
         <v>0</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A9" s="19" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="21">
         <v>7</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21">
         <v>0</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A10" s="19" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <v>8</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18">
         <v>0</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A11" s="19" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="21">
         <v>9</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21">
         <v>0</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A12" s="19" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="18">
         <v>10</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18">
         <v>0</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A13" s="19" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="20">
+      <c r="B13" s="21">
         <v>11</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20">
+      <c r="D13" s="21"/>
+      <c r="E13" s="21">
         <v>0</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A14" s="19" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="18">
         <v>12</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18">
         <v>0</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A15" s="19" t="s">
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A15" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="21">
         <v>13</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20">
+      <c r="D15" s="21"/>
+      <c r="E15" s="21">
         <v>0</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A16" s="19" t="s">
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="18">
         <v>14</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20">
+      <c r="D16" s="18"/>
+      <c r="E16" s="18">
         <v>0</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A17" s="19" t="s">
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A17" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="21">
         <v>15</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20">
+      <c r="D17" s="21"/>
+      <c r="E17" s="21">
         <v>0</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A18" s="19" t="s">
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A18" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="18">
         <v>16</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20">
+      <c r="D18" s="18"/>
+      <c r="E18" s="18">
         <v>0</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A19" s="19" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A19" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="20">
+      <c r="B19" s="21">
         <v>17</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21">
         <v>0</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A20" s="19" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A20" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="18">
         <v>18</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18">
         <v>0</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A21" s="19" t="s">
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A21" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="21">
         <v>19</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21">
         <v>0</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A22" s="19" t="s">
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="18">
         <v>20</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20">
+      <c r="D22" s="18"/>
+      <c r="E22" s="18">
         <v>0</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A23" s="19" t="s">
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A23" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="21">
         <v>21</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20">
+      <c r="D23" s="21"/>
+      <c r="E23" s="21">
         <v>0</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="24" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A24" s="19" t="s">
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A24" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="18">
         <v>22</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20">
+      <c r="D24" s="18"/>
+      <c r="E24" s="18">
         <v>0</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A25" s="19" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A25" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="21">
         <v>23</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21">
         <v>0</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A26" s="19" t="s">
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A26" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="18">
         <v>24</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20">
+      <c r="D26" s="18"/>
+      <c r="E26" s="18">
         <v>0</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="21"/>
-    </row>
-    <row r="27" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A27" s="19" t="s">
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A27" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="21">
         <v>25</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21">
         <v>0</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A28" s="22" t="s">
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A28" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="18">
         <v>26</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23">
+      <c r="D28" s="18"/>
+      <c r="E28" s="18">
         <v>0</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-    </row>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A29" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="21">
+        <v>27</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21">
+        <v>0</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A30" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="18">
+        <v>28</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A31" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="25">
+        <v>29</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="25">
+        <v>0</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" ht="14.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2283,7 +2454,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2307,106 +2478,106 @@
         <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B4" s="7">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B6" s="7">
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B7" s="7">
         <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B8" s="7">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B9" s="7">
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B10" s="7">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:3">
       <c r="A11" s="9" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B11" s="7">
         <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2420,7 +2591,7 @@
   <sheetPr/>
   <dimension ref="A1:E237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3008,7 +3179,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="str">
         <f>"|"""&amp;attribute_const!A29&amp;""""</f>
-        <v>|""</v>
+        <v>|"KillRestoreHp"</v>
       </c>
       <c r="B27" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3030,7 +3201,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="str">
         <f>"|"""&amp;attribute_const!A30&amp;""""</f>
-        <v>|""</v>
+        <v>|"KillRestoreMp"</v>
       </c>
       <c r="B28" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3052,7 +3223,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="str">
         <f>"|"""&amp;attribute_const!A31&amp;""""</f>
-        <v>|""</v>
+        <v>|"RestoreIncrease"</v>
       </c>
       <c r="B29" s="2" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -9408,7 +9579,7 @@
         <v>#REF!</v>
       </c>
       <c r="P176" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -9421,7 +9592,7 @@
         <v>#REF!</v>
       </c>
       <c r="P177" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="178" spans="1:20">
@@ -9437,16 +9608,16 @@
         <v>10</v>
       </c>
       <c r="O178" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Q178" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="S178" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="T178" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -9459,10 +9630,10 @@
         <v>#REF!</v>
       </c>
       <c r="E179" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P179" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -9475,10 +9646,10 @@
         <v>#REF!</v>
       </c>
       <c r="D180" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F180" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -9491,16 +9662,16 @@
         <v>#REF!</v>
       </c>
       <c r="F181" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H181" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="I181">
         <v>20</v>
       </c>
       <c r="K181" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L181">
         <v>10</v>
@@ -9536,7 +9707,7 @@
         <v>#REF!</v>
       </c>
       <c r="E184" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -9552,7 +9723,7 @@
         <v>#REF!</v>
       </c>
       <c r="E185" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F185">
         <v>100</v>
@@ -9648,13 +9819,13 @@
         <v>#REF!</v>
       </c>
       <c r="F194" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G194" s="1">
         <v>0.3</v>
       </c>
       <c r="H194" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I194" s="1">
         <v>0.3</v>

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_const" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="136">
   <si>
     <t>index  下标</t>
   </si>
@@ -151,13 +151,13 @@
     <t>CriticalChance</t>
   </si>
   <si>
-    <t>%全爆击</t>
+    <t>%暴击概率</t>
   </si>
   <si>
     <t>CriticalDamage</t>
   </si>
   <si>
-    <t>%全爆伤</t>
+    <t>%暴击伤害</t>
   </si>
   <si>
     <t>PickItemRadius</t>
@@ -172,6 +172,15 @@
     <t>%伤害加成</t>
   </si>
   <si>
+    <t>当局部分</t>
+  </si>
+  <si>
+    <t>DamageServerMul</t>
+  </si>
+  <si>
+    <t>存档部分</t>
+  </si>
+  <si>
     <t>FinalDamageMul</t>
   </si>
   <si>
@@ -353,6 +362,18 @@
   </si>
   <si>
     <t>对应减少固定伤害</t>
+  </si>
+  <si>
+    <t>SingleExpeIncrease</t>
+  </si>
+  <si>
+    <t>个人经验获取率</t>
+  </si>
+  <si>
+    <t>SacredEqiopSkillDmg</t>
+  </si>
+  <si>
+    <t>神圣装备技伤</t>
   </si>
   <si>
     <t>#Loccustom_attribute_sub_{}</t>
@@ -1330,7 +1351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1385,22 +1406,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1609,12 +1615,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D1D175DE-83D4-41F6-B141-938D2114D15A}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F1728E25-F173-4FB2-8DF1-F3C82FAD986E}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{CCB747FB-828C-4272-A3BC-0F605696BC2E}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C74C9BFF-FE7E-40BD-9179-301BD115379E}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1919,10 +1925,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1963,8 +1969,8 @@
       <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="26"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:11">
       <c r="A2" s="14" t="s">
@@ -1990,10 +1996,10 @@
       <c r="I2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="22">
         <v>1</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="21" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2019,8 +2025,8 @@
         <v>0</v>
       </c>
       <c r="I3" s="17"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="26"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:11">
       <c r="A4" s="14" t="s">
@@ -2044,8 +2050,8 @@
         <v>0</v>
       </c>
       <c r="I4" s="15"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="26"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:11">
       <c r="A5" s="16" t="s">
@@ -2069,8 +2075,8 @@
         <v>0</v>
       </c>
       <c r="I5" s="17"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="26"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:11">
       <c r="A6" s="14" t="s">
@@ -2094,8 +2100,8 @@
         <v>0</v>
       </c>
       <c r="I6" s="15"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="26"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:11">
       <c r="A7" s="16" t="s">
@@ -2121,8 +2127,8 @@
         <v>0</v>
       </c>
       <c r="I7" s="17"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="26"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:11">
       <c r="A8" s="14" t="s">
@@ -2146,8 +2152,8 @@
         <v>0</v>
       </c>
       <c r="I8" s="15"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="26"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:11">
       <c r="A9" s="16" t="s">
@@ -2171,8 +2177,8 @@
         <v>0</v>
       </c>
       <c r="I9" s="17"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="26"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:11">
       <c r="A10" s="14" t="s">
@@ -2196,8 +2202,8 @@
         <v>0</v>
       </c>
       <c r="I10" s="15"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="26"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:11">
       <c r="A11" s="16" t="s">
@@ -2221,8 +2227,8 @@
         <v>0</v>
       </c>
       <c r="I11" s="17"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="26"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:11">
       <c r="A12" s="14" t="s">
@@ -2246,8 +2252,8 @@
         <v>0</v>
       </c>
       <c r="I12" s="15"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="26"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:11">
       <c r="A13" s="16" t="s">
@@ -2271,8 +2277,8 @@
         <v>0</v>
       </c>
       <c r="I13" s="17"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="26"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:11">
       <c r="A14" s="14" t="s">
@@ -2296,8 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I14" s="15"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="26"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:11">
       <c r="A15" s="16" t="s">
@@ -2321,8 +2327,8 @@
         <v>0</v>
       </c>
       <c r="I15" s="17"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="26"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="21"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:11">
       <c r="A16" s="14" t="s">
@@ -2346,8 +2352,8 @@
         <v>0</v>
       </c>
       <c r="I16" s="15"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="26"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="21"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:11">
       <c r="A17" s="16" t="s">
@@ -2365,24 +2371,26 @@
       <c r="E17" s="17">
         <v>0</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17">
         <v>0</v>
       </c>
       <c r="I17" s="17"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="26"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A18" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="15">
-        <v>16</v>
-      </c>
-      <c r="C18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>48</v>
+      </c>
+      <c r="B18" s="17">
+        <v>15</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="D18" s="17">
         <v>1</v>
@@ -2390,24 +2398,26 @@
       <c r="E18" s="17">
         <v>0</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-      <c r="I18" s="15"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="26"/>
+      <c r="F18" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="17"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A19" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="17">
-        <v>17</v>
-      </c>
-      <c r="C19" s="17" t="s">
+      <c r="A19" s="14" t="s">
         <v>50</v>
+      </c>
+      <c r="B19" s="15">
+        <v>16</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="D19" s="17">
         <v>1</v>
@@ -2415,24 +2425,24 @@
       <c r="E19" s="17">
         <v>0</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17">
-        <v>0</v>
-      </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="26"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A20" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="15">
-        <v>18</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="A20" s="16" t="s">
         <v>52</v>
+      </c>
+      <c r="B20" s="17">
+        <v>17</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="D20" s="17">
         <v>1</v>
@@ -2440,341 +2450,340 @@
       <c r="E20" s="17">
         <v>0</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="26"/>
-    </row>
-    <row r="21" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A21" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="17">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17">
+        <v>0</v>
+      </c>
+      <c r="I20" s="17"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="15">
+        <v>18</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A22" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="17">
         <v>19</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="17">
-        <v>0</v>
-      </c>
-      <c r="E21" s="17">
-        <v>0</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17">
-        <v>0</v>
-      </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="28"/>
-    </row>
-    <row r="22" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A22" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="15">
+      <c r="C22" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17">
+        <v>0</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="15">
         <v>20</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="17">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15">
-        <v>0</v>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="27"/>
-    </row>
-    <row r="23" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A23" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="17">
+      <c r="C23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A24" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="17">
         <v>21</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="17">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
-        <v>0</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17">
-        <v>0</v>
-      </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A24" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="15">
+      <c r="C24" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17">
+        <v>0</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A25" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="15">
         <v>22</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="17">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17">
-        <v>0</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15">
-        <v>0</v>
-      </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="27"/>
-    </row>
-    <row r="25" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A25" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="17">
+      <c r="C25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A26" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="17">
         <v>23</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="17">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17">
-        <v>0</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17">
-        <v>0</v>
-      </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="28"/>
-    </row>
-    <row r="26" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A26" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="15">
+      <c r="C26" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A27" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="15">
         <v>24</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0</v>
-      </c>
-      <c r="E26" s="17">
-        <v>0</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15">
-        <v>0</v>
-      </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="27"/>
-    </row>
-    <row r="27" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A27" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="17">
+      <c r="C27" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A28" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="17">
         <v>25</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="17">
-        <v>0</v>
-      </c>
-      <c r="E27" s="17">
-        <v>0</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17">
-        <v>0</v>
-      </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="28"/>
-    </row>
-    <row r="28" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A28" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="15">
+      <c r="C28" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17">
+        <v>0</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A29" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="15">
         <v>26</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="17">
-        <v>0</v>
-      </c>
-      <c r="E28" s="17">
-        <v>0</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15">
-        <v>0</v>
-      </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="27"/>
-    </row>
-    <row r="29" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A29" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="17">
+      <c r="C29" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15">
+        <v>0</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="17">
         <v>27</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="17">
-        <v>0</v>
-      </c>
-      <c r="E29" s="17">
-        <v>0</v>
-      </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17">
-        <v>0</v>
-      </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="28"/>
-    </row>
-    <row r="30" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A30" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="15">
+      <c r="C30" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="17">
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17">
+        <v>0</v>
+      </c>
+      <c r="I30" s="17"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A31" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="15">
         <v>28</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="17">
-        <v>0</v>
-      </c>
-      <c r="E30" s="17">
-        <v>0</v>
-      </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15">
-        <v>0</v>
-      </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="27"/>
-    </row>
-    <row r="31" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A31" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="17">
+      <c r="C31" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="17">
+        <v>0</v>
+      </c>
+      <c r="E31" s="17">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15">
+        <v>0</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A32" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="17">
         <v>29</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="17">
-        <v>0</v>
-      </c>
-      <c r="E31" s="17">
-        <v>0</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17">
-        <v>0</v>
-      </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="28"/>
-    </row>
-    <row r="32" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A32" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="15">
+      <c r="C32" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0</v>
+      </c>
+      <c r="E32" s="17">
+        <v>0</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17">
+        <v>0</v>
+      </c>
+      <c r="I32" s="17"/>
+      <c r="J32" s="23"/>
+    </row>
+    <row r="33" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A33" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="15">
         <v>30</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="17">
-        <v>1</v>
-      </c>
-      <c r="E32" s="17">
-        <v>0</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="15">
-        <v>0</v>
-      </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="27"/>
-    </row>
-    <row r="33" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A33" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="17">
-        <v>31</v>
-      </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="15" t="s">
         <v>80</v>
       </c>
       <c r="D33" s="17">
         <v>1</v>
       </c>
       <c r="E33" s="17">
-        <v>1</v>
-      </c>
-      <c r="F33" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="17">
-        <v>0</v>
-      </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="28"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15">
+        <v>0</v>
+      </c>
+      <c r="I33" s="15"/>
+      <c r="J33" s="22"/>
     </row>
     <row r="34" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="15">
-        <v>32</v>
-      </c>
-      <c r="C34" s="18" t="s">
+      <c r="B34" s="17">
+        <v>31</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="17">
@@ -2783,25 +2792,25 @@
       <c r="E34" s="17">
         <v>1</v>
       </c>
-      <c r="F34" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="15">
-        <v>0</v>
-      </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="27"/>
+      <c r="F34" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17">
+        <v>0</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="23"/>
     </row>
     <row r="35" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A35" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="17">
-        <v>33</v>
-      </c>
-      <c r="C35" s="17" t="s">
+      <c r="A35" s="14" t="s">
         <v>85</v>
+      </c>
+      <c r="B35" s="15">
+        <v>32</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="D35" s="17">
         <v>1</v>
@@ -2809,25 +2818,25 @@
       <c r="E35" s="17">
         <v>1</v>
       </c>
-      <c r="F35" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="17">
-        <v>0</v>
-      </c>
-      <c r="I35" s="17"/>
-      <c r="J35" s="28"/>
+      <c r="F35" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15">
+        <v>0</v>
+      </c>
+      <c r="I35" s="15"/>
+      <c r="J35" s="22"/>
     </row>
     <row r="36" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A36" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="15">
-        <v>34</v>
-      </c>
-      <c r="C36" s="18" t="s">
+      <c r="A36" s="16" t="s">
         <v>87</v>
+      </c>
+      <c r="B36" s="17">
+        <v>33</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="D36" s="17">
         <v>1</v>
@@ -2835,25 +2844,25 @@
       <c r="E36" s="17">
         <v>1</v>
       </c>
-      <c r="F36" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="15">
-        <v>0</v>
-      </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="27"/>
+      <c r="F36" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17">
+        <v>0</v>
+      </c>
+      <c r="I36" s="17"/>
+      <c r="J36" s="23"/>
     </row>
     <row r="37" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A37" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="17">
-        <v>35</v>
-      </c>
-      <c r="C37" s="17" t="s">
+      <c r="A37" s="14" t="s">
         <v>89</v>
+      </c>
+      <c r="B37" s="15">
+        <v>34</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="D37" s="17">
         <v>1</v>
@@ -2861,25 +2870,25 @@
       <c r="E37" s="17">
         <v>1</v>
       </c>
-      <c r="F37" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="17">
-        <v>0</v>
-      </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="28"/>
+      <c r="F37" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15">
+        <v>0</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="22"/>
     </row>
     <row r="38" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A38" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="15">
-        <v>36</v>
-      </c>
-      <c r="C38" s="18" t="s">
+      <c r="A38" s="16" t="s">
         <v>91</v>
+      </c>
+      <c r="B38" s="17">
+        <v>35</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="D38" s="17">
         <v>1</v>
@@ -2887,24 +2896,24 @@
       <c r="E38" s="17">
         <v>1</v>
       </c>
-      <c r="F38" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="15">
-        <v>0</v>
-      </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="27"/>
+      <c r="F38" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17">
+        <v>0</v>
+      </c>
+      <c r="I38" s="17"/>
+      <c r="J38" s="23"/>
     </row>
     <row r="39" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="17">
-        <v>37</v>
-      </c>
-      <c r="C39" s="17" t="s">
+      <c r="B39" s="15">
+        <v>36</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>94</v>
       </c>
       <c r="D39" s="17">
@@ -2913,24 +2922,24 @@
       <c r="E39" s="17">
         <v>1</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="17">
-        <v>0</v>
-      </c>
-      <c r="I39" s="17"/>
-      <c r="J39" s="28"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15">
+        <v>0</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="15">
-        <v>38</v>
-      </c>
-      <c r="C40" s="18" t="s">
+      <c r="B40" s="17">
+        <v>37</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>97</v>
       </c>
       <c r="D40" s="17">
@@ -2939,25 +2948,25 @@
       <c r="E40" s="17">
         <v>1</v>
       </c>
-      <c r="F40" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="15">
-        <v>0</v>
-      </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="27"/>
+      <c r="F40" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17">
+        <v>0</v>
+      </c>
+      <c r="I40" s="17"/>
+      <c r="J40" s="23"/>
     </row>
     <row r="41" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A41" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" s="17">
-        <v>39</v>
-      </c>
-      <c r="C41" s="17" t="s">
+      <c r="A41" s="14" t="s">
         <v>99</v>
+      </c>
+      <c r="B41" s="15">
+        <v>38</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="D41" s="17">
         <v>1</v>
@@ -2965,25 +2974,25 @@
       <c r="E41" s="17">
         <v>1</v>
       </c>
-      <c r="F41" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="17">
-        <v>0</v>
-      </c>
-      <c r="I41" s="17"/>
-      <c r="J41" s="28"/>
+      <c r="F41" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15">
+        <v>0</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="22"/>
     </row>
     <row r="42" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A42" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="15">
-        <v>40</v>
-      </c>
-      <c r="C42" s="18" t="s">
+      <c r="A42" s="16" t="s">
         <v>101</v>
+      </c>
+      <c r="B42" s="17">
+        <v>39</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="D42" s="17">
         <v>1</v>
@@ -2991,69 +3000,143 @@
       <c r="E42" s="17">
         <v>1</v>
       </c>
-      <c r="F42" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="15">
-        <v>0</v>
-      </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="27"/>
+      <c r="F42" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17">
+        <v>0</v>
+      </c>
+      <c r="I42" s="17"/>
+      <c r="J42" s="23"/>
     </row>
     <row r="43" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A43" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="17">
+      <c r="A43" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="15">
+        <v>40</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="17">
+        <v>1</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15">
+        <v>0</v>
+      </c>
+      <c r="I43" s="15"/>
+      <c r="J43" s="22"/>
+    </row>
+    <row r="44" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A44" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="17">
         <v>41</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="17">
-        <v>0</v>
-      </c>
-      <c r="E43" s="17">
-        <v>0</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="17">
-        <v>0</v>
-      </c>
-      <c r="I43" s="17"/>
-      <c r="J43" s="28"/>
-    </row>
-    <row r="44" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A44" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="22">
+      <c r="C44" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="17">
+        <v>0</v>
+      </c>
+      <c r="E44" s="17">
+        <v>0</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17">
+        <v>0</v>
+      </c>
+      <c r="I44" s="17"/>
+      <c r="J44" s="23"/>
+    </row>
+    <row r="45" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A45" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="19">
         <v>42</v>
       </c>
-      <c r="C44" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="17">
-        <v>0</v>
-      </c>
-      <c r="E44" s="17">
-        <v>0</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="G44" s="24"/>
-      <c r="H44" s="22">
-        <v>0</v>
-      </c>
-      <c r="I44" s="22"/>
-      <c r="J44" s="29"/>
-    </row>
-    <row r="45" ht="14.25"/>
+      <c r="C45" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="17">
+        <v>0</v>
+      </c>
+      <c r="E45" s="17">
+        <v>0</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19">
+        <v>0</v>
+      </c>
+      <c r="I45" s="19"/>
+      <c r="J45" s="24"/>
+    </row>
+    <row r="46" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A46" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="19">
+        <v>43</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="17">
+        <v>1</v>
+      </c>
+      <c r="E46" s="17">
+        <v>0</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19">
+        <v>0</v>
+      </c>
+      <c r="I46" s="19"/>
+      <c r="J46" s="24"/>
+    </row>
+    <row r="47" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A47" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="19">
+        <v>44</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="17">
+        <v>1</v>
+      </c>
+      <c r="E47" s="17">
+        <v>0</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19">
+        <v>0</v>
+      </c>
+      <c r="I47" s="19"/>
+      <c r="J47" s="24"/>
+    </row>
+    <row r="48" ht="14.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3090,117 +3173,117 @@
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B8" s="6">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B9" s="6">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B11" s="6">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B12" s="6">
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3214,8 +3297,8 @@
   <sheetPr/>
   <dimension ref="A1:E237"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3560,7 +3643,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="str">
         <f>"|"""&amp;attribute_const!A18&amp;""""</f>
-        <v>|"FinalDamageMul"</v>
+        <v>|"DamageServerMul"</v>
       </c>
       <c r="B16" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3582,7 +3665,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="str">
         <f>"|"""&amp;attribute_const!A19&amp;""""</f>
-        <v>|"MeleeDmgPct"</v>
+        <v>|"FinalDamageMul"</v>
       </c>
       <c r="B17" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3604,7 +3687,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="str">
         <f>"|"""&amp;attribute_const!A20&amp;""""</f>
-        <v>|"RangedDmgPct"</v>
+        <v>|"MeleeDmgPct"</v>
       </c>
       <c r="B18" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3626,7 +3709,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="str">
         <f>"|"""&amp;attribute_const!A21&amp;""""</f>
-        <v>|"BurningDmg"</v>
+        <v>|"RangedDmgPct"</v>
       </c>
       <c r="B19" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3648,7 +3731,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="str">
         <f>"|"""&amp;attribute_const!A22&amp;""""</f>
-        <v>|"BurningDuration"</v>
+        <v>|"BurningDmg"</v>
       </c>
       <c r="B20" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3670,7 +3753,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="str">
         <f>"|"""&amp;attribute_const!A23&amp;""""</f>
-        <v>|"FireDamageBonus"</v>
+        <v>|"BurningDuration"</v>
       </c>
       <c r="B21" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3692,7 +3775,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="str">
         <f>"|"""&amp;attribute_const!A24&amp;""""</f>
-        <v>|"IceDamageBonus"</v>
+        <v>|"FireDamageBonus"</v>
       </c>
       <c r="B22" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3714,7 +3797,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="str">
         <f>"|"""&amp;attribute_const!A25&amp;""""</f>
-        <v>|"ThunderDamageBonus"</v>
+        <v>|"IceDamageBonus"</v>
       </c>
       <c r="B23" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3736,7 +3819,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="str">
         <f>"|"""&amp;attribute_const!A26&amp;""""</f>
-        <v>|"WindDamageBonus"</v>
+        <v>|"ThunderDamageBonus"</v>
       </c>
       <c r="B24" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3758,7 +3841,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="str">
         <f>"|"""&amp;attribute_const!A27&amp;""""</f>
-        <v>|"LightDamageBonus"</v>
+        <v>|"WindDamageBonus"</v>
       </c>
       <c r="B25" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3780,7 +3863,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="str">
         <f>"|"""&amp;attribute_const!A28&amp;""""</f>
-        <v>|"DarkDamageBonus"</v>
+        <v>|"LightDamageBonus"</v>
       </c>
       <c r="B26" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3802,7 +3885,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="str">
         <f>"|"""&amp;attribute_const!A29&amp;""""</f>
-        <v>|"KillRestoreHp"</v>
+        <v>|"DarkDamageBonus"</v>
       </c>
       <c r="B27" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3824,7 +3907,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="str">
         <f>"|"""&amp;attribute_const!A30&amp;""""</f>
-        <v>|"KillRestoreMp"</v>
+        <v>|"KillRestoreHp"</v>
       </c>
       <c r="B28" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3846,7 +3929,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="str">
         <f>"|"""&amp;attribute_const!A31&amp;""""</f>
-        <v>|"RestoreIncrease"</v>
+        <v>|"KillRestoreMp"</v>
       </c>
       <c r="B29" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3868,7 +3951,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="str">
         <f>"|"""&amp;attribute_const!A32&amp;""""</f>
-        <v>|"AllElementDamageBonus"</v>
+        <v>|"RestoreIncrease"</v>
       </c>
       <c r="B30" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3890,7 +3973,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="str">
         <f>"|"""&amp;attribute_const!A33&amp;""""</f>
-        <v>|"AllElementPent"</v>
+        <v>|"AllElementDamageBonus"</v>
       </c>
       <c r="B31" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3912,7 +3995,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="str">
         <f>"|"""&amp;attribute_const!A34&amp;""""</f>
-        <v>|"FirePent"</v>
+        <v>|"AllElementPent"</v>
       </c>
       <c r="B32" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3934,7 +4017,7 @@
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="str">
         <f>"|"""&amp;attribute_const!A35&amp;""""</f>
-        <v>|"IcePent"</v>
+        <v>|"FirePent"</v>
       </c>
       <c r="B33" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3956,7 +4039,7 @@
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="str">
         <f>"|"""&amp;attribute_const!A36&amp;""""</f>
-        <v>|"ThunderPent"</v>
+        <v>|"IcePent"</v>
       </c>
       <c r="B34" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3978,7 +4061,7 @@
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="str">
         <f>"|"""&amp;attribute_const!A37&amp;""""</f>
-        <v>|"WindPent"</v>
+        <v>|"ThunderPent"</v>
       </c>
       <c r="B35" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4000,7 +4083,7 @@
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="str">
         <f>"|"""&amp;attribute_const!A38&amp;""""</f>
-        <v>|"AllElementResist"</v>
+        <v>|"WindPent"</v>
       </c>
       <c r="B36" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4022,7 +4105,7 @@
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="str">
         <f>"|"""&amp;attribute_const!A39&amp;""""</f>
-        <v>|"FireResist"</v>
+        <v>|"AllElementResist"</v>
       </c>
       <c r="B37" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4044,7 +4127,7 @@
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="str">
         <f>"|"""&amp;attribute_const!A40&amp;""""</f>
-        <v>|"IceResist"</v>
+        <v>|"FireResist"</v>
       </c>
       <c r="B38" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4066,7 +4149,7 @@
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="str">
         <f>"|"""&amp;attribute_const!A41&amp;""""</f>
-        <v>|"ThunderResist"</v>
+        <v>|"IceResist"</v>
       </c>
       <c r="B39" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4088,7 +4171,7 @@
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="str">
         <f>"|"""&amp;attribute_const!A42&amp;""""</f>
-        <v>|"WindResist"</v>
+        <v>|"ThunderResist"</v>
       </c>
       <c r="B40" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4110,7 +4193,7 @@
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="str">
         <f>"|"""&amp;attribute_const!A43&amp;""""</f>
-        <v>|"FixedDamage"</v>
+        <v>|"WindResist"</v>
       </c>
       <c r="B41" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4132,7 +4215,7 @@
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="str">
         <f>"|"""&amp;attribute_const!A44&amp;""""</f>
-        <v>|"FixedDamageReduction"</v>
+        <v>|"FixedDamage"</v>
       </c>
       <c r="B42" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4154,7 +4237,7 @@
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="str">
         <f>"|"""&amp;attribute_const!A45&amp;""""</f>
-        <v>|""</v>
+        <v>|"FixedDamageReduction"</v>
       </c>
       <c r="B43" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4176,7 +4259,7 @@
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="str">
         <f>"|"""&amp;attribute_const!A46&amp;""""</f>
-        <v>|""</v>
+        <v>|"SingleExpeIncrease"</v>
       </c>
       <c r="B44" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4198,7 +4281,7 @@
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="str">
         <f>"|"""&amp;attribute_const!A47&amp;""""</f>
-        <v>|""</v>
+        <v>|"SacredEqiopSkillDmg"</v>
       </c>
       <c r="B45" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_const" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="138">
   <si>
     <t>index  下标</t>
   </si>
@@ -374,6 +374,12 @@
   </si>
   <si>
     <t>神圣装备技伤</t>
+  </si>
+  <si>
+    <t>ManaCostRate</t>
+  </si>
+  <si>
+    <t>施法消耗比</t>
   </si>
   <si>
     <t>#Loccustom_attribute_sub_{}</t>
@@ -1615,12 +1621,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F1728E25-F173-4FB2-8DF1-F3C82FAD986E}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F8EECB17-7909-4B8E-8983-E8F6EE6A2C6E}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C74C9BFF-FE7E-40BD-9179-301BD115379E}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{E1548FD8-5930-49A1-9E77-DDC3EE45EAB3}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1925,10 +1931,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3136,7 +3142,31 @@
       <c r="I47" s="19"/>
       <c r="J47" s="24"/>
     </row>
-    <row r="48" ht="14.25"/>
+    <row r="48" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
+      <c r="A48" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="19">
+        <v>45</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="17">
+        <v>1</v>
+      </c>
+      <c r="E48" s="17">
+        <v>0</v>
+      </c>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19">
+        <v>0</v>
+      </c>
+      <c r="I48" s="19"/>
+      <c r="J48" s="24"/>
+    </row>
+    <row r="49" ht="14.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3173,117 +3203,117 @@
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B8" s="6">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9" s="6">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B11" s="6">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B12" s="6">
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3297,7 +3327,7 @@
   <sheetPr/>
   <dimension ref="A1:E237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:A16"/>
     </sheetView>
   </sheetViews>
@@ -4303,7 +4333,7 @@
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="str">
         <f>"|"""&amp;attribute_const!A48&amp;""""</f>
-        <v>|""</v>
+        <v>|"ManaCostRate"</v>
       </c>
       <c r="B46" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="143">
   <si>
     <t>index  下标</t>
   </si>
@@ -49,12 +49,6 @@
     <t>功能描述</t>
   </si>
   <si>
-    <t>是否写入网表</t>
-  </si>
-  <si>
-    <t>基础的一个转换.每点属性可以获得的一个值</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
@@ -70,15 +64,6 @@
     <t>is_mul</t>
   </si>
   <si>
-    <t>in_nt</t>
-  </si>
-  <si>
-    <t>ConversionValue[{]</t>
-  </si>
-  <si>
-    <t>[}]</t>
-  </si>
-  <si>
     <t>AttackDamage</t>
   </si>
   <si>
@@ -148,6 +133,18 @@
     <t>技能急速</t>
   </si>
   <si>
+    <t>固定值，最大不超过55%,公式 = 急速/（急速+150）</t>
+  </si>
+  <si>
+    <t>AbilityCooldown</t>
+  </si>
+  <si>
+    <t>技能冷却</t>
+  </si>
+  <si>
+    <t>内部独立乘算</t>
+  </si>
+  <si>
     <t>CriticalChance</t>
   </si>
   <si>
@@ -169,7 +166,7 @@
     <t>DamageBonusMul</t>
   </si>
   <si>
-    <t>%伤害加成</t>
+    <t>%伤害加成A</t>
   </si>
   <si>
     <t>当局部分</t>
@@ -178,6 +175,9 @@
     <t>DamageServerMul</t>
   </si>
   <si>
+    <t>%伤害加成B</t>
+  </si>
+  <si>
     <t>存档部分</t>
   </si>
   <si>
@@ -355,7 +355,7 @@
     <t>固定值，额外造成固定数值伤害</t>
   </si>
   <si>
-    <t>FixedDamageReduction</t>
+    <t>DmgReductionFixed</t>
   </si>
   <si>
     <t>固定伤害减免</t>
@@ -364,13 +364,22 @@
     <t>对应减少固定伤害</t>
   </si>
   <si>
+    <t>DmgReductionPct</t>
+  </si>
+  <si>
+    <t>伤害减免</t>
+  </si>
+  <si>
+    <t>百分比伤害降低,每个都是独立乘区</t>
+  </si>
+  <si>
     <t>SingleExpeIncrease</t>
   </si>
   <si>
-    <t>个人经验获取率</t>
-  </si>
-  <si>
-    <t>SacredEqiopSkillDmg</t>
+    <t>经验获取率</t>
+  </si>
+  <si>
+    <t>SacredEquipSkillDmg</t>
   </si>
   <si>
     <t>神圣装备技伤</t>
@@ -380,6 +389,12 @@
   </si>
   <si>
     <t>施法消耗比</t>
+  </si>
+  <si>
+    <t>BasicAbilityDmg</t>
+  </si>
+  <si>
+    <t>基础技能伤害</t>
   </si>
   <si>
     <t>#Loccustom_attribute_sub_{}</t>
@@ -833,7 +848,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -980,6 +995,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="FF595959"/>
       </left>
@@ -996,6 +1057,17 @@
       </left>
       <right style="medium">
         <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
       </right>
       <top/>
       <bottom/>
@@ -1032,56 +1104,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF595959"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -1097,13 +1119,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thick">
         <color rgb="FF595959"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
       <bottom style="thick">
         <color rgb="FF595959"/>
       </bottom>
@@ -1233,7 +1287,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1245,34 +1299,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1357,7 +1411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1400,16 +1454,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1418,19 +1472,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1621,12 +1681,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F8EECB17-7909-4B8E-8983-E8F6EE6A2C6E}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8E1ADA8D-880A-43D9-8A0F-B5DB9037388B}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{E1548FD8-5930-49A1-9E77-DDC3EE45EAB3}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{96D1135F-7F88-4822-8D08-B591D3C14EEE}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1931,25 +1991,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="27.5083333333333" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.34166666666667" style="11" customWidth="1"/>
-    <col min="3" max="5" width="26.0083333333333" style="11" customWidth="1"/>
-    <col min="6" max="7" width="35.3416666666667" style="11" customWidth="1"/>
-    <col min="8" max="8" width="16.0083333333333" style="11" customWidth="1"/>
-    <col min="9" max="9" width="23.625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="6.24166666666667" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="11"/>
+    <col min="2" max="2" width="9.84166666666667" style="11" customWidth="1"/>
+    <col min="3" max="3" width="26.3416666666667" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.175" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="46.175" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:11">
+    <row r="1" ht="39" customHeight="1" spans="1:6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1965,1209 +2024,964 @@
       <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13" t="s">
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="D3" s="19">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0</v>
+      </c>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="B4" s="22">
+        <v>2</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="22">
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A5" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="19">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0</v>
+      </c>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="22">
+        <v>4</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="19">
+        <v>5</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="22">
+        <v>6</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="19">
+        <v>7</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="22">
+        <v>8</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="19">
+        <v>9</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="22">
+        <v>10</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="19">
+        <v>11</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="22">
+        <v>12</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
         <v>1</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="F14" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="19">
+        <v>13</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="22">
+        <v>14</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="22">
+        <v>1</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0</v>
+      </c>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="19">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A3" s="16" t="s">
+      <c r="C17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0</v>
+      </c>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="22">
         <v>16</v>
       </c>
-      <c r="B3" s="17">
+      <c r="C18" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="22">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="E18" s="22">
+        <v>0</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="19">
         <v>17</v>
       </c>
-      <c r="D3" s="17">
+      <c r="C19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
         <v>0</v>
       </c>
-      <c r="E3" s="17">
+      <c r="F19" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A20" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="22">
+        <v>18</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="22">
+        <v>1</v>
+      </c>
+      <c r="E20" s="22">
         <v>0</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17">
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A21" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="19">
+        <v>19</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1</v>
+      </c>
+      <c r="E21" s="19">
         <v>0</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="21"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="15">
-        <v>2</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="17">
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A22" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="22">
+        <v>20</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="22">
         <v>0</v>
       </c>
-      <c r="E4" s="17">
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A23" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="19">
+        <v>21</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="19">
         <v>0</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15">
+      <c r="E23" s="19">
         <v>0</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="17">
-        <v>3</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="22">
+        <v>22</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="22">
         <v>0</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E24" s="22">
         <v>0</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17">
+      <c r="F24" s="23"/>
+    </row>
+    <row r="25" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A25" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="19">
+        <v>23</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="19">
         <v>0</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="15">
-        <v>4</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="E25" s="19">
         <v>0</v>
       </c>
-      <c r="E6" s="17">
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A26" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="22">
+        <v>24</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="22">
         <v>0</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15">
+      <c r="E26" s="22">
         <v>0</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="17">
-        <v>5</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A27" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="19">
         <v>25</v>
       </c>
-      <c r="D7" s="17">
+      <c r="C27" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="19">
         <v>0</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E27" s="19">
         <v>0</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A28" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="22">
         <v>26</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17">
+      <c r="C28" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="22">
         <v>0</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A8" s="14" t="s">
+      <c r="E28" s="22">
+        <v>0</v>
+      </c>
+      <c r="F28" s="23"/>
+    </row>
+    <row r="29" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A29" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="19">
         <v>27</v>
       </c>
-      <c r="B8" s="15">
-        <v>6</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="C29" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0</v>
+      </c>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A30" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="22">
         <v>28</v>
       </c>
-      <c r="D8" s="17">
+      <c r="C30" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="22">
         <v>0</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E30" s="22">
         <v>0</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15">
+      <c r="F30" s="23"/>
+    </row>
+    <row r="31" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A31" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="19">
+        <v>29</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="19">
         <v>0</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="17">
-        <v>7</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="E31" s="19">
+        <v>0</v>
+      </c>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A32" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="22">
         <v>30</v>
       </c>
-      <c r="D9" s="17">
+      <c r="C32" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="22">
         <v>0</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E32" s="22">
         <v>0</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17">
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A33" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="19">
+        <v>31</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="19">
         <v>0</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="15">
-        <v>8</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="E33" s="19">
+        <v>0</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A34" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="22">
         <v>32</v>
       </c>
-      <c r="D10" s="17">
+      <c r="C34" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="22">
+        <v>1</v>
+      </c>
+      <c r="E34" s="22">
         <v>0</v>
       </c>
-      <c r="E10" s="17">
+      <c r="F34" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A35" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="19">
+        <v>33</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="19">
+        <v>1</v>
+      </c>
+      <c r="E35" s="19">
+        <v>1</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A36" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="22">
+        <v>34</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="22">
+        <v>1</v>
+      </c>
+      <c r="E36" s="22">
+        <v>1</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A37" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="19">
+        <v>35</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="19">
+        <v>1</v>
+      </c>
+      <c r="E37" s="19">
+        <v>1</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A38" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="22">
+        <v>36</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="22">
+        <v>1</v>
+      </c>
+      <c r="E38" s="22">
+        <v>1</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A39" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="19">
+        <v>37</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="19">
+        <v>1</v>
+      </c>
+      <c r="E39" s="19">
+        <v>1</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A40" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="22">
+        <v>38</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="22">
+        <v>1</v>
+      </c>
+      <c r="E40" s="22">
+        <v>1</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A41" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="19">
+        <v>39</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="19">
+        <v>1</v>
+      </c>
+      <c r="E41" s="19">
+        <v>1</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A42" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="22">
+        <v>40</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="22">
+        <v>1</v>
+      </c>
+      <c r="E42" s="22">
+        <v>1</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A43" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="19">
+        <v>41</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="19">
+        <v>1</v>
+      </c>
+      <c r="E43" s="19">
+        <v>1</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A44" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="22">
+        <v>42</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="22">
+        <v>1</v>
+      </c>
+      <c r="E44" s="22">
+        <v>1</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A45" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="19">
+        <v>43</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="19">
         <v>0</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15">
+      <c r="E45" s="19">
         <v>0</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="17">
-        <v>9</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="F45" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A46" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="22">
+        <v>44</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="22">
         <v>0</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E46" s="22">
         <v>0</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17">
+      <c r="F46" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A47" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="19">
+        <v>45</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="19">
+        <v>1</v>
+      </c>
+      <c r="E47" s="19">
+        <v>1</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A48" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="22">
+        <v>46</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="22">
+        <v>1</v>
+      </c>
+      <c r="E48" s="22">
         <v>0</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="15">
-        <v>10</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="F48" s="23"/>
+    </row>
+    <row r="49" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A49" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="19">
+        <v>47</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="19">
+        <v>1</v>
+      </c>
+      <c r="E49" s="19">
         <v>0</v>
       </c>
-      <c r="E12" s="17">
+      <c r="F49" s="20"/>
+    </row>
+    <row r="50" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A50" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="25">
+        <v>48</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="25">
+        <v>1</v>
+      </c>
+      <c r="E50" s="25">
         <v>0</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15">
+      <c r="F50" s="26"/>
+    </row>
+    <row r="51" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A51" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="25">
+        <v>49</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="25">
+        <v>1</v>
+      </c>
+      <c r="E51" s="25">
         <v>0</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A13" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="17">
-        <v>11</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="17">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
-        <v>0</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17">
-        <v>0</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A14" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="15">
-        <v>12</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="17">
-        <v>1</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15">
-        <v>0</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A15" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="17">
-        <v>13</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="17">
-        <v>1</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A16" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="15">
-        <v>14</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="17">
-        <v>0</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A17" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="17">
-        <v>15</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A18" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="17">
-        <v>15</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="17">
-        <v>1</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17">
-        <v>0</v>
-      </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A19" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="15">
-        <v>16</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="17">
-        <v>1</v>
-      </c>
-      <c r="E19" s="17">
-        <v>0</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15">
-        <v>0</v>
-      </c>
-      <c r="I19" s="15"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A20" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="17">
-        <v>17</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="17">
-        <v>1</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17">
-        <v>0</v>
-      </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="15">
-        <v>18</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="17">
-        <v>1</v>
-      </c>
-      <c r="E21" s="17">
-        <v>0</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15">
-        <v>0</v>
-      </c>
-      <c r="I21" s="15"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A22" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="17">
-        <v>19</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="17">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17">
-        <v>0</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="23"/>
-    </row>
-    <row r="23" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A23" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="15">
-        <v>20</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="17">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
-        <v>0</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15">
-        <v>0</v>
-      </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="22"/>
-    </row>
-    <row r="24" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A24" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="17">
-        <v>21</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="17">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17">
-        <v>0</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17">
-        <v>0</v>
-      </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="23"/>
-    </row>
-    <row r="25" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A25" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="15">
-        <v>22</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="17">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17">
-        <v>0</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15">
-        <v>0</v>
-      </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="22"/>
-    </row>
-    <row r="26" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A26" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="17">
-        <v>23</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0</v>
-      </c>
-      <c r="E26" s="17">
-        <v>0</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17">
-        <v>0</v>
-      </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="23"/>
-    </row>
-    <row r="27" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A27" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="15">
-        <v>24</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="17">
-        <v>0</v>
-      </c>
-      <c r="E27" s="17">
-        <v>0</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15">
-        <v>0</v>
-      </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="22"/>
-    </row>
-    <row r="28" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A28" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="17">
-        <v>25</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="17">
-        <v>0</v>
-      </c>
-      <c r="E28" s="17">
-        <v>0</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17">
-        <v>0</v>
-      </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="23"/>
-    </row>
-    <row r="29" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A29" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="15">
-        <v>26</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="17">
-        <v>0</v>
-      </c>
-      <c r="E29" s="17">
-        <v>0</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15">
-        <v>0</v>
-      </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="22"/>
-    </row>
-    <row r="30" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A30" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="17">
-        <v>27</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="17">
-        <v>0</v>
-      </c>
-      <c r="E30" s="17">
-        <v>0</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17">
-        <v>0</v>
-      </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="23"/>
-    </row>
-    <row r="31" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A31" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="15">
-        <v>28</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="17">
-        <v>0</v>
-      </c>
-      <c r="E31" s="17">
-        <v>0</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15">
-        <v>0</v>
-      </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="22"/>
-    </row>
-    <row r="32" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A32" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="17">
-        <v>29</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="17">
-        <v>0</v>
-      </c>
-      <c r="E32" s="17">
-        <v>0</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17">
-        <v>0</v>
-      </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="23"/>
-    </row>
-    <row r="33" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A33" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="15">
-        <v>30</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="17">
-        <v>1</v>
-      </c>
-      <c r="E33" s="17">
-        <v>0</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15">
-        <v>0</v>
-      </c>
-      <c r="I33" s="15"/>
-      <c r="J33" s="22"/>
-    </row>
-    <row r="34" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A34" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="17">
-        <v>31</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="17">
-        <v>1</v>
-      </c>
-      <c r="E34" s="17">
-        <v>1</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17">
-        <v>0</v>
-      </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="23"/>
-    </row>
-    <row r="35" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A35" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="15">
-        <v>32</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="17">
-        <v>1</v>
-      </c>
-      <c r="E35" s="17">
-        <v>1</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15">
-        <v>0</v>
-      </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="22"/>
-    </row>
-    <row r="36" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A36" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="17">
-        <v>33</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="17">
-        <v>1</v>
-      </c>
-      <c r="E36" s="17">
-        <v>1</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17">
-        <v>0</v>
-      </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="23"/>
-    </row>
-    <row r="37" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A37" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="15">
-        <v>34</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="17">
-        <v>1</v>
-      </c>
-      <c r="E37" s="17">
-        <v>1</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15">
-        <v>0</v>
-      </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="22"/>
-    </row>
-    <row r="38" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A38" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="17">
-        <v>35</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="17">
-        <v>1</v>
-      </c>
-      <c r="E38" s="17">
-        <v>1</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17">
-        <v>0</v>
-      </c>
-      <c r="I38" s="17"/>
-      <c r="J38" s="23"/>
-    </row>
-    <row r="39" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A39" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="15">
-        <v>36</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="17">
-        <v>1</v>
-      </c>
-      <c r="E39" s="17">
-        <v>1</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15">
-        <v>0</v>
-      </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="22"/>
-    </row>
-    <row r="40" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A40" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="17">
-        <v>37</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="17">
-        <v>1</v>
-      </c>
-      <c r="E40" s="17">
-        <v>1</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17">
-        <v>0</v>
-      </c>
-      <c r="I40" s="17"/>
-      <c r="J40" s="23"/>
-    </row>
-    <row r="41" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A41" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="15">
-        <v>38</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="17">
-        <v>1</v>
-      </c>
-      <c r="E41" s="17">
-        <v>1</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15">
-        <v>0</v>
-      </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="22"/>
-    </row>
-    <row r="42" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A42" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="17">
-        <v>39</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="17">
-        <v>1</v>
-      </c>
-      <c r="E42" s="17">
-        <v>1</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17">
-        <v>0</v>
-      </c>
-      <c r="I42" s="17"/>
-      <c r="J42" s="23"/>
-    </row>
-    <row r="43" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A43" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="15">
-        <v>40</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="17">
-        <v>1</v>
-      </c>
-      <c r="E43" s="17">
-        <v>1</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15">
-        <v>0</v>
-      </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="22"/>
-    </row>
-    <row r="44" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A44" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="17">
-        <v>41</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="17">
-        <v>0</v>
-      </c>
-      <c r="E44" s="17">
-        <v>0</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17">
-        <v>0</v>
-      </c>
-      <c r="I44" s="17"/>
-      <c r="J44" s="23"/>
-    </row>
-    <row r="45" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A45" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="19">
-        <v>42</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="17">
-        <v>0</v>
-      </c>
-      <c r="E45" s="17">
-        <v>0</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19">
-        <v>0</v>
-      </c>
-      <c r="I45" s="19"/>
-      <c r="J45" s="24"/>
-    </row>
-    <row r="46" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A46" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="19">
-        <v>43</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="17">
-        <v>1</v>
-      </c>
-      <c r="E46" s="17">
-        <v>0</v>
-      </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19">
-        <v>0</v>
-      </c>
-      <c r="I46" s="19"/>
-      <c r="J46" s="24"/>
-    </row>
-    <row r="47" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A47" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="19">
-        <v>44</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="17">
-        <v>1</v>
-      </c>
-      <c r="E47" s="17">
-        <v>0</v>
-      </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19">
-        <v>0</v>
-      </c>
-      <c r="I47" s="19"/>
-      <c r="J47" s="24"/>
-    </row>
-    <row r="48" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:10">
-      <c r="A48" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="19">
-        <v>45</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" s="17">
-        <v>1</v>
-      </c>
-      <c r="E48" s="17">
-        <v>0</v>
-      </c>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19">
-        <v>0</v>
-      </c>
-      <c r="I48" s="19"/>
-      <c r="J48" s="24"/>
-    </row>
-    <row r="49" ht="14.25"/>
+      <c r="F51" s="26"/>
+    </row>
+    <row r="52" ht="14.25"/>
   </sheetData>
+  <conditionalFormatting sqref="E$1:E$1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3179,7 +2993,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3197,123 +3011,123 @@
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B8" s="6">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B9" s="6">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B11" s="6">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B12" s="6">
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3328,7 +3142,7 @@
   <dimension ref="A1:E237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A16"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3585,7 +3399,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="str">
         <f>"|"""&amp;attribute_const!A14&amp;""""</f>
-        <v>|"CriticalChance"</v>
+        <v>|"AbilityCooldown"</v>
       </c>
       <c r="B12" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3607,7 +3421,7 @@
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="str">
         <f>"|"""&amp;attribute_const!A15&amp;""""</f>
-        <v>|"CriticalDamage"</v>
+        <v>|"CriticalChance"</v>
       </c>
       <c r="B13" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3629,7 +3443,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="str">
         <f>"|"""&amp;attribute_const!A16&amp;""""</f>
-        <v>|"PickItemRadius"</v>
+        <v>|"CriticalDamage"</v>
       </c>
       <c r="B14" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3651,7 +3465,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="str">
         <f>"|"""&amp;attribute_const!A17&amp;""""</f>
-        <v>|"DamageBonusMul"</v>
+        <v>|"PickItemRadius"</v>
       </c>
       <c r="B15" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3673,7 +3487,7 @@
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="str">
         <f>"|"""&amp;attribute_const!A18&amp;""""</f>
-        <v>|"DamageServerMul"</v>
+        <v>|"DamageBonusMul"</v>
       </c>
       <c r="B16" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3695,7 +3509,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="str">
         <f>"|"""&amp;attribute_const!A19&amp;""""</f>
-        <v>|"FinalDamageMul"</v>
+        <v>|"DamageServerMul"</v>
       </c>
       <c r="B17" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3717,7 +3531,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="str">
         <f>"|"""&amp;attribute_const!A20&amp;""""</f>
-        <v>|"MeleeDmgPct"</v>
+        <v>|"FinalDamageMul"</v>
       </c>
       <c r="B18" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3739,7 +3553,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="str">
         <f>"|"""&amp;attribute_const!A21&amp;""""</f>
-        <v>|"RangedDmgPct"</v>
+        <v>|"MeleeDmgPct"</v>
       </c>
       <c r="B19" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3761,7 +3575,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="str">
         <f>"|"""&amp;attribute_const!A22&amp;""""</f>
-        <v>|"BurningDmg"</v>
+        <v>|"RangedDmgPct"</v>
       </c>
       <c r="B20" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3783,7 +3597,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="str">
         <f>"|"""&amp;attribute_const!A23&amp;""""</f>
-        <v>|"BurningDuration"</v>
+        <v>|"BurningDmg"</v>
       </c>
       <c r="B21" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3805,7 +3619,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="str">
         <f>"|"""&amp;attribute_const!A24&amp;""""</f>
-        <v>|"FireDamageBonus"</v>
+        <v>|"BurningDuration"</v>
       </c>
       <c r="B22" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3827,7 +3641,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="str">
         <f>"|"""&amp;attribute_const!A25&amp;""""</f>
-        <v>|"IceDamageBonus"</v>
+        <v>|"FireDamageBonus"</v>
       </c>
       <c r="B23" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3849,7 +3663,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="str">
         <f>"|"""&amp;attribute_const!A26&amp;""""</f>
-        <v>|"ThunderDamageBonus"</v>
+        <v>|"IceDamageBonus"</v>
       </c>
       <c r="B24" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3871,7 +3685,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="str">
         <f>"|"""&amp;attribute_const!A27&amp;""""</f>
-        <v>|"WindDamageBonus"</v>
+        <v>|"ThunderDamageBonus"</v>
       </c>
       <c r="B25" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3893,7 +3707,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="str">
         <f>"|"""&amp;attribute_const!A28&amp;""""</f>
-        <v>|"LightDamageBonus"</v>
+        <v>|"WindDamageBonus"</v>
       </c>
       <c r="B26" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3915,7 +3729,7 @@
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="str">
         <f>"|"""&amp;attribute_const!A29&amp;""""</f>
-        <v>|"DarkDamageBonus"</v>
+        <v>|"LightDamageBonus"</v>
       </c>
       <c r="B27" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3937,7 +3751,7 @@
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="str">
         <f>"|"""&amp;attribute_const!A30&amp;""""</f>
-        <v>|"KillRestoreHp"</v>
+        <v>|"DarkDamageBonus"</v>
       </c>
       <c r="B28" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3959,7 +3773,7 @@
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="str">
         <f>"|"""&amp;attribute_const!A31&amp;""""</f>
-        <v>|"KillRestoreMp"</v>
+        <v>|"KillRestoreHp"</v>
       </c>
       <c r="B29" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -3981,7 +3795,7 @@
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="str">
         <f>"|"""&amp;attribute_const!A32&amp;""""</f>
-        <v>|"RestoreIncrease"</v>
+        <v>|"KillRestoreMp"</v>
       </c>
       <c r="B30" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4003,7 +3817,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="str">
         <f>"|"""&amp;attribute_const!A33&amp;""""</f>
-        <v>|"AllElementDamageBonus"</v>
+        <v>|"RestoreIncrease"</v>
       </c>
       <c r="B31" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4025,7 +3839,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="str">
         <f>"|"""&amp;attribute_const!A34&amp;""""</f>
-        <v>|"AllElementPent"</v>
+        <v>|"AllElementDamageBonus"</v>
       </c>
       <c r="B32" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4047,7 +3861,7 @@
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="str">
         <f>"|"""&amp;attribute_const!A35&amp;""""</f>
-        <v>|"FirePent"</v>
+        <v>|"AllElementPent"</v>
       </c>
       <c r="B33" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4069,7 +3883,7 @@
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="str">
         <f>"|"""&amp;attribute_const!A36&amp;""""</f>
-        <v>|"IcePent"</v>
+        <v>|"FirePent"</v>
       </c>
       <c r="B34" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4091,7 +3905,7 @@
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="str">
         <f>"|"""&amp;attribute_const!A37&amp;""""</f>
-        <v>|"ThunderPent"</v>
+        <v>|"IcePent"</v>
       </c>
       <c r="B35" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4113,7 +3927,7 @@
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="str">
         <f>"|"""&amp;attribute_const!A38&amp;""""</f>
-        <v>|"WindPent"</v>
+        <v>|"ThunderPent"</v>
       </c>
       <c r="B36" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4135,7 +3949,7 @@
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="str">
         <f>"|"""&amp;attribute_const!A39&amp;""""</f>
-        <v>|"AllElementResist"</v>
+        <v>|"WindPent"</v>
       </c>
       <c r="B37" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4157,7 +3971,7 @@
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="str">
         <f>"|"""&amp;attribute_const!A40&amp;""""</f>
-        <v>|"FireResist"</v>
+        <v>|"AllElementResist"</v>
       </c>
       <c r="B38" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4179,7 +3993,7 @@
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="str">
         <f>"|"""&amp;attribute_const!A41&amp;""""</f>
-        <v>|"IceResist"</v>
+        <v>|"FireResist"</v>
       </c>
       <c r="B39" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4201,7 +4015,7 @@
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="str">
         <f>"|"""&amp;attribute_const!A42&amp;""""</f>
-        <v>|"ThunderResist"</v>
+        <v>|"IceResist"</v>
       </c>
       <c r="B40" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4223,7 +4037,7 @@
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="str">
         <f>"|"""&amp;attribute_const!A43&amp;""""</f>
-        <v>|"WindResist"</v>
+        <v>|"ThunderResist"</v>
       </c>
       <c r="B41" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4245,7 +4059,7 @@
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="str">
         <f>"|"""&amp;attribute_const!A44&amp;""""</f>
-        <v>|"FixedDamage"</v>
+        <v>|"WindResist"</v>
       </c>
       <c r="B42" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4267,7 +4081,7 @@
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="str">
         <f>"|"""&amp;attribute_const!A45&amp;""""</f>
-        <v>|"FixedDamageReduction"</v>
+        <v>|"FixedDamage"</v>
       </c>
       <c r="B43" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4289,7 +4103,7 @@
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="str">
         <f>"|"""&amp;attribute_const!A46&amp;""""</f>
-        <v>|"SingleExpeIncrease"</v>
+        <v>|"DmgReductionFixed"</v>
       </c>
       <c r="B44" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4311,7 +4125,7 @@
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="str">
         <f>"|"""&amp;attribute_const!A47&amp;""""</f>
-        <v>|"SacredEqiopSkillDmg"</v>
+        <v>|"DmgReductionPct"</v>
       </c>
       <c r="B45" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4333,7 +4147,7 @@
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="str">
         <f>"|"""&amp;attribute_const!A48&amp;""""</f>
-        <v>|"ManaCostRate"</v>
+        <v>|"SingleExpeIncrease"</v>
       </c>
       <c r="B46" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4355,7 +4169,7 @@
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="str">
         <f>"|"""&amp;attribute_const!A49&amp;""""</f>
-        <v>|""</v>
+        <v>|"SacredEquipSkillDmg"</v>
       </c>
       <c r="B47" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4377,7 +4191,7 @@
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="str">
         <f>"|"""&amp;attribute_const!A50&amp;""""</f>
-        <v>|""</v>
+        <v>|"ManaCostRate"</v>
       </c>
       <c r="B48" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4399,7 +4213,7 @@
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="str">
         <f>"|"""&amp;attribute_const!A51&amp;""""</f>
-        <v>|""</v>
+        <v>|"BasicAbilityDmg"</v>
       </c>
       <c r="B49" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4596,7 +4410,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A60&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A62&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B58" s="1" t="e">
@@ -4618,7 +4432,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A61&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A63&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B59" s="1" t="e">
@@ -4640,7 +4454,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A62&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A64&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B60" s="1" t="e">
@@ -4662,7 +4476,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A63&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A65&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B61" s="1" t="e">
@@ -4684,7 +4498,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A64&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A66&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B62" s="1" t="e">
@@ -4706,7 +4520,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A65&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A67&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B63" s="1" t="e">
@@ -4728,7 +4542,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A66&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A68&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B64" s="1" t="e">
@@ -4750,7 +4564,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A67&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A69&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B65" s="1" t="e">
@@ -4772,7 +4586,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A68&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A70&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B66" s="1" t="e">
@@ -4794,7 +4608,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A69&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A71&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B67" s="1" t="e">
@@ -4816,7 +4630,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A70&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A72&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B68" s="1" t="e">
@@ -4838,7 +4652,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A71&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A73&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B69" s="1" t="e">
@@ -4860,7 +4674,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A72&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A74&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B70" s="1" t="e">
@@ -4882,7 +4696,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A73&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A75&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B71" s="1" t="e">
@@ -4904,7 +4718,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A74&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A76&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B72" s="1" t="e">
@@ -4926,7 +4740,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A75&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A77&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B73" s="1" t="e">

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="146">
   <si>
     <t>index  下标</t>
   </si>
@@ -395,6 +395,15 @@
   </si>
   <si>
     <t>基础技能伤害</t>
+  </si>
+  <si>
+    <t>EvasionProb</t>
+  </si>
+  <si>
+    <t>闪避几率</t>
+  </si>
+  <si>
+    <t>每个闪避几率都是独立乘区</t>
   </si>
   <si>
     <t>#Loccustom_attribute_sub_{}</t>
@@ -1681,12 +1690,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{8E1ADA8D-880A-43D9-8A0F-B5DB9037388B}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{44381CAC-F7FA-4FDA-986C-8E0EF5D81D57}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{96D1135F-7F88-4822-8D08-B591D3C14EEE}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{83BCCC72-43E2-4A01-A8DE-35F276F779F2}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -1991,10 +2000,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2968,7 +2977,27 @@
       </c>
       <c r="F51" s="26"/>
     </row>
-    <row r="52" ht="14.25"/>
+    <row r="52" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A52" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="25">
+        <v>50</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="25">
+        <v>1</v>
+      </c>
+      <c r="E52" s="25">
+        <v>1</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25"/>
   </sheetData>
   <conditionalFormatting sqref="E$1:E$1048576">
     <cfRule type="colorScale" priority="1">
@@ -2993,7 +3022,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3017,117 +3046,117 @@
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B8" s="6">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B9" s="6">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B11" s="6">
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B12" s="6">
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3141,8 +3170,8 @@
   <sheetPr/>
   <dimension ref="A1:E237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4235,7 +4264,7 @@
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="str">
         <f>"|"""&amp;attribute_const!A52&amp;""""</f>
-        <v>|""</v>
+        <v>|"EvasionProb"</v>
       </c>
       <c r="B50" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4410,317 +4439,317 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="str">
+        <f>"|"""&amp;attribute_const!A60&amp;""""</f>
+        <v>|""</v>
+      </c>
+      <c r="B58" s="1" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C58" s="1" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D58" s="1" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E58" s="1" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="str">
+        <f>"|"""&amp;attribute_const!A61&amp;""""</f>
+        <v>|""</v>
+      </c>
+      <c r="B59" s="1" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C59" s="1" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D59" s="1" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E59" s="1" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="str">
         <f>"|"""&amp;attribute_const!A62&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B58" s="1" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C58" s="1" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D58" s="1" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E58" s="1" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1" t="str">
+      <c r="B60" s="1" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C60" s="1" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D60" s="1" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E60" s="1" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="str">
         <f>"|"""&amp;attribute_const!A63&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B59" s="1" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C59" s="1" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D59" s="1" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E59" s="1" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1" t="str">
+      <c r="B61" s="1" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C61" s="1" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D61" s="1" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E61" s="1" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="str">
         <f>"|"""&amp;attribute_const!A64&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B60" s="1" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C60" s="1" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D60" s="1" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E60" s="1" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1" t="str">
+      <c r="B62" s="1" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C62" s="1" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D62" s="1" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E62" s="1" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="str">
         <f>"|"""&amp;attribute_const!A65&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B61" s="1" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C61" s="1" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D61" s="1" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E61" s="1" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A66&amp;""""</f>
-        <v>|""</v>
-      </c>
-      <c r="B62" s="1" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C62" s="1" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D62" s="1" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E62" s="1" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1" t="str">
+      <c r="B63" s="1" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C63" s="1" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D63" s="1" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E63" s="1" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="str">
         <f>"|"""&amp;attribute_const!A67&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B63" s="1" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C63" s="1" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D63" s="1" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E63" s="1" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1" t="str">
+      <c r="B64" s="1" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C64" s="1" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D64" s="1" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E64" s="1" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="str">
         <f>"|"""&amp;attribute_const!A68&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B64" s="1" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C64" s="1" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D64" s="1" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E64" s="1" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="1" t="str">
+      <c r="B65" s="1" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C65" s="1" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D65" s="1" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E65" s="1" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="str">
         <f>"|"""&amp;attribute_const!A69&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B65" s="1" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C65" s="1" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D65" s="1" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E65" s="1" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="1" t="str">
+      <c r="B66" s="1" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C66" s="1" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D66" s="1" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E66" s="1" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="str">
         <f>"|"""&amp;attribute_const!A70&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B66" s="1" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C66" s="1" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D66" s="1" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E66" s="1" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1" t="str">
+      <c r="B67" s="1" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C67" s="1" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D67" s="1" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E67" s="1" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="str">
         <f>"|"""&amp;attribute_const!A71&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B67" s="1" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C67" s="1" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D67" s="1" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E67" s="1" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1" t="str">
+      <c r="B68" s="1" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C68" s="1" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D68" s="1" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E68" s="1" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="str">
         <f>"|"""&amp;attribute_const!A72&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B68" s="1" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C68" s="1" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D68" s="1" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E68" s="1" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="1" t="str">
+      <c r="B69" s="1" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C69" s="1" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D69" s="1" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E69" s="1" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="str">
         <f>"|"""&amp;attribute_const!A73&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B69" s="1" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C69" s="1" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D69" s="1" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E69" s="1" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="1" t="str">
+      <c r="B70" s="1" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C70" s="1" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D70" s="1" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E70" s="1" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="str">
         <f>"|"""&amp;attribute_const!A74&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B70" s="1" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C70" s="1" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D70" s="1" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E70" s="1" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="1" t="str">
+      <c r="B71" s="1" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C71" s="1" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D71" s="1" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E71" s="1" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="str">
         <f>"|"""&amp;attribute_const!A75&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B71" s="1" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C71" s="1" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D71" s="1" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E71" s="1" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A76&amp;""""</f>
-        <v>|""</v>
-      </c>
       <c r="B72" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
         <v>#REF!</v>
@@ -4740,7 +4769,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A77&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A76&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B73" s="1" t="e">

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="154">
   <si>
     <t>index  下标</t>
   </si>
@@ -142,7 +142,16 @@
     <t>技能冷却</t>
   </si>
   <si>
-    <t>内部独立乘算</t>
+    <t>与技能急速共享最大55%</t>
+  </si>
+  <si>
+    <t>AbilityCooldown2</t>
+  </si>
+  <si>
+    <t>技能冷却2</t>
+  </si>
+  <si>
+    <t>可突破上限</t>
   </si>
   <si>
     <t>CriticalChance</t>
@@ -169,18 +178,12 @@
     <t>%伤害加成A</t>
   </si>
   <si>
-    <t>当局部分</t>
-  </si>
-  <si>
     <t>DamageServerMul</t>
   </si>
   <si>
     <t>%伤害加成B</t>
   </si>
   <si>
-    <t>存档部分</t>
-  </si>
-  <si>
     <t>FinalDamageMul</t>
   </si>
   <si>
@@ -265,7 +268,7 @@
     <t>回复增强</t>
   </si>
   <si>
-    <t>提高额外的回复效果</t>
+    <t>提高额外的回复效果 吸血/生命恢复</t>
   </si>
   <si>
     <t>AllElementDamageBonus</t>
@@ -274,24 +277,27 @@
     <t>%全元素伤害</t>
   </si>
   <si>
+    <t>元素伤害百分比加成,</t>
+  </si>
+  <si>
+    <t>AllElementPent</t>
+  </si>
+  <si>
+    <t>%全元素穿透</t>
+  </si>
+  <si>
+    <t>百分比穿透元素抗性,与其对应元素做加算</t>
+  </si>
+  <si>
+    <t>FirePent</t>
+  </si>
+  <si>
+    <t>%火元素穿透</t>
+  </si>
+  <si>
     <t>元素伤害百分比加成</t>
   </si>
   <si>
-    <t>AllElementPent</t>
-  </si>
-  <si>
-    <t>%全元素穿透</t>
-  </si>
-  <si>
-    <t>乘算，百分比穿透元素抗性</t>
-  </si>
-  <si>
-    <t>FirePent</t>
-  </si>
-  <si>
-    <t>%火元素穿透</t>
-  </si>
-  <si>
     <t>IcePent</t>
   </si>
   <si>
@@ -316,7 +322,7 @@
     <t>%全元素抗性</t>
   </si>
   <si>
-    <t>乘算，百分比减少受到元素伤害</t>
+    <t>百分比减少受到元素伤害</t>
   </si>
   <si>
     <t>FireResist</t>
@@ -391,10 +397,13 @@
     <t>施法消耗比</t>
   </si>
   <si>
-    <t>BasicAbilityDmg</t>
-  </si>
-  <si>
-    <t>基础技能伤害</t>
+    <t>AbilityImproved</t>
+  </si>
+  <si>
+    <t>技能增强</t>
+  </si>
+  <si>
+    <t>技能伤害乘区</t>
   </si>
   <si>
     <t>EvasionProb</t>
@@ -415,6 +424,12 @@
     <t>基础</t>
   </si>
   <si>
+    <t>加算</t>
+  </si>
+  <si>
+    <t>基础技能伤害+</t>
+  </si>
+  <si>
     <t>Bonus</t>
   </si>
   <si>
@@ -433,6 +448,12 @@
     <t>基础加成</t>
   </si>
   <si>
+    <t>乘算</t>
+  </si>
+  <si>
+    <t>技能基础伤害*</t>
+  </si>
+  <si>
     <t>BonusPercent</t>
   </si>
   <si>
@@ -467,6 +488,9 @@
   </si>
   <si>
     <t>乘算区,必须带ID</t>
+  </si>
+  <si>
+    <t>乘算*乘算</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1444,6 +1468,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1492,6 +1519,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1690,12 +1720,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{44381CAC-F7FA-4FDA-986C-8E0EF5D81D57}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3BE35B8E-DFB5-45B3-B3B2-8D0BF71E7809}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{83BCCC72-43E2-4A01-A8DE-35F276F779F2}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{FAB4BEA1-B93F-49B3-8AC4-12CFB14020A1}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
@@ -2000,1004 +2030,1032 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.5083333333333" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.84166666666667" style="11" customWidth="1"/>
-    <col min="3" max="3" width="26.3416666666667" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.175" style="11" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="46.175" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="27.5083333333333" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.84166666666667" style="12" customWidth="1"/>
+    <col min="3" max="3" width="26.3416666666667" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14.175" style="12" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="46.175" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:6">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="20">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="20">
         <v>0</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="20">
         <v>0</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="23">
         <v>2</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="23">
         <v>0</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="23">
         <v>0</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="20">
         <v>3</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="20">
         <v>0</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="20">
         <v>0</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="23">
         <v>4</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="23">
         <v>0</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="23">
         <v>0</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="20">
         <v>5</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="20">
         <v>0</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="20">
         <v>0</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="23">
         <v>6</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="23">
         <v>0</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="23">
         <v>0</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="20">
         <v>7</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="20">
         <v>0</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="20">
         <v>0</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="23">
         <v>8</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="23">
         <v>0</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="23">
         <v>0</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="24"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="20">
         <v>9</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="20">
         <v>0</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="20">
         <v>0</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="23">
         <v>10</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="23">
         <v>0</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="23">
         <v>0</v>
       </c>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A13" s="18" t="s">
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="20">
         <v>11</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="20">
         <v>0</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="20">
         <v>0</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A14" s="21" t="s">
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="23">
         <v>12</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="23">
         <v>0</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="23">
+        <v>0</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:12">
+      <c r="A15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="23">
+        <v>13</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="23">
+        <v>0</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="23">
+        <v>14</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="20">
         <v>1</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="E16" s="20">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A17" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="23">
+        <v>15</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="23">
+        <v>1</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0</v>
+      </c>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A18" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="23">
+        <v>16</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A19" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="23">
+        <v>17</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="23">
+        <v>1</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0</v>
+      </c>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="23">
+        <v>18</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A21" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="23">
+        <v>19</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="23">
+        <v>1</v>
+      </c>
+      <c r="E21" s="23">
+        <v>0</v>
+      </c>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A22" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="23">
+        <v>20</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="20">
+        <v>1</v>
+      </c>
+      <c r="E22" s="20">
+        <v>0</v>
+      </c>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A23" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A24" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="23">
+        <v>22</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0</v>
+      </c>
+      <c r="E24" s="20">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A25" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="23">
+        <v>23</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="23">
+        <v>0</v>
+      </c>
+      <c r="E25" s="23">
+        <v>0</v>
+      </c>
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A26" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="23">
+        <v>24</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="20">
+        <v>0</v>
+      </c>
+      <c r="E26" s="20">
+        <v>0</v>
+      </c>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A27" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="23">
+        <v>25</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="23">
+        <v>0</v>
+      </c>
+      <c r="E27" s="23">
+        <v>0</v>
+      </c>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A28" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="23">
+        <v>26</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="20">
+        <v>0</v>
+      </c>
+      <c r="E28" s="20">
+        <v>0</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A29" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="23">
+        <v>27</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="23">
+        <v>0</v>
+      </c>
+      <c r="E29" s="23">
+        <v>0</v>
+      </c>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A30" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="23">
+        <v>28</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0</v>
+      </c>
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A31" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="23">
+        <v>29</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="23">
+        <v>0</v>
+      </c>
+      <c r="E31" s="23">
+        <v>0</v>
+      </c>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A32" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="23">
+        <v>30</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="20">
+        <v>0</v>
+      </c>
+      <c r="E32" s="20">
+        <v>0</v>
+      </c>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A33" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="23">
+        <v>31</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="23">
+        <v>0</v>
+      </c>
+      <c r="E33" s="23">
+        <v>0</v>
+      </c>
+      <c r="F33" s="24"/>
+    </row>
+    <row r="34" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A34" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="23">
+        <v>32</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="20">
+        <v>0</v>
+      </c>
+      <c r="E34" s="20">
+        <v>0</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A35" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="23">
+        <v>33</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="23">
+        <v>1</v>
+      </c>
+      <c r="E35" s="23">
+        <v>0</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A36" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="23">
+        <v>34</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="20">
+        <v>1</v>
+      </c>
+      <c r="E36" s="20">
+        <v>0</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A37" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="23">
+        <v>35</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="23">
+        <v>1</v>
+      </c>
+      <c r="E37" s="23">
+        <v>0</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A38" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="23">
+        <v>36</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="20">
+        <v>1</v>
+      </c>
+      <c r="E38" s="20">
+        <v>0</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A39" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="23">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A15" s="18" t="s">
+      <c r="C39" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="23">
+        <v>1</v>
+      </c>
+      <c r="E39" s="23">
+        <v>0</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A40" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="23">
         <v>38</v>
       </c>
-      <c r="B15" s="19">
-        <v>13</v>
-      </c>
-      <c r="C15" s="19" t="s">
+      <c r="C40" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="20">
+        <v>1</v>
+      </c>
+      <c r="E40" s="20">
+        <v>0</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A41" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="23">
         <v>39</v>
       </c>
-      <c r="D15" s="19">
+      <c r="C41" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="23">
         <v>1</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E41" s="23">
         <v>0</v>
       </c>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A16" s="21" t="s">
+      <c r="F41" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A42" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="23">
         <v>40</v>
       </c>
-      <c r="B16" s="22">
-        <v>14</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="C42" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="20">
+        <v>1</v>
+      </c>
+      <c r="E42" s="20">
+        <v>0</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A43" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="23">
         <v>41</v>
       </c>
-      <c r="D16" s="22">
+      <c r="C43" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="23">
         <v>1</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E43" s="23">
         <v>0</v>
       </c>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A17" s="18" t="s">
+      <c r="F43" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A44" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="23">
         <v>42</v>
       </c>
-      <c r="B17" s="19">
-        <v>15</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="C44" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="20">
+        <v>1</v>
+      </c>
+      <c r="E44" s="20">
+        <v>0</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A45" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="23">
         <v>43</v>
       </c>
-      <c r="D17" s="19">
+      <c r="C45" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="23">
+        <v>1</v>
+      </c>
+      <c r="E45" s="23">
         <v>0</v>
       </c>
-      <c r="E17" s="19">
+      <c r="F45" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A46" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="23">
+        <v>44</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="20">
         <v>0</v>
       </c>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A18" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="22">
-        <v>16</v>
-      </c>
-      <c r="C18" s="22" t="s">
+      <c r="E46" s="20">
+        <v>0</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A47" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="23">
         <v>45</v>
       </c>
-      <c r="D18" s="22">
+      <c r="C47" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="23">
+        <v>0</v>
+      </c>
+      <c r="E47" s="23">
+        <v>0</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A48" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="23">
+        <v>46</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="20">
         <v>1</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E48" s="20">
+        <v>1</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A49" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="23">
+        <v>47</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="23">
+        <v>1</v>
+      </c>
+      <c r="E49" s="23">
         <v>0</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A19" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="19">
-        <v>17</v>
-      </c>
-      <c r="C19" s="19" t="s">
+      <c r="F49" s="24"/>
+    </row>
+    <row r="50" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A50" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="23">
         <v>48</v>
       </c>
-      <c r="D19" s="19">
+      <c r="C50" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="20">
         <v>1</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E50" s="20">
         <v>0</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A51" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="23">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A20" s="21" t="s">
+      <c r="C51" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="27">
+        <v>1</v>
+      </c>
+      <c r="E51" s="27">
+        <v>0</v>
+      </c>
+      <c r="F51" s="28"/>
+    </row>
+    <row r="52" s="11" customFormat="1" ht="18" spans="1:6">
+      <c r="A52" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="23">
         <v>50</v>
       </c>
-      <c r="B20" s="22">
-        <v>18</v>
-      </c>
-      <c r="C20" s="22" t="s">
+      <c r="C52" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="27">
+        <v>1</v>
+      </c>
+      <c r="E52" s="27">
+        <v>0</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A53" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="23">
         <v>51</v>
       </c>
-      <c r="D20" s="22">
+      <c r="C53" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="27">
         <v>1</v>
       </c>
-      <c r="E20" s="22">
-        <v>0</v>
-      </c>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A21" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="19">
-        <v>19</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="19">
+      <c r="E53" s="27">
         <v>1</v>
       </c>
-      <c r="E21" s="19">
-        <v>0</v>
-      </c>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A22" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="22">
-        <v>20</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="22">
-        <v>0</v>
-      </c>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A23" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="19">
-        <v>21</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="19">
-        <v>0</v>
-      </c>
-      <c r="E23" s="19">
-        <v>0</v>
-      </c>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A24" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="22">
-        <v>22</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="22">
-        <v>0</v>
-      </c>
-      <c r="E24" s="22">
-        <v>0</v>
-      </c>
-      <c r="F24" s="23"/>
-    </row>
-    <row r="25" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A25" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="19">
-        <v>23</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="19">
-        <v>0</v>
-      </c>
-      <c r="E25" s="19">
-        <v>0</v>
-      </c>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A26" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="22">
-        <v>24</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="22">
-        <v>0</v>
-      </c>
-      <c r="E26" s="22">
-        <v>0</v>
-      </c>
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A27" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="19">
-        <v>25</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="19">
-        <v>0</v>
-      </c>
-      <c r="E27" s="19">
-        <v>0</v>
-      </c>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A28" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="22">
-        <v>26</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="22">
-        <v>0</v>
-      </c>
-      <c r="E28" s="22">
-        <v>0</v>
-      </c>
-      <c r="F28" s="23"/>
-    </row>
-    <row r="29" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A29" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="19">
-        <v>27</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="19">
-        <v>0</v>
-      </c>
-      <c r="E29" s="19">
-        <v>0</v>
-      </c>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A30" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="22">
-        <v>28</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="22">
-        <v>0</v>
-      </c>
-      <c r="E30" s="22">
-        <v>0</v>
-      </c>
-      <c r="F30" s="23"/>
-    </row>
-    <row r="31" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A31" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="19">
-        <v>29</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="19">
-        <v>0</v>
-      </c>
-      <c r="E31" s="19">
-        <v>0</v>
-      </c>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="22">
-        <v>30</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="22">
-        <v>0</v>
-      </c>
-      <c r="E32" s="22">
-        <v>0</v>
-      </c>
-      <c r="F32" s="23"/>
-    </row>
-    <row r="33" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A33" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="19">
-        <v>31</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="19">
-        <v>0</v>
-      </c>
-      <c r="E33" s="19">
-        <v>0</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A34" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="22">
-        <v>32</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="22">
-        <v>1</v>
-      </c>
-      <c r="E34" s="22">
-        <v>0</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A35" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="19">
-        <v>33</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="19">
-        <v>1</v>
-      </c>
-      <c r="E35" s="19">
-        <v>1</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A36" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="22">
-        <v>34</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="22">
-        <v>1</v>
-      </c>
-      <c r="E36" s="22">
-        <v>1</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A37" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="19">
-        <v>35</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="19">
-        <v>1</v>
-      </c>
-      <c r="E37" s="19">
-        <v>1</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A38" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="22">
-        <v>36</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="22">
-        <v>1</v>
-      </c>
-      <c r="E38" s="22">
-        <v>1</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A39" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="19">
-        <v>37</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="19">
-        <v>1</v>
-      </c>
-      <c r="E39" s="19">
-        <v>1</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A40" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="22">
-        <v>38</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="22">
-        <v>1</v>
-      </c>
-      <c r="E40" s="22">
-        <v>1</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A41" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="19">
-        <v>39</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="19">
-        <v>1</v>
-      </c>
-      <c r="E41" s="19">
-        <v>1</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A42" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="22">
-        <v>40</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="22">
-        <v>1</v>
-      </c>
-      <c r="E42" s="22">
-        <v>1</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A43" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="19">
-        <v>41</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="19">
-        <v>1</v>
-      </c>
-      <c r="E43" s="19">
-        <v>1</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A44" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="22">
-        <v>42</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="22">
-        <v>1</v>
-      </c>
-      <c r="E44" s="22">
-        <v>1</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A45" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" s="19">
-        <v>43</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" s="19">
-        <v>0</v>
-      </c>
-      <c r="E45" s="19">
-        <v>0</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A46" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46" s="22">
-        <v>44</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" s="22">
-        <v>0</v>
-      </c>
-      <c r="E46" s="22">
-        <v>0</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A47" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="19">
-        <v>45</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="19">
-        <v>1</v>
-      </c>
-      <c r="E47" s="19">
-        <v>1</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A48" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="22">
-        <v>46</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="22">
-        <v>1</v>
-      </c>
-      <c r="E48" s="22">
-        <v>0</v>
-      </c>
-      <c r="F48" s="23"/>
-    </row>
-    <row r="49" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A49" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="19">
-        <v>47</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" s="19">
-        <v>1</v>
-      </c>
-      <c r="E49" s="19">
-        <v>0</v>
-      </c>
-      <c r="F49" s="20"/>
-    </row>
-    <row r="50" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A50" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="25">
-        <v>48</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="25">
-        <v>1</v>
-      </c>
-      <c r="E50" s="25">
-        <v>0</v>
-      </c>
-      <c r="F50" s="26"/>
-    </row>
-    <row r="51" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A51" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" s="25">
-        <v>49</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="25">
-        <v>1</v>
-      </c>
-      <c r="E51" s="25">
-        <v>0</v>
-      </c>
-      <c r="F51" s="26"/>
-    </row>
-    <row r="52" s="10" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A52" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" s="25">
-        <v>50</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52" s="25">
-        <v>1</v>
-      </c>
-      <c r="E52" s="25">
-        <v>1</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25"/>
+      <c r="F53" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25"/>
   </sheetData>
   <conditionalFormatting sqref="E$1:E$1048576">
     <cfRule type="colorScale" priority="1">
@@ -3019,16 +3077,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="16.0083333333333" customWidth="1"/>
     <col min="3" max="3" width="27.5083333333333" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:3">
@@ -3046,118 +3106,144 @@
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:3">
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>135</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B8" s="6">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B9" s="6">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A11" s="8" t="s">
-        <v>142</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A11" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="B11" s="6">
         <v>9</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A12" s="8" t="s">
-        <v>144</v>
+      <c r="C11" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A12" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="B12" s="6">
         <v>10</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>145</v>
-      </c>
+      <c r="C12" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3170,7 +3256,7 @@
   <sheetPr/>
   <dimension ref="A1:E237"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
@@ -3449,7 +3535,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A15&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A16&amp;""""</f>
         <v>|"CriticalChance"</v>
       </c>
       <c r="B13" s="1" t="e">
@@ -3471,7 +3557,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A16&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A17&amp;""""</f>
         <v>|"CriticalDamage"</v>
       </c>
       <c r="B14" s="1" t="e">
@@ -3493,7 +3579,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A17&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A18&amp;""""</f>
         <v>|"PickItemRadius"</v>
       </c>
       <c r="B15" s="1" t="e">
@@ -3515,7 +3601,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A18&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A19&amp;""""</f>
         <v>|"DamageBonusMul"</v>
       </c>
       <c r="B16" s="1" t="e">
@@ -3537,7 +3623,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A19&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A20&amp;""""</f>
         <v>|"DamageServerMul"</v>
       </c>
       <c r="B17" s="1" t="e">
@@ -3559,7 +3645,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A20&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A21&amp;""""</f>
         <v>|"FinalDamageMul"</v>
       </c>
       <c r="B18" s="1" t="e">
@@ -3581,7 +3667,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A21&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A22&amp;""""</f>
         <v>|"MeleeDmgPct"</v>
       </c>
       <c r="B19" s="1" t="e">
@@ -3603,7 +3689,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A22&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A23&amp;""""</f>
         <v>|"RangedDmgPct"</v>
       </c>
       <c r="B20" s="1" t="e">
@@ -3625,7 +3711,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A23&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A24&amp;""""</f>
         <v>|"BurningDmg"</v>
       </c>
       <c r="B21" s="1" t="e">
@@ -3647,7 +3733,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A24&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A25&amp;""""</f>
         <v>|"BurningDuration"</v>
       </c>
       <c r="B22" s="1" t="e">
@@ -3669,7 +3755,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A25&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A26&amp;""""</f>
         <v>|"FireDamageBonus"</v>
       </c>
       <c r="B23" s="1" t="e">
@@ -3691,7 +3777,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A26&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A27&amp;""""</f>
         <v>|"IceDamageBonus"</v>
       </c>
       <c r="B24" s="1" t="e">
@@ -3713,7 +3799,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A27&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A28&amp;""""</f>
         <v>|"ThunderDamageBonus"</v>
       </c>
       <c r="B25" s="1" t="e">
@@ -3735,7 +3821,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A28&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A29&amp;""""</f>
         <v>|"WindDamageBonus"</v>
       </c>
       <c r="B26" s="1" t="e">
@@ -3757,7 +3843,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A29&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A30&amp;""""</f>
         <v>|"LightDamageBonus"</v>
       </c>
       <c r="B27" s="1" t="e">
@@ -3779,7 +3865,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A30&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A31&amp;""""</f>
         <v>|"DarkDamageBonus"</v>
       </c>
       <c r="B28" s="1" t="e">
@@ -3801,7 +3887,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A31&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A32&amp;""""</f>
         <v>|"KillRestoreHp"</v>
       </c>
       <c r="B29" s="1" t="e">
@@ -3823,7 +3909,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A32&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A33&amp;""""</f>
         <v>|"KillRestoreMp"</v>
       </c>
       <c r="B30" s="1" t="e">
@@ -3845,7 +3931,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A33&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A34&amp;""""</f>
         <v>|"RestoreIncrease"</v>
       </c>
       <c r="B31" s="1" t="e">
@@ -3867,7 +3953,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A34&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A35&amp;""""</f>
         <v>|"AllElementDamageBonus"</v>
       </c>
       <c r="B32" s="1" t="e">
@@ -3889,7 +3975,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A35&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A36&amp;""""</f>
         <v>|"AllElementPent"</v>
       </c>
       <c r="B33" s="1" t="e">
@@ -3911,7 +3997,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A36&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A37&amp;""""</f>
         <v>|"FirePent"</v>
       </c>
       <c r="B34" s="1" t="e">
@@ -3933,7 +4019,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A37&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A38&amp;""""</f>
         <v>|"IcePent"</v>
       </c>
       <c r="B35" s="1" t="e">
@@ -3955,7 +4041,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A38&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A39&amp;""""</f>
         <v>|"ThunderPent"</v>
       </c>
       <c r="B36" s="1" t="e">
@@ -3977,7 +4063,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A39&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A40&amp;""""</f>
         <v>|"WindPent"</v>
       </c>
       <c r="B37" s="1" t="e">
@@ -3999,7 +4085,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A40&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A41&amp;""""</f>
         <v>|"AllElementResist"</v>
       </c>
       <c r="B38" s="1" t="e">
@@ -4021,7 +4107,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A41&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A42&amp;""""</f>
         <v>|"FireResist"</v>
       </c>
       <c r="B39" s="1" t="e">
@@ -4043,7 +4129,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A42&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A43&amp;""""</f>
         <v>|"IceResist"</v>
       </c>
       <c r="B40" s="1" t="e">
@@ -4065,7 +4151,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A43&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A44&amp;""""</f>
         <v>|"ThunderResist"</v>
       </c>
       <c r="B41" s="1" t="e">
@@ -4087,7 +4173,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A44&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A45&amp;""""</f>
         <v>|"WindResist"</v>
       </c>
       <c r="B42" s="1" t="e">
@@ -4109,7 +4195,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A45&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A46&amp;""""</f>
         <v>|"FixedDamage"</v>
       </c>
       <c r="B43" s="1" t="e">
@@ -4131,7 +4217,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A46&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A47&amp;""""</f>
         <v>|"DmgReductionFixed"</v>
       </c>
       <c r="B44" s="1" t="e">
@@ -4153,7 +4239,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A47&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A48&amp;""""</f>
         <v>|"DmgReductionPct"</v>
       </c>
       <c r="B45" s="1" t="e">
@@ -4175,7 +4261,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A48&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A49&amp;""""</f>
         <v>|"SingleExpeIncrease"</v>
       </c>
       <c r="B46" s="1" t="e">
@@ -4197,7 +4283,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A49&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A50&amp;""""</f>
         <v>|"SacredEquipSkillDmg"</v>
       </c>
       <c r="B47" s="1" t="e">
@@ -4219,7 +4305,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A50&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A51&amp;""""</f>
         <v>|"ManaCostRate"</v>
       </c>
       <c r="B48" s="1" t="e">
@@ -4241,8 +4327,8 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A51&amp;""""</f>
-        <v>|"BasicAbilityDmg"</v>
+        <f>"|"""&amp;attribute_const!A52&amp;""""</f>
+        <v>|"AbilityImproved"</v>
       </c>
       <c r="B49" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4263,7 +4349,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A52&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A53&amp;""""</f>
         <v>|"EvasionProb"</v>
       </c>
       <c r="B50" s="1" t="e">
@@ -4285,7 +4371,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A53&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A54&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B51" s="1" t="e">
@@ -4307,7 +4393,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A54&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A55&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B52" s="1" t="e">
@@ -4329,7 +4415,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A55&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A56&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B53" s="1" t="e">
@@ -4351,7 +4437,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A56&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A57&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B54" s="1" t="e">
@@ -4373,7 +4459,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A57&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A58&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B55" s="1" t="e">
@@ -4395,7 +4481,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A58&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A59&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B56" s="1" t="e">
@@ -4417,7 +4503,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A59&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A60&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B57" s="1" t="e">
@@ -4439,7 +4525,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A60&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A61&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B58" s="1" t="e">
@@ -4461,7 +4547,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A61&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A62&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B59" s="1" t="e">
@@ -4483,7 +4569,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A62&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A63&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B60" s="1" t="e">
@@ -4505,7 +4591,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A63&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A64&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B61" s="1" t="e">
@@ -4527,7 +4613,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A64&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A65&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B62" s="1" t="e">
@@ -4549,7 +4635,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A65&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A66&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B63" s="1" t="e">
@@ -4571,7 +4657,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A67&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A68&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B64" s="1" t="e">
@@ -4593,7 +4679,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A68&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A69&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B65" s="1" t="e">
@@ -4615,7 +4701,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A69&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A70&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B66" s="1" t="e">
@@ -4637,7 +4723,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A70&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A71&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B67" s="1" t="e">
@@ -4659,7 +4745,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A71&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A72&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B68" s="1" t="e">
@@ -4681,7 +4767,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A72&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A73&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B69" s="1" t="e">
@@ -4703,7 +4789,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A73&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A74&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B70" s="1" t="e">
@@ -4725,7 +4811,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A74&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A75&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B71" s="1" t="e">
@@ -4747,7 +4833,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A75&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A76&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B72" s="1" t="e">
@@ -4769,7 +4855,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A76&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A77&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B73" s="1" t="e">

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="159">
   <si>
     <t>index  下标</t>
   </si>
@@ -385,6 +385,12 @@
     <t>经验获取率</t>
   </si>
   <si>
+    <t>TeamExpeIncrease</t>
+  </si>
+  <si>
+    <t>团队经验获取率</t>
+  </si>
+  <si>
     <t>SacredEquipSkillDmg</t>
   </si>
   <si>
@@ -413,6 +419,15 @@
   </si>
   <si>
     <t>每个闪避几率都是独立乘区</t>
+  </si>
+  <si>
+    <t>BasicAbilityDmg</t>
+  </si>
+  <si>
+    <t>基础技能伤害</t>
+  </si>
+  <si>
+    <t>Q技能</t>
   </si>
   <si>
     <t>#Loccustom_attribute_sub_{}</t>
@@ -503,7 +518,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,7 +541,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF08090C"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -684,13 +705,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5A5A5A"/>
+        <fgColor theme="1" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6E6"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,122 +1023,54 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
+      <left style="thin">
+        <color theme="1"/>
       </left>
-      <right style="medium">
-        <color theme="0"/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thick">
-        <color rgb="FF595959"/>
+      <top style="thin">
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0"/>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
       </left>
-      <right style="medium">
-        <color theme="0"/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thick">
-        <color rgb="FF595959"/>
+      <top style="thin">
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0"/>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
       </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
+      <right style="thin">
+        <color theme="1"/>
       </right>
-      <top style="thick">
-        <color rgb="FF595959"/>
+      <top style="thin">
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
+      <left style="thin">
+        <color theme="1"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,41 +1081,9 @@
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,28 +1092,140 @@
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color theme="1"/>
       </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
       </right>
       <top style="thin">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1" tint="0.66"/>
       </top>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.66"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.66"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1314,16 +1347,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1332,115 +1362,118 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1502,34 +1535,34 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1584,7 +1617,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="45">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1718,16 +1751,1038 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1" tint="0.66"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.66"/>
+        </right>
+        <top style="thin">
+          <color theme="1" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.66"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1" tint="0.66"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color rgb="FFCBDECA"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCBDECA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCBDECA"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FFCBDECA"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCBDECA"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FFCBDECA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCBDECA"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFCBDECA" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCBDECA" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCBDECA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCBDECA"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FFCBDECA" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCBDECA" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCBDECA"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCBDECA"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCBDECA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCBDECA"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFCBDECA" tint="0.6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFCBDECA" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCBDECA" tint="0.9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCBDECA" tint="0.66"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCBDECA"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCBDECA" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCBDECA"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FFCBDECA" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCBDECA"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCBDECA" tint="0.66"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCBDECA" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCBDECA"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color rgb="FFCBDECA" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCBDECA"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCBDECA"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCBDECA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCBDECA"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFCBDECA" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCBDECA"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCBDECA"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCBDECA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCBDECA" tint="0.66"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFCBDECA"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFCBDECA"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFCBDECA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCBDECA"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFCBDECA" tint="0.66"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFCBDECA" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <u val="none"/>
+        <color rgb="FFCBDECA"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FFCBDECA"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <u val="none"/>
+        <color rgb="FFCBDECA"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFCBDECA" tint="0.8"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFFFF"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <u val="none"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FFCBDECA"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFCBDECA"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="0.6"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="0.6"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="9" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="9" tint="0.6"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="9" tint="0.6"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="0.66"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="9" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="0.66"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="0.66"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="9" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.66"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="9" tint="0.66"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="9" tint="0.66"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <u val="none"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <u val="none"/>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="9" tint="0.8"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFFFF"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <u val="none"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3BE35B8E-DFB5-45B3-B3B2-8D0BF71E7809}">
+  <tableStyles count="7" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{60D6CC77-9668-426B-8133-535FC186F778}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{FAB4BEA1-B93F-49B3-8AC4-12CFB14020A1}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{5BF41B1A-DD56-405E-A359-3C58A07E7C0E}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
+    </tableStyle>
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{0A7CE757-BCB2-4BF8-9574-1F1A26BB0BCE}">
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="lastColumn" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="7"/>
+      <tableStyleElement type="firstTotalCell" dxfId="6"/>
+      <tableStyleElement type="lastTotalCell" dxfId="5"/>
+    </tableStyle>
+    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{66BC2D2E-7531-4304-ADDB-89D141FB1E63}">
+      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="totalRow" dxfId="22"/>
+      <tableStyleElement type="firstColumn" dxfId="21"/>
+      <tableStyleElement type="lastColumn" dxfId="20"/>
+      <tableStyleElement type="secondRowStripe" dxfId="19"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="17"/>
+      <tableStyleElement type="firstTotalCell" dxfId="16"/>
+      <tableStyleElement type="lastTotalCell" dxfId="15"/>
+    </tableStyle>
+    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{60E44608-418B-4A81-89CF-6ECF8FA33FF5}">
+      <tableStyleElement type="wholeTable" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="28"/>
+      <tableStyleElement type="totalRow" dxfId="27"/>
+      <tableStyleElement type="firstColumn" dxfId="26"/>
+      <tableStyleElement type="lastColumn" dxfId="25"/>
+    </tableStyle>
+    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{41A9BAD4-E4DB-4491-B7C4-79B0BD708AC0}">
+      <tableStyleElement type="wholeTable" dxfId="39"/>
+      <tableStyleElement type="headerRow" dxfId="38"/>
+      <tableStyleElement type="totalRow" dxfId="37"/>
+      <tableStyleElement type="firstColumn" dxfId="36"/>
+      <tableStyleElement type="lastColumn" dxfId="35"/>
+      <tableStyleElement type="secondRowStripe" dxfId="34"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="33"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="32"/>
+      <tableStyleElement type="firstTotalCell" dxfId="31"/>
+      <tableStyleElement type="lastTotalCell" dxfId="30"/>
+    </tableStyle>
+    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{F70CA82F-B53E-4105-84DD-7116551E312D}">
+      <tableStyleElement type="wholeTable" dxfId="44"/>
+      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="totalRow" dxfId="42"/>
+      <tableStyleElement type="firstColumn" dxfId="41"/>
+      <tableStyleElement type="lastColumn" dxfId="40"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2030,10 +3085,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2107,7 +3162,7 @@
       <c r="A4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="20">
         <v>2</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -2122,28 +3177,28 @@
       <c r="F4" s="24"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="20">
         <v>3</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="23">
         <v>0</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="23">
         <v>0</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:6">
       <c r="A6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="20">
         <v>4</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -2158,22 +3213,22 @@
       <c r="F6" s="24"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="20">
         <v>5</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="23">
         <v>0</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="23">
         <v>0</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="24" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2181,7 +3236,7 @@
       <c r="A8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="20">
         <v>6</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -2196,28 +3251,28 @@
       <c r="F8" s="24"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="20">
         <v>7</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="23">
         <v>0</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="23">
         <v>0</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:6">
       <c r="A10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="20">
         <v>8</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -2232,28 +3287,28 @@
       <c r="F10" s="24"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="20">
         <v>9</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="23">
         <v>0</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="23">
         <v>0</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:6">
       <c r="A12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="20">
         <v>10</v>
       </c>
       <c r="C12" s="23" t="s">
@@ -2268,22 +3323,22 @@
       <c r="F12" s="24"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:12">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="22" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="20">
         <v>11</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="23">
         <v>0</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="23">
         <v>0</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="24" t="s">
         <v>34</v>
       </c>
       <c r="K13" s="25"/>
@@ -2293,7 +3348,7 @@
       <c r="A14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="20">
         <v>12</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -2318,7 +3373,7 @@
       <c r="A15" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="20">
         <v>13</v>
       </c>
       <c r="C15" s="23" t="s">
@@ -2338,28 +3393,28 @@
       <c r="L15" s="25"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="20">
         <v>14</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="23">
         <v>1</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="23">
         <v>0</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="24"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:6">
       <c r="A17" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="20">
         <v>15</v>
       </c>
       <c r="C17" s="23" t="s">
@@ -2374,28 +3429,28 @@
       <c r="F17" s="24"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="20">
         <v>16</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="23">
         <v>0</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="23">
         <v>0</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:6">
       <c r="A19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="20">
         <v>17</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -2410,28 +3465,28 @@
       <c r="F19" s="24"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="20">
         <v>18</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="23">
         <v>1</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="23">
         <v>0</v>
       </c>
-      <c r="F20" s="21"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:6">
       <c r="A21" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="20">
         <v>19</v>
       </c>
       <c r="C21" s="23" t="s">
@@ -2446,28 +3501,28 @@
       <c r="F21" s="24"/>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="20">
         <v>20</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="23">
         <v>1</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="23">
         <v>0</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="24"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:6">
       <c r="A23" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="20">
         <v>21</v>
       </c>
       <c r="C23" s="23" t="s">
@@ -2482,28 +3537,28 @@
       <c r="F23" s="24"/>
     </row>
     <row r="24" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="20">
         <v>22</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="23">
         <v>0</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="23">
         <v>0</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A25" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="20">
         <v>23</v>
       </c>
       <c r="C25" s="23" t="s">
@@ -2518,28 +3573,28 @@
       <c r="F25" s="24"/>
     </row>
     <row r="26" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="20">
         <v>24</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="23">
         <v>0</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="23">
         <v>0</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="24"/>
     </row>
     <row r="27" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A27" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="20">
         <v>25</v>
       </c>
       <c r="C27" s="23" t="s">
@@ -2554,28 +3609,28 @@
       <c r="F27" s="24"/>
     </row>
     <row r="28" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="20">
         <v>26</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="23">
         <v>0</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="23">
         <v>0</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A29" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="20">
         <v>27</v>
       </c>
       <c r="C29" s="23" t="s">
@@ -2590,28 +3645,28 @@
       <c r="F29" s="24"/>
     </row>
     <row r="30" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="20">
         <v>28</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="23">
         <v>0</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="23">
         <v>0</v>
       </c>
-      <c r="F30" s="21"/>
+      <c r="F30" s="24"/>
     </row>
     <row r="31" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A31" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="20">
         <v>29</v>
       </c>
       <c r="C31" s="23" t="s">
@@ -2626,28 +3681,28 @@
       <c r="F31" s="24"/>
     </row>
     <row r="32" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="20">
         <v>30</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="23">
         <v>0</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="23">
         <v>0</v>
       </c>
-      <c r="F32" s="21"/>
+      <c r="F32" s="24"/>
     </row>
     <row r="33" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A33" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="20">
         <v>31</v>
       </c>
       <c r="C33" s="23" t="s">
@@ -2662,22 +3717,22 @@
       <c r="F33" s="24"/>
     </row>
     <row r="34" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="20">
         <v>32</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="23">
         <v>0</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="23">
         <v>0</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="24" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2685,7 +3740,7 @@
       <c r="A35" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="20">
         <v>33</v>
       </c>
       <c r="C35" s="23" t="s">
@@ -2702,22 +3757,22 @@
       </c>
     </row>
     <row r="36" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="20">
         <v>34</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="23">
         <v>1</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="23">
         <v>0</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="24" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2725,7 +3780,7 @@
       <c r="A37" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="20">
         <v>35</v>
       </c>
       <c r="C37" s="23" t="s">
@@ -2742,22 +3797,22 @@
       </c>
     </row>
     <row r="38" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="20">
         <v>36</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="23">
         <v>1</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="23">
         <v>0</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="24" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2765,7 +3820,7 @@
       <c r="A39" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B39" s="20">
         <v>37</v>
       </c>
       <c r="C39" s="23" t="s">
@@ -2782,22 +3837,22 @@
       </c>
     </row>
     <row r="40" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="23">
+      <c r="B40" s="20">
         <v>38</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="23">
         <v>1</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="23">
         <v>0</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="24" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2805,7 +3860,7 @@
       <c r="A41" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="20">
         <v>39</v>
       </c>
       <c r="C41" s="23" t="s">
@@ -2822,22 +3877,22 @@
       </c>
     </row>
     <row r="42" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="23">
+      <c r="B42" s="20">
         <v>40</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="20">
+      <c r="D42" s="23">
         <v>1</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="23">
         <v>0</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="24" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2845,7 +3900,7 @@
       <c r="A43" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="20">
         <v>41</v>
       </c>
       <c r="C43" s="23" t="s">
@@ -2862,22 +3917,22 @@
       </c>
     </row>
     <row r="44" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B44" s="20">
         <v>42</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="23">
         <v>1</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="23">
         <v>0</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="24" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2885,7 +3940,7 @@
       <c r="A45" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="23">
+      <c r="B45" s="20">
         <v>43</v>
       </c>
       <c r="C45" s="23" t="s">
@@ -2902,22 +3957,22 @@
       </c>
     </row>
     <row r="46" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="23">
+      <c r="B46" s="20">
         <v>44</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="23">
         <v>0</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="23">
         <v>0</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="24" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2925,7 +3980,7 @@
       <c r="A47" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="20">
         <v>45</v>
       </c>
       <c r="C47" s="23" t="s">
@@ -2942,22 +3997,22 @@
       </c>
     </row>
     <row r="48" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="23">
+      <c r="B48" s="20">
         <v>46</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="23">
         <v>1</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="23">
         <v>1</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="24" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2965,7 +4020,7 @@
       <c r="A49" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="23">
+      <c r="B49" s="20">
         <v>47</v>
       </c>
       <c r="C49" s="23" t="s">
@@ -2980,82 +4035,119 @@
       <c r="F49" s="24"/>
     </row>
     <row r="50" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="23">
+      <c r="B50" s="20">
         <v>48</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="23">
         <v>1</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="23">
         <v>0</v>
       </c>
-      <c r="F50" s="21"/>
+      <c r="F50" s="24"/>
     </row>
     <row r="51" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="20">
         <v>49</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="27">
+      <c r="D51" s="23">
         <v>1</v>
       </c>
-      <c r="E51" s="27">
+      <c r="E51" s="23">
         <v>0</v>
       </c>
-      <c r="F51" s="28"/>
-    </row>
-    <row r="52" s="11" customFormat="1" ht="18" spans="1:6">
-      <c r="A52" s="26" t="s">
+      <c r="F51" s="24"/>
+    </row>
+    <row r="52" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A52" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="20">
         <v>50</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="23">
         <v>1</v>
       </c>
-      <c r="E52" s="27">
+      <c r="E52" s="23">
         <v>0</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F52" s="24"/>
+    </row>
+    <row r="53" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A53" s="22" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="53" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A53" s="26" t="s">
+      <c r="B53" s="20">
+        <v>51</v>
+      </c>
+      <c r="C53" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="23">
-        <v>51</v>
-      </c>
-      <c r="C53" s="27" t="s">
+      <c r="D53" s="23">
+        <v>1</v>
+      </c>
+      <c r="E53" s="23">
+        <v>0</v>
+      </c>
+      <c r="F53" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="D53" s="27">
+    </row>
+    <row r="54" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A54" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="20">
+        <v>52</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="23">
         <v>1</v>
       </c>
-      <c r="E53" s="27">
+      <c r="E54" s="23">
         <v>1</v>
       </c>
-      <c r="F53" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25"/>
+      <c r="F54" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A55" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="20">
+        <v>53</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="27">
+        <v>1</v>
+      </c>
+      <c r="E55" s="27">
+        <v>0</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E$1:E$1048576">
     <cfRule type="colorScale" priority="1">
@@ -3106,24 +4198,24 @@
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G3" s="8">
         <v>0.5</v>
@@ -3131,41 +4223,41 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G6" s="8">
         <v>0.5</v>
@@ -3174,74 +4266,74 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H7" s="8"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B8" s="6">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B9" s="6">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B11" s="6">
         <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B12" s="6">
         <v>10</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H12" s="8"/>
     </row>
@@ -3257,7 +4349,7 @@
   <dimension ref="A1:E237"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="A25" sqref="A25:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4283,7 +5375,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A50&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A51&amp;""""</f>
         <v>|"SacredEquipSkillDmg"</v>
       </c>
       <c r="B47" s="1" t="e">
@@ -4305,7 +5397,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A51&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A52&amp;""""</f>
         <v>|"ManaCostRate"</v>
       </c>
       <c r="B48" s="1" t="e">
@@ -4327,7 +5419,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A52&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A53&amp;""""</f>
         <v>|"AbilityImproved"</v>
       </c>
       <c r="B49" s="1" t="e">
@@ -4349,7 +5441,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A53&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A54&amp;""""</f>
         <v>|"EvasionProb"</v>
       </c>
       <c r="B50" s="1" t="e">
@@ -4371,8 +5463,8 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A54&amp;""""</f>
-        <v>|""</v>
+        <f>"|"""&amp;attribute_const!A55&amp;""""</f>
+        <v>|"BasicAbilityDmg"</v>
       </c>
       <c r="B51" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -4393,7 +5485,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A55&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A56&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B52" s="1" t="e">
@@ -4415,7 +5507,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A56&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A57&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B53" s="1" t="e">
@@ -4437,7 +5529,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A57&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A58&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B54" s="1" t="e">
@@ -4459,7 +5551,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A58&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A59&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B55" s="1" t="e">
@@ -4481,7 +5573,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A59&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A60&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B56" s="1" t="e">
@@ -4503,7 +5595,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A60&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A61&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B57" s="1" t="e">
@@ -4525,7 +5617,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A61&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A62&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B58" s="1" t="e">
@@ -4547,7 +5639,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A62&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A63&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B59" s="1" t="e">
@@ -4569,7 +5661,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A63&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A64&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B60" s="1" t="e">
@@ -4591,7 +5683,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A64&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A65&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B61" s="1" t="e">
@@ -4613,7 +5705,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A65&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A66&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B62" s="1" t="e">
@@ -4635,7 +5727,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A66&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A67&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B63" s="1" t="e">
@@ -4657,7 +5749,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A68&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A69&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B64" s="1" t="e">
@@ -4679,7 +5771,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A69&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A70&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B65" s="1" t="e">
@@ -4701,7 +5793,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A70&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A71&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B66" s="1" t="e">
@@ -4723,7 +5815,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A71&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A72&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B67" s="1" t="e">
@@ -4745,7 +5837,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A72&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A73&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B68" s="1" t="e">
@@ -4767,7 +5859,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A73&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A74&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B69" s="1" t="e">
@@ -4789,7 +5881,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A74&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A75&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B70" s="1" t="e">
@@ -4811,7 +5903,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A75&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A76&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B71" s="1" t="e">
@@ -4833,7 +5925,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A76&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A77&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B72" s="1" t="e">
@@ -4855,7 +5947,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A77&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A78&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B73" s="1" t="e">

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="165">
   <si>
     <t>index  下标</t>
   </si>
@@ -277,7 +277,7 @@
     <t>%全元素伤害</t>
   </si>
   <si>
-    <t>元素伤害百分比加成,</t>
+    <t>对应元素伤害进行加算</t>
   </si>
   <si>
     <t>AllElementPent</t>
@@ -406,7 +406,7 @@
     <t>AbilityImproved</t>
   </si>
   <si>
-    <t>技能增强</t>
+    <t>技能伤害</t>
   </si>
   <si>
     <t>技能伤害乘区</t>
@@ -428,6 +428,24 @@
   </si>
   <si>
     <t>Q技能</t>
+  </si>
+  <si>
+    <t>CreatureDmgLeader</t>
+  </si>
+  <si>
+    <t>精英怪增伤</t>
+  </si>
+  <si>
+    <t>CreatureDmgNormal</t>
+  </si>
+  <si>
+    <t>普通怪增伤</t>
+  </si>
+  <si>
+    <t>VisionRange</t>
+  </si>
+  <si>
+    <t>通用视野范围</t>
   </si>
   <si>
     <t>#Loccustom_attribute_sub_{}</t>
@@ -2725,16 +2743,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="7" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{60D6CC77-9668-426B-8133-535FC186F778}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{F23DFDB0-0423-4AA0-8A62-C32A8EEFDA7A}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{5BF41B1A-DD56-405E-A359-3C58A07E7C0E}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{385A50E2-566C-45AD-820C-7DEAC9F7539A}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{0A7CE757-BCB2-4BF8-9574-1F1A26BB0BCE}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{03AE3944-0E22-4E75-AD16-D6634DA1D812}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2746,7 +2764,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{66BC2D2E-7531-4304-ADDB-89D141FB1E63}">
+    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{777B73F2-444D-4D11-B549-7F29A8C7D953}">
       <tableStyleElement type="wholeTable" dxfId="24"/>
       <tableStyleElement type="headerRow" dxfId="23"/>
       <tableStyleElement type="totalRow" dxfId="22"/>
@@ -2758,14 +2776,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="16"/>
       <tableStyleElement type="lastTotalCell" dxfId="15"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{60E44608-418B-4A81-89CF-6ECF8FA33FF5}">
+    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{971C25A4-326F-4CA6-999F-F4086151D353}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
       <tableStyleElement type="firstColumn" dxfId="26"/>
       <tableStyleElement type="lastColumn" dxfId="25"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{41A9BAD4-E4DB-4491-B7C4-79B0BD708AC0}">
+    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{711BD8B0-0587-4829-B4C4-2E142F98E7AB}">
       <tableStyleElement type="wholeTable" dxfId="39"/>
       <tableStyleElement type="headerRow" dxfId="38"/>
       <tableStyleElement type="totalRow" dxfId="37"/>
@@ -2777,7 +2795,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="31"/>
       <tableStyleElement type="lastTotalCell" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{F70CA82F-B53E-4105-84DD-7116551E312D}">
+    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{AE7A1EBB-5C40-4595-AAE4-CACC1863A32D}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
       <tableStyleElement type="headerRow" dxfId="43"/>
       <tableStyleElement type="totalRow" dxfId="42"/>
@@ -3085,10 +3103,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4147,6 +4165,60 @@
       <c r="F55" s="28" t="s">
         <v>132</v>
       </c>
+    </row>
+    <row r="56" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A56" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="20">
+        <v>54</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="27">
+        <v>1</v>
+      </c>
+      <c r="E56" s="27">
+        <v>0</v>
+      </c>
+      <c r="F56" s="28"/>
+    </row>
+    <row r="57" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A57" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="20">
+        <v>55</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="27">
+        <v>1</v>
+      </c>
+      <c r="E57" s="27">
+        <v>0</v>
+      </c>
+      <c r="F57" s="28"/>
+    </row>
+    <row r="58" s="11" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A58" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="20">
+        <v>56</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="27">
+        <v>1</v>
+      </c>
+      <c r="E58" s="27">
+        <v>0</v>
+      </c>
+      <c r="F58" s="28"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E$1:E$1048576">
@@ -4172,7 +4244,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4198,24 +4270,24 @@
         <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G3" s="8">
         <v>0.5</v>
@@ -4223,41 +4295,41 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B6" s="6">
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G6" s="8">
         <v>0.5</v>
@@ -4266,74 +4338,74 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B7" s="6">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H7" s="8"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B8" s="6">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B9" s="6">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="9" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B11" s="6">
         <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="9" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B12" s="6">
         <v>10</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H12" s="8"/>
     </row>
@@ -5485,8 +5557,8 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A56&amp;""""</f>
-        <v>|""</v>
+        <f>"|"""&amp;attribute_const!A57&amp;""""</f>
+        <v>|"CreatureDmgNormal"</v>
       </c>
       <c r="B52" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -5507,8 +5579,8 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A57&amp;""""</f>
-        <v>|""</v>
+        <f>"|"""&amp;attribute_const!A58&amp;""""</f>
+        <v>|"VisionRange"</v>
       </c>
       <c r="B53" s="1" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -5529,7 +5601,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A58&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A59&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B54" s="1" t="e">
@@ -5551,7 +5623,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A59&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A60&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B55" s="1" t="e">
@@ -5573,7 +5645,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A60&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A61&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B56" s="1" t="e">
@@ -5595,7 +5667,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A61&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A62&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B57" s="1" t="e">
@@ -5617,7 +5689,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A62&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A63&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B58" s="1" t="e">
@@ -5639,7 +5711,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A63&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A64&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B59" s="1" t="e">
@@ -5661,7 +5733,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A64&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A65&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B60" s="1" t="e">
@@ -5683,7 +5755,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A65&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A66&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B61" s="1" t="e">
@@ -5705,7 +5777,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A66&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A67&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B62" s="1" t="e">
@@ -5727,7 +5799,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A67&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A68&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B63" s="1" t="e">
@@ -5749,7 +5821,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A69&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A70&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B64" s="1" t="e">
@@ -5771,7 +5843,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A70&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A71&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B65" s="1" t="e">
@@ -5793,7 +5865,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A71&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A72&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B66" s="1" t="e">
@@ -5815,7 +5887,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A72&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A73&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B67" s="1" t="e">
@@ -5837,7 +5909,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A73&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A74&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B68" s="1" t="e">
@@ -5859,7 +5931,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A74&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A75&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B69" s="1" t="e">
@@ -5881,7 +5953,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A75&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A76&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B70" s="1" t="e">
@@ -5903,7 +5975,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A76&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A77&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B71" s="1" t="e">
@@ -5925,7 +5997,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A77&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A78&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B72" s="1" t="e">
@@ -5947,7 +6019,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="str">
-        <f>"|"""&amp;attribute_const!A78&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A79&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B73" s="1" t="e">

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_const" sheetId="6" r:id="rId1"/>
@@ -207,7 +207,7 @@
     <t>BurningDmg</t>
   </si>
   <si>
-    <t>灼烧伤害%</t>
+    <t>灼烧伤害</t>
   </si>
   <si>
     <t>BurningDuration</t>
@@ -1580,7 +1580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1650,12 +1650,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1685,12 +1679,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2852,16 +2840,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="7" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4D67D6A3-11EA-4A84-B8CE-69CA1517FEF7}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2964DE12-3781-467A-811F-0493910CC430}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{DFFCDB53-CF9E-4CD0-B524-42FCFBA3FFD4}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{93B593FB-9CE2-4EA2-8338-7473056822B6}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{E8FB63CC-B40D-4B1D-9B10-6A2A00929570}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{7A891A54-503E-491F-BC52-C24D66ACB3B0}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2873,7 +2861,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{83EBE08A-53D2-4F2C-B5EE-546DE2842894}">
+    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{1B58C9B8-EA3A-464F-9F76-1ACA0A0A2CA5}">
       <tableStyleElement type="wholeTable" dxfId="24"/>
       <tableStyleElement type="headerRow" dxfId="23"/>
       <tableStyleElement type="totalRow" dxfId="22"/>
@@ -2885,14 +2873,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="16"/>
       <tableStyleElement type="lastTotalCell" dxfId="15"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{4A5BA862-72D6-4786-BDAD-F9BE03A98CD4}">
+    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{26CF5762-EA6E-42C6-BABB-7A49071A735B}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
       <tableStyleElement type="firstColumn" dxfId="26"/>
       <tableStyleElement type="lastColumn" dxfId="25"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{BCEA8124-6A6E-41F6-BFB4-8C0F67367676}">
+    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{F19B1DF7-F8D8-4912-8D0E-D2384C3CA538}">
       <tableStyleElement type="wholeTable" dxfId="39"/>
       <tableStyleElement type="headerRow" dxfId="38"/>
       <tableStyleElement type="totalRow" dxfId="37"/>
@@ -2904,7 +2892,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="31"/>
       <tableStyleElement type="lastTotalCell" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{E82B7260-3746-4C20-9594-3DA24A30AC3A}">
+    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{1CB075A1-FD52-4B9C-8FB0-72CF178E4E27}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
       <tableStyleElement type="headerRow" dxfId="43"/>
       <tableStyleElement type="totalRow" dxfId="42"/>
@@ -3214,19 +3202,19 @@
   <sheetPr/>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.5083333333333" style="33" customWidth="1"/>
-    <col min="2" max="2" width="9.84166666666667" style="33" customWidth="1"/>
-    <col min="3" max="3" width="26.3416666666667" style="33" customWidth="1"/>
-    <col min="4" max="4" width="14.175" style="33" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="46.175" style="33" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="33"/>
+    <col min="1" max="1" width="27.5083333333333" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.84166666666667" style="31" customWidth="1"/>
+    <col min="3" max="3" width="26.3416666666667" style="31" customWidth="1"/>
+    <col min="4" max="4" width="14.175" style="31" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="46.175" style="31" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:6">
@@ -3468,8 +3456,8 @@
       <c r="F13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:12">
       <c r="A14" s="20" t="s">
@@ -3490,11 +3478,11 @@
       <c r="F14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:12">
       <c r="A15" s="20" t="s">
@@ -3515,9 +3503,9 @@
       <c r="F15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
+      <c r="H15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:6">
       <c r="A16" s="20" t="s">
@@ -3663,7 +3651,7 @@
       </c>
       <c r="F23" s="22"/>
     </row>
-    <row r="24" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="24" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A24" s="20" t="s">
         <v>57</v>
       </c>
@@ -3674,14 +3662,14 @@
         <v>58</v>
       </c>
       <c r="D24" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="21">
         <v>0</v>
       </c>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="25" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A25" s="20" t="s">
         <v>59</v>
       </c>
@@ -3699,7 +3687,7 @@
       </c>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="26" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A26" s="20" t="s">
         <v>61</v>
       </c>
@@ -3717,7 +3705,7 @@
       </c>
       <c r="F26" s="22"/>
     </row>
-    <row r="27" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="27" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A27" s="20" t="s">
         <v>63</v>
       </c>
@@ -3735,7 +3723,7 @@
       </c>
       <c r="F27" s="22"/>
     </row>
-    <row r="28" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="28" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A28" s="20" t="s">
         <v>65</v>
       </c>
@@ -3753,7 +3741,7 @@
       </c>
       <c r="F28" s="22"/>
     </row>
-    <row r="29" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="29" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A29" s="20" t="s">
         <v>67</v>
       </c>
@@ -3771,7 +3759,7 @@
       </c>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="30" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A30" s="20" t="s">
         <v>69</v>
       </c>
@@ -3789,7 +3777,7 @@
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="31" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A31" s="20" t="s">
         <v>71</v>
       </c>
@@ -3807,7 +3795,7 @@
       </c>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="32" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A32" s="20" t="s">
         <v>73</v>
       </c>
@@ -3825,7 +3813,7 @@
       </c>
       <c r="F32" s="22"/>
     </row>
-    <row r="33" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="33" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A33" s="20" t="s">
         <v>75</v>
       </c>
@@ -3843,7 +3831,7 @@
       </c>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="34" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A34" s="20" t="s">
         <v>77</v>
       </c>
@@ -3863,7 +3851,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="35" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A35" s="20" t="s">
         <v>80</v>
       </c>
@@ -3883,7 +3871,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="36" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A36" s="20" t="s">
         <v>83</v>
       </c>
@@ -3903,7 +3891,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="37" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A37" s="20" t="s">
         <v>86</v>
       </c>
@@ -3923,7 +3911,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="38" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="38" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A38" s="20" t="s">
         <v>89</v>
       </c>
@@ -3943,7 +3931,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="39" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A39" s="20" t="s">
         <v>91</v>
       </c>
@@ -3963,7 +3951,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="40" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A40" s="20" t="s">
         <v>93</v>
       </c>
@@ -3983,7 +3971,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="41" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A41" s="20" t="s">
         <v>95</v>
       </c>
@@ -4003,7 +3991,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="42" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A42" s="20" t="s">
         <v>98</v>
       </c>
@@ -4023,7 +4011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="43" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A43" s="20" t="s">
         <v>101</v>
       </c>
@@ -4043,7 +4031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="44" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A44" s="20" t="s">
         <v>103</v>
       </c>
@@ -4063,7 +4051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="45" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A45" s="20" t="s">
         <v>105</v>
       </c>
@@ -4083,7 +4071,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="46" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A46" s="20" t="s">
         <v>107</v>
       </c>
@@ -4103,7 +4091,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="47" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="47" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A47" s="20" t="s">
         <v>110</v>
       </c>
@@ -4123,7 +4111,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="48" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A48" s="20" t="s">
         <v>113</v>
       </c>
@@ -4143,7 +4131,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="49" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="49" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A49" s="20" t="s">
         <v>116</v>
       </c>
@@ -4161,7 +4149,7 @@
       </c>
       <c r="F49" s="22"/>
     </row>
-    <row r="50" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="50" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A50" s="20" t="s">
         <v>118</v>
       </c>
@@ -4179,7 +4167,7 @@
       </c>
       <c r="F50" s="22"/>
     </row>
-    <row r="51" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="51" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A51" s="20" t="s">
         <v>120</v>
       </c>
@@ -4197,7 +4185,7 @@
       </c>
       <c r="F51" s="22"/>
     </row>
-    <row r="52" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="52" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A52" s="20" t="s">
         <v>122</v>
       </c>
@@ -4215,7 +4203,7 @@
       </c>
       <c r="F52" s="22"/>
     </row>
-    <row r="53" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="53" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A53" s="20" t="s">
         <v>124</v>
       </c>
@@ -4235,7 +4223,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="54" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A54" s="20" t="s">
         <v>127</v>
       </c>
@@ -4255,79 +4243,79 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A55" s="35" t="s">
+    <row r="55" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A55" s="23" t="s">
         <v>130</v>
       </c>
       <c r="B55" s="18">
         <v>53</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="26">
+      <c r="D55" s="24">
         <v>1</v>
       </c>
-      <c r="E55" s="26">
-        <v>0</v>
-      </c>
-      <c r="F55" s="36" t="s">
+      <c r="E55" s="24">
+        <v>0</v>
+      </c>
+      <c r="F55" s="25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="56" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A56" s="35" t="s">
+    <row r="56" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A56" s="23" t="s">
         <v>133</v>
       </c>
       <c r="B56" s="18">
         <v>54</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D56" s="26">
+      <c r="D56" s="24">
         <v>1</v>
       </c>
-      <c r="E56" s="26">
-        <v>0</v>
-      </c>
-      <c r="F56" s="36"/>
-    </row>
-    <row r="57" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A57" s="35" t="s">
+      <c r="E56" s="24">
+        <v>0</v>
+      </c>
+      <c r="F56" s="25"/>
+    </row>
+    <row r="57" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A57" s="23" t="s">
         <v>135</v>
       </c>
       <c r="B57" s="18">
         <v>55</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="D57" s="26">
+      <c r="D57" s="24">
         <v>1</v>
       </c>
-      <c r="E57" s="26">
-        <v>0</v>
-      </c>
-      <c r="F57" s="36"/>
-    </row>
-    <row r="58" s="32" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
-      <c r="A58" s="35" t="s">
+      <c r="E57" s="24">
+        <v>0</v>
+      </c>
+      <c r="F57" s="25"/>
+    </row>
+    <row r="58" s="30" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="A58" s="23" t="s">
         <v>137</v>
       </c>
       <c r="B58" s="18">
         <v>56</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D58" s="26">
+      <c r="D58" s="24">
         <v>1</v>
       </c>
-      <c r="E58" s="26">
-        <v>0</v>
-      </c>
-      <c r="F58" s="36"/>
+      <c r="E58" s="24">
+        <v>0</v>
+      </c>
+      <c r="F58" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E$1:E$1048576">
@@ -9588,10 +9576,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9714,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="22"/>
-      <c r="K6" s="28"/>
+      <c r="K6" s="26"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:11">
       <c r="A7" s="20" t="s">
@@ -9733,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="K7" s="28"/>
+      <c r="K7" s="26"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:11">
       <c r="A8" s="20" t="s">
@@ -9752,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="K8" s="28"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:11">
       <c r="A9" s="20" t="s">
@@ -9771,10 +9759,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="22"/>
-      <c r="K9" s="28"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="20" t="s">
         <v>144</v>
       </c>
       <c r="B10" s="21">
@@ -9789,11 +9777,11 @@
       <c r="E10" s="21">
         <v>0</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="K10" s="28"/>
+      <c r="F10" s="22"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="20" t="s">
         <v>146</v>
       </c>
       <c r="B11" s="21">
@@ -9808,11 +9796,11 @@
       <c r="E11" s="21">
         <v>0</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="K11" s="28"/>
+      <c r="F11" s="22"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="20" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="21">
@@ -9827,11 +9815,11 @@
       <c r="E12" s="21">
         <v>1</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="K12" s="28"/>
+      <c r="F12" s="22"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="21">
@@ -9846,11 +9834,11 @@
       <c r="E13" s="21">
         <v>0</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="K13" s="29"/>
+      <c r="F13" s="22"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="21">
@@ -9865,17 +9853,17 @@
       <c r="E14" s="21">
         <v>0</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="K14" s="30"/>
+      <c r="F14" s="22"/>
+      <c r="K14" s="28"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:11">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="23" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="21">
         <v>13</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
         <v>150</v>
       </c>
       <c r="D15" s="21">
@@ -9884,18 +9872,19 @@
       <c r="E15" s="21">
         <v>0</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="K15" s="30"/>
-    </row>
-    <row r="16" ht="17.25" spans="11:11">
-      <c r="K16" s="30"/>
+      <c r="F15" s="25"/>
+      <c r="K15" s="28"/>
+    </row>
+    <row r="16" ht="16.5" spans="11:11">
+      <c r="K16" s="28"/>
     </row>
     <row r="17" ht="16.5" spans="11:11">
-      <c r="K17" s="30"/>
+      <c r="K17" s="28"/>
     </row>
     <row r="18" ht="17.25" spans="11:11">
-      <c r="K18" s="31"/>
-    </row>
+      <c r="K18" s="29"/>
+    </row>
+    <row r="19" ht="14.25"/>
   </sheetData>
   <conditionalFormatting sqref="E$1:E$1048576">
     <cfRule type="colorScale" priority="2">

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12345" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_const" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="180">
   <si>
     <t>index  下标</t>
   </si>
@@ -562,6 +562,15 @@
   </si>
   <si>
     <t>乘算*乘算</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>最大上限</t>
+  </si>
+  <si>
+    <t>不超过</t>
   </si>
 </sst>
 </file>
@@ -2840,16 +2849,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="7" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{2964DE12-3781-467A-811F-0493910CC430}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{21A11270-3DCC-4C56-8C7F-8A391888BACA}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{93B593FB-9CE2-4EA2-8338-7473056822B6}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{569A5914-A77A-4BB7-BD81-1F371446722A}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{7A891A54-503E-491F-BC52-C24D66ACB3B0}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{2ABF2F08-0D76-42CE-91E2-288D18D97945}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2861,7 +2870,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{1B58C9B8-EA3A-464F-9F76-1ACA0A0A2CA5}">
+    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{4083D076-243A-498A-A80A-94F91FBA810C}">
       <tableStyleElement type="wholeTable" dxfId="24"/>
       <tableStyleElement type="headerRow" dxfId="23"/>
       <tableStyleElement type="totalRow" dxfId="22"/>
@@ -2873,14 +2882,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="16"/>
       <tableStyleElement type="lastTotalCell" dxfId="15"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{26CF5762-EA6E-42C6-BABB-7A49071A735B}">
+    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{77849CF2-5D64-48D5-B645-AC869C4CDE4F}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
       <tableStyleElement type="firstColumn" dxfId="26"/>
       <tableStyleElement type="lastColumn" dxfId="25"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{F19B1DF7-F8D8-4912-8D0E-D2384C3CA538}">
+    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{A151A6A1-FD43-4C9A-A99E-AC47DA33F3D8}">
       <tableStyleElement type="wholeTable" dxfId="39"/>
       <tableStyleElement type="headerRow" dxfId="38"/>
       <tableStyleElement type="totalRow" dxfId="37"/>
@@ -2892,7 +2901,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="31"/>
       <tableStyleElement type="lastTotalCell" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{1CB075A1-FD52-4B9C-8FB0-72CF178E4E27}">
+    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{C1C9B769-A9E9-4269-9102-DA55FB7B6643}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
       <tableStyleElement type="headerRow" dxfId="43"/>
       <tableStyleElement type="totalRow" dxfId="42"/>
@@ -3202,8 +3211,8 @@
   <sheetPr/>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10082,10 +10091,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -10250,6 +10259,21 @@
       </c>
       <c r="H12" s="7"/>
     </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A13" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="5">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_const" sheetId="6" r:id="rId1"/>
@@ -144,7 +144,7 @@
     <t>技能冷却</t>
   </si>
   <si>
-    <t>与技能急速共享最大55%</t>
+    <t>与技能急速共享.默认上限55%</t>
   </si>
   <si>
     <t>AbilityCooldown2</t>
@@ -2849,16 +2849,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="7" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{21A11270-3DCC-4C56-8C7F-8A391888BACA}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{ECDB931E-0A26-406D-84CC-D4F1A530180A}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{569A5914-A77A-4BB7-BD81-1F371446722A}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B6FD931B-06F3-4327-A8BB-8BFA392CB956}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{2ABF2F08-0D76-42CE-91E2-288D18D97945}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F4E258CF-CC61-4538-8C60-5608C7DF56F9}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2870,7 +2870,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{4083D076-243A-498A-A80A-94F91FBA810C}">
+    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{E0DA548C-B5F9-4F89-982A-717A0746B475}">
       <tableStyleElement type="wholeTable" dxfId="24"/>
       <tableStyleElement type="headerRow" dxfId="23"/>
       <tableStyleElement type="totalRow" dxfId="22"/>
@@ -2882,14 +2882,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="16"/>
       <tableStyleElement type="lastTotalCell" dxfId="15"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{77849CF2-5D64-48D5-B645-AC869C4CDE4F}">
+    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{2F91E58A-1690-4525-A20A-275DE57E7095}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
       <tableStyleElement type="firstColumn" dxfId="26"/>
       <tableStyleElement type="lastColumn" dxfId="25"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{A151A6A1-FD43-4C9A-A99E-AC47DA33F3D8}">
+    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{B9D6F2EB-FEF5-464F-A37C-789F1EB04F59}">
       <tableStyleElement type="wholeTable" dxfId="39"/>
       <tableStyleElement type="headerRow" dxfId="38"/>
       <tableStyleElement type="totalRow" dxfId="37"/>
@@ -2901,7 +2901,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="31"/>
       <tableStyleElement type="lastTotalCell" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{C1C9B769-A9E9-4269-9102-DA55FB7B6643}">
+    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{28813847-AFF6-4F68-A09D-DE5AE3FA54F5}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
       <tableStyleElement type="headerRow" dxfId="43"/>
       <tableStyleElement type="totalRow" dxfId="42"/>
@@ -3211,8 +3211,8 @@
   <sheetPr/>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3479,7 +3479,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="21">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="21">
         <v>0</v>
@@ -3707,7 +3707,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="21">
         <v>0</v>
@@ -3725,7 +3725,7 @@
         <v>64</v>
       </c>
       <c r="D27" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="21">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>66</v>
       </c>
       <c r="D28" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="21">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>68</v>
       </c>
       <c r="D29" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="21">
         <v>0</v>
@@ -3779,7 +3779,7 @@
         <v>70</v>
       </c>
       <c r="D30" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="21">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>72</v>
       </c>
       <c r="D31" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="21">
         <v>0</v>
@@ -10093,7 +10093,7 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12345" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_const" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="183">
   <si>
     <t>index  下标</t>
   </si>
@@ -571,6 +571,15 @@
   </si>
   <si>
     <t>不超过</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>最低值.默认无限</t>
+  </si>
+  <si>
+    <t>不小于</t>
   </si>
 </sst>
 </file>
@@ -583,7 +592,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,8 +601,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF08090C"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -613,6 +636,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -761,7 +790,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,14 +798,24 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="1" tint="0.8"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFFFFFF"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.8"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="1" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,7 +1012,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -985,15 +1024,11 @@
       <left style="medium">
         <color rgb="FF5A5A5A"/>
       </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
+      <right/>
       <top style="medium">
         <color rgb="FF5A5A5A"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1002,94 +1037,26 @@
       <top style="medium">
         <color rgb="FF5A5A5A"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
+      <left/>
       <right style="medium">
         <color rgb="FF5A5A5A"/>
       </right>
       <top style="medium">
         <color rgb="FF5A5A5A"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF5A5A5A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFEBEBEB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFEBEBEB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFEBEBEB"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF5A5A5A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFEBEBEB"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF5A5A5A"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1459,133 +1426,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1602,82 +1569,82 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1741,7 +1708,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="50">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2847,18 +2814,99 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="1" tint="0.8"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFFFFFF"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <u val="none"/>
+        <color rgb="FF08090C"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="7" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{ECDB931E-0A26-406D-84CC-D4F1A530180A}">
+  <tableStyles count="8" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{B003C5A6-F6BD-4CB0-B38B-93EDC58359E8}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B6FD931B-06F3-4327-A8BB-8BFA392CB956}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{03D523B1-D2EE-4596-BA26-9859AD7DE651}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F4E258CF-CC61-4538-8C60-5608C7DF56F9}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{7BE1A234-647D-4DCE-8609-7036A40C06B8}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2870,7 +2918,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{E0DA548C-B5F9-4F89-982A-717A0746B475}">
+    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{54952315-659C-4885-8924-136D940389BD}">
       <tableStyleElement type="wholeTable" dxfId="24"/>
       <tableStyleElement type="headerRow" dxfId="23"/>
       <tableStyleElement type="totalRow" dxfId="22"/>
@@ -2882,14 +2930,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="16"/>
       <tableStyleElement type="lastTotalCell" dxfId="15"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{2F91E58A-1690-4525-A20A-275DE57E7095}">
+    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{D17DCA9E-50C9-4F3E-8EA5-B6D406C037EB}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
       <tableStyleElement type="firstColumn" dxfId="26"/>
       <tableStyleElement type="lastColumn" dxfId="25"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{B9D6F2EB-FEF5-464F-A37C-789F1EB04F59}">
+    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{DFDDA42F-8BE5-41F4-A1CA-35546950DB27}">
       <tableStyleElement type="wholeTable" dxfId="39"/>
       <tableStyleElement type="headerRow" dxfId="38"/>
       <tableStyleElement type="totalRow" dxfId="37"/>
@@ -2901,12 +2949,19 @@
       <tableStyleElement type="firstTotalCell" dxfId="31"/>
       <tableStyleElement type="lastTotalCell" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{28813847-AFF6-4F68-A09D-DE5AE3FA54F5}">
+    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{1DAF358D-D99B-4A99-84A2-E5F3BF1FA4BD}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
       <tableStyleElement type="headerRow" dxfId="43"/>
       <tableStyleElement type="totalRow" dxfId="42"/>
       <tableStyleElement type="firstColumn" dxfId="41"/>
       <tableStyleElement type="lastColumn" dxfId="40"/>
+    </tableStyle>
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{6F5C1FF5-53CA-4CE3-AC5D-74834FFF27D1}">
+      <tableStyleElement type="wholeTable" dxfId="49"/>
+      <tableStyleElement type="headerRow" dxfId="48"/>
+      <tableStyleElement type="totalRow" dxfId="47"/>
+      <tableStyleElement type="firstColumn" dxfId="46"/>
+      <tableStyleElement type="lastColumn" dxfId="45"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3211,7 +3266,7 @@
   <sheetPr/>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -10091,21 +10146,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="16.0083333333333" customWidth="1"/>
-    <col min="3" max="3" width="27.5083333333333" customWidth="1"/>
+    <col min="1" max="1" width="16.0083333333333" customWidth="1"/>
+    <col min="2" max="2" width="9.84166666666667" customWidth="1"/>
+    <col min="3" max="3" width="30.3416666666667" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="8" max="8" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:3">
+    <row r="1" ht="28.5" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10116,21 +10172,21 @@
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>153</v>
       </c>
       <c r="E3" t="s">
@@ -10139,142 +10195,159 @@
       <c r="F3" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>161</v>
       </c>
       <c r="E6" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>0.5</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
         <v>175</v>
       </c>
       <c r="E12" t="s">
         <v>176</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>178</v>
       </c>
       <c r="E13" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="8">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" t="s">
+        <v>182</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_const" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="195">
   <si>
     <t>index  下标</t>
   </si>
@@ -180,6 +180,9 @@
     <t>%伤害加成A</t>
   </si>
   <si>
+    <t>伤害公式字段：伤害加成</t>
+  </si>
+  <si>
     <t>DamageServerMul</t>
   </si>
   <si>
@@ -192,24 +195,36 @@
     <t>%最终伤害</t>
   </si>
   <si>
+    <t>伤害公式字段：最终伤害</t>
+  </si>
+  <si>
     <t>MeleeDmgPct</t>
   </si>
   <si>
     <t>%近战伤害加成</t>
   </si>
   <si>
+    <t>伤害公式字段：近战伤害加成</t>
+  </si>
+  <si>
     <t>RangedDmgPct</t>
   </si>
   <si>
     <t>%远程伤害加成</t>
   </si>
   <si>
+    <t>伤害公式字段：远程伤害加成</t>
+  </si>
+  <si>
     <t>BurningDmg</t>
   </si>
   <si>
     <t>灼烧伤害</t>
   </si>
   <si>
+    <t>基础灼烧伤害：攻击力*25%，每秒1跳</t>
+  </si>
+  <si>
     <t>BurningDuration</t>
   </si>
   <si>
@@ -222,6 +237,9 @@
     <t>火元素伤害</t>
   </si>
   <si>
+    <t>元素伤害类型</t>
+  </si>
+  <si>
     <t>IceDamageBonus</t>
   </si>
   <si>
@@ -279,7 +297,7 @@
     <t>%全元素伤害</t>
   </si>
   <si>
-    <t>对应元素伤害进行加算</t>
+    <t>对应元素伤害进行加算，伤害公式字段：元素伤害</t>
   </si>
   <si>
     <t>AllElementPent</t>
@@ -387,6 +405,9 @@
     <t>经验获取率</t>
   </si>
   <si>
+    <t>获取经验值的倍率，默认100%</t>
+  </si>
+  <si>
     <t>TeamExpeIncrease</t>
   </si>
   <si>
@@ -408,10 +429,10 @@
     <t>AbilityImproved</t>
   </si>
   <si>
-    <t>技能伤害</t>
-  </si>
-  <si>
-    <t>技能伤害乘区</t>
+    <t>技能增强</t>
+  </si>
+  <si>
+    <t>伤害公式字段：技能增强</t>
   </si>
   <si>
     <t>EvasionProb</t>
@@ -438,12 +459,18 @@
     <t>精英怪增伤</t>
   </si>
   <si>
+    <t>对精英怪提高%的伤害加成</t>
+  </si>
+  <si>
     <t>CreatureDmgNormal</t>
   </si>
   <si>
     <t>普通怪增伤</t>
   </si>
   <si>
+    <t>对普通怪提高%的伤害加成</t>
+  </si>
+  <si>
     <t>VisionRange</t>
   </si>
   <si>
@@ -454,6 +481,9 @@
   </si>
   <si>
     <t>灵魂获取率</t>
+  </si>
+  <si>
+    <t>获取灵魂的倍率，默认100%</t>
   </si>
   <si>
     <t>全元素抗性</t>
@@ -598,7 +628,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -648,6 +678,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1432,16 +1468,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1450,119 +1483,122 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1655,6 +1691,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2897,16 +2939,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="8" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C6458BE8-5A3B-4B85-9AC9-9F318A5480D6}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{753799CB-EDA1-4027-A8EE-36944FA8EA8A}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{69949493-B18C-4B31-94AE-E09F1289881E}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{5AEB596A-3D44-4E28-B942-E8590B8CA9D8}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{88DD7E3A-DF99-404F-B558-81F299B24A3C}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{C4C802AC-555A-41D2-A24E-298E75258FA4}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2918,7 +2960,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{8072CA2A-D800-42A9-959B-84816D8261A9}">
+    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{77D12277-E3C4-4197-B9BE-2F8C93BD7086}">
       <tableStyleElement type="wholeTable" dxfId="24"/>
       <tableStyleElement type="headerRow" dxfId="23"/>
       <tableStyleElement type="totalRow" dxfId="22"/>
@@ -2930,14 +2972,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="16"/>
       <tableStyleElement type="lastTotalCell" dxfId="15"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{6B00C59F-5C0D-4803-852B-41F72231BD7B}">
+    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{7A1111F3-8BDF-4980-BA6E-FD9FDD18B040}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
       <tableStyleElement type="firstColumn" dxfId="26"/>
       <tableStyleElement type="lastColumn" dxfId="25"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{F9C96EC8-0444-4EF5-8304-B237D7F8BC7F}">
+    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{B64CBAE1-409E-4666-BD56-8C21A3376DCF}">
       <tableStyleElement type="wholeTable" dxfId="39"/>
       <tableStyleElement type="headerRow" dxfId="38"/>
       <tableStyleElement type="totalRow" dxfId="37"/>
@@ -2949,14 +2991,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="31"/>
       <tableStyleElement type="lastTotalCell" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{E033C71E-752B-4976-BC3F-56D1DC6DA7E7}">
+    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{641273E3-79B7-4E51-9448-B6D04ED5E52C}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
       <tableStyleElement type="headerRow" dxfId="43"/>
       <tableStyleElement type="totalRow" dxfId="42"/>
       <tableStyleElement type="firstColumn" dxfId="41"/>
       <tableStyleElement type="lastColumn" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{7B715249-29F4-4498-A5B4-D6BF279A8339}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{711C12FB-73A5-4FD6-938B-245F494C6DCF}">
       <tableStyleElement type="wholeTable" dxfId="49"/>
       <tableStyleElement type="headerRow" dxfId="48"/>
       <tableStyleElement type="totalRow" dxfId="47"/>
@@ -3266,8 +3308,8 @@
   <sheetPr/>
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3641,17 +3683,19 @@
       <c r="E19" s="19">
         <v>0</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:6">
       <c r="A20" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="16">
         <v>18</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="19">
         <v>1</v>
@@ -3663,13 +3707,13 @@
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:6">
       <c r="A21" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="16">
         <v>19</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="19">
         <v>1</v>
@@ -3677,17 +3721,19 @@
       <c r="E21" s="19">
         <v>0</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:6">
       <c r="A22" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="16">
         <v>20</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D22" s="19">
         <v>1</v>
@@ -3695,17 +3741,19 @@
       <c r="E22" s="19">
         <v>0</v>
       </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:6">
       <c r="A23" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B23" s="16">
         <v>21</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D23" s="19">
         <v>1</v>
@@ -3713,17 +3761,19 @@
       <c r="E23" s="19">
         <v>0</v>
       </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A24" s="18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B24" s="16">
         <v>22</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D24" s="19">
         <v>1</v>
@@ -3731,17 +3781,19 @@
       <c r="E24" s="19">
         <v>0</v>
       </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="25" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A25" s="18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B25" s="16">
         <v>23</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D25" s="19">
         <v>0</v>
@@ -3753,13 +3805,13 @@
     </row>
     <row r="26" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A26" s="18" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B26" s="16">
         <v>24</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D26" s="19">
         <v>1</v>
@@ -3767,17 +3819,19 @@
       <c r="E26" s="19">
         <v>0</v>
       </c>
-      <c r="F26" s="20"/>
+      <c r="F26" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="27" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A27" s="18" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B27" s="16">
         <v>25</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D27" s="19">
         <v>1</v>
@@ -3785,17 +3839,19 @@
       <c r="E27" s="19">
         <v>0</v>
       </c>
-      <c r="F27" s="20"/>
+      <c r="F27" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="28" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A28" s="18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B28" s="16">
         <v>26</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D28" s="19">
         <v>1</v>
@@ -3803,17 +3859,19 @@
       <c r="E28" s="19">
         <v>0</v>
       </c>
-      <c r="F28" s="20"/>
+      <c r="F28" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="29" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A29" s="18" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B29" s="16">
         <v>27</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D29" s="19">
         <v>1</v>
@@ -3821,17 +3879,19 @@
       <c r="E29" s="19">
         <v>0</v>
       </c>
-      <c r="F29" s="20"/>
+      <c r="F29" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="30" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A30" s="18" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B30" s="16">
         <v>28</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D30" s="19">
         <v>1</v>
@@ -3839,17 +3899,19 @@
       <c r="E30" s="19">
         <v>0</v>
       </c>
-      <c r="F30" s="20"/>
+      <c r="F30" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="31" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A31" s="18" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B31" s="16">
         <v>29</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D31" s="19">
         <v>1</v>
@@ -3857,17 +3919,19 @@
       <c r="E31" s="19">
         <v>0</v>
       </c>
-      <c r="F31" s="20"/>
+      <c r="F31" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="32" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A32" s="18" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B32" s="16">
         <v>30</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D32" s="19">
         <v>0</v>
@@ -3879,13 +3943,13 @@
     </row>
     <row r="33" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A33" s="18" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B33" s="16">
         <v>31</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D33" s="19">
         <v>0</v>
@@ -3897,13 +3961,13 @@
     </row>
     <row r="34" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A34" s="18" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B34" s="16">
         <v>32</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D34" s="19">
         <v>0</v>
@@ -3912,18 +3976,18 @@
         <v>0</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A35" s="18" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B35" s="16">
         <v>33</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D35" s="19">
         <v>1</v>
@@ -3932,18 +3996,18 @@
         <v>0</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A36" s="18" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B36" s="16">
         <v>34</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D36" s="19">
         <v>1</v>
@@ -3952,18 +4016,18 @@
         <v>0</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A37" s="18" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B37" s="16">
         <v>35</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D37" s="19">
         <v>1</v>
@@ -3972,18 +4036,18 @@
         <v>0</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A38" s="18" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B38" s="16">
         <v>36</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D38" s="19">
         <v>1</v>
@@ -3992,18 +4056,18 @@
         <v>0</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A39" s="18" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B39" s="16">
         <v>37</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D39" s="19">
         <v>1</v>
@@ -4012,18 +4076,18 @@
         <v>0</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A40" s="18" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B40" s="16">
         <v>38</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D40" s="19">
         <v>1</v>
@@ -4032,18 +4096,18 @@
         <v>0</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A41" s="18" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B41" s="16">
         <v>39</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D41" s="19">
         <v>1</v>
@@ -4052,18 +4116,18 @@
         <v>0</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A42" s="18" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B42" s="16">
         <v>40</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D42" s="19">
         <v>1</v>
@@ -4072,18 +4136,18 @@
         <v>0</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A43" s="18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B43" s="16">
         <v>41</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D43" s="19">
         <v>1</v>
@@ -4092,18 +4156,18 @@
         <v>0</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A44" s="18" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B44" s="16">
         <v>42</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D44" s="19">
         <v>1</v>
@@ -4112,18 +4176,18 @@
         <v>0</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A45" s="18" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B45" s="16">
         <v>43</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D45" s="19">
         <v>1</v>
@@ -4132,18 +4196,18 @@
         <v>0</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A46" s="18" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B46" s="16">
         <v>44</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D46" s="19">
         <v>0</v>
@@ -4152,18 +4216,18 @@
         <v>0</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A47" s="18" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B47" s="16">
         <v>45</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D47" s="19">
         <v>0</v>
@@ -4172,18 +4236,18 @@
         <v>0</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A48" s="18" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B48" s="16">
         <v>46</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D48" s="19">
         <v>1</v>
@@ -4192,18 +4256,18 @@
         <v>1</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A49" s="18" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B49" s="16">
         <v>47</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D49" s="19">
         <v>1</v>
@@ -4211,17 +4275,19 @@
       <c r="E49" s="19">
         <v>0</v>
       </c>
-      <c r="F49" s="20"/>
+      <c r="F49" s="20" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="50" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A50" s="18" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B50" s="16">
         <v>48</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D50" s="19">
         <v>1</v>
@@ -4233,13 +4299,13 @@
     </row>
     <row r="51" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A51" s="18" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B51" s="16">
         <v>49</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D51" s="19">
         <v>1</v>
@@ -4251,13 +4317,13 @@
     </row>
     <row r="52" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A52" s="18" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B52" s="16">
         <v>50</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D52" s="19">
         <v>1</v>
@@ -4269,33 +4335,33 @@
     </row>
     <row r="53" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A53" s="18" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B53" s="16">
         <v>51</v>
       </c>
-      <c r="C53" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="19">
+      <c r="C53" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="31">
         <v>1</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="31">
         <v>0</v>
       </c>
-      <c r="F53" s="20" t="s">
-        <v>126</v>
+      <c r="F53" s="32" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="54" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A54" s="18" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B54" s="16">
         <v>52</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D54" s="19">
         <v>1</v>
@@ -4304,18 +4370,18 @@
         <v>1</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A55" s="21" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B55" s="16">
         <v>53</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D55" s="22">
         <v>1</v>
@@ -4324,18 +4390,18 @@
         <v>0</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A56" s="21" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B56" s="16">
         <v>54</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D56" s="22">
         <v>1</v>
@@ -4343,17 +4409,19 @@
       <c r="E56" s="22">
         <v>0</v>
       </c>
-      <c r="F56" s="23"/>
+      <c r="F56" s="23" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="57" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A57" s="21" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B57" s="16">
         <v>55</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D57" s="22">
         <v>1</v>
@@ -4361,17 +4429,19 @@
       <c r="E57" s="22">
         <v>0</v>
       </c>
-      <c r="F57" s="23"/>
+      <c r="F57" s="23" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="58" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A58" s="21" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B58" s="16">
         <v>56</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D58" s="22">
         <v>1</v>
@@ -4383,13 +4453,13 @@
     </row>
     <row r="59" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A59" s="21" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B59" s="16">
         <v>57</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D59" s="22">
         <v>1</v>
@@ -4397,7 +4467,9 @@
       <c r="E59" s="22">
         <v>0</v>
       </c>
-      <c r="F59" s="23"/>
+      <c r="F59" s="23" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E$1:E$1048576">
@@ -9715,13 +9787,13 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:6">
       <c r="A3" s="15" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B3" s="16">
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D3" s="16">
         <v>0</v>
@@ -9733,13 +9805,13 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:6">
       <c r="A4" s="18" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B4" s="19">
         <v>2</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D4" s="19">
         <v>0</v>
@@ -9751,13 +9823,13 @@
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:6">
       <c r="A5" s="18" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B5" s="19">
         <v>3</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D5" s="19">
         <v>0</v>
@@ -9769,13 +9841,13 @@
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:11">
       <c r="A6" s="18" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B6" s="19">
         <v>4</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D6" s="19">
         <v>0</v>
@@ -9788,13 +9860,13 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:11">
       <c r="A7" s="18" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B7" s="19">
         <v>5</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D7" s="19">
         <v>0</v>
@@ -9807,13 +9879,13 @@
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:11">
       <c r="A8" s="18" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B8" s="19">
         <v>6</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D8" s="19">
         <v>0</v>
@@ -9826,13 +9898,13 @@
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:11">
       <c r="A9" s="18" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B9" s="19">
         <v>7</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D9" s="19">
         <v>0</v>
@@ -9845,13 +9917,13 @@
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:11">
       <c r="A10" s="18" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B10" s="19">
         <v>8</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D10" s="19">
         <v>0</v>
@@ -9864,13 +9936,13 @@
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:11">
       <c r="A11" s="18" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B11" s="19">
         <v>9</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D11" s="19">
         <v>0</v>
@@ -9883,13 +9955,13 @@
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:11">
       <c r="A12" s="18" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B12" s="19">
         <v>10</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
@@ -9927,7 +9999,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D14" s="19">
         <v>0</v>
@@ -9940,13 +10012,13 @@
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:11">
       <c r="A15" s="21" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B15" s="19">
         <v>13</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D15" s="19">
         <v>0</v>
@@ -10194,24 +10266,24 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G3" s="6">
         <v>0.5</v>
@@ -10219,41 +10291,41 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G6" s="6">
         <v>0.5</v>
@@ -10262,104 +10334,104 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B10" s="5">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B11" s="5">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B12" s="5">
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B13" s="5">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B14" s="7">
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12345" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_const" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="196">
   <si>
     <t>index  下标</t>
   </si>
@@ -616,6 +616,9 @@
   </si>
   <si>
     <t>不小于</t>
+  </si>
+  <si>
+    <t>UpBase</t>
   </si>
 </sst>
 </file>
@@ -2939,16 +2942,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="8" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{753799CB-EDA1-4027-A8EE-36944FA8EA8A}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{65E7EC8A-A5DA-4B74-B2C4-39104CC9D16A}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{5AEB596A-3D44-4E28-B942-E8590B8CA9D8}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{73AD0A97-529A-4D03-8B5D-C12610A27659}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{C4C802AC-555A-41D2-A24E-298E75258FA4}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B19001BA-D4EF-401A-9661-C898C7A72E4D}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2960,7 +2963,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{77D12277-E3C4-4197-B9BE-2F8C93BD7086}">
+    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{F39871B8-75C4-49EA-8C77-EAF77CEECB21}">
       <tableStyleElement type="wholeTable" dxfId="24"/>
       <tableStyleElement type="headerRow" dxfId="23"/>
       <tableStyleElement type="totalRow" dxfId="22"/>
@@ -2972,14 +2975,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="16"/>
       <tableStyleElement type="lastTotalCell" dxfId="15"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{7A1111F3-8BDF-4980-BA6E-FD9FDD18B040}">
+    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{E7508664-83DC-4697-8892-738F03C56788}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
       <tableStyleElement type="firstColumn" dxfId="26"/>
       <tableStyleElement type="lastColumn" dxfId="25"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{B64CBAE1-409E-4666-BD56-8C21A3376DCF}">
+    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{904A459C-591A-45F6-87F6-EBBE8D46A63E}">
       <tableStyleElement type="wholeTable" dxfId="39"/>
       <tableStyleElement type="headerRow" dxfId="38"/>
       <tableStyleElement type="totalRow" dxfId="37"/>
@@ -2991,14 +2994,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="31"/>
       <tableStyleElement type="lastTotalCell" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{641273E3-79B7-4E51-9448-B6D04ED5E52C}">
+    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{EDC6A47B-B140-4D49-8C1C-C4846E49B298}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
       <tableStyleElement type="headerRow" dxfId="43"/>
       <tableStyleElement type="totalRow" dxfId="42"/>
       <tableStyleElement type="firstColumn" dxfId="41"/>
       <tableStyleElement type="lastColumn" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{711C12FB-73A5-4FD6-938B-245F494C6DCF}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{3843132A-D0C9-4579-8716-C274209DD543}">
       <tableStyleElement type="wholeTable" dxfId="49"/>
       <tableStyleElement type="headerRow" dxfId="48"/>
       <tableStyleElement type="totalRow" dxfId="47"/>
@@ -3308,8 +3311,8 @@
   <sheetPr/>
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10236,10 +10239,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -10434,6 +10437,30 @@
         <v>194</v>
       </c>
     </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A15" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="7">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" activeTab="4"/>
+    <workbookView windowWidth="27945" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_const" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="203">
   <si>
     <t>index  下标</t>
   </si>
@@ -520,6 +520,27 @@
   </si>
   <si>
     <t>%恢复增强</t>
+  </si>
+  <si>
+    <t>FireDamageIncome</t>
+  </si>
+  <si>
+    <t>额外元素伤害</t>
+  </si>
+  <si>
+    <t>IceDamageIncome</t>
+  </si>
+  <si>
+    <t>ThunderDamageIncome</t>
+  </si>
+  <si>
+    <t>WindDamageIncome</t>
+  </si>
+  <si>
+    <t>LightDamageIncome</t>
+  </si>
+  <si>
+    <t>DarkDamageIncome</t>
   </si>
   <si>
     <t>#Loccustom_attribute_sub_{}</t>
@@ -1057,7 +1078,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1340,21 +1361,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1477,7 +1483,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1489,34 +1495,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1601,7 +1607,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1681,9 +1687,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2942,16 +2945,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="8" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{65E7EC8A-A5DA-4B74-B2C4-39104CC9D16A}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5A658268-8320-44E7-9D5A-BA255431DFCC}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{73AD0A97-529A-4D03-8B5D-C12610A27659}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A3EFAFB9-7DCC-4F40-BD2C-7B33681413F6}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{B19001BA-D4EF-401A-9661-C898C7A72E4D}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{A109890F-5D9D-46D4-8BCF-C15499BF1B09}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2963,7 +2966,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{F39871B8-75C4-49EA-8C77-EAF77CEECB21}">
+    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{CDE55CD5-F211-4B7B-93A3-6F4D911A9597}">
       <tableStyleElement type="wholeTable" dxfId="24"/>
       <tableStyleElement type="headerRow" dxfId="23"/>
       <tableStyleElement type="totalRow" dxfId="22"/>
@@ -2975,14 +2978,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="16"/>
       <tableStyleElement type="lastTotalCell" dxfId="15"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{E7508664-83DC-4697-8892-738F03C56788}">
+    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{8861B9D6-0639-44CD-8DA9-D6A9B77FE75A}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
       <tableStyleElement type="firstColumn" dxfId="26"/>
       <tableStyleElement type="lastColumn" dxfId="25"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{904A459C-591A-45F6-87F6-EBBE8D46A63E}">
+    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{F51348D6-9494-45CC-9712-D84D9C63FCB8}">
       <tableStyleElement type="wholeTable" dxfId="39"/>
       <tableStyleElement type="headerRow" dxfId="38"/>
       <tableStyleElement type="totalRow" dxfId="37"/>
@@ -2994,14 +2997,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="31"/>
       <tableStyleElement type="lastTotalCell" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{EDC6A47B-B140-4D49-8C1C-C4846E49B298}">
+    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{6F3587AB-66CF-4D25-A2F1-0E12D1B8EC60}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
       <tableStyleElement type="headerRow" dxfId="43"/>
       <tableStyleElement type="totalRow" dxfId="42"/>
       <tableStyleElement type="firstColumn" dxfId="41"/>
       <tableStyleElement type="lastColumn" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{3843132A-D0C9-4579-8716-C274209DD543}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{6BC45E0B-45B3-46C9-B263-F70E2D8ED4EC}">
       <tableStyleElement type="wholeTable" dxfId="49"/>
       <tableStyleElement type="headerRow" dxfId="48"/>
       <tableStyleElement type="totalRow" dxfId="47"/>
@@ -3311,19 +3314,19 @@
   <sheetPr/>
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.5083333333333" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.84166666666667" style="29" customWidth="1"/>
-    <col min="3" max="3" width="26.3416666666667" style="29" customWidth="1"/>
-    <col min="4" max="4" width="14.175" style="29" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="46.175" style="29" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="27.5083333333333" style="28" customWidth="1"/>
+    <col min="2" max="2" width="9.84166666666667" style="28" customWidth="1"/>
+    <col min="3" max="3" width="26.3416666666667" style="28" customWidth="1"/>
+    <col min="4" max="4" width="14.175" style="28" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="46.175" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:6">
@@ -3565,8 +3568,8 @@
       <c r="F13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:12">
       <c r="A14" s="18" t="s">
@@ -3587,11 +3590,11 @@
       <c r="F14" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:12">
       <c r="A15" s="18" t="s">
@@ -3612,9 +3615,9 @@
       <c r="F15" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
+      <c r="H15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:6">
       <c r="A16" s="18" t="s">
@@ -3768,7 +3771,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="24" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A24" s="18" t="s">
         <v>61</v>
       </c>
@@ -3788,7 +3791,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="25" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A25" s="18" t="s">
         <v>64</v>
       </c>
@@ -3806,7 +3809,7 @@
       </c>
       <c r="F25" s="20"/>
     </row>
-    <row r="26" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="26" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A26" s="18" t="s">
         <v>66</v>
       </c>
@@ -3826,7 +3829,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="27" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A27" s="18" t="s">
         <v>69</v>
       </c>
@@ -3846,7 +3849,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="28" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A28" s="18" t="s">
         <v>71</v>
       </c>
@@ -3866,7 +3869,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="29" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A29" s="18" t="s">
         <v>73</v>
       </c>
@@ -3886,7 +3889,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="30" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A30" s="18" t="s">
         <v>75</v>
       </c>
@@ -3906,7 +3909,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="31" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A31" s="18" t="s">
         <v>77</v>
       </c>
@@ -3926,7 +3929,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="32" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A32" s="18" t="s">
         <v>79</v>
       </c>
@@ -3944,7 +3947,7 @@
       </c>
       <c r="F32" s="20"/>
     </row>
-    <row r="33" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="33" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A33" s="18" t="s">
         <v>81</v>
       </c>
@@ -3962,7 +3965,7 @@
       </c>
       <c r="F33" s="20"/>
     </row>
-    <row r="34" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="34" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A34" s="18" t="s">
         <v>83</v>
       </c>
@@ -3982,7 +3985,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="35" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A35" s="18" t="s">
         <v>86</v>
       </c>
@@ -4002,7 +4005,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="36" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A36" s="18" t="s">
         <v>89</v>
       </c>
@@ -4022,7 +4025,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="37" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A37" s="18" t="s">
         <v>92</v>
       </c>
@@ -4042,7 +4045,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="38" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A38" s="18" t="s">
         <v>95</v>
       </c>
@@ -4062,7 +4065,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="39" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A39" s="18" t="s">
         <v>97</v>
       </c>
@@ -4082,7 +4085,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="40" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A40" s="18" t="s">
         <v>99</v>
       </c>
@@ -4102,7 +4105,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="41" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A41" s="18" t="s">
         <v>101</v>
       </c>
@@ -4122,7 +4125,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="42" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A42" s="18" t="s">
         <v>104</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="43" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A43" s="18" t="s">
         <v>107</v>
       </c>
@@ -4162,7 +4165,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="44" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A44" s="18" t="s">
         <v>109</v>
       </c>
@@ -4182,7 +4185,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="45" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A45" s="18" t="s">
         <v>111</v>
       </c>
@@ -4202,7 +4205,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="46" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A46" s="18" t="s">
         <v>113</v>
       </c>
@@ -4222,7 +4225,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="47" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A47" s="18" t="s">
         <v>116</v>
       </c>
@@ -4242,7 +4245,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="48" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A48" s="18" t="s">
         <v>119</v>
       </c>
@@ -4262,7 +4265,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="49" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A49" s="18" t="s">
         <v>122</v>
       </c>
@@ -4282,7 +4285,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="50" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A50" s="18" t="s">
         <v>125</v>
       </c>
@@ -4300,7 +4303,7 @@
       </c>
       <c r="F50" s="20"/>
     </row>
-    <row r="51" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="51" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A51" s="18" t="s">
         <v>127</v>
       </c>
@@ -4318,7 +4321,7 @@
       </c>
       <c r="F51" s="20"/>
     </row>
-    <row r="52" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="52" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A52" s="18" t="s">
         <v>129</v>
       </c>
@@ -4336,27 +4339,27 @@
       </c>
       <c r="F52" s="20"/>
     </row>
-    <row r="53" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="53" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A53" s="18" t="s">
         <v>131</v>
       </c>
       <c r="B53" s="16">
         <v>51</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D53" s="31">
+      <c r="D53" s="30">
         <v>1</v>
       </c>
-      <c r="E53" s="31">
-        <v>0</v>
-      </c>
-      <c r="F53" s="32" t="s">
+      <c r="E53" s="30">
+        <v>0</v>
+      </c>
+      <c r="F53" s="31" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="54" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A54" s="18" t="s">
         <v>134</v>
       </c>
@@ -4376,7 +4379,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="55" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A55" s="21" t="s">
         <v>137</v>
       </c>
@@ -4396,7 +4399,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="56" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A56" s="21" t="s">
         <v>140</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="57" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="57" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A57" s="21" t="s">
         <v>143</v>
       </c>
@@ -4436,7 +4439,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="58" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A58" s="21" t="s">
         <v>146</v>
       </c>
@@ -4454,7 +4457,7 @@
       </c>
       <c r="F58" s="23"/>
     </row>
-    <row r="59" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="59" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
       <c r="A59" s="21" t="s">
         <v>148</v>
       </c>
@@ -9733,10 +9736,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10032,16 +10035,119 @@
       <c r="F15" s="23"/>
       <c r="K15" s="26"/>
     </row>
-    <row r="16" ht="16.5" spans="11:11">
+    <row r="16" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A16" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="19">
+        <v>14</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0</v>
+      </c>
+      <c r="F16" s="23"/>
       <c r="K16" s="26"/>
     </row>
-    <row r="17" ht="16.5" spans="11:11">
+    <row r="17" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A17" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="19">
+        <v>15</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19">
+        <v>0</v>
+      </c>
+      <c r="F17" s="23"/>
       <c r="K17" s="26"/>
     </row>
-    <row r="18" ht="17.25" spans="11:11">
-      <c r="K18" s="27"/>
-    </row>
-    <row r="19" ht="14.25"/>
+    <row r="18" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A18" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="19">
+        <v>16</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="K18" s="26"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A19" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B19" s="19">
+        <v>17</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A20" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="19">
+        <v>18</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="19">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:6">
+      <c r="A21" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="19">
+        <v>18</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0</v>
+      </c>
+      <c r="F21" s="23"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E$1:E$1048576">
     <cfRule type="colorScale" priority="2">
@@ -10063,10 +10169,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:A13"/>
+      <selection activeCell="A14" sqref="A14:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10155,37 +10261,37 @@
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="str">
         <f>"|"""&amp;enemy_attribute_const!A16&amp;""""</f>
-        <v>|""</v>
+        <v>|"FireDamageIncome"</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="8" t="str">
         <f>"|"""&amp;enemy_attribute_const!A17&amp;""""</f>
-        <v>|""</v>
+        <v>|"IceDamageIncome"</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="8" t="str">
         <f>"|"""&amp;enemy_attribute_const!A18&amp;""""</f>
-        <v>|""</v>
+        <v>|"ThunderDamageIncome"</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="8" t="str">
         <f>"|"""&amp;enemy_attribute_const!A19&amp;""""</f>
-        <v>|""</v>
+        <v>|"WindDamageIncome"</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="8" t="str">
         <f>"|"""&amp;enemy_attribute_const!A20&amp;""""</f>
-        <v>|""</v>
+        <v>|"LightDamageIncome"</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="8" t="str">
         <f>"|"""&amp;enemy_attribute_const!A21&amp;""""</f>
-        <v>|""</v>
+        <v>|"DarkDamageIncome"</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -10227,6 +10333,36 @@
     <row r="26" spans="1:1">
       <c r="A26" s="8" t="str">
         <f>"|"""&amp;enemy_attribute_const!A28&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="8" t="str">
+        <f>"|"""&amp;enemy_attribute_const!A29&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="8" t="str">
+        <f>"|"""&amp;enemy_attribute_const!A30&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="8" t="str">
+        <f>"|"""&amp;enemy_attribute_const!A31&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="8" t="str">
+        <f>"|"""&amp;enemy_attribute_const!A32&amp;""""</f>
+        <v>|""</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="8" t="str">
+        <f>"|"""&amp;enemy_attribute_const!A33&amp;""""</f>
         <v>|""</v>
       </c>
     </row>
@@ -10241,7 +10377,7 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -10269,24 +10405,24 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G3" s="6">
         <v>0.5</v>
@@ -10294,41 +10430,41 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G6" s="6">
         <v>0.5</v>
@@ -10337,118 +10473,118 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B10" s="5">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B11" s="5">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B12" s="5">
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B13" s="5">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B14" s="7">
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E14" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B15" s="7">
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E15" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:3">

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_const" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="219">
   <si>
     <t>index  下标</t>
   </si>
@@ -60,6 +60,9 @@
     <t>#Loccustom_attribute_{}</t>
   </si>
   <si>
+    <t>#Loccustom_attribute_{}_tooltips</t>
+  </si>
+  <si>
     <t>is_pct</t>
   </si>
   <si>
@@ -72,18 +75,31 @@
     <t>攻击力</t>
   </si>
   <si>
+    <t>英雄在战斗中能够造成伤害的能力
+当前攻击力：{s:AttackDamage.Base} &lt;span class='bonus'&gt;+{s:AttackDamage.Bonus} &lt;/span&gt;</t>
+  </si>
+  <si>
     <t>AttackSpeed</t>
   </si>
   <si>
     <t>攻击速度</t>
   </si>
   <si>
+    <t>是英雄释放基础技能的频率
+当前攻击间隔：{s:APS}
+当前攻击速度：{s:AttackSpeed}</t>
+  </si>
+  <si>
     <t>AttackRange</t>
   </si>
   <si>
     <t>攻击范围</t>
   </si>
   <si>
+    <t>英雄释放基础技能所影响的区域范围
+当前攻击范围：{s:AttackRange}</t>
+  </si>
+  <si>
     <t>AttackRate</t>
   </si>
   <si>
@@ -96,6 +112,11 @@
     <t>护甲值</t>
   </si>
   <si>
+    <t>英雄的防御属性用于减少受到来自怪物的伤害
+当前护甲值：{s:PhyicalArmor}
+减少受到的{s:ArmorReduction}非元素伤害</t>
+  </si>
+  <si>
     <t>减免任何伤害,之后计算其他元素伤害减免</t>
   </si>
   <si>
@@ -105,6 +126,11 @@
     <t>最大生命</t>
   </si>
   <si>
+    <t>英雄能够承受的最高伤害值，当英雄的生命值为0时会阵亡
+当前最大生命值：&lt;span class='bonus'&gt;{s:MaxHealth}&lt;/span&gt;
+当前生命恢复：&lt;span class='bonus'&gt;{s:HealthRegen}&lt;/span&gt;/s</t>
+  </si>
+  <si>
     <t>HealthRegen</t>
   </si>
   <si>
@@ -117,6 +143,11 @@
     <t>最大蓝量</t>
   </si>
   <si>
+    <t>英雄释放部分技能所需的能量值
+当前最大蓝量：{s:MaxMana}
+当前蓝量回复：{s:ManaRegen}/s</t>
+  </si>
+  <si>
     <t>ManaRegen</t>
   </si>
   <si>
@@ -129,12 +160,23 @@
     <t>移动速度</t>
   </si>
   <si>
+    <t>英雄在一秒内移动的距离
+当前移动速度：{s:MoveSpeed}
+当前移动速度加成：{s:MoveSpeed.BasePercent}%</t>
+  </si>
+  <si>
     <t>AbilityHaste</t>
   </si>
   <si>
     <t>技能急速</t>
   </si>
   <si>
+    <t>允许英雄更为频繁的释放技能
+当前技能急速：{s:AbilityHaste}
+当前冷却缩减：{s:AbilityCooldown}
+当前冷却缩减上限：{s:AbilityCooldown.Limit}</t>
+  </si>
+  <si>
     <t>固定值，最大不超过55%,公式 = 急速/（急速+150）</t>
   </si>
   <si>
@@ -162,22 +204,38 @@
     <t>%暴击概率</t>
   </si>
   <si>
+    <t>英雄造成伤害时触发暴击的概率
+当前暴击概率：{s:CriticalChance}</t>
+  </si>
+  <si>
     <t>CriticalDamage</t>
   </si>
   <si>
     <t>%暴击伤害</t>
   </si>
   <si>
+    <t>英雄造成暴击时对目标造成的额外伤害
+当前暴击伤害：{s:CriticalDamage}</t>
+  </si>
+  <si>
     <t>PickItemRadius</t>
   </si>
   <si>
     <t>拾取范围</t>
   </si>
   <si>
+    <t>是英雄拾取经验球的区域范围
+当前拾取范围：{s:PickItemRadius}</t>
+  </si>
+  <si>
     <t>DamageBonusMul</t>
   </si>
   <si>
-    <t>%伤害加成A</t>
+    <t>%伤害加成</t>
+  </si>
+  <si>
+    <t>英雄造成伤害时的额外加成
+当前伤害加成：{s:DamageBonusMul}</t>
   </si>
   <si>
     <t>伤害公式字段：伤害加成</t>
@@ -195,6 +253,10 @@
     <t>%最终伤害</t>
   </si>
   <si>
+    <t>英雄造成伤害时的最终伤害加成
+当前最终伤害：{s:FinalDamageMul}</t>
+  </si>
+  <si>
     <t>伤害公式字段：最终伤害</t>
   </si>
   <si>
@@ -297,6 +359,16 @@
     <t>%全元素伤害</t>
   </si>
   <si>
+    <t>英雄造成元素伤害时获得额外的伤害加成
+当前全元素伤害加成：{s:AllElementDamageBonus}
+当前火元素伤害加成：{s:FireDamageBonus}
+当前冰元素伤害加成：{s:IceDamageBonus}
+当前雷元素伤害加成：{s:ThunderDamageBonus}
+当前风元素伤害加成：{s:WindDamageBonus}
+当前光元素伤害加成：{s:LightDamageBonus}
+当前暗元素伤害加成：{s:DarkDamageBonus}</t>
+  </si>
+  <si>
     <t>对应元素伤害进行加算，伤害公式字段：元素伤害</t>
   </si>
   <si>
@@ -306,6 +378,14 @@
     <t>%全元素穿透</t>
   </si>
   <si>
+    <t>英雄造成元素伤害时会忽视目标一定的元素抗性
+当前全元素穿透：{s:AllElementPent}
+当前火元素穿透：{s:FirePent}
+当前冰元素穿透：{s:IcePent}
+当前雷元素穿透：{s:ThunderPent}
+当前风元素穿透：{s:WindPent}</t>
+  </si>
+  <si>
     <t>百分比穿透元素抗性,与其对应元素做加算</t>
   </si>
   <si>
@@ -342,6 +422,14 @@
     <t>%全元素抗性</t>
   </si>
   <si>
+    <t>英雄的防御属性用于减少受到来自怪物的元素伤害
+当前全元素抗性：{s:AllElementResist}
+当前火元素抗性：{s:FireResist}
+当前冰元素抗性：{s:IceResist}
+当前雷元素抗性：{s:ThunderResist}
+当前风元素抗性：{s:WindResist}</t>
+  </si>
+  <si>
     <t>百分比减少受到元素伤害</t>
   </si>
   <si>
@@ -514,9 +602,6 @@
   </si>
   <si>
     <t>%伤害减免</t>
-  </si>
-  <si>
-    <t>%伤害加成</t>
   </si>
   <si>
     <t>%恢复增强</t>
@@ -1607,7 +1692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1695,14 +1780,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2945,16 +3051,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="8" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5A658268-8320-44E7-9D5A-BA255431DFCC}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{E0A721C6-10BB-4F88-926E-36CA4B01CDC9}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A3EFAFB9-7DCC-4F40-BD2C-7B33681413F6}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{2B90C8DE-7E77-4B7C-AD77-614C7ED5B7F5}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{A109890F-5D9D-46D4-8BCF-C15499BF1B09}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{54AD3CE9-AF5C-467B-B99A-D450B18C883A}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -2966,7 +3072,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{CDE55CD5-F211-4B7B-93A3-6F4D911A9597}">
+    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{5D87B709-211B-432A-B61F-0E2ECD508039}">
       <tableStyleElement type="wholeTable" dxfId="24"/>
       <tableStyleElement type="headerRow" dxfId="23"/>
       <tableStyleElement type="totalRow" dxfId="22"/>
@@ -2978,14 +3084,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="16"/>
       <tableStyleElement type="lastTotalCell" dxfId="15"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{8861B9D6-0639-44CD-8DA9-D6A9B77FE75A}">
+    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{A262A3F6-5C13-48B3-8A6A-9C09CF18D86F}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
       <tableStyleElement type="firstColumn" dxfId="26"/>
       <tableStyleElement type="lastColumn" dxfId="25"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{F51348D6-9494-45CC-9712-D84D9C63FCB8}">
+    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{B06EF97D-04CB-44CF-A938-C733F8097D40}">
       <tableStyleElement type="wholeTable" dxfId="39"/>
       <tableStyleElement type="headerRow" dxfId="38"/>
       <tableStyleElement type="totalRow" dxfId="37"/>
@@ -2997,14 +3103,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="31"/>
       <tableStyleElement type="lastTotalCell" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{6F3587AB-66CF-4D25-A2F1-0E12D1B8EC60}">
+    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{2E543A44-17A5-42EB-84F5-5A4A7036E98F}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
       <tableStyleElement type="headerRow" dxfId="43"/>
       <tableStyleElement type="totalRow" dxfId="42"/>
       <tableStyleElement type="firstColumn" dxfId="41"/>
       <tableStyleElement type="lastColumn" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{6BC45E0B-45B3-46C9-B263-F70E2D8ED4EC}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{E593B133-5E5D-4BD3-A323-6B10F7777D56}">
       <tableStyleElement type="wholeTable" dxfId="49"/>
       <tableStyleElement type="headerRow" dxfId="48"/>
       <tableStyleElement type="totalRow" dxfId="47"/>
@@ -3312,10 +3418,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3323,13 +3429,14 @@
     <col min="1" max="1" width="27.5083333333333" style="28" customWidth="1"/>
     <col min="2" max="2" width="9.84166666666667" style="28" customWidth="1"/>
     <col min="3" max="3" width="26.3416666666667" style="28" customWidth="1"/>
-    <col min="4" max="4" width="14.175" style="28" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="46.175" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="28"/>
+    <col min="4" max="4" width="65.5" style="29" customWidth="1"/>
+    <col min="5" max="5" width="14.175" style="28" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="46.175" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" spans="1:6">
+    <row r="1" ht="39" customHeight="1" spans="1:7">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3339,17 +3446,18 @@
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:6">
+    <row r="2" ht="22.5" customHeight="1" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
@@ -3359,1126 +3467,1218 @@
       <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" ht="66" spans="1:7">
       <c r="A3" s="15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="16">
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="E3" s="16">
         <v>0</v>
       </c>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" ht="66" spans="1:7">
       <c r="A4" s="18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="16">
         <v>2</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="19">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>17</v>
       </c>
       <c r="E4" s="19">
         <v>0</v>
       </c>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" ht="33" spans="1:7">
       <c r="A5" s="18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="16">
         <v>3</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="19">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="E5" s="19">
         <v>0</v>
       </c>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:7">
       <c r="A6" s="18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B6" s="16">
         <v>4</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="19">
-        <v>0</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D6" s="33"/>
       <c r="E6" s="19">
         <v>0</v>
       </c>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" ht="66" spans="1:7">
       <c r="A7" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B7" s="16">
         <v>5</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="19">
         <v>0</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F7" s="19">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="66" spans="1:7">
       <c r="A8" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" s="16">
         <v>6</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="19">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="19">
         <v>0</v>
       </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:7">
       <c r="A9" s="18" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B9" s="16">
         <v>7</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D9" s="33"/>
       <c r="E9" s="19">
         <v>0</v>
       </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" ht="66" spans="1:7">
       <c r="A10" s="18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B10" s="16">
         <v>8</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="19">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="19">
         <v>0</v>
       </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:7">
       <c r="A11" s="18" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B11" s="16">
         <v>9</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="D11" s="33"/>
       <c r="E11" s="19">
         <v>0</v>
       </c>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F11" s="19">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" ht="66" spans="1:7">
       <c r="A12" s="18" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B12" s="16">
         <v>10</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="19">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="E12" s="19">
         <v>0</v>
       </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:12">
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" ht="82.5" spans="1:13">
       <c r="A13" s="18" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B13" s="16">
         <v>11</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>42</v>
       </c>
       <c r="E13" s="19">
         <v>0</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:12">
+      <c r="F13" s="19">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:13">
       <c r="A14" s="18" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B14" s="16">
         <v>12</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="19">
+        <v>45</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="19">
         <v>1</v>
       </c>
-      <c r="E14" s="19">
-        <v>0</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:12">
+      <c r="F14" s="19">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:13">
       <c r="A15" s="18" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B15" s="16">
         <v>13</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="19">
+        <v>48</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="19">
         <v>1</v>
       </c>
-      <c r="E15" s="19">
-        <v>0</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F15" s="19">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+    </row>
+    <row r="16" ht="33" spans="1:7">
       <c r="A16" s="18" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B16" s="16">
         <v>14</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="19">
+        <v>51</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="19">
         <v>1</v>
       </c>
-      <c r="E16" s="19">
-        <v>0</v>
-      </c>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F16" s="19">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" ht="33" spans="1:7">
       <c r="A17" s="18" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B17" s="16">
         <v>15</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="19">
+        <v>54</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="19">
         <v>1</v>
       </c>
-      <c r="E17" s="19">
-        <v>0</v>
-      </c>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F17" s="19">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" ht="33" spans="1:7">
       <c r="A18" s="18" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B18" s="16">
         <v>16</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="19">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>58</v>
       </c>
       <c r="E18" s="19">
         <v>0</v>
       </c>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F18" s="19">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" ht="33" spans="1:7">
       <c r="A19" s="18" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B19" s="16">
         <v>17</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="19">
+        <v>60</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="19">
         <v>1</v>
       </c>
-      <c r="E19" s="19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F19" s="19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:7">
       <c r="A20" s="18" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B20" s="16">
         <v>18</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="19">
+        <v>64</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="19">
         <v>1</v>
       </c>
-      <c r="E20" s="19">
-        <v>0</v>
-      </c>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F20" s="19">
+        <v>0</v>
+      </c>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" ht="33" spans="1:7">
       <c r="A21" s="18" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B21" s="16">
         <v>19</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="19">
+        <v>66</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="19">
         <v>1</v>
       </c>
-      <c r="E21" s="19">
-        <v>0</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F21" s="19">
+        <v>0</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" ht="22.5" customHeight="1" spans="1:7">
       <c r="A22" s="18" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B22" s="16">
         <v>20</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="19">
+        <v>70</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="19">
         <v>1</v>
       </c>
-      <c r="E22" s="19">
-        <v>0</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F22" s="19">
+        <v>0</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" ht="22.5" customHeight="1" spans="1:7">
       <c r="A23" s="18" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B23" s="16">
         <v>21</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="19">
+        <v>73</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="19">
         <v>1</v>
       </c>
-      <c r="E23" s="19">
-        <v>0</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F23" s="19">
+        <v>0</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A24" s="18" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B24" s="16">
         <v>22</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="19">
+        <v>76</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="19">
         <v>1</v>
       </c>
-      <c r="E24" s="19">
-        <v>0</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F24" s="19">
+        <v>0</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A25" s="18" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B25" s="16">
         <v>23</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="19">
-        <v>0</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D25" s="33"/>
       <c r="E25" s="19">
         <v>0</v>
       </c>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F25" s="19">
+        <v>0</v>
+      </c>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A26" s="18" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B26" s="16">
         <v>24</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="19">
+        <v>81</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="19">
         <v>1</v>
       </c>
-      <c r="E26" s="19">
-        <v>0</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F26" s="19">
+        <v>0</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A27" s="18" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B27" s="16">
         <v>25</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="19">
+        <v>84</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="19">
         <v>1</v>
       </c>
-      <c r="E27" s="19">
-        <v>0</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F27" s="19">
+        <v>0</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A28" s="18" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B28" s="16">
         <v>26</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="19">
+        <v>86</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="19">
         <v>1</v>
       </c>
-      <c r="E28" s="19">
-        <v>0</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F28" s="19">
+        <v>0</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A29" s="18" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B29" s="16">
         <v>27</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="19">
+        <v>88</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="19">
         <v>1</v>
       </c>
-      <c r="E29" s="19">
-        <v>0</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F29" s="19">
+        <v>0</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A30" s="18" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B30" s="16">
         <v>28</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="19">
+        <v>90</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="19">
         <v>1</v>
       </c>
-      <c r="E30" s="19">
-        <v>0</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F30" s="19">
+        <v>0</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A31" s="18" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B31" s="16">
         <v>29</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="19">
+        <v>92</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="19">
         <v>1</v>
       </c>
-      <c r="E31" s="19">
-        <v>0</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F31" s="19">
+        <v>0</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A32" s="18" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B32" s="16">
         <v>30</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="19">
-        <v>0</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D32" s="33"/>
       <c r="E32" s="19">
         <v>0</v>
       </c>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F32" s="19">
+        <v>0</v>
+      </c>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A33" s="18" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B33" s="16">
         <v>31</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="19">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D33" s="33"/>
       <c r="E33" s="19">
         <v>0</v>
       </c>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F33" s="19">
+        <v>0</v>
+      </c>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A34" s="18" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B34" s="16">
         <v>32</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="19">
-        <v>0</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D34" s="33"/>
       <c r="E34" s="19">
         <v>0</v>
       </c>
-      <c r="F34" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F34" s="19">
+        <v>0</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" s="27" customFormat="1" ht="148.5" spans="1:7">
       <c r="A35" s="18" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B35" s="16">
         <v>33</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="19">
+        <v>101</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="19">
         <v>1</v>
       </c>
-      <c r="E35" s="19">
-        <v>0</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F35" s="19">
+        <v>0</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" s="27" customFormat="1" ht="115.5" spans="1:7">
       <c r="A36" s="18" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B36" s="16">
         <v>34</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="19">
+        <v>105</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="19">
         <v>1</v>
       </c>
-      <c r="E36" s="19">
-        <v>0</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F36" s="19">
+        <v>0</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A37" s="18" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B37" s="16">
         <v>35</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="19">
+        <v>109</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="19">
         <v>1</v>
       </c>
-      <c r="E37" s="19">
-        <v>0</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F37" s="19">
+        <v>0</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A38" s="18" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B38" s="16">
         <v>36</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="19">
+        <v>112</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="19">
         <v>1</v>
       </c>
-      <c r="E38" s="19">
-        <v>0</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F38" s="19">
+        <v>0</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A39" s="18" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B39" s="16">
         <v>37</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="19">
+        <v>114</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="19">
         <v>1</v>
       </c>
-      <c r="E39" s="19">
-        <v>0</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F39" s="19">
+        <v>0</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A40" s="18" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B40" s="16">
         <v>38</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="19">
+        <v>116</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="19">
         <v>1</v>
       </c>
-      <c r="E40" s="19">
-        <v>0</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F40" s="19">
+        <v>0</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" s="27" customFormat="1" ht="115.5" spans="1:7">
       <c r="A41" s="18" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B41" s="16">
         <v>39</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="19">
+        <v>118</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="19">
         <v>1</v>
       </c>
-      <c r="E41" s="19">
-        <v>0</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F41" s="19">
+        <v>0</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A42" s="18" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B42" s="16">
         <v>40</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="19">
+        <v>122</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="E42" s="19">
         <v>1</v>
       </c>
-      <c r="E42" s="19">
-        <v>0</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F42" s="19">
+        <v>0</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A43" s="18" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B43" s="16">
         <v>41</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="19">
+        <v>125</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="19">
         <v>1</v>
       </c>
-      <c r="E43" s="19">
-        <v>0</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F43" s="19">
+        <v>0</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A44" s="18" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B44" s="16">
         <v>42</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="19">
+        <v>127</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="19">
         <v>1</v>
       </c>
-      <c r="E44" s="19">
-        <v>0</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F44" s="19">
+        <v>0</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A45" s="18" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B45" s="16">
         <v>43</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="19">
+        <v>129</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="19">
         <v>1</v>
       </c>
-      <c r="E45" s="19">
-        <v>0</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F45" s="19">
+        <v>0</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A46" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B46" s="16">
         <v>44</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D46" s="19">
-        <v>0</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D46" s="33"/>
       <c r="E46" s="19">
         <v>0</v>
       </c>
-      <c r="F46" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F46" s="19">
+        <v>0</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A47" s="18" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B47" s="16">
         <v>45</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="19">
-        <v>0</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D47" s="33"/>
       <c r="E47" s="19">
         <v>0</v>
       </c>
-      <c r="F47" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F47" s="19">
+        <v>0</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A48" s="18" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B48" s="16">
         <v>46</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" s="19">
-        <v>1</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D48" s="33"/>
       <c r="E48" s="19">
         <v>1</v>
       </c>
-      <c r="F48" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F48" s="19">
+        <v>1</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A49" s="18" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B49" s="16">
         <v>47</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D49" s="19">
+        <v>140</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="19">
         <v>1</v>
       </c>
-      <c r="E49" s="19">
-        <v>0</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F49" s="19">
+        <v>0</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A50" s="18" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B50" s="16">
         <v>48</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" s="19">
+        <v>143</v>
+      </c>
+      <c r="D50" s="33"/>
+      <c r="E50" s="19">
         <v>1</v>
       </c>
-      <c r="E50" s="19">
-        <v>0</v>
-      </c>
-      <c r="F50" s="20"/>
-    </row>
-    <row r="51" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F50" s="19">
+        <v>0</v>
+      </c>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A51" s="18" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B51" s="16">
         <v>49</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D51" s="19">
+        <v>145</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="19">
         <v>1</v>
       </c>
-      <c r="E51" s="19">
-        <v>0</v>
-      </c>
-      <c r="F51" s="20"/>
-    </row>
-    <row r="52" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F51" s="19">
+        <v>0</v>
+      </c>
+      <c r="G51" s="20"/>
+    </row>
+    <row r="52" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A52" s="18" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B52" s="16">
         <v>50</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D52" s="19">
+        <v>147</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="19">
         <v>1</v>
       </c>
-      <c r="E52" s="19">
-        <v>0</v>
-      </c>
-      <c r="F52" s="20"/>
-    </row>
-    <row r="53" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F52" s="19">
+        <v>0</v>
+      </c>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A53" s="18" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B53" s="16">
         <v>51</v>
       </c>
-      <c r="C53" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D53" s="30">
+      <c r="C53" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="35"/>
+      <c r="E53" s="34">
         <v>1</v>
       </c>
-      <c r="E53" s="30">
-        <v>0</v>
-      </c>
-      <c r="F53" s="31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F53" s="34">
+        <v>0</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A54" s="18" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="B54" s="16">
         <v>52</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D54" s="19">
-        <v>1</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D54" s="33"/>
       <c r="E54" s="19">
         <v>1</v>
       </c>
-      <c r="F54" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F54" s="19">
+        <v>1</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A55" s="21" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="B55" s="16">
         <v>53</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D55" s="22">
+        <v>155</v>
+      </c>
+      <c r="D55" s="37"/>
+      <c r="E55" s="22">
         <v>1</v>
       </c>
-      <c r="E55" s="22">
-        <v>0</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F55" s="22">
+        <v>0</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A56" s="21" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="B56" s="16">
         <v>54</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" s="22">
+        <v>158</v>
+      </c>
+      <c r="D56" s="37"/>
+      <c r="E56" s="22">
         <v>1</v>
       </c>
-      <c r="E56" s="22">
-        <v>0</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F56" s="22">
+        <v>0</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A57" s="21" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B57" s="16">
         <v>55</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="D57" s="22">
+        <v>161</v>
+      </c>
+      <c r="D57" s="37"/>
+      <c r="E57" s="22">
         <v>1</v>
       </c>
-      <c r="E57" s="22">
-        <v>0</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F57" s="22">
+        <v>0</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A58" s="21" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B58" s="16">
         <v>56</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D58" s="22">
+        <v>164</v>
+      </c>
+      <c r="D58" s="37"/>
+      <c r="E58" s="22">
         <v>1</v>
       </c>
-      <c r="E58" s="22">
-        <v>0</v>
-      </c>
-      <c r="F58" s="23"/>
-    </row>
-    <row r="59" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+      <c r="F58" s="22">
+        <v>0</v>
+      </c>
+      <c r="G58" s="23"/>
+    </row>
+    <row r="59" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A59" s="21" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B59" s="16">
         <v>57</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D59" s="22">
+        <v>166</v>
+      </c>
+      <c r="D59" s="37"/>
+      <c r="E59" s="22">
         <v>1</v>
       </c>
-      <c r="E59" s="22">
-        <v>0</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>150</v>
+      <c r="F59" s="22">
+        <v>0</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E$1:E$1048576">
+  <conditionalFormatting sqref="F$1:F$1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4500,7 +4700,7 @@
   <sheetPr/>
   <dimension ref="A1:E237"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
@@ -9738,7 +9938,7 @@
   <sheetPr/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -9784,22 +9984,22 @@
         <v>8</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:6">
       <c r="A3" s="15" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B3" s="16">
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="D3" s="16">
         <v>0</v>
@@ -9811,13 +10011,13 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:6">
       <c r="A4" s="18" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B4" s="19">
         <v>2</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="D4" s="19">
         <v>0</v>
@@ -9829,13 +10029,13 @@
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:6">
       <c r="A5" s="18" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B5" s="19">
         <v>3</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D5" s="19">
         <v>0</v>
@@ -9847,13 +10047,13 @@
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:11">
       <c r="A6" s="18" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B6" s="19">
         <v>4</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="D6" s="19">
         <v>0</v>
@@ -9866,13 +10066,13 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:11">
       <c r="A7" s="18" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B7" s="19">
         <v>5</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="D7" s="19">
         <v>0</v>
@@ -9885,13 +10085,13 @@
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:11">
       <c r="A8" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B8" s="19">
         <v>6</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D8" s="19">
         <v>0</v>
@@ -9904,13 +10104,13 @@
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:11">
       <c r="A9" s="18" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B9" s="19">
         <v>7</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D9" s="19">
         <v>0</v>
@@ -9923,13 +10123,13 @@
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:11">
       <c r="A10" s="18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="B10" s="19">
         <v>8</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D10" s="19">
         <v>0</v>
@@ -9942,13 +10142,13 @@
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:11">
       <c r="A11" s="18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="B11" s="19">
         <v>9</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="D11" s="19">
         <v>0</v>
@@ -9961,13 +10161,13 @@
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:11">
       <c r="A12" s="18" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B12" s="19">
         <v>10</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
@@ -9980,13 +10180,13 @@
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:11">
       <c r="A13" s="18" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B13" s="19">
         <v>11</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D13" s="19">
         <v>0</v>
@@ -9999,13 +10199,13 @@
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:11">
       <c r="A14" s="18" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B14" s="19">
         <v>12</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="D14" s="19">
         <v>0</v>
@@ -10018,13 +10218,13 @@
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:11">
       <c r="A15" s="21" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B15" s="19">
         <v>13</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="D15" s="19">
         <v>0</v>
@@ -10037,13 +10237,13 @@
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:11">
       <c r="A16" s="18" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B16" s="19">
         <v>14</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D16" s="19">
         <v>0</v>
@@ -10056,13 +10256,13 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:11">
       <c r="A17" s="18" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B17" s="19">
         <v>15</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D17" s="19">
         <v>0</v>
@@ -10075,13 +10275,13 @@
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:11">
       <c r="A18" s="18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="B18" s="19">
         <v>16</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D18" s="19">
         <v>0</v>
@@ -10094,13 +10294,13 @@
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:11">
       <c r="A19" s="18" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B19" s="19">
         <v>17</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D19" s="19">
         <v>0</v>
@@ -10113,13 +10313,13 @@
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:11">
       <c r="A20" s="18" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B20" s="19">
         <v>18</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D20" s="19">
         <v>0</v>
@@ -10132,13 +10332,13 @@
     </row>
     <row r="21" ht="16.5" spans="1:6">
       <c r="A21" s="18" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B21" s="19">
         <v>18</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D21" s="19">
         <v>0</v>
@@ -10378,7 +10578,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -10405,24 +10605,24 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G3" s="6">
         <v>0.5</v>
@@ -10430,41 +10630,41 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="G6" s="6">
         <v>0.5</v>
@@ -10473,118 +10673,118 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="B10" s="5">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B11" s="5">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="B12" s="5">
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="B13" s="5">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="B14" s="7">
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="E14" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="B15" s="7">
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:3">

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -3420,8 +3420,8 @@
   <sheetPr/>
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="221">
   <si>
     <t>index  下标</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>灼烧时间</t>
+  </si>
+  <si>
+    <t>IceMoveSlow</t>
+  </si>
+  <si>
+    <t>冰元素减速</t>
   </si>
   <si>
     <t>FireDamageBonus</t>
@@ -3051,16 +3057,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="8" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{E0A721C6-10BB-4F88-926E-36CA4B01CDC9}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{289BDF97-3DF0-477D-AB97-0985F06D5937}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{2B90C8DE-7E77-4B7C-AD77-614C7ED5B7F5}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A071FBAC-46C8-473F-A6B4-3EAF75AFADE0}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{54AD3CE9-AF5C-467B-B99A-D450B18C883A}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{7CB431B5-23D5-4FEE-9F38-20506C907438}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3072,7 +3078,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{5D87B709-211B-432A-B61F-0E2ECD508039}">
+    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{E7DA2C81-6888-48BD-9CDB-6282A7EDB67E}">
       <tableStyleElement type="wholeTable" dxfId="24"/>
       <tableStyleElement type="headerRow" dxfId="23"/>
       <tableStyleElement type="totalRow" dxfId="22"/>
@@ -3084,14 +3090,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="16"/>
       <tableStyleElement type="lastTotalCell" dxfId="15"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{A262A3F6-5C13-48B3-8A6A-9C09CF18D86F}">
+    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{C552D18F-B5F5-4E3A-8D78-3A8095AA06F6}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
       <tableStyleElement type="firstColumn" dxfId="26"/>
       <tableStyleElement type="lastColumn" dxfId="25"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{B06EF97D-04CB-44CF-A938-C733F8097D40}">
+    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{591551D7-8F5A-4319-B954-8C2A52778733}">
       <tableStyleElement type="wholeTable" dxfId="39"/>
       <tableStyleElement type="headerRow" dxfId="38"/>
       <tableStyleElement type="totalRow" dxfId="37"/>
@@ -3103,14 +3109,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="31"/>
       <tableStyleElement type="lastTotalCell" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{2E543A44-17A5-42EB-84F5-5A4A7036E98F}">
+    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{4810A6B1-78DE-4C66-9873-C1AD4C59E43C}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
       <tableStyleElement type="headerRow" dxfId="43"/>
       <tableStyleElement type="totalRow" dxfId="42"/>
       <tableStyleElement type="firstColumn" dxfId="41"/>
       <tableStyleElement type="lastColumn" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{E593B133-5E5D-4BD3-A323-6B10F7777D56}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{381819B7-A118-46C8-B5BB-32FDF4DDD8A7}">
       <tableStyleElement type="wholeTable" dxfId="49"/>
       <tableStyleElement type="headerRow" dxfId="48"/>
       <tableStyleElement type="totalRow" dxfId="47"/>
@@ -3418,10 +3424,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3986,19 +3992,17 @@
       <c r="F26" s="19">
         <v>0</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A27" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B27" s="16">
         <v>25</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="19">
@@ -4008,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
@@ -4029,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
@@ -4050,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
@@ -4071,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
@@ -4092,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
@@ -4107,12 +4111,14 @@
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="19">
         <v>0</v>
       </c>
-      <c r="G32" s="20"/>
+      <c r="G32" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="33" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A33" s="18" t="s">
@@ -4150,45 +4156,41 @@
       <c r="F34" s="19">
         <v>0</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A35" s="18" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="35" s="27" customFormat="1" ht="148.5" spans="1:7">
-      <c r="A35" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="B35" s="16">
         <v>33</v>
       </c>
       <c r="C35" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="19">
+        <v>0</v>
+      </c>
+      <c r="F35" s="19">
+        <v>0</v>
+      </c>
+      <c r="G35" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="33" t="s">
+    </row>
+    <row r="36" s="27" customFormat="1" ht="148.5" spans="1:7">
+      <c r="A36" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="E35" s="19">
-        <v>1</v>
-      </c>
-      <c r="F35" s="19">
-        <v>0</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" s="27" customFormat="1" ht="115.5" spans="1:7">
-      <c r="A36" s="18" t="s">
-        <v>104</v>
       </c>
       <c r="B36" s="16">
         <v>34</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E36" s="19">
         <v>1</v>
@@ -4197,20 +4199,22 @@
         <v>0</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" s="27" customFormat="1" ht="115.5" spans="1:7">
       <c r="A37" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B37" s="16">
         <v>35</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="33"/>
+        <v>107</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>108</v>
+      </c>
       <c r="E37" s="19">
         <v>1</v>
       </c>
@@ -4218,18 +4222,18 @@
         <v>0</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A38" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="16">
         <v>36</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="19">
@@ -4239,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
@@ -4260,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
@@ -4281,10 +4285,10 @@
         <v>0</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" s="27" customFormat="1" ht="115.5" spans="1:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A41" s="18" t="s">
         <v>117</v>
       </c>
@@ -4294,9 +4298,7 @@
       <c r="C41" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="33" t="s">
-        <v>119</v>
-      </c>
+      <c r="D41" s="33"/>
       <c r="E41" s="19">
         <v>1</v>
       </c>
@@ -4304,20 +4306,22 @@
         <v>0</v>
       </c>
       <c r="G41" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" s="27" customFormat="1" ht="115.5" spans="1:7">
       <c r="A42" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B42" s="16">
         <v>40</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="33"/>
+        <v>120</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>121</v>
+      </c>
       <c r="E42" s="19">
         <v>1</v>
       </c>
@@ -4325,18 +4329,18 @@
         <v>0</v>
       </c>
       <c r="G42" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A43" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B43" s="16">
         <v>41</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43" s="33"/>
       <c r="E43" s="19">
@@ -4346,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
@@ -4367,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
@@ -4388,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
@@ -4403,24 +4407,24 @@
       </c>
       <c r="D46" s="33"/>
       <c r="E46" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="19">
         <v>0</v>
       </c>
       <c r="G46" s="20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A47" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B47" s="16">
         <v>45</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" s="33"/>
       <c r="E47" s="19">
@@ -4430,60 +4434,60 @@
         <v>0</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A48" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B48" s="16">
         <v>46</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D48" s="33"/>
       <c r="E48" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A49" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B49" s="16">
         <v>47</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D49" s="33"/>
       <c r="E49" s="19">
         <v>1</v>
       </c>
       <c r="F49" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A50" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B50" s="16">
         <v>48</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" s="33"/>
       <c r="E50" s="19">
@@ -4492,7 +4496,9 @@
       <c r="F50" s="19">
         <v>0</v>
       </c>
-      <c r="G50" s="20"/>
+      <c r="G50" s="20" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="51" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A51" s="18" t="s">
@@ -4539,71 +4545,69 @@
       <c r="B53" s="16">
         <v>51</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="34">
+      <c r="D53" s="33"/>
+      <c r="E53" s="19">
         <v>1</v>
       </c>
-      <c r="F53" s="34">
-        <v>0</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>150</v>
-      </c>
+      <c r="F53" s="19">
+        <v>0</v>
+      </c>
+      <c r="G53" s="20"/>
     </row>
     <row r="54" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A54" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B54" s="16">
         <v>52</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="35"/>
+      <c r="E54" s="34">
+        <v>1</v>
+      </c>
+      <c r="F54" s="34">
+        <v>0</v>
+      </c>
+      <c r="G54" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="19">
-        <v>1</v>
-      </c>
-      <c r="F54" s="19">
-        <v>1</v>
-      </c>
-      <c r="G54" s="20" t="s">
+    </row>
+    <row r="55" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A55" s="18" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="55" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A55" s="21" t="s">
-        <v>154</v>
       </c>
       <c r="B55" s="16">
         <v>53</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="19">
+        <v>1</v>
+      </c>
+      <c r="F55" s="19">
+        <v>1</v>
+      </c>
+      <c r="G55" s="20" t="s">
         <v>155</v>
-      </c>
-      <c r="D55" s="37"/>
-      <c r="E55" s="22">
-        <v>1</v>
-      </c>
-      <c r="F55" s="22">
-        <v>0</v>
-      </c>
-      <c r="G55" s="23" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="56" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A56" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B56" s="16">
         <v>54</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="22">
@@ -4613,18 +4617,18 @@
         <v>0</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A57" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B57" s="16">
         <v>55</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D57" s="37"/>
       <c r="E57" s="22">
@@ -4634,18 +4638,18 @@
         <v>0</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A58" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B58" s="16">
         <v>56</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D58" s="37"/>
       <c r="E58" s="22">
@@ -4654,7 +4658,9 @@
       <c r="F58" s="22">
         <v>0</v>
       </c>
-      <c r="G58" s="23"/>
+      <c r="G58" s="23" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="59" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
       <c r="A59" s="21" t="s">
@@ -4673,8 +4679,27 @@
       <c r="F59" s="22">
         <v>0</v>
       </c>
-      <c r="G59" s="23" t="s">
+      <c r="G59" s="23"/>
+    </row>
+    <row r="60" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A60" s="21" t="s">
         <v>167</v>
+      </c>
+      <c r="B60" s="16">
+        <v>58</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="37"/>
+      <c r="E60" s="22">
+        <v>1</v>
+      </c>
+      <c r="F60" s="22">
+        <v>0</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5199,7 +5224,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A26&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A27&amp;""""</f>
         <v>|"FireDamageBonus"</v>
       </c>
       <c r="B23" s="8" t="e">
@@ -5221,7 +5246,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A27&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A28&amp;""""</f>
         <v>|"IceDamageBonus"</v>
       </c>
       <c r="B24" s="8" t="e">
@@ -5243,7 +5268,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A28&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A29&amp;""""</f>
         <v>|"ThunderDamageBonus"</v>
       </c>
       <c r="B25" s="8" t="e">
@@ -5265,7 +5290,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A29&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A30&amp;""""</f>
         <v>|"WindDamageBonus"</v>
       </c>
       <c r="B26" s="8" t="e">
@@ -5287,7 +5312,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A30&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A31&amp;""""</f>
         <v>|"LightDamageBonus"</v>
       </c>
       <c r="B27" s="8" t="e">
@@ -5309,7 +5334,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A31&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A32&amp;""""</f>
         <v>|"DarkDamageBonus"</v>
       </c>
       <c r="B28" s="8" t="e">
@@ -5331,7 +5356,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A32&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A33&amp;""""</f>
         <v>|"KillRestoreHp"</v>
       </c>
       <c r="B29" s="8" t="e">
@@ -5353,7 +5378,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A33&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A34&amp;""""</f>
         <v>|"KillRestoreMp"</v>
       </c>
       <c r="B30" s="8" t="e">
@@ -5375,7 +5400,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A34&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A35&amp;""""</f>
         <v>|"RestoreIncrease"</v>
       </c>
       <c r="B31" s="8" t="e">
@@ -5397,7 +5422,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A35&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A36&amp;""""</f>
         <v>|"AllElementDamageBonus"</v>
       </c>
       <c r="B32" s="8" t="e">
@@ -5419,7 +5444,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A36&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A37&amp;""""</f>
         <v>|"AllElementPent"</v>
       </c>
       <c r="B33" s="8" t="e">
@@ -5441,7 +5466,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A37&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A38&amp;""""</f>
         <v>|"FirePent"</v>
       </c>
       <c r="B34" s="8" t="e">
@@ -5463,7 +5488,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A38&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A39&amp;""""</f>
         <v>|"IcePent"</v>
       </c>
       <c r="B35" s="8" t="e">
@@ -5485,7 +5510,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A39&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A40&amp;""""</f>
         <v>|"ThunderPent"</v>
       </c>
       <c r="B36" s="8" t="e">
@@ -5507,7 +5532,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A40&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A41&amp;""""</f>
         <v>|"WindPent"</v>
       </c>
       <c r="B37" s="8" t="e">
@@ -5529,7 +5554,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A41&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A42&amp;""""</f>
         <v>|"AllElementResist"</v>
       </c>
       <c r="B38" s="8" t="e">
@@ -5551,7 +5576,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A42&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A43&amp;""""</f>
         <v>|"FireResist"</v>
       </c>
       <c r="B39" s="8" t="e">
@@ -5573,7 +5598,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A43&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A44&amp;""""</f>
         <v>|"IceResist"</v>
       </c>
       <c r="B40" s="8" t="e">
@@ -5595,7 +5620,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A44&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A45&amp;""""</f>
         <v>|"ThunderResist"</v>
       </c>
       <c r="B41" s="8" t="e">
@@ -5617,7 +5642,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A45&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A46&amp;""""</f>
         <v>|"WindResist"</v>
       </c>
       <c r="B42" s="8" t="e">
@@ -5639,7 +5664,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A46&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A47&amp;""""</f>
         <v>|"FixedDamage"</v>
       </c>
       <c r="B43" s="8" t="e">
@@ -5661,7 +5686,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A47&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A48&amp;""""</f>
         <v>|"DmgReductionFixed"</v>
       </c>
       <c r="B44" s="8" t="e">
@@ -5683,7 +5708,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A48&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A49&amp;""""</f>
         <v>|"DmgReductionPct"</v>
       </c>
       <c r="B45" s="8" t="e">
@@ -5705,7 +5730,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A49&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A50&amp;""""</f>
         <v>|"SingleExpeIncrease"</v>
       </c>
       <c r="B46" s="8" t="e">
@@ -5727,7 +5752,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A51&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A52&amp;""""</f>
         <v>|"SacredEquipSkillDmg"</v>
       </c>
       <c r="B47" s="8" t="e">
@@ -5749,7 +5774,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A52&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A53&amp;""""</f>
         <v>|"ManaCostRate"</v>
       </c>
       <c r="B48" s="8" t="e">
@@ -5771,7 +5796,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A53&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A54&amp;""""</f>
         <v>|"AbilityImproved"</v>
       </c>
       <c r="B49" s="8" t="e">
@@ -5793,7 +5818,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A54&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A55&amp;""""</f>
         <v>|"EvasionProb"</v>
       </c>
       <c r="B50" s="8" t="e">
@@ -5815,7 +5840,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A55&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A56&amp;""""</f>
         <v>|"BasicAbilityDmg"</v>
       </c>
       <c r="B51" s="8" t="e">
@@ -5837,7 +5862,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A57&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A58&amp;""""</f>
         <v>|"CreatureDmgNormal"</v>
       </c>
       <c r="B52" s="8" t="e">
@@ -5859,7 +5884,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A58&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A59&amp;""""</f>
         <v>|"VisionRange"</v>
       </c>
       <c r="B53" s="8" t="e">
@@ -5881,7 +5906,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A59&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A60&amp;""""</f>
         <v>|"SoulGetRate"</v>
       </c>
       <c r="B54" s="8" t="e">
@@ -5903,7 +5928,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A60&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A61&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B55" s="8" t="e">
@@ -5925,7 +5950,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A61&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A62&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B56" s="8" t="e">
@@ -5947,7 +5972,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A62&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A63&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B57" s="8" t="e">
@@ -5969,7 +5994,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A63&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A64&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B58" s="8" t="e">
@@ -5991,7 +6016,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A64&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A65&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B59" s="8" t="e">
@@ -6013,7 +6038,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A65&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A66&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B60" s="8" t="e">
@@ -6035,7 +6060,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A66&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A67&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B61" s="8" t="e">
@@ -6057,7 +6082,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A67&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A68&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B62" s="8" t="e">
@@ -6079,7 +6104,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A68&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A69&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B63" s="8" t="e">
@@ -6101,7 +6126,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A70&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A71&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B64" s="8" t="e">
@@ -6123,7 +6148,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A71&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A72&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B65" s="8" t="e">
@@ -6145,7 +6170,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A72&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A73&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B66" s="8" t="e">
@@ -6167,7 +6192,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A73&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A74&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B67" s="8" t="e">
@@ -6189,7 +6214,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A74&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A75&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B68" s="8" t="e">
@@ -6211,7 +6236,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A75&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A76&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B69" s="8" t="e">
@@ -6233,7 +6258,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A76&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A77&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B70" s="8" t="e">
@@ -6255,7 +6280,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A77&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A78&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B71" s="8" t="e">
@@ -6277,7 +6302,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A78&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A79&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B72" s="8" t="e">
@@ -6299,7 +6324,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A79&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A80&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B73" s="8" t="e">
@@ -9993,13 +10018,13 @@
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:6">
       <c r="A3" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B3" s="16">
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D3" s="16">
         <v>0</v>
@@ -10011,13 +10036,13 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:6">
       <c r="A4" s="18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B4" s="19">
         <v>2</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D4" s="19">
         <v>0</v>
@@ -10029,13 +10054,13 @@
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:6">
       <c r="A5" s="18" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B5" s="19">
         <v>3</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D5" s="19">
         <v>0</v>
@@ -10047,13 +10072,13 @@
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:11">
       <c r="A6" s="18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B6" s="19">
         <v>4</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D6" s="19">
         <v>0</v>
@@ -10066,13 +10091,13 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:11">
       <c r="A7" s="18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B7" s="19">
         <v>5</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D7" s="19">
         <v>0</v>
@@ -10085,13 +10110,13 @@
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:11">
       <c r="A8" s="18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B8" s="19">
         <v>6</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D8" s="19">
         <v>0</v>
@@ -10104,13 +10129,13 @@
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:11">
       <c r="A9" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B9" s="19">
         <v>7</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D9" s="19">
         <v>0</v>
@@ -10123,13 +10148,13 @@
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:11">
       <c r="A10" s="18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B10" s="19">
         <v>8</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D10" s="19">
         <v>0</v>
@@ -10142,13 +10167,13 @@
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:11">
       <c r="A11" s="18" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B11" s="19">
         <v>9</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D11" s="19">
         <v>0</v>
@@ -10161,13 +10186,13 @@
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:11">
       <c r="A12" s="18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B12" s="19">
         <v>10</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
@@ -10218,13 +10243,13 @@
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:11">
       <c r="A15" s="21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B15" s="19">
         <v>13</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D15" s="19">
         <v>0</v>
@@ -10237,13 +10262,13 @@
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:11">
       <c r="A16" s="18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B16" s="19">
         <v>14</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D16" s="19">
         <v>0</v>
@@ -10256,13 +10281,13 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:11">
       <c r="A17" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B17" s="19">
         <v>15</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D17" s="19">
         <v>0</v>
@@ -10275,13 +10300,13 @@
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:11">
       <c r="A18" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B18" s="19">
         <v>16</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D18" s="19">
         <v>0</v>
@@ -10294,13 +10319,13 @@
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:11">
       <c r="A19" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B19" s="19">
         <v>17</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D19" s="19">
         <v>0</v>
@@ -10313,13 +10338,13 @@
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:11">
       <c r="A20" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B20" s="19">
         <v>18</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D20" s="19">
         <v>0</v>
@@ -10332,13 +10357,13 @@
     </row>
     <row r="21" ht="16.5" spans="1:6">
       <c r="A21" s="18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B21" s="19">
         <v>18</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D21" s="19">
         <v>0</v>
@@ -10605,24 +10630,24 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G3" s="6">
         <v>0.5</v>
@@ -10630,41 +10655,41 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G6" s="6">
         <v>0.5</v>
@@ -10673,118 +10698,118 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B10" s="5">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B11" s="5">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B12" s="5">
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B13" s="5">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B14" s="7">
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B15" s="7">
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:3">

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -3057,16 +3057,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="8" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{289BDF97-3DF0-477D-AB97-0985F06D5937}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{449B96A3-0750-47CB-AE90-5F7CAA7AF884}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A071FBAC-46C8-473F-A6B4-3EAF75AFADE0}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{3FE05839-C5E6-419E-B125-5F08FCD9D356}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{7CB431B5-23D5-4FEE-9F38-20506C907438}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{2B8B8526-72A5-4733-B93B-620702DE3CFB}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3078,7 +3078,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{E7DA2C81-6888-48BD-9CDB-6282A7EDB67E}">
+    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{6B134401-17AD-4D74-995E-8A945ACEFE27}">
       <tableStyleElement type="wholeTable" dxfId="24"/>
       <tableStyleElement type="headerRow" dxfId="23"/>
       <tableStyleElement type="totalRow" dxfId="22"/>
@@ -3090,14 +3090,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="16"/>
       <tableStyleElement type="lastTotalCell" dxfId="15"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{C552D18F-B5F5-4E3A-8D78-3A8095AA06F6}">
+    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{09258057-40E0-42D7-BEE7-007BA5B7BA24}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
       <tableStyleElement type="firstColumn" dxfId="26"/>
       <tableStyleElement type="lastColumn" dxfId="25"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{591551D7-8F5A-4319-B954-8C2A52778733}">
+    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{E4AE801B-C689-4C5D-AF36-9B6DF9F27DDA}">
       <tableStyleElement type="wholeTable" dxfId="39"/>
       <tableStyleElement type="headerRow" dxfId="38"/>
       <tableStyleElement type="totalRow" dxfId="37"/>
@@ -3109,14 +3109,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="31"/>
       <tableStyleElement type="lastTotalCell" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{4810A6B1-78DE-4C66-9873-C1AD4C59E43C}">
+    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{CC597818-3D57-4EE0-A799-8775D54B1704}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
       <tableStyleElement type="headerRow" dxfId="43"/>
       <tableStyleElement type="totalRow" dxfId="42"/>
       <tableStyleElement type="firstColumn" dxfId="41"/>
       <tableStyleElement type="lastColumn" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{381819B7-A118-46C8-B5BB-32FDF4DDD8A7}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{AD8870D1-0F0A-4FA5-9C99-BE6BF4C757D7}">
       <tableStyleElement type="wholeTable" dxfId="49"/>
       <tableStyleElement type="headerRow" dxfId="48"/>
       <tableStyleElement type="totalRow" dxfId="47"/>
@@ -3426,8 +3426,8 @@
   <sheetPr/>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3756,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>49</v>

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -3057,16 +3057,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="8" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{449B96A3-0750-47CB-AE90-5F7CAA7AF884}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{662F5B3C-D5C5-4A79-99EA-E05F47D83688}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{3FE05839-C5E6-419E-B125-5F08FCD9D356}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{E2A3CC15-B6A0-458C-B89C-B1113453671A}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{2B8B8526-72A5-4733-B93B-620702DE3CFB}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{3B1E107C-2CA3-46D6-AEF4-676EB818B067}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3078,7 +3078,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{6B134401-17AD-4D74-995E-8A945ACEFE27}">
+    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{B04DCFDB-BDE2-4C1E-BFE0-6B4309A7147A}">
       <tableStyleElement type="wholeTable" dxfId="24"/>
       <tableStyleElement type="headerRow" dxfId="23"/>
       <tableStyleElement type="totalRow" dxfId="22"/>
@@ -3090,14 +3090,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="16"/>
       <tableStyleElement type="lastTotalCell" dxfId="15"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{09258057-40E0-42D7-BEE7-007BA5B7BA24}">
+    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{01E426D1-C80F-473E-88C2-011FF88F128E}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
       <tableStyleElement type="firstColumn" dxfId="26"/>
       <tableStyleElement type="lastColumn" dxfId="25"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{E4AE801B-C689-4C5D-AF36-9B6DF9F27DDA}">
+    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{992DE8DD-408D-4921-A936-2DB336D84760}">
       <tableStyleElement type="wholeTable" dxfId="39"/>
       <tableStyleElement type="headerRow" dxfId="38"/>
       <tableStyleElement type="totalRow" dxfId="37"/>
@@ -3109,14 +3109,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="31"/>
       <tableStyleElement type="lastTotalCell" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{CC597818-3D57-4EE0-A799-8775D54B1704}">
+    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{57EBDB6D-ADC3-4DDB-96D5-CF7D53C38068}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
       <tableStyleElement type="headerRow" dxfId="43"/>
       <tableStyleElement type="totalRow" dxfId="42"/>
       <tableStyleElement type="firstColumn" dxfId="41"/>
       <tableStyleElement type="lastColumn" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{AD8870D1-0F0A-4FA5-9C99-BE6BF4C757D7}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{77AAECF8-4E5C-4BFE-965D-220AE7E0E5E0}">
       <tableStyleElement type="wholeTable" dxfId="49"/>
       <tableStyleElement type="headerRow" dxfId="48"/>
       <tableStyleElement type="totalRow" dxfId="47"/>
@@ -3426,8 +3426,8 @@
   <sheetPr/>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4553,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="20"/>
     </row>

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="224">
   <si>
     <t>index  下标</t>
   </si>
@@ -578,6 +578,15 @@
   </si>
   <si>
     <t>获取灵魂的倍率，默认100%</t>
+  </si>
+  <si>
+    <t>KillsGetRate</t>
+  </si>
+  <si>
+    <t>击杀获取率</t>
+  </si>
+  <si>
+    <t>获取击杀数的倍率，默认100%</t>
   </si>
   <si>
     <t>全元素抗性</t>
@@ -3057,16 +3066,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="8" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{662F5B3C-D5C5-4A79-99EA-E05F47D83688}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{59B09BF8-D7C0-44EC-B25F-FC5DECD84B50}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{E2A3CC15-B6A0-458C-B89C-B1113453671A}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{232851EF-EA95-470E-BE9A-04F2C8444E9E}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{3B1E107C-2CA3-46D6-AEF4-676EB818B067}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F3E71CD8-15C5-46B8-9EB8-CA030E9D980F}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3078,7 +3087,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{B04DCFDB-BDE2-4C1E-BFE0-6B4309A7147A}">
+    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{A92AC1CC-3755-4542-BF4E-D8F7D2146EAC}">
       <tableStyleElement type="wholeTable" dxfId="24"/>
       <tableStyleElement type="headerRow" dxfId="23"/>
       <tableStyleElement type="totalRow" dxfId="22"/>
@@ -3090,14 +3099,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="16"/>
       <tableStyleElement type="lastTotalCell" dxfId="15"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{01E426D1-C80F-473E-88C2-011FF88F128E}">
+    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{E7BD3297-7ECA-467E-BC56-E76B093D492A}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
       <tableStyleElement type="firstColumn" dxfId="26"/>
       <tableStyleElement type="lastColumn" dxfId="25"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{992DE8DD-408D-4921-A936-2DB336D84760}">
+    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{6B2592C1-D95E-48FA-A2E0-CB028081C58F}">
       <tableStyleElement type="wholeTable" dxfId="39"/>
       <tableStyleElement type="headerRow" dxfId="38"/>
       <tableStyleElement type="totalRow" dxfId="37"/>
@@ -3109,14 +3118,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="31"/>
       <tableStyleElement type="lastTotalCell" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{57EBDB6D-ADC3-4DDB-96D5-CF7D53C38068}">
+    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{7518B713-9B3D-499E-9449-D8733FE93147}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
       <tableStyleElement type="headerRow" dxfId="43"/>
       <tableStyleElement type="totalRow" dxfId="42"/>
       <tableStyleElement type="firstColumn" dxfId="41"/>
       <tableStyleElement type="lastColumn" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{77AAECF8-4E5C-4BFE-965D-220AE7E0E5E0}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{9A218C03-21B6-4A94-9DB9-003E1C386859}">
       <tableStyleElement type="wholeTable" dxfId="49"/>
       <tableStyleElement type="headerRow" dxfId="48"/>
       <tableStyleElement type="totalRow" dxfId="47"/>
@@ -3424,10 +3433,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4674,7 +4683,7 @@
       </c>
       <c r="D59" s="37"/>
       <c r="E59" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="22">
         <v>0</v>
@@ -4700,6 +4709,27 @@
       </c>
       <c r="G60" s="23" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="61" s="27" customFormat="1" ht="22.5" customHeight="1" spans="1:7">
+      <c r="A61" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" s="16">
+        <v>59</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" s="37"/>
+      <c r="E61" s="22">
+        <v>1</v>
+      </c>
+      <c r="F61" s="22">
+        <v>0</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4725,8 +4755,8 @@
   <sheetPr/>
   <dimension ref="A1:E237"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A13"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5004,1197 +5034,1197 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="str">
+        <f>"|"""&amp;attribute_const!A15&amp;""""</f>
+        <v>|"AbilityCooldown2"</v>
+      </c>
+      <c r="B13" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C13" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D13" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E13" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="str">
         <f>"|"""&amp;attribute_const!A16&amp;""""</f>
         <v>|"CriticalChance"</v>
       </c>
-      <c r="B13" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C13" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8" t="str">
+      <c r="B14" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C14" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D14" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E14" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="str">
         <f>"|"""&amp;attribute_const!A17&amp;""""</f>
         <v>|"CriticalDamage"</v>
       </c>
-      <c r="B14" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C14" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D14" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E14" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8" t="str">
+      <c r="B15" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C15" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D15" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E15" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8" t="str">
         <f>"|"""&amp;attribute_const!A18&amp;""""</f>
         <v>|"PickItemRadius"</v>
       </c>
-      <c r="B15" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C15" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E15" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8" t="str">
+      <c r="B16" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C16" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D16" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E16" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8" t="str">
         <f>"|"""&amp;attribute_const!A19&amp;""""</f>
         <v>|"DamageBonusMul"</v>
       </c>
-      <c r="B16" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C16" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D16" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E16" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="8" t="str">
+      <c r="B17" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C17" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D17" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E17" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="str">
         <f>"|"""&amp;attribute_const!A20&amp;""""</f>
         <v>|"DamageServerMul"</v>
       </c>
-      <c r="B17" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C17" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D17" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E17" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="8" t="str">
+      <c r="B18" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C18" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D18" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E18" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8" t="str">
         <f>"|"""&amp;attribute_const!A21&amp;""""</f>
         <v>|"FinalDamageMul"</v>
       </c>
-      <c r="B18" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C18" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D18" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E18" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8" t="str">
+      <c r="B19" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C19" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D19" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E19" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8" t="str">
         <f>"|"""&amp;attribute_const!A22&amp;""""</f>
         <v>|"MeleeDmgPct"</v>
       </c>
-      <c r="B19" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C19" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D19" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E19" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8" t="str">
+      <c r="B20" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C20" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D20" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E20" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8" t="str">
         <f>"|"""&amp;attribute_const!A23&amp;""""</f>
         <v>|"RangedDmgPct"</v>
       </c>
-      <c r="B20" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C20" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E20" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="8" t="str">
+      <c r="B21" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C21" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D21" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E21" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8" t="str">
         <f>"|"""&amp;attribute_const!A24&amp;""""</f>
         <v>|"BurningDmg"</v>
       </c>
-      <c r="B21" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C21" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D21" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E21" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="8" t="str">
+      <c r="B22" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C22" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D22" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E22" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8" t="str">
         <f>"|"""&amp;attribute_const!A25&amp;""""</f>
         <v>|"BurningDuration"</v>
       </c>
-      <c r="B22" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C22" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D22" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E22" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="8" t="str">
+      <c r="B23" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C23" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D23" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E23" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8" t="str">
+        <f>"|"""&amp;attribute_const!A26&amp;""""</f>
+        <v>|"IceMoveSlow"</v>
+      </c>
+      <c r="B24" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C24" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D24" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E24" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8" t="str">
         <f>"|"""&amp;attribute_const!A27&amp;""""</f>
         <v>|"FireDamageBonus"</v>
       </c>
-      <c r="B23" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C23" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D23" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E23" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="8" t="str">
+      <c r="B25" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C25" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D25" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E25" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8" t="str">
         <f>"|"""&amp;attribute_const!A28&amp;""""</f>
         <v>|"IceDamageBonus"</v>
       </c>
-      <c r="B24" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C24" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D24" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E24" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="8" t="str">
+      <c r="B26" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C26" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D26" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E26" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8" t="str">
         <f>"|"""&amp;attribute_const!A29&amp;""""</f>
         <v>|"ThunderDamageBonus"</v>
       </c>
-      <c r="B25" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C25" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D25" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E25" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="8" t="str">
+      <c r="B27" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C27" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D27" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E27" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8" t="str">
         <f>"|"""&amp;attribute_const!A30&amp;""""</f>
         <v>|"WindDamageBonus"</v>
       </c>
-      <c r="B26" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C26" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D26" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E26" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="8" t="str">
+      <c r="B28" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C28" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D28" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E28" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8" t="str">
         <f>"|"""&amp;attribute_const!A31&amp;""""</f>
         <v>|"LightDamageBonus"</v>
       </c>
-      <c r="B27" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C27" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D27" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E27" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="8" t="str">
+      <c r="B29" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C29" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D29" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E29" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8" t="str">
         <f>"|"""&amp;attribute_const!A32&amp;""""</f>
         <v>|"DarkDamageBonus"</v>
       </c>
-      <c r="B28" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C28" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D28" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E28" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="8" t="str">
+      <c r="B30" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C30" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D30" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E30" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="8" t="str">
         <f>"|"""&amp;attribute_const!A33&amp;""""</f>
         <v>|"KillRestoreHp"</v>
       </c>
-      <c r="B29" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C29" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D29" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E29" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="8" t="str">
+      <c r="B31" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C31" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D31" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E31" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8" t="str">
         <f>"|"""&amp;attribute_const!A34&amp;""""</f>
         <v>|"KillRestoreMp"</v>
       </c>
-      <c r="B30" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C30" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D30" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E30" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="8" t="str">
+      <c r="B32" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C32" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D32" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E32" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="8" t="str">
         <f>"|"""&amp;attribute_const!A35&amp;""""</f>
         <v>|"RestoreIncrease"</v>
       </c>
-      <c r="B31" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C31" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D31" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E31" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="8" t="str">
+      <c r="B33" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C33" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D33" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E33" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="8" t="str">
         <f>"|"""&amp;attribute_const!A36&amp;""""</f>
         <v>|"AllElementDamageBonus"</v>
       </c>
-      <c r="B32" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C32" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D32" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E32" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="8" t="str">
+      <c r="B34" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C34" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D34" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E34" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="8" t="str">
         <f>"|"""&amp;attribute_const!A37&amp;""""</f>
         <v>|"AllElementPent"</v>
       </c>
-      <c r="B33" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C33" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D33" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E33" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="8" t="str">
+      <c r="B35" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C35" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D35" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E35" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="8" t="str">
         <f>"|"""&amp;attribute_const!A38&amp;""""</f>
         <v>|"FirePent"</v>
       </c>
-      <c r="B34" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C34" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D34" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E34" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="8" t="str">
+      <c r="B36" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C36" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D36" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E36" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="8" t="str">
         <f>"|"""&amp;attribute_const!A39&amp;""""</f>
         <v>|"IcePent"</v>
       </c>
-      <c r="B35" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C35" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D35" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E35" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="8" t="str">
+      <c r="B37" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C37" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D37" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E37" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="8" t="str">
         <f>"|"""&amp;attribute_const!A40&amp;""""</f>
         <v>|"ThunderPent"</v>
       </c>
-      <c r="B36" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C36" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D36" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E36" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="8" t="str">
+      <c r="B38" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C38" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D38" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E38" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="8" t="str">
         <f>"|"""&amp;attribute_const!A41&amp;""""</f>
         <v>|"WindPent"</v>
       </c>
-      <c r="B37" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C37" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D37" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E37" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="8" t="str">
+      <c r="B39" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C39" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D39" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E39" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="8" t="str">
         <f>"|"""&amp;attribute_const!A42&amp;""""</f>
         <v>|"AllElementResist"</v>
       </c>
-      <c r="B38" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C38" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D38" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E38" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="8" t="str">
+      <c r="B40" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C40" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D40" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E40" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="8" t="str">
         <f>"|"""&amp;attribute_const!A43&amp;""""</f>
         <v>|"FireResist"</v>
       </c>
-      <c r="B39" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C39" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D39" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E39" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="8" t="str">
+      <c r="B41" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C41" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D41" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E41" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="8" t="str">
         <f>"|"""&amp;attribute_const!A44&amp;""""</f>
         <v>|"IceResist"</v>
       </c>
-      <c r="B40" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C40" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D40" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E40" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="8" t="str">
+      <c r="B42" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C42" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D42" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E42" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="8" t="str">
         <f>"|"""&amp;attribute_const!A45&amp;""""</f>
         <v>|"ThunderResist"</v>
       </c>
-      <c r="B41" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C41" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D41" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E41" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="8" t="str">
+      <c r="B43" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C43" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D43" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E43" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="8" t="str">
         <f>"|"""&amp;attribute_const!A46&amp;""""</f>
         <v>|"WindResist"</v>
       </c>
-      <c r="B42" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C42" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D42" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E42" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="8" t="str">
+      <c r="B44" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C44" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D44" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E44" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="8" t="str">
         <f>"|"""&amp;attribute_const!A47&amp;""""</f>
         <v>|"FixedDamage"</v>
       </c>
-      <c r="B43" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C43" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D43" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E43" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="8" t="str">
+      <c r="B45" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C45" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D45" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E45" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="8" t="str">
         <f>"|"""&amp;attribute_const!A48&amp;""""</f>
         <v>|"DmgReductionFixed"</v>
       </c>
-      <c r="B44" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C44" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D44" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E44" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="8" t="str">
+      <c r="B46" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C46" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D46" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E46" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="8" t="str">
         <f>"|"""&amp;attribute_const!A49&amp;""""</f>
         <v>|"DmgReductionPct"</v>
       </c>
-      <c r="B45" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C45" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D45" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E45" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="8" t="str">
+      <c r="B47" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C47" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D47" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E47" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="8" t="str">
         <f>"|"""&amp;attribute_const!A50&amp;""""</f>
         <v>|"SingleExpeIncrease"</v>
       </c>
-      <c r="B46" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C46" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D46" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E46" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="8" t="str">
+      <c r="B48" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C48" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D48" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E48" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="8" t="str">
+        <f>"|"""&amp;attribute_const!A51&amp;""""</f>
+        <v>|"TeamExpeIncrease"</v>
+      </c>
+      <c r="B49" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C49" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D49" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E49" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="8" t="str">
         <f>"|"""&amp;attribute_const!A52&amp;""""</f>
         <v>|"SacredEquipSkillDmg"</v>
       </c>
-      <c r="B47" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C47" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D47" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E47" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="8" t="str">
+      <c r="B50" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C50" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D50" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E50" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="8" t="str">
         <f>"|"""&amp;attribute_const!A53&amp;""""</f>
         <v>|"ManaCostRate"</v>
       </c>
-      <c r="B48" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C48" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D48" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E48" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="8" t="str">
+      <c r="B51" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C51" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D51" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E51" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="8" t="str">
         <f>"|"""&amp;attribute_const!A54&amp;""""</f>
         <v>|"AbilityImproved"</v>
       </c>
-      <c r="B49" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C49" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D49" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E49" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="8" t="str">
+      <c r="B52" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C52" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D52" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E52" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="8" t="str">
         <f>"|"""&amp;attribute_const!A55&amp;""""</f>
         <v>|"EvasionProb"</v>
       </c>
-      <c r="B50" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C50" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D50" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E50" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="8" t="str">
+      <c r="B53" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C53" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D53" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E53" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="8" t="str">
         <f>"|"""&amp;attribute_const!A56&amp;""""</f>
         <v>|"BasicAbilityDmg"</v>
       </c>
-      <c r="B51" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C51" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D51" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E51" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="8" t="str">
+      <c r="B54" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C54" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D54" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E54" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="8" t="str">
+        <f>"|"""&amp;attribute_const!A57&amp;""""</f>
+        <v>|"CreatureDmgLeader"</v>
+      </c>
+      <c r="B55" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C55" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D55" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E55" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="8" t="str">
         <f>"|"""&amp;attribute_const!A58&amp;""""</f>
         <v>|"CreatureDmgNormal"</v>
       </c>
-      <c r="B52" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C52" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D52" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E52" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="8" t="str">
+      <c r="B56" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C56" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="8" t="str">
         <f>"|"""&amp;attribute_const!A59&amp;""""</f>
         <v>|"VisionRange"</v>
       </c>
-      <c r="B53" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C53" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D53" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E53" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="8" t="str">
+      <c r="B57" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C57" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D57" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E57" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="8" t="str">
         <f>"|"""&amp;attribute_const!A60&amp;""""</f>
         <v>|"SoulGetRate"</v>
       </c>
-      <c r="B54" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C54" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D54" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E54" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="8" t="str">
+      <c r="B58" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C58" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D58" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E58" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="8" t="str">
         <f>"|"""&amp;attribute_const!A61&amp;""""</f>
-        <v>|""</v>
-      </c>
-      <c r="B55" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C55" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D55" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E55" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="8" t="str">
+        <v>|"KillsGetRate"</v>
+      </c>
+      <c r="B59" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C59" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D59" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E59" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="8" t="str">
         <f>"|"""&amp;attribute_const!A62&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B56" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C56" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="8" t="str">
+      <c r="B60" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C60" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D60" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E60" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="8" t="str">
         <f>"|"""&amp;attribute_const!A63&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B57" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C57" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D57" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E57" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="8" t="str">
+      <c r="B61" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C61" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D61" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E61" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="8" t="str">
         <f>"|"""&amp;attribute_const!A64&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B58" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C58" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D58" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E58" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="8" t="str">
+      <c r="B62" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C62" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D62" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E62" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="8" t="str">
         <f>"|"""&amp;attribute_const!A65&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B59" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C59" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D59" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E59" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="8" t="str">
+      <c r="B63" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C63" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D63" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E63" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="8" t="str">
         <f>"|"""&amp;attribute_const!A66&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B60" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C60" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D60" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E60" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="8" t="str">
+      <c r="B64" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C64" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D64" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E64" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="8" t="str">
         <f>"|"""&amp;attribute_const!A67&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B61" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C61" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D61" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E61" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="8" t="str">
+      <c r="B65" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C65" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D65" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E65" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="8" t="str">
         <f>"|"""&amp;attribute_const!A68&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B62" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C62" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D62" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E62" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="8" t="str">
+      <c r="B66" s="8" t="e">
+        <f>#REF!&amp;": 0 ,"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C66" s="8" t="e">
+        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D66" s="8" t="e">
+        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E66" s="8" t="e">
+        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="8" t="str">
         <f>"|"""&amp;attribute_const!A69&amp;""""</f>
         <v>|""</v>
       </c>
-      <c r="B63" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C63" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D63" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E63" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A71&amp;""""</f>
-        <v>|""</v>
-      </c>
-      <c r="B64" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C64" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D64" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E64" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A72&amp;""""</f>
-        <v>|""</v>
-      </c>
-      <c r="B65" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C65" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D65" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E65" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A73&amp;""""</f>
-        <v>|""</v>
-      </c>
-      <c r="B66" s="8" t="e">
-        <f>#REF!&amp;": 0 ,"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C66" s="8" t="e">
-        <f>"CustomAttribute["""&amp;#REF!&amp;"""] = 0"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D66" s="8" t="e">
-        <f>"|"""&amp;#REF!&amp;""" //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E66" s="8" t="e">
-        <f>#REF!&amp;": 0 , //"&amp;#REF!&amp;""</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A74&amp;""""</f>
-        <v>|""</v>
-      </c>
       <c r="B67" s="8" t="e">
         <f>#REF!&amp;": 0 ,"</f>
         <v>#REF!</v>
@@ -6214,7 +6244,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A75&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A70&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B68" s="8" t="e">
@@ -6236,7 +6266,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="8" t="str">
-        <f>"|"""&amp;attribute_const!A76&amp;""""</f>
+        <f>"|"""&amp;attribute_const!A71&amp;""""</f>
         <v>|""</v>
       </c>
       <c r="B69" s="8" t="e">
@@ -10024,7 +10054,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D3" s="16">
         <v>0</v>
@@ -10042,7 +10072,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D4" s="19">
         <v>0</v>
@@ -10060,7 +10090,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D5" s="19">
         <v>0</v>
@@ -10078,7 +10108,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D6" s="19">
         <v>0</v>
@@ -10097,7 +10127,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D7" s="19">
         <v>0</v>
@@ -10148,13 +10178,13 @@
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:11">
       <c r="A10" s="18" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B10" s="19">
         <v>8</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D10" s="19">
         <v>0</v>
@@ -10167,13 +10197,13 @@
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:11">
       <c r="A11" s="18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B11" s="19">
         <v>9</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D11" s="19">
         <v>0</v>
@@ -10192,7 +10222,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
@@ -10249,7 +10279,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D15" s="19">
         <v>0</v>
@@ -10262,13 +10292,13 @@
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:11">
       <c r="A16" s="18" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B16" s="19">
         <v>14</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D16" s="19">
         <v>0</v>
@@ -10281,13 +10311,13 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:11">
       <c r="A17" s="18" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B17" s="19">
         <v>15</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D17" s="19">
         <v>0</v>
@@ -10300,13 +10330,13 @@
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:11">
       <c r="A18" s="18" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B18" s="19">
         <v>16</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D18" s="19">
         <v>0</v>
@@ -10319,13 +10349,13 @@
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:11">
       <c r="A19" s="18" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B19" s="19">
         <v>17</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D19" s="19">
         <v>0</v>
@@ -10338,13 +10368,13 @@
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:11">
       <c r="A20" s="18" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B20" s="19">
         <v>18</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D20" s="19">
         <v>0</v>
@@ -10357,13 +10387,13 @@
     </row>
     <row r="21" ht="16.5" spans="1:6">
       <c r="A21" s="18" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B21" s="19">
         <v>18</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D21" s="19">
         <v>0</v>
@@ -10630,24 +10660,24 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G3" s="6">
         <v>0.5</v>
@@ -10655,41 +10685,41 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G6" s="6">
         <v>0.5</v>
@@ -10698,118 +10728,118 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B10" s="5">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B11" s="5">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B12" s="5">
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E12" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B13" s="5">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E13" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B14" s="7">
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B15" s="7">
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:3">

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_const" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="226">
   <si>
     <t>index  下标</t>
   </si>
@@ -589,6 +589,24 @@
     <t>获取击杀数的倍率，默认100%</t>
   </si>
   <si>
+    <t>CriticalChanceResist</t>
+  </si>
+  <si>
+    <t>%暴击抗性</t>
+  </si>
+  <si>
+    <t>抵抗暴击的百分比</t>
+  </si>
+  <si>
+    <t>CriticalDamageReduction</t>
+  </si>
+  <si>
+    <t>%暴击伤害减免</t>
+  </si>
+  <si>
+    <t>抵消爆伤的百分比</t>
+  </si>
+  <si>
     <t>全元素抗性</t>
   </si>
   <si>
@@ -602,18 +620,6 @@
   </si>
   <si>
     <t>风元素抗性</t>
-  </si>
-  <si>
-    <t>CriticalChanceResist</t>
-  </si>
-  <si>
-    <t>%暴击抗性</t>
-  </si>
-  <si>
-    <t>CriticalDamageReduction</t>
-  </si>
-  <si>
-    <t>%暴击伤害减免</t>
   </si>
   <si>
     <t>%伤害减免</t>
@@ -956,7 +962,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -988,6 +994,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,7 +1601,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1607,16 +1625,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1625,89 +1643,89 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1792,6 +1810,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1822,8 +1843,20 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3066,16 +3099,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="8" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{59B09BF8-D7C0-44EC-B25F-FC5DECD84B50}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6EB98CFE-DBCC-467F-8F01-61B30A4AA18E}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{232851EF-EA95-470E-BE9A-04F2C8444E9E}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{6B4997DC-56CB-4B17-99BC-EAD901D07B63}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F3E71CD8-15C5-46B8-9EB8-CA030E9D980F}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{918EBCED-18A3-4E45-90E3-7563B3E9F20A}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3087,7 +3120,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{A92AC1CC-3755-4542-BF4E-D8F7D2146EAC}">
+    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{D39644E8-2C99-462B-99D6-3A48530E2A58}">
       <tableStyleElement type="wholeTable" dxfId="24"/>
       <tableStyleElement type="headerRow" dxfId="23"/>
       <tableStyleElement type="totalRow" dxfId="22"/>
@@ -3099,14 +3132,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="16"/>
       <tableStyleElement type="lastTotalCell" dxfId="15"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{E7BD3297-7ECA-467E-BC56-E76B093D492A}">
+    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{FD11085F-6507-49E3-949E-7DA261AAC2EB}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
       <tableStyleElement type="firstColumn" dxfId="26"/>
       <tableStyleElement type="lastColumn" dxfId="25"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{6B2592C1-D95E-48FA-A2E0-CB028081C58F}">
+    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{0BBD89D4-A9EF-4A7E-95C2-4667A3AD7B21}">
       <tableStyleElement type="wholeTable" dxfId="39"/>
       <tableStyleElement type="headerRow" dxfId="38"/>
       <tableStyleElement type="totalRow" dxfId="37"/>
@@ -3118,14 +3151,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="31"/>
       <tableStyleElement type="lastTotalCell" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{7518B713-9B3D-499E-9449-D8733FE93147}">
+    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{2161488E-CC47-4A54-981A-810E534B563D}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
       <tableStyleElement type="headerRow" dxfId="43"/>
       <tableStyleElement type="totalRow" dxfId="42"/>
       <tableStyleElement type="firstColumn" dxfId="41"/>
       <tableStyleElement type="lastColumn" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{9A218C03-21B6-4A94-9DB9-003E1C386859}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{01C18274-3779-44BC-A434-6D4AA589F1EE}">
       <tableStyleElement type="wholeTable" dxfId="49"/>
       <tableStyleElement type="headerRow" dxfId="48"/>
       <tableStyleElement type="totalRow" dxfId="47"/>
@@ -3136,6 +3169,7 @@
   <colors>
     <mruColors>
       <color rgb="00FFFF00"/>
+      <color rgb="00FF9999"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3433,22 +3467,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.5083333333333" style="28" customWidth="1"/>
-    <col min="2" max="2" width="9.84166666666667" style="28" customWidth="1"/>
-    <col min="3" max="3" width="26.3416666666667" style="28" customWidth="1"/>
-    <col min="4" max="4" width="65.5" style="29" customWidth="1"/>
-    <col min="5" max="5" width="14.175" style="28" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="46.175" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="27.5083333333333" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.84166666666667" style="29" customWidth="1"/>
+    <col min="3" max="3" width="26.3416666666667" style="29" customWidth="1"/>
+    <col min="4" max="4" width="65.5" style="30" customWidth="1"/>
+    <col min="5" max="5" width="14.175" style="29" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="46.175" style="29" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:7">
@@ -3461,7 +3495,7 @@
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30"/>
+      <c r="D1" s="31"/>
       <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
@@ -3482,7 +3516,7 @@
       <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="32" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -3503,7 +3537,7 @@
       <c r="C3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="33" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="16">
@@ -3524,7 +3558,7 @@
       <c r="C4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="34" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="19">
@@ -3545,7 +3579,7 @@
       <c r="C5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="19">
@@ -3566,7 +3600,7 @@
       <c r="C6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="19">
         <v>0</v>
       </c>
@@ -3585,7 +3619,7 @@
       <c r="C7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="19">
@@ -3608,7 +3642,7 @@
       <c r="C8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="19">
@@ -3629,7 +3663,7 @@
       <c r="C9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="33"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="19">
         <v>0</v>
       </c>
@@ -3648,7 +3682,7 @@
       <c r="C10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="19">
@@ -3669,7 +3703,7 @@
       <c r="C11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="33"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="19">
         <v>0</v>
       </c>
@@ -3688,7 +3722,7 @@
       <c r="C12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="34" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="19">
@@ -3709,7 +3743,7 @@
       <c r="C13" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="34" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="19">
@@ -3721,8 +3755,8 @@
       <c r="G13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:13">
       <c r="A14" s="18" t="s">
@@ -3734,7 +3768,7 @@
       <c r="C14" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="19">
         <v>1</v>
       </c>
@@ -3744,11 +3778,11 @@
       <c r="G14" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:13">
       <c r="A15" s="18" t="s">
@@ -3760,7 +3794,7 @@
       <c r="C15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="33"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="19">
         <v>1</v>
       </c>
@@ -3770,9 +3804,9 @@
       <c r="G15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
+      <c r="I15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
     </row>
     <row r="16" ht="33" spans="1:7">
       <c r="A16" s="18" t="s">
@@ -3784,7 +3818,7 @@
       <c r="C16" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="34" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="19">
@@ -3805,7 +3839,7 @@
       <c r="C17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="34" t="s">
         <v>55</v>
       </c>
       <c r="E17" s="19">
@@ -3826,7 +3860,7 @@
       <c r="C18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="34" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="19">
@@ -3847,7 +3881,7 @@
       <c r="C19" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="34" t="s">
         <v>61</v>
       </c>
       <c r="E19" s="19">
@@ -3870,7 +3904,7 @@
       <c r="C20" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="19">
         <v>1</v>
       </c>
@@ -3889,7 +3923,7 @@
       <c r="C21" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="34" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="19">
@@ -3912,7 +3946,7 @@
       <c r="C22" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="19">
         <v>1</v>
       </c>
@@ -3933,7 +3967,7 @@
       <c r="C23" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="33"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="19">
         <v>1</v>
       </c>
@@ -3954,7 +3988,7 @@
       <c r="C24" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="33"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="19">
         <v>1</v>
       </c>
@@ -3975,7 +4009,7 @@
       <c r="C25" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="33"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="19">
         <v>0</v>
       </c>
@@ -3994,7 +4028,7 @@
       <c r="C26" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="33"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="19">
         <v>1</v>
       </c>
@@ -4013,7 +4047,7 @@
       <c r="C27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="33"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="19">
         <v>1</v>
       </c>
@@ -4034,7 +4068,7 @@
       <c r="C28" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="33"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="19">
         <v>1</v>
       </c>
@@ -4055,7 +4089,7 @@
       <c r="C29" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="33"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="19">
         <v>1</v>
       </c>
@@ -4076,7 +4110,7 @@
       <c r="C30" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="33"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="19">
         <v>1</v>
       </c>
@@ -4097,7 +4131,7 @@
       <c r="C31" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="33"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="19">
         <v>1</v>
       </c>
@@ -4118,7 +4152,7 @@
       <c r="C32" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="33"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="19">
         <v>1</v>
       </c>
@@ -4139,7 +4173,7 @@
       <c r="C33" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="33"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="19">
         <v>0</v>
       </c>
@@ -4158,7 +4192,7 @@
       <c r="C34" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="33"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="19">
         <v>0</v>
       </c>
@@ -4177,7 +4211,7 @@
       <c r="C35" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="33"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="19">
         <v>0</v>
       </c>
@@ -4198,7 +4232,7 @@
       <c r="C36" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="34" t="s">
         <v>104</v>
       </c>
       <c r="E36" s="19">
@@ -4221,7 +4255,7 @@
       <c r="C37" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="34" t="s">
         <v>108</v>
       </c>
       <c r="E37" s="19">
@@ -4244,7 +4278,7 @@
       <c r="C38" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="33"/>
+      <c r="D38" s="34"/>
       <c r="E38" s="19">
         <v>1</v>
       </c>
@@ -4265,7 +4299,7 @@
       <c r="C39" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="33"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="19">
         <v>1</v>
       </c>
@@ -4286,7 +4320,7 @@
       <c r="C40" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="33"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="19">
         <v>1</v>
       </c>
@@ -4307,7 +4341,7 @@
       <c r="C41" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="33"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="19">
         <v>1</v>
       </c>
@@ -4328,7 +4362,7 @@
       <c r="C42" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="34" t="s">
         <v>121</v>
       </c>
       <c r="E42" s="19">
@@ -4351,7 +4385,7 @@
       <c r="C43" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="33"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="19">
         <v>1</v>
       </c>
@@ -4372,7 +4406,7 @@
       <c r="C44" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="33"/>
+      <c r="D44" s="34"/>
       <c r="E44" s="19">
         <v>1</v>
       </c>
@@ -4393,7 +4427,7 @@
       <c r="C45" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="33"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="19">
         <v>1</v>
       </c>
@@ -4414,7 +4448,7 @@
       <c r="C46" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="33"/>
+      <c r="D46" s="34"/>
       <c r="E46" s="19">
         <v>1</v>
       </c>
@@ -4435,7 +4469,7 @@
       <c r="C47" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="33"/>
+      <c r="D47" s="34"/>
       <c r="E47" s="19">
         <v>0</v>
       </c>
@@ -4456,7 +4490,7 @@
       <c r="C48" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="33"/>
+      <c r="D48" s="34"/>
       <c r="E48" s="19">
         <v>0</v>
       </c>
@@ -4477,7 +4511,7 @@
       <c r="C49" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D49" s="33"/>
+      <c r="D49" s="34"/>
       <c r="E49" s="19">
         <v>1</v>
       </c>
@@ -4498,7 +4532,7 @@
       <c r="C50" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="33"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="19">
         <v>1</v>
       </c>
@@ -4519,7 +4553,7 @@
       <c r="C51" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D51" s="33"/>
+      <c r="D51" s="34"/>
       <c r="E51" s="19">
         <v>1</v>
       </c>
@@ -4538,7 +4572,7 @@
       <c r="C52" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D52" s="33"/>
+      <c r="D52" s="34"/>
       <c r="E52" s="19">
         <v>1</v>
       </c>
@@ -4557,7 +4591,7 @@
       <c r="C53" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="D53" s="33"/>
+      <c r="D53" s="34"/>
       <c r="E53" s="19">
         <v>1</v>
       </c>
@@ -4573,17 +4607,17 @@
       <c r="B54" s="16">
         <v>52</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="34">
+      <c r="D54" s="36"/>
+      <c r="E54" s="35">
         <v>1</v>
       </c>
-      <c r="F54" s="34">
-        <v>0</v>
-      </c>
-      <c r="G54" s="36" t="s">
+      <c r="F54" s="35">
+        <v>0</v>
+      </c>
+      <c r="G54" s="37" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4597,7 +4631,7 @@
       <c r="C55" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D55" s="33"/>
+      <c r="D55" s="34"/>
       <c r="E55" s="19">
         <v>1</v>
       </c>
@@ -4618,7 +4652,7 @@
       <c r="C56" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="D56" s="37"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="22">
         <v>1</v>
       </c>
@@ -4639,7 +4673,7 @@
       <c r="C57" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="D57" s="37"/>
+      <c r="D57" s="38"/>
       <c r="E57" s="22">
         <v>1</v>
       </c>
@@ -4660,7 +4694,7 @@
       <c r="C58" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="D58" s="37"/>
+      <c r="D58" s="38"/>
       <c r="E58" s="22">
         <v>1</v>
       </c>
@@ -4681,7 +4715,7 @@
       <c r="C59" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D59" s="37"/>
+      <c r="D59" s="38"/>
       <c r="E59" s="22">
         <v>0</v>
       </c>
@@ -4700,7 +4734,7 @@
       <c r="C60" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="D60" s="37"/>
+      <c r="D60" s="38"/>
       <c r="E60" s="22">
         <v>1</v>
       </c>
@@ -4721,7 +4755,7 @@
       <c r="C61" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="D61" s="37"/>
+      <c r="D61" s="38"/>
       <c r="E61" s="22">
         <v>1</v>
       </c>
@@ -4732,9 +4766,63 @@
         <v>172</v>
       </c>
     </row>
+    <row r="62" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A62" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="16">
+        <v>60</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E62" s="40">
+        <v>1</v>
+      </c>
+      <c r="F62" s="40">
+        <v>0</v>
+      </c>
+      <c r="G62" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="K62" s="43"/>
+    </row>
+    <row r="63" s="28" customFormat="1" ht="22.5" customHeight="1" spans="1:11">
+      <c r="A63" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" s="16">
+        <v>61</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" s="40">
+        <v>1</v>
+      </c>
+      <c r="F63" s="40">
+        <v>0</v>
+      </c>
+      <c r="G63" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="K63" s="43"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F$1:F$1048576">
+  <conditionalFormatting sqref="F62:F63">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F61 F64:F1048576">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6069,7 +6157,7 @@
     <row r="60" spans="1:5">
       <c r="A60" s="8" t="str">
         <f>"|"""&amp;attribute_const!A62&amp;""""</f>
-        <v>|""</v>
+        <v>|"CriticalChanceResist"</v>
       </c>
       <c r="B60" s="8" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -6091,7 +6179,7 @@
     <row r="61" spans="1:5">
       <c r="A61" s="8" t="str">
         <f>"|"""&amp;attribute_const!A63&amp;""""</f>
-        <v>|""</v>
+        <v>|"CriticalDamageReduction"</v>
       </c>
       <c r="B61" s="8" t="e">
         <f>#REF!&amp;": 0 ,"</f>
@@ -9994,7 +10082,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10054,7 +10142,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D3" s="16">
         <v>0</v>
@@ -10072,7 +10160,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D4" s="19">
         <v>0</v>
@@ -10090,7 +10178,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D5" s="19">
         <v>0</v>
@@ -10108,7 +10196,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D6" s="19">
         <v>0</v>
@@ -10127,7 +10215,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D7" s="19">
         <v>0</v>
@@ -10178,13 +10266,13 @@
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:11">
       <c r="A10" s="18" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B10" s="19">
         <v>8</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D10" s="19">
         <v>0</v>
@@ -10197,13 +10285,13 @@
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:11">
       <c r="A11" s="18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B11" s="19">
         <v>9</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D11" s="19">
         <v>0</v>
@@ -10222,7 +10310,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
@@ -10279,7 +10367,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D15" s="19">
         <v>0</v>
@@ -10292,13 +10380,13 @@
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:11">
       <c r="A16" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B16" s="19">
         <v>14</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D16" s="19">
         <v>0</v>
@@ -10311,13 +10399,13 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:11">
       <c r="A17" s="18" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B17" s="19">
         <v>15</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D17" s="19">
         <v>0</v>
@@ -10330,13 +10418,13 @@
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:11">
       <c r="A18" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B18" s="19">
         <v>16</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D18" s="19">
         <v>0</v>
@@ -10349,13 +10437,13 @@
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:11">
       <c r="A19" s="18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B19" s="19">
         <v>17</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D19" s="19">
         <v>0</v>
@@ -10368,13 +10456,13 @@
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:11">
       <c r="A20" s="18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B20" s="19">
         <v>18</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D20" s="19">
         <v>0</v>
@@ -10387,13 +10475,13 @@
     </row>
     <row r="21" ht="16.5" spans="1:6">
       <c r="A21" s="18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B21" s="19">
         <v>18</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D21" s="19">
         <v>0</v>
@@ -10633,7 +10721,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -10660,24 +10748,24 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G3" s="6">
         <v>0.5</v>
@@ -10685,41 +10773,41 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G6" s="6">
         <v>0.5</v>
@@ -10728,118 +10816,118 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B10" s="5">
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B11" s="5">
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B12" s="5">
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B13" s="5">
         <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B14" s="7">
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B15" s="7">
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:3">

--- a/excels/config/game/attribute_config.xlsx
+++ b/excels/config/game/attribute_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="attribute_const" sheetId="6" r:id="rId1"/>
@@ -962,7 +962,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -994,12 +994,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1601,7 +1595,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1625,16 +1619,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1643,85 +1637,85 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1843,13 +1837,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -3099,16 +3093,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="8" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6EB98CFE-DBCC-467F-8F01-61B30A4AA18E}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9BC39485-5459-44E9-BBC9-367A6A028486}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{6B4997DC-56CB-4B17-99BC-EAD901D07B63}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{720AA781-51F5-4A7B-A1F2-D7A586926579}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{918EBCED-18A3-4E45-90E3-7563B3E9F20A}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{AF15D366-EA08-4E45-ACCE-B222F8B2DCD1}">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="totalRow" dxfId="12"/>
@@ -3120,7 +3114,7 @@
       <tableStyleElement type="firstTotalCell" dxfId="6"/>
       <tableStyleElement type="lastTotalCell" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{D39644E8-2C99-462B-99D6-3A48530E2A58}">
+    <tableStyle name="浅色系标题行表格样式_f12c7e" count="10" xr9:uid="{F4990C0D-6037-435E-A041-C40F02549623}">
       <tableStyleElement type="wholeTable" dxfId="24"/>
       <tableStyleElement type="headerRow" dxfId="23"/>
       <tableStyleElement type="totalRow" dxfId="22"/>
@@ -3132,14 +3126,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="16"/>
       <tableStyleElement type="lastTotalCell" dxfId="15"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{FD11085F-6507-49E3-949E-7DA261AAC2EB}">
+    <tableStyle name="渐变色标题行表格样式_e76e80" count="5" xr9:uid="{E871D3FE-8841-4683-AD4F-C56A0338CBC7}">
       <tableStyleElement type="wholeTable" dxfId="29"/>
       <tableStyleElement type="headerRow" dxfId="28"/>
       <tableStyleElement type="totalRow" dxfId="27"/>
       <tableStyleElement type="firstColumn" dxfId="26"/>
       <tableStyleElement type="lastColumn" dxfId="25"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{0BBD89D4-A9EF-4A7E-95C2-4667A3AD7B21}">
+    <tableStyle name="浅色系标题行表格样式_5f7760" count="10" xr9:uid="{B74E2BC8-45C4-4976-930B-ADE1E3C4DE87}">
       <tableStyleElement type="wholeTable" dxfId="39"/>
       <tableStyleElement type="headerRow" dxfId="38"/>
       <tableStyleElement type="totalRow" dxfId="37"/>
@@ -3151,14 +3145,14 @@
       <tableStyleElement type="firstTotalCell" dxfId="31"/>
       <tableStyleElement type="lastTotalCell" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{2161488E-CC47-4A54-981A-810E534B563D}">
+    <tableStyle name="渐变色标题行表格样式_7d397c" count="5" xr9:uid="{FAAA4A74-5321-4B84-9E92-135620481C0C}">
       <tableStyleElement type="wholeTable" dxfId="44"/>
       <tableStyleElement type="headerRow" dxfId="43"/>
       <tableStyleElement type="totalRow" dxfId="42"/>
       <tableStyleElement type="firstColumn" dxfId="41"/>
       <tableStyleElement type="lastColumn" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{01C18274-3779-44BC-A434-6D4AA589F1EE}">
+    <tableStyle name="渐变色标题行表格样式_bcc627" count="5" xr9:uid="{A7623FF8-3146-42AD-A8DC-15ED9164F7C5}">
       <tableStyleElement type="wholeTable" dxfId="49"/>
       <tableStyleElement type="headerRow" dxfId="48"/>
       <tableStyleElement type="totalRow" dxfId="47"/>
@@ -3469,8 +3463,8 @@
   <sheetPr/>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4596,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="20"/>
     </row>
